--- a/BackTest/2020-01-19 BackTest OCN.xlsx
+++ b/BackTest/2020-01-19 BackTest OCN.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M127"/>
+  <dimension ref="A1:M128"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -433,22 +433,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.5062</v>
+        <v>0.5077</v>
       </c>
       <c r="C2" t="n">
-        <v>0.5054</v>
+        <v>0.5001</v>
       </c>
       <c r="D2" t="n">
-        <v>0.5062</v>
+        <v>0.5077</v>
       </c>
       <c r="E2" t="n">
-        <v>0.5054</v>
+        <v>0.5001</v>
       </c>
       <c r="F2" t="n">
-        <v>224517.9086</v>
+        <v>1732591.3175</v>
       </c>
       <c r="G2" t="n">
-        <v>0.514811666666667</v>
+        <v>0.5150183333333337</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.525</v>
+        <v>0.5062</v>
       </c>
       <c r="C3" t="n">
-        <v>0.525</v>
+        <v>0.5054</v>
       </c>
       <c r="D3" t="n">
-        <v>0.525</v>
+        <v>0.5062</v>
       </c>
       <c r="E3" t="n">
-        <v>0.525</v>
+        <v>0.5054</v>
       </c>
       <c r="F3" t="n">
-        <v>980</v>
+        <v>224517.9086</v>
       </c>
       <c r="G3" t="n">
-        <v>0.514931666666667</v>
+        <v>0.514811666666667</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -503,22 +503,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.51</v>
+        <v>0.525</v>
       </c>
       <c r="C4" t="n">
-        <v>0.505</v>
+        <v>0.525</v>
       </c>
       <c r="D4" t="n">
-        <v>0.51</v>
+        <v>0.525</v>
       </c>
       <c r="E4" t="n">
-        <v>0.505</v>
+        <v>0.525</v>
       </c>
       <c r="F4" t="n">
-        <v>128294.3735</v>
+        <v>980</v>
       </c>
       <c r="G4" t="n">
-        <v>0.5148850000000003</v>
+        <v>0.514931666666667</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -538,22 +538,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.5041</v>
+        <v>0.51</v>
       </c>
       <c r="C5" t="n">
-        <v>0.486</v>
+        <v>0.505</v>
       </c>
       <c r="D5" t="n">
-        <v>0.5041</v>
+        <v>0.51</v>
       </c>
       <c r="E5" t="n">
-        <v>0.4859</v>
+        <v>0.505</v>
       </c>
       <c r="F5" t="n">
-        <v>535854.42</v>
+        <v>128294.3735</v>
       </c>
       <c r="G5" t="n">
-        <v>0.5145200000000003</v>
+        <v>0.5148850000000003</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -573,22 +573,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.4997</v>
+        <v>0.5041</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5</v>
+        <v>0.486</v>
       </c>
       <c r="D6" t="n">
-        <v>0.5</v>
+        <v>0.5041</v>
       </c>
       <c r="E6" t="n">
-        <v>0.4997</v>
+        <v>0.4859</v>
       </c>
       <c r="F6" t="n">
-        <v>536639.1271</v>
+        <v>535854.42</v>
       </c>
       <c r="G6" t="n">
-        <v>0.514386666666667</v>
+        <v>0.5145200000000003</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -608,22 +608,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.4961</v>
+        <v>0.4997</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4961</v>
+        <v>0.5</v>
       </c>
       <c r="D7" t="n">
-        <v>0.4962</v>
+        <v>0.5</v>
       </c>
       <c r="E7" t="n">
-        <v>0.4961</v>
+        <v>0.4997</v>
       </c>
       <c r="F7" t="n">
-        <v>803974.58</v>
+        <v>536639.1271</v>
       </c>
       <c r="G7" t="n">
-        <v>0.514186666666667</v>
+        <v>0.514386666666667</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -649,16 +649,16 @@
         <v>0.4961</v>
       </c>
       <c r="D8" t="n">
-        <v>0.4961</v>
+        <v>0.4962</v>
       </c>
       <c r="E8" t="n">
         <v>0.4961</v>
       </c>
       <c r="F8" t="n">
-        <v>47540.74</v>
+        <v>803974.58</v>
       </c>
       <c r="G8" t="n">
-        <v>0.5138183333333336</v>
+        <v>0.514186666666667</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -690,10 +690,10 @@
         <v>0.4961</v>
       </c>
       <c r="F9" t="n">
-        <v>71.3139</v>
+        <v>47540.74</v>
       </c>
       <c r="G9" t="n">
-        <v>0.5134500000000003</v>
+        <v>0.5138183333333336</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -713,22 +713,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0.4859</v>
+        <v>0.4961</v>
       </c>
       <c r="C10" t="n">
-        <v>0.4859</v>
+        <v>0.4961</v>
       </c>
       <c r="D10" t="n">
-        <v>0.4859</v>
+        <v>0.4961</v>
       </c>
       <c r="E10" t="n">
-        <v>0.4859</v>
+        <v>0.4961</v>
       </c>
       <c r="F10" t="n">
-        <v>217492.4796</v>
+        <v>71.3139</v>
       </c>
       <c r="G10" t="n">
-        <v>0.512911666666667</v>
+        <v>0.5134500000000003</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -760,10 +760,10 @@
         <v>0.4859</v>
       </c>
       <c r="F11" t="n">
-        <v>142525.8128</v>
+        <v>217492.4796</v>
       </c>
       <c r="G11" t="n">
-        <v>0.5123733333333337</v>
+        <v>0.512911666666667</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -783,22 +783,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>0.4858</v>
+        <v>0.4859</v>
       </c>
       <c r="C12" t="n">
-        <v>0.4839</v>
+        <v>0.4859</v>
       </c>
       <c r="D12" t="n">
-        <v>0.4858</v>
+        <v>0.4859</v>
       </c>
       <c r="E12" t="n">
-        <v>0.4839</v>
+        <v>0.4859</v>
       </c>
       <c r="F12" t="n">
-        <v>99925.11</v>
+        <v>142525.8128</v>
       </c>
       <c r="G12" t="n">
-        <v>0.5118000000000003</v>
+        <v>0.5123733333333337</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -818,22 +818,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>0.4839</v>
+        <v>0.4858</v>
       </c>
       <c r="C13" t="n">
         <v>0.4839</v>
       </c>
       <c r="D13" t="n">
-        <v>0.4839</v>
+        <v>0.4858</v>
       </c>
       <c r="E13" t="n">
         <v>0.4839</v>
       </c>
       <c r="F13" t="n">
-        <v>494668.99</v>
+        <v>99925.11</v>
       </c>
       <c r="G13" t="n">
-        <v>0.5112266666666669</v>
+        <v>0.5118000000000003</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -856,19 +856,19 @@
         <v>0.4839</v>
       </c>
       <c r="C14" t="n">
-        <v>0.4716</v>
+        <v>0.4839</v>
       </c>
       <c r="D14" t="n">
         <v>0.4839</v>
       </c>
       <c r="E14" t="n">
-        <v>0.4716</v>
+        <v>0.4839</v>
       </c>
       <c r="F14" t="n">
-        <v>25000</v>
+        <v>494668.99</v>
       </c>
       <c r="G14" t="n">
-        <v>0.5104483333333335</v>
+        <v>0.5112266666666669</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -888,22 +888,22 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>0.4731</v>
+        <v>0.4839</v>
       </c>
       <c r="C15" t="n">
-        <v>0.473</v>
+        <v>0.4716</v>
       </c>
       <c r="D15" t="n">
-        <v>0.4731</v>
+        <v>0.4839</v>
       </c>
       <c r="E15" t="n">
-        <v>0.473</v>
+        <v>0.4716</v>
       </c>
       <c r="F15" t="n">
-        <v>751534.9832</v>
+        <v>25000</v>
       </c>
       <c r="G15" t="n">
-        <v>0.5096933333333336</v>
+        <v>0.5104483333333335</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -923,22 +923,22 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>0.4859</v>
+        <v>0.4731</v>
       </c>
       <c r="C16" t="n">
-        <v>0.4859</v>
+        <v>0.473</v>
       </c>
       <c r="D16" t="n">
-        <v>0.4859</v>
+        <v>0.4731</v>
       </c>
       <c r="E16" t="n">
-        <v>0.4859</v>
+        <v>0.473</v>
       </c>
       <c r="F16" t="n">
-        <v>224520</v>
+        <v>751534.9832</v>
       </c>
       <c r="G16" t="n">
-        <v>0.5091533333333336</v>
+        <v>0.5096933333333336</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -958,22 +958,22 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>0.4957</v>
+        <v>0.4859</v>
       </c>
       <c r="C17" t="n">
-        <v>0.4957</v>
+        <v>0.4859</v>
       </c>
       <c r="D17" t="n">
-        <v>0.4957</v>
+        <v>0.4859</v>
       </c>
       <c r="E17" t="n">
-        <v>0.4957</v>
+        <v>0.4859</v>
       </c>
       <c r="F17" t="n">
-        <v>4524.914262658866</v>
+        <v>224520</v>
       </c>
       <c r="G17" t="n">
-        <v>0.5087766666666669</v>
+        <v>0.5091533333333336</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -993,22 +993,22 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>0.4955</v>
+        <v>0.4957</v>
       </c>
       <c r="C18" t="n">
-        <v>0.4955</v>
+        <v>0.4957</v>
       </c>
       <c r="D18" t="n">
-        <v>0.4955</v>
+        <v>0.4957</v>
       </c>
       <c r="E18" t="n">
-        <v>0.4955</v>
+        <v>0.4957</v>
       </c>
       <c r="F18" t="n">
-        <v>60567.3505</v>
+        <v>4524.914262658866</v>
       </c>
       <c r="G18" t="n">
-        <v>0.5085350000000002</v>
+        <v>0.5087766666666669</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1028,22 +1028,22 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>0.4951</v>
+        <v>0.4955</v>
       </c>
       <c r="C19" t="n">
-        <v>0.4951</v>
+        <v>0.4955</v>
       </c>
       <c r="D19" t="n">
-        <v>0.4951</v>
+        <v>0.4955</v>
       </c>
       <c r="E19" t="n">
-        <v>0.4951</v>
+        <v>0.4955</v>
       </c>
       <c r="F19" t="n">
-        <v>60618.2987</v>
+        <v>60567.3505</v>
       </c>
       <c r="G19" t="n">
-        <v>0.5081483333333335</v>
+        <v>0.5085350000000002</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1063,22 +1063,22 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>0.4901</v>
+        <v>0.4951</v>
       </c>
       <c r="C20" t="n">
-        <v>0.4901</v>
+        <v>0.4951</v>
       </c>
       <c r="D20" t="n">
-        <v>0.4901</v>
+        <v>0.4951</v>
       </c>
       <c r="E20" t="n">
-        <v>0.4901</v>
+        <v>0.4951</v>
       </c>
       <c r="F20" t="n">
-        <v>60610</v>
+        <v>60618.2987</v>
       </c>
       <c r="G20" t="n">
-        <v>0.5076783333333336</v>
+        <v>0.5081483333333335</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1098,22 +1098,22 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>0.4898</v>
+        <v>0.4901</v>
       </c>
       <c r="C21" t="n">
-        <v>0.4952</v>
+        <v>0.4901</v>
       </c>
       <c r="D21" t="n">
-        <v>0.4952</v>
+        <v>0.4901</v>
       </c>
       <c r="E21" t="n">
-        <v>0.4898</v>
+        <v>0.4901</v>
       </c>
       <c r="F21" t="n">
-        <v>115792</v>
+        <v>60610</v>
       </c>
       <c r="G21" t="n">
-        <v>0.5072950000000003</v>
+        <v>0.5076783333333336</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1133,22 +1133,22 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>0.4961</v>
+        <v>0.4898</v>
       </c>
       <c r="C22" t="n">
-        <v>0.4999</v>
+        <v>0.4952</v>
       </c>
       <c r="D22" t="n">
-        <v>0.4999</v>
+        <v>0.4952</v>
       </c>
       <c r="E22" t="n">
-        <v>0.4961</v>
+        <v>0.4898</v>
       </c>
       <c r="F22" t="n">
-        <v>1377036.0535</v>
+        <v>115792</v>
       </c>
       <c r="G22" t="n">
-        <v>0.5069900000000003</v>
+        <v>0.5072950000000003</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1168,7 +1168,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>0.4999</v>
+        <v>0.4961</v>
       </c>
       <c r="C23" t="n">
         <v>0.4999</v>
@@ -1177,13 +1177,13 @@
         <v>0.4999</v>
       </c>
       <c r="E23" t="n">
-        <v>0.4999</v>
+        <v>0.4961</v>
       </c>
       <c r="F23" t="n">
-        <v>35710</v>
+        <v>1377036.0535</v>
       </c>
       <c r="G23" t="n">
-        <v>0.5066783333333336</v>
+        <v>0.5069900000000003</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1203,22 +1203,22 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>0.4962</v>
+        <v>0.4999</v>
       </c>
       <c r="C24" t="n">
-        <v>0.4961</v>
+        <v>0.4999</v>
       </c>
       <c r="D24" t="n">
-        <v>0.4962</v>
+        <v>0.4999</v>
       </c>
       <c r="E24" t="n">
-        <v>0.4961</v>
+        <v>0.4999</v>
       </c>
       <c r="F24" t="n">
-        <v>3938084.1993</v>
+        <v>35710</v>
       </c>
       <c r="G24" t="n">
-        <v>0.5063183333333335</v>
+        <v>0.5066783333333336</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1238,22 +1238,22 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
+        <v>0.4962</v>
+      </c>
+      <c r="C25" t="n">
         <v>0.4961</v>
       </c>
-      <c r="C25" t="n">
-        <v>0.4999</v>
-      </c>
       <c r="D25" t="n">
-        <v>0.4999</v>
+        <v>0.4962</v>
       </c>
       <c r="E25" t="n">
         <v>0.4961</v>
       </c>
       <c r="F25" t="n">
-        <v>1480606.6473</v>
+        <v>3938084.1993</v>
       </c>
       <c r="G25" t="n">
-        <v>0.5060216666666668</v>
+        <v>0.5063183333333335</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1273,22 +1273,22 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>0.4863</v>
+        <v>0.4961</v>
       </c>
       <c r="C26" t="n">
-        <v>0.4863</v>
+        <v>0.4999</v>
       </c>
       <c r="D26" t="n">
-        <v>0.4863</v>
+        <v>0.4999</v>
       </c>
       <c r="E26" t="n">
-        <v>0.4863</v>
+        <v>0.4961</v>
       </c>
       <c r="F26" t="n">
-        <v>1213563.3225</v>
+        <v>1480606.6473</v>
       </c>
       <c r="G26" t="n">
-        <v>0.5056583333333335</v>
+        <v>0.5060216666666668</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1311,19 +1311,19 @@
         <v>0.4863</v>
       </c>
       <c r="C27" t="n">
-        <v>0.4997</v>
+        <v>0.4863</v>
       </c>
       <c r="D27" t="n">
-        <v>0.4998</v>
+        <v>0.4863</v>
       </c>
       <c r="E27" t="n">
         <v>0.4863</v>
       </c>
       <c r="F27" t="n">
-        <v>1980591.6618</v>
+        <v>1213563.3225</v>
       </c>
       <c r="G27" t="n">
-        <v>0.5053483333333335</v>
+        <v>0.5056583333333335</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1343,22 +1343,22 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>0.4964</v>
+        <v>0.4863</v>
       </c>
       <c r="C28" t="n">
-        <v>0.4964</v>
+        <v>0.4997</v>
       </c>
       <c r="D28" t="n">
-        <v>0.4964</v>
+        <v>0.4998</v>
       </c>
       <c r="E28" t="n">
-        <v>0.4964</v>
+        <v>0.4863</v>
       </c>
       <c r="F28" t="n">
-        <v>73999.5683</v>
+        <v>1980591.6618</v>
       </c>
       <c r="G28" t="n">
-        <v>0.5049750000000003</v>
+        <v>0.5053483333333335</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1378,22 +1378,22 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>0.4963</v>
+        <v>0.4964</v>
       </c>
       <c r="C29" t="n">
-        <v>0.4963</v>
+        <v>0.4964</v>
       </c>
       <c r="D29" t="n">
-        <v>0.4963</v>
+        <v>0.4964</v>
       </c>
       <c r="E29" t="n">
-        <v>0.4963</v>
+        <v>0.4964</v>
       </c>
       <c r="F29" t="n">
-        <v>4524.39</v>
+        <v>73999.5683</v>
       </c>
       <c r="G29" t="n">
-        <v>0.5047683333333336</v>
+        <v>0.5049750000000003</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1413,22 +1413,22 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>0.4996</v>
+        <v>0.4963</v>
       </c>
       <c r="C30" t="n">
-        <v>0.4996</v>
+        <v>0.4963</v>
       </c>
       <c r="D30" t="n">
-        <v>0.4996</v>
+        <v>0.4963</v>
       </c>
       <c r="E30" t="n">
-        <v>0.4996</v>
+        <v>0.4963</v>
       </c>
       <c r="F30" t="n">
-        <v>2857.7874</v>
+        <v>4524.39</v>
       </c>
       <c r="G30" t="n">
-        <v>0.5044550000000003</v>
+        <v>0.5047683333333336</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1448,22 +1448,22 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>0.4963</v>
+        <v>0.4996</v>
       </c>
       <c r="C31" t="n">
-        <v>0.4963</v>
+        <v>0.4996</v>
       </c>
       <c r="D31" t="n">
-        <v>0.4963</v>
+        <v>0.4996</v>
       </c>
       <c r="E31" t="n">
-        <v>0.4963</v>
+        <v>0.4996</v>
       </c>
       <c r="F31" t="n">
-        <v>20285.61</v>
+        <v>2857.7874</v>
       </c>
       <c r="G31" t="n">
-        <v>0.5040900000000003</v>
+        <v>0.5044550000000003</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1483,22 +1483,22 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>0.4863</v>
+        <v>0.4963</v>
       </c>
       <c r="C32" t="n">
-        <v>0.4992</v>
+        <v>0.4963</v>
       </c>
       <c r="D32" t="n">
-        <v>0.4993</v>
+        <v>0.4963</v>
       </c>
       <c r="E32" t="n">
-        <v>0.4863</v>
+        <v>0.4963</v>
       </c>
       <c r="F32" t="n">
-        <v>387026.9429</v>
+        <v>20285.61</v>
       </c>
       <c r="G32" t="n">
-        <v>0.5037816666666669</v>
+        <v>0.5040900000000003</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1518,22 +1518,22 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>0.4988</v>
+        <v>0.4863</v>
       </c>
       <c r="C33" t="n">
-        <v>0.4988</v>
+        <v>0.4992</v>
       </c>
       <c r="D33" t="n">
-        <v>0.4988</v>
+        <v>0.4993</v>
       </c>
       <c r="E33" t="n">
-        <v>0.4988</v>
+        <v>0.4863</v>
       </c>
       <c r="F33" t="n">
-        <v>4987.0712</v>
+        <v>387026.9429</v>
       </c>
       <c r="G33" t="n">
-        <v>0.5034600000000002</v>
+        <v>0.5037816666666669</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1553,7 +1553,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>0.4868</v>
+        <v>0.4988</v>
       </c>
       <c r="C34" t="n">
         <v>0.4988</v>
@@ -1562,13 +1562,13 @@
         <v>0.4988</v>
       </c>
       <c r="E34" t="n">
-        <v>0.4867</v>
+        <v>0.4988</v>
       </c>
       <c r="F34" t="n">
-        <v>565944.7037</v>
+        <v>4987.0712</v>
       </c>
       <c r="G34" t="n">
-        <v>0.5031066666666669</v>
+        <v>0.5034600000000002</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1588,22 +1588,22 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>0.4961</v>
+        <v>0.4868</v>
       </c>
       <c r="C35" t="n">
-        <v>0.4961</v>
+        <v>0.4988</v>
       </c>
       <c r="D35" t="n">
-        <v>0.4961</v>
+        <v>0.4988</v>
       </c>
       <c r="E35" t="n">
-        <v>0.4961</v>
+        <v>0.4867</v>
       </c>
       <c r="F35" t="n">
-        <v>212470</v>
+        <v>565944.7037</v>
       </c>
       <c r="G35" t="n">
-        <v>0.5027083333333335</v>
+        <v>0.5031066666666669</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1623,22 +1623,22 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>0.4987</v>
+        <v>0.4961</v>
       </c>
       <c r="C36" t="n">
-        <v>0.4987</v>
+        <v>0.4961</v>
       </c>
       <c r="D36" t="n">
-        <v>0.4987</v>
+        <v>0.4961</v>
       </c>
       <c r="E36" t="n">
-        <v>0.4987</v>
+        <v>0.4961</v>
       </c>
       <c r="F36" t="n">
-        <v>1201</v>
+        <v>212470</v>
       </c>
       <c r="G36" t="n">
-        <v>0.5023883333333335</v>
+        <v>0.5027083333333335</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1658,22 +1658,22 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>0.4863</v>
+        <v>0.4987</v>
       </c>
       <c r="C37" t="n">
-        <v>0.4864</v>
+        <v>0.4987</v>
       </c>
       <c r="D37" t="n">
         <v>0.4987</v>
       </c>
       <c r="E37" t="n">
-        <v>0.4863</v>
+        <v>0.4987</v>
       </c>
       <c r="F37" t="n">
-        <v>8284</v>
+        <v>1201</v>
       </c>
       <c r="G37" t="n">
-        <v>0.5018650000000001</v>
+        <v>0.5023883333333335</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1693,22 +1693,22 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>0.4867</v>
+        <v>0.4863</v>
       </c>
       <c r="C38" t="n">
-        <v>0.4987</v>
+        <v>0.4864</v>
       </c>
       <c r="D38" t="n">
         <v>0.4987</v>
       </c>
       <c r="E38" t="n">
-        <v>0.4867</v>
+        <v>0.4863</v>
       </c>
       <c r="F38" t="n">
-        <v>1087507.1756</v>
+        <v>8284</v>
       </c>
       <c r="G38" t="n">
-        <v>0.5016750000000001</v>
+        <v>0.5018650000000001</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1728,22 +1728,22 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>0.4871</v>
+        <v>0.4867</v>
       </c>
       <c r="C39" t="n">
-        <v>0.4871</v>
+        <v>0.4987</v>
       </c>
       <c r="D39" t="n">
-        <v>0.4871</v>
+        <v>0.4987</v>
       </c>
       <c r="E39" t="n">
-        <v>0.4871</v>
+        <v>0.4867</v>
       </c>
       <c r="F39" t="n">
-        <v>3636</v>
+        <v>1087507.1756</v>
       </c>
       <c r="G39" t="n">
-        <v>0.5011716666666668</v>
+        <v>0.5016750000000001</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1778,7 +1778,7 @@
         <v>3636</v>
       </c>
       <c r="G40" t="n">
-        <v>0.5007900000000002</v>
+        <v>0.5011716666666668</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1798,22 +1798,22 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>0.487</v>
+        <v>0.4871</v>
       </c>
       <c r="C41" t="n">
-        <v>0.4985</v>
+        <v>0.4871</v>
       </c>
       <c r="D41" t="n">
-        <v>0.4987</v>
+        <v>0.4871</v>
       </c>
       <c r="E41" t="n">
-        <v>0.487</v>
+        <v>0.4871</v>
       </c>
       <c r="F41" t="n">
-        <v>2009402.8691</v>
+        <v>3636</v>
       </c>
       <c r="G41" t="n">
-        <v>0.5004766666666669</v>
+        <v>0.5007900000000002</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1833,22 +1833,22 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>0.4886</v>
+        <v>0.487</v>
       </c>
       <c r="C42" t="n">
-        <v>0.4986</v>
+        <v>0.4985</v>
       </c>
       <c r="D42" t="n">
-        <v>0.4986</v>
+        <v>0.4987</v>
       </c>
       <c r="E42" t="n">
-        <v>0.4885</v>
+        <v>0.487</v>
       </c>
       <c r="F42" t="n">
-        <v>169350.7744</v>
+        <v>2009402.8691</v>
       </c>
       <c r="G42" t="n">
-        <v>0.5001716666666669</v>
+        <v>0.5004766666666669</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1871,19 +1871,19 @@
         <v>0.4886</v>
       </c>
       <c r="C43" t="n">
-        <v>0.4886</v>
+        <v>0.4986</v>
       </c>
       <c r="D43" t="n">
-        <v>0.4886</v>
+        <v>0.4986</v>
       </c>
       <c r="E43" t="n">
-        <v>0.4886</v>
+        <v>0.4885</v>
       </c>
       <c r="F43" t="n">
-        <v>3636</v>
+        <v>169350.7744</v>
       </c>
       <c r="G43" t="n">
-        <v>0.4997016666666669</v>
+        <v>0.5001716666666669</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1903,22 +1903,22 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>0.4984</v>
+        <v>0.4886</v>
       </c>
       <c r="C44" t="n">
-        <v>0.4984</v>
+        <v>0.4886</v>
       </c>
       <c r="D44" t="n">
-        <v>0.4984</v>
+        <v>0.4886</v>
       </c>
       <c r="E44" t="n">
-        <v>0.4984</v>
+        <v>0.4886</v>
       </c>
       <c r="F44" t="n">
-        <v>16399.5508</v>
+        <v>3636</v>
       </c>
       <c r="G44" t="n">
-        <v>0.4995083333333336</v>
+        <v>0.4997016666666669</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1941,19 +1941,19 @@
         <v>0.4984</v>
       </c>
       <c r="C45" t="n">
-        <v>0.4909</v>
+        <v>0.4984</v>
       </c>
       <c r="D45" t="n">
         <v>0.4984</v>
       </c>
       <c r="E45" t="n">
-        <v>0.4909</v>
+        <v>0.4984</v>
       </c>
       <c r="F45" t="n">
-        <v>174860.6951</v>
+        <v>16399.5508</v>
       </c>
       <c r="G45" t="n">
-        <v>0.4990750000000002</v>
+        <v>0.4995083333333336</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -1973,22 +1973,22 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
+        <v>0.4984</v>
+      </c>
+      <c r="C46" t="n">
         <v>0.4909</v>
       </c>
-      <c r="C46" t="n">
-        <v>0.4886</v>
-      </c>
       <c r="D46" t="n">
+        <v>0.4984</v>
+      </c>
+      <c r="E46" t="n">
         <v>0.4909</v>
       </c>
-      <c r="E46" t="n">
-        <v>0.4886</v>
-      </c>
       <c r="F46" t="n">
-        <v>5364.5936</v>
+        <v>174860.6951</v>
       </c>
       <c r="G46" t="n">
-        <v>0.4987183333333335</v>
+        <v>0.4990750000000002</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2008,22 +2008,22 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>0.4984</v>
+        <v>0.4909</v>
       </c>
       <c r="C47" t="n">
-        <v>0.4984</v>
+        <v>0.4886</v>
       </c>
       <c r="D47" t="n">
-        <v>0.4984</v>
+        <v>0.4909</v>
       </c>
       <c r="E47" t="n">
-        <v>0.4984</v>
+        <v>0.4886</v>
       </c>
       <c r="F47" t="n">
-        <v>1500</v>
+        <v>5364.5936</v>
       </c>
       <c r="G47" t="n">
-        <v>0.4984116666666669</v>
+        <v>0.4987183333333335</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2043,7 +2043,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>0.4909</v>
+        <v>0.4984</v>
       </c>
       <c r="C48" t="n">
         <v>0.4984</v>
@@ -2052,13 +2052,13 @@
         <v>0.4984</v>
       </c>
       <c r="E48" t="n">
-        <v>0.4859</v>
+        <v>0.4984</v>
       </c>
       <c r="F48" t="n">
-        <v>551297.7645</v>
+        <v>1500</v>
       </c>
       <c r="G48" t="n">
-        <v>0.4982183333333335</v>
+        <v>0.4984116666666669</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2078,7 +2078,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>0.4984</v>
+        <v>0.4909</v>
       </c>
       <c r="C49" t="n">
         <v>0.4984</v>
@@ -2087,13 +2087,13 @@
         <v>0.4984</v>
       </c>
       <c r="E49" t="n">
-        <v>0.4984</v>
+        <v>0.4859</v>
       </c>
       <c r="F49" t="n">
-        <v>2049940.698</v>
+        <v>551297.7645</v>
       </c>
       <c r="G49" t="n">
-        <v>0.4980250000000002</v>
+        <v>0.4982183333333335</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2113,22 +2113,22 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>0.4883</v>
+        <v>0.4984</v>
       </c>
       <c r="C50" t="n">
-        <v>0.4883</v>
+        <v>0.4984</v>
       </c>
       <c r="D50" t="n">
-        <v>0.4883</v>
+        <v>0.4984</v>
       </c>
       <c r="E50" t="n">
-        <v>0.4883</v>
+        <v>0.4984</v>
       </c>
       <c r="F50" t="n">
-        <v>131242.7691</v>
+        <v>2049940.698</v>
       </c>
       <c r="G50" t="n">
-        <v>0.4976633333333335</v>
+        <v>0.4980250000000002</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2151,19 +2151,19 @@
         <v>0.4883</v>
       </c>
       <c r="C51" t="n">
-        <v>0.4859</v>
+        <v>0.4883</v>
       </c>
       <c r="D51" t="n">
         <v>0.4883</v>
       </c>
       <c r="E51" t="n">
-        <v>0.4859</v>
+        <v>0.4883</v>
       </c>
       <c r="F51" t="n">
-        <v>1019141.3953</v>
+        <v>131242.7691</v>
       </c>
       <c r="G51" t="n">
-        <v>0.4972816666666668</v>
+        <v>0.4976633333333335</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2183,22 +2183,22 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
+        <v>0.4883</v>
+      </c>
+      <c r="C52" t="n">
         <v>0.4859</v>
       </c>
-      <c r="C52" t="n">
-        <v>0.4784</v>
-      </c>
       <c r="D52" t="n">
+        <v>0.4883</v>
+      </c>
+      <c r="E52" t="n">
         <v>0.4859</v>
       </c>
-      <c r="E52" t="n">
-        <v>0.4784</v>
-      </c>
       <c r="F52" t="n">
-        <v>61093.7803</v>
+        <v>1019141.3953</v>
       </c>
       <c r="G52" t="n">
-        <v>0.4967566666666668</v>
+        <v>0.4972816666666668</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2218,22 +2218,22 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>0.4883</v>
+        <v>0.4859</v>
       </c>
       <c r="C53" t="n">
-        <v>0.4883</v>
+        <v>0.4784</v>
       </c>
       <c r="D53" t="n">
-        <v>0.4883</v>
+        <v>0.4859</v>
       </c>
       <c r="E53" t="n">
-        <v>0.4883</v>
+        <v>0.4784</v>
       </c>
       <c r="F53" t="n">
-        <v>65630</v>
+        <v>61093.7803</v>
       </c>
       <c r="G53" t="n">
-        <v>0.496395</v>
+        <v>0.4967566666666668</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2253,22 +2253,22 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>0.4982</v>
+        <v>0.4883</v>
       </c>
       <c r="C54" t="n">
-        <v>0.4982</v>
+        <v>0.4883</v>
       </c>
       <c r="D54" t="n">
-        <v>0.4982</v>
+        <v>0.4883</v>
       </c>
       <c r="E54" t="n">
-        <v>0.4982</v>
+        <v>0.4883</v>
       </c>
       <c r="F54" t="n">
-        <v>2400</v>
+        <v>65630</v>
       </c>
       <c r="G54" t="n">
-        <v>0.4960800000000001</v>
+        <v>0.496395</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2300,10 +2300,10 @@
         <v>0.4982</v>
       </c>
       <c r="F55" t="n">
-        <v>2660.2902</v>
+        <v>2400</v>
       </c>
       <c r="G55" t="n">
-        <v>0.4957633333333334</v>
+        <v>0.4960800000000001</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2323,7 +2323,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>0.4902</v>
+        <v>0.4982</v>
       </c>
       <c r="C56" t="n">
         <v>0.4982</v>
@@ -2332,13 +2332,13 @@
         <v>0.4982</v>
       </c>
       <c r="E56" t="n">
-        <v>0.4902</v>
+        <v>0.4982</v>
       </c>
       <c r="F56" t="n">
-        <v>8278</v>
+        <v>2660.2902</v>
       </c>
       <c r="G56" t="n">
-        <v>0.4952800000000001</v>
+        <v>0.4957633333333334</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2358,22 +2358,22 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>0.497</v>
+        <v>0.4902</v>
       </c>
       <c r="C57" t="n">
-        <v>0.4903</v>
+        <v>0.4982</v>
       </c>
       <c r="D57" t="n">
-        <v>0.497</v>
+        <v>0.4982</v>
       </c>
       <c r="E57" t="n">
-        <v>0.4903</v>
+        <v>0.4902</v>
       </c>
       <c r="F57" t="n">
-        <v>5453.9414</v>
+        <v>8278</v>
       </c>
       <c r="G57" t="n">
-        <v>0.4948316666666668</v>
+        <v>0.4952800000000001</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2393,22 +2393,22 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>0.4903</v>
+        <v>0.497</v>
       </c>
       <c r="C58" t="n">
         <v>0.4903</v>
       </c>
       <c r="D58" t="n">
-        <v>0.4903</v>
+        <v>0.497</v>
       </c>
       <c r="E58" t="n">
         <v>0.4903</v>
       </c>
       <c r="F58" t="n">
-        <v>1818</v>
+        <v>5453.9414</v>
       </c>
       <c r="G58" t="n">
-        <v>0.4945400000000001</v>
+        <v>0.4948316666666668</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2431,19 +2431,19 @@
         <v>0.4903</v>
       </c>
       <c r="C59" t="n">
-        <v>0.4906</v>
+        <v>0.4903</v>
       </c>
       <c r="D59" t="n">
-        <v>0.4906</v>
+        <v>0.4903</v>
       </c>
       <c r="E59" t="n">
         <v>0.4903</v>
       </c>
       <c r="F59" t="n">
-        <v>150600.57</v>
+        <v>1818</v>
       </c>
       <c r="G59" t="n">
-        <v>0.4941033333333335</v>
+        <v>0.4945400000000001</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2463,22 +2463,22 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>0.4901</v>
+        <v>0.4903</v>
       </c>
       <c r="C60" t="n">
-        <v>0.4809</v>
+        <v>0.4906</v>
       </c>
       <c r="D60" t="n">
-        <v>0.4902</v>
+        <v>0.4906</v>
       </c>
       <c r="E60" t="n">
-        <v>0.4809</v>
+        <v>0.4903</v>
       </c>
       <c r="F60" t="n">
-        <v>88073.8391</v>
+        <v>150600.57</v>
       </c>
       <c r="G60" t="n">
-        <v>0.4936533333333335</v>
+        <v>0.4941033333333335</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2498,22 +2498,22 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
+        <v>0.4901</v>
+      </c>
+      <c r="C61" t="n">
         <v>0.4809</v>
       </c>
-      <c r="C61" t="n">
-        <v>0.4929</v>
-      </c>
       <c r="D61" t="n">
-        <v>0.493</v>
+        <v>0.4902</v>
       </c>
       <c r="E61" t="n">
-        <v>0.4806</v>
+        <v>0.4809</v>
       </c>
       <c r="F61" t="n">
-        <v>4656176.5536</v>
+        <v>88073.8391</v>
       </c>
       <c r="G61" t="n">
-        <v>0.4935333333333335</v>
+        <v>0.4936533333333335</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2533,22 +2533,22 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>0.4876</v>
+        <v>0.4809</v>
       </c>
       <c r="C62" t="n">
-        <v>0.4886</v>
+        <v>0.4929</v>
       </c>
       <c r="D62" t="n">
-        <v>0.4887</v>
+        <v>0.493</v>
       </c>
       <c r="E62" t="n">
-        <v>0.4876</v>
+        <v>0.4806</v>
       </c>
       <c r="F62" t="n">
-        <v>1310194.8078</v>
+        <v>4656176.5536</v>
       </c>
       <c r="G62" t="n">
-        <v>0.4932533333333335</v>
+        <v>0.4935333333333335</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2568,22 +2568,22 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>0.4884</v>
+        <v>0.4876</v>
       </c>
       <c r="C63" t="n">
-        <v>0.4884</v>
+        <v>0.4886</v>
       </c>
       <c r="D63" t="n">
-        <v>0.4884</v>
+        <v>0.4887</v>
       </c>
       <c r="E63" t="n">
-        <v>0.4884</v>
+        <v>0.4876</v>
       </c>
       <c r="F63" t="n">
-        <v>6321</v>
+        <v>1310194.8078</v>
       </c>
       <c r="G63" t="n">
-        <v>0.4926433333333335</v>
+        <v>0.4932533333333335</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2603,22 +2603,22 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>0.4876</v>
+        <v>0.4884</v>
       </c>
       <c r="C64" t="n">
-        <v>0.4876</v>
+        <v>0.4884</v>
       </c>
       <c r="D64" t="n">
-        <v>0.4876</v>
+        <v>0.4884</v>
       </c>
       <c r="E64" t="n">
-        <v>0.4876</v>
+        <v>0.4884</v>
       </c>
       <c r="F64" t="n">
-        <v>43017</v>
+        <v>6321</v>
       </c>
       <c r="G64" t="n">
-        <v>0.4923533333333335</v>
+        <v>0.4926433333333335</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2650,10 +2650,10 @@
         <v>0.4876</v>
       </c>
       <c r="F65" t="n">
-        <v>24315</v>
+        <v>43017</v>
       </c>
       <c r="G65" t="n">
-        <v>0.4923800000000002</v>
+        <v>0.4923533333333335</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2673,22 +2673,22 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>0.4883</v>
+        <v>0.4876</v>
       </c>
       <c r="C66" t="n">
-        <v>0.4945</v>
+        <v>0.4876</v>
       </c>
       <c r="D66" t="n">
-        <v>0.4945</v>
+        <v>0.4876</v>
       </c>
       <c r="E66" t="n">
-        <v>0.4883</v>
+        <v>0.4876</v>
       </c>
       <c r="F66" t="n">
-        <v>230571</v>
+        <v>24315</v>
       </c>
       <c r="G66" t="n">
-        <v>0.4922883333333335</v>
+        <v>0.4923800000000002</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2708,22 +2708,22 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>0.4907</v>
+        <v>0.4883</v>
       </c>
       <c r="C67" t="n">
-        <v>0.4907</v>
+        <v>0.4945</v>
       </c>
       <c r="D67" t="n">
-        <v>0.4907</v>
+        <v>0.4945</v>
       </c>
       <c r="E67" t="n">
-        <v>0.4907</v>
+        <v>0.4883</v>
       </c>
       <c r="F67" t="n">
-        <v>92590</v>
+        <v>230571</v>
       </c>
       <c r="G67" t="n">
-        <v>0.4921983333333335</v>
+        <v>0.4922883333333335</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2743,22 +2743,22 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>0.4876</v>
+        <v>0.4907</v>
       </c>
       <c r="C68" t="n">
-        <v>0.4875</v>
+        <v>0.4907</v>
       </c>
       <c r="D68" t="n">
-        <v>0.4876</v>
+        <v>0.4907</v>
       </c>
       <c r="E68" t="n">
-        <v>0.4839</v>
+        <v>0.4907</v>
       </c>
       <c r="F68" t="n">
-        <v>456923.4114</v>
+        <v>92590</v>
       </c>
       <c r="G68" t="n">
-        <v>0.4920550000000002</v>
+        <v>0.4921983333333335</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2778,22 +2778,22 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>0.4875</v>
+        <v>0.4876</v>
       </c>
       <c r="C69" t="n">
         <v>0.4875</v>
       </c>
       <c r="D69" t="n">
-        <v>0.4875</v>
+        <v>0.4876</v>
       </c>
       <c r="E69" t="n">
-        <v>0.4875</v>
+        <v>0.4839</v>
       </c>
       <c r="F69" t="n">
-        <v>660190.7595</v>
+        <v>456923.4114</v>
       </c>
       <c r="G69" t="n">
-        <v>0.4919116666666669</v>
+        <v>0.4920550000000002</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2813,22 +2813,22 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>0.4874</v>
+        <v>0.4875</v>
       </c>
       <c r="C70" t="n">
-        <v>0.4874</v>
+        <v>0.4875</v>
       </c>
       <c r="D70" t="n">
-        <v>0.4874</v>
+        <v>0.4875</v>
       </c>
       <c r="E70" t="n">
-        <v>0.4833</v>
+        <v>0.4875</v>
       </c>
       <c r="F70" t="n">
-        <v>12098</v>
+        <v>660190.7595</v>
       </c>
       <c r="G70" t="n">
-        <v>0.4919366666666669</v>
+        <v>0.4919116666666669</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2848,22 +2848,22 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>0.4872</v>
+        <v>0.4874</v>
       </c>
       <c r="C71" t="n">
-        <v>0.4875</v>
+        <v>0.4874</v>
       </c>
       <c r="D71" t="n">
-        <v>0.4875</v>
+        <v>0.4874</v>
       </c>
       <c r="E71" t="n">
-        <v>0.4857</v>
+        <v>0.4833</v>
       </c>
       <c r="F71" t="n">
-        <v>160262.7257799671</v>
+        <v>12098</v>
       </c>
       <c r="G71" t="n">
-        <v>0.4919633333333336</v>
+        <v>0.4919366666666669</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2883,7 +2883,7 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>0.4857</v>
+        <v>0.4872</v>
       </c>
       <c r="C72" t="n">
         <v>0.4875</v>
@@ -2895,10 +2895,10 @@
         <v>0.4857</v>
       </c>
       <c r="F72" t="n">
-        <v>134013</v>
+        <v>160262.7257799671</v>
       </c>
       <c r="G72" t="n">
-        <v>0.4920233333333336</v>
+        <v>0.4919633333333336</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -2918,22 +2918,22 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>0.4842</v>
+        <v>0.4857</v>
       </c>
       <c r="C73" t="n">
-        <v>0.4842</v>
+        <v>0.4875</v>
       </c>
       <c r="D73" t="n">
-        <v>0.4842</v>
+        <v>0.4875</v>
       </c>
       <c r="E73" t="n">
-        <v>0.4842</v>
+        <v>0.4857</v>
       </c>
       <c r="F73" t="n">
-        <v>10262.7257</v>
+        <v>134013</v>
       </c>
       <c r="G73" t="n">
-        <v>0.4920283333333337</v>
+        <v>0.4920233333333336</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -2953,22 +2953,22 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>0.4875</v>
+        <v>0.4842</v>
       </c>
       <c r="C74" t="n">
-        <v>0.4875</v>
+        <v>0.4842</v>
       </c>
       <c r="D74" t="n">
-        <v>0.4875</v>
+        <v>0.4842</v>
       </c>
       <c r="E74" t="n">
-        <v>0.4875</v>
+        <v>0.4842</v>
       </c>
       <c r="F74" t="n">
-        <v>8288</v>
+        <v>10262.7257</v>
       </c>
       <c r="G74" t="n">
-        <v>0.4922933333333337</v>
+        <v>0.4920283333333337</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -2988,22 +2988,22 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>0.4874</v>
+        <v>0.4875</v>
       </c>
       <c r="C75" t="n">
-        <v>0.4874</v>
+        <v>0.4875</v>
       </c>
       <c r="D75" t="n">
-        <v>0.4874</v>
+        <v>0.4875</v>
       </c>
       <c r="E75" t="n">
-        <v>0.4874</v>
+        <v>0.4875</v>
       </c>
       <c r="F75" t="n">
-        <v>6035</v>
+        <v>8288</v>
       </c>
       <c r="G75" t="n">
-        <v>0.4925333333333338</v>
+        <v>0.4922933333333337</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3035,10 +3035,10 @@
         <v>0.4874</v>
       </c>
       <c r="F76" t="n">
-        <v>30000</v>
+        <v>6035</v>
       </c>
       <c r="G76" t="n">
-        <v>0.4925583333333338</v>
+        <v>0.4925333333333338</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3058,22 +3058,22 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>0.4875</v>
+        <v>0.4874</v>
       </c>
       <c r="C77" t="n">
         <v>0.4874</v>
       </c>
       <c r="D77" t="n">
-        <v>0.4875</v>
+        <v>0.4874</v>
       </c>
       <c r="E77" t="n">
         <v>0.4874</v>
       </c>
       <c r="F77" t="n">
-        <v>168376.3837</v>
+        <v>30000</v>
       </c>
       <c r="G77" t="n">
-        <v>0.4924200000000004</v>
+        <v>0.4925583333333338</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3093,22 +3093,22 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>0.4873</v>
+        <v>0.4875</v>
       </c>
       <c r="C78" t="n">
-        <v>0.4873</v>
+        <v>0.4874</v>
       </c>
       <c r="D78" t="n">
-        <v>0.4873</v>
+        <v>0.4875</v>
       </c>
       <c r="E78" t="n">
-        <v>0.4873</v>
+        <v>0.4874</v>
       </c>
       <c r="F78" t="n">
-        <v>4961</v>
+        <v>168376.3837</v>
       </c>
       <c r="G78" t="n">
-        <v>0.4922833333333338</v>
+        <v>0.4924200000000004</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3140,10 +3140,10 @@
         <v>0.4873</v>
       </c>
       <c r="F79" t="n">
-        <v>4468</v>
+        <v>4961</v>
       </c>
       <c r="G79" t="n">
-        <v>0.4921533333333338</v>
+        <v>0.4922833333333338</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3175,10 +3175,10 @@
         <v>0.4873</v>
       </c>
       <c r="F80" t="n">
-        <v>2281</v>
+        <v>4468</v>
       </c>
       <c r="G80" t="n">
-        <v>0.4921066666666672</v>
+        <v>0.4921533333333338</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3198,22 +3198,22 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>0.4836</v>
+        <v>0.4873</v>
       </c>
       <c r="C81" t="n">
-        <v>0.4836</v>
+        <v>0.4873</v>
       </c>
       <c r="D81" t="n">
-        <v>0.4836</v>
+        <v>0.4873</v>
       </c>
       <c r="E81" t="n">
-        <v>0.4836</v>
+        <v>0.4873</v>
       </c>
       <c r="F81" t="n">
-        <v>55182</v>
+        <v>2281</v>
       </c>
       <c r="G81" t="n">
-        <v>0.4919133333333338</v>
+        <v>0.4921066666666672</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3236,19 +3236,19 @@
         <v>0.4836</v>
       </c>
       <c r="C82" t="n">
-        <v>0.4837</v>
+        <v>0.4836</v>
       </c>
       <c r="D82" t="n">
-        <v>0.4837</v>
+        <v>0.4836</v>
       </c>
       <c r="E82" t="n">
-        <v>0.4833</v>
+        <v>0.4836</v>
       </c>
       <c r="F82" t="n">
-        <v>162312</v>
+        <v>55182</v>
       </c>
       <c r="G82" t="n">
-        <v>0.4916433333333338</v>
+        <v>0.4919133333333338</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3268,22 +3268,22 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
+        <v>0.4836</v>
+      </c>
+      <c r="C83" t="n">
         <v>0.4837</v>
-      </c>
-      <c r="C83" t="n">
-        <v>0.4831</v>
       </c>
       <c r="D83" t="n">
         <v>0.4837</v>
       </c>
       <c r="E83" t="n">
-        <v>0.4831</v>
+        <v>0.4833</v>
       </c>
       <c r="F83" t="n">
-        <v>366914.4842</v>
+        <v>162312</v>
       </c>
       <c r="G83" t="n">
-        <v>0.4913633333333338</v>
+        <v>0.4916433333333338</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3303,22 +3303,22 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>0.4803</v>
+        <v>0.4837</v>
       </c>
       <c r="C84" t="n">
-        <v>0.4803</v>
+        <v>0.4831</v>
       </c>
       <c r="D84" t="n">
-        <v>0.4803</v>
+        <v>0.4837</v>
       </c>
       <c r="E84" t="n">
-        <v>0.4802</v>
+        <v>0.4831</v>
       </c>
       <c r="F84" t="n">
-        <v>1221593.2844</v>
+        <v>366914.4842</v>
       </c>
       <c r="G84" t="n">
-        <v>0.4911000000000005</v>
+        <v>0.4913633333333338</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3347,13 +3347,13 @@
         <v>0.4803</v>
       </c>
       <c r="E85" t="n">
-        <v>0.4803</v>
+        <v>0.4802</v>
       </c>
       <c r="F85" t="n">
-        <v>330000</v>
+        <v>1221593.2844</v>
       </c>
       <c r="G85" t="n">
-        <v>0.4907733333333338</v>
+        <v>0.4911000000000005</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3373,22 +3373,22 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>0.4802</v>
+        <v>0.4803</v>
       </c>
       <c r="C86" t="n">
-        <v>0.4802</v>
+        <v>0.4803</v>
       </c>
       <c r="D86" t="n">
-        <v>0.4802</v>
+        <v>0.4803</v>
       </c>
       <c r="E86" t="n">
-        <v>0.4802</v>
+        <v>0.4803</v>
       </c>
       <c r="F86" t="n">
-        <v>575206</v>
+        <v>330000</v>
       </c>
       <c r="G86" t="n">
-        <v>0.4906716666666672</v>
+        <v>0.4907733333333338</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3420,10 +3420,10 @@
         <v>0.4802</v>
       </c>
       <c r="F87" t="n">
-        <v>348813.9454</v>
+        <v>575206</v>
       </c>
       <c r="G87" t="n">
-        <v>0.4903466666666672</v>
+        <v>0.4906716666666672</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3443,7 +3443,7 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>0.4801</v>
+        <v>0.4802</v>
       </c>
       <c r="C88" t="n">
         <v>0.4802</v>
@@ -3452,22 +3452,26 @@
         <v>0.4802</v>
       </c>
       <c r="E88" t="n">
-        <v>0.4801</v>
+        <v>0.4802</v>
       </c>
       <c r="F88" t="n">
-        <v>467217.3011</v>
+        <v>348813.9454</v>
       </c>
       <c r="G88" t="n">
-        <v>0.4900766666666671</v>
+        <v>0.4903466666666672</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>0.4802</v>
+      </c>
+      <c r="K88" t="n">
+        <v>0.4802</v>
+      </c>
       <c r="L88" t="inlineStr"/>
       <c r="M88" t="n">
         <v>1</v>
@@ -3478,7 +3482,7 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>0.4802</v>
+        <v>0.4801</v>
       </c>
       <c r="C89" t="n">
         <v>0.4802</v>
@@ -3487,13 +3491,13 @@
         <v>0.4802</v>
       </c>
       <c r="E89" t="n">
-        <v>0.4802</v>
+        <v>0.4801</v>
       </c>
       <c r="F89" t="n">
-        <v>565634.8251</v>
+        <v>467217.3011</v>
       </c>
       <c r="G89" t="n">
-        <v>0.4898083333333337</v>
+        <v>0.4900766666666671</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3502,8 +3506,14 @@
         <v>0</v>
       </c>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>0.4802</v>
+      </c>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M89" t="n">
         <v>1</v>
       </c>
@@ -3525,10 +3535,10 @@
         <v>0.4802</v>
       </c>
       <c r="F90" t="n">
-        <v>34471.1143</v>
+        <v>565634.8251</v>
       </c>
       <c r="G90" t="n">
-        <v>0.4894850000000004</v>
+        <v>0.4898083333333337</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3537,8 +3547,14 @@
         <v>0</v>
       </c>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>0.4802</v>
+      </c>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M90" t="n">
         <v>1</v>
       </c>
@@ -3548,7 +3564,7 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>0.4773</v>
+        <v>0.4802</v>
       </c>
       <c r="C91" t="n">
         <v>0.4802</v>
@@ -3557,13 +3573,13 @@
         <v>0.4802</v>
       </c>
       <c r="E91" t="n">
-        <v>0.4773</v>
+        <v>0.4802</v>
       </c>
       <c r="F91" t="n">
-        <v>616302.8312</v>
+        <v>34471.1143</v>
       </c>
       <c r="G91" t="n">
-        <v>0.489216666666667</v>
+        <v>0.4894850000000004</v>
       </c>
       <c r="H91" t="n">
         <v>1</v>
@@ -3574,10 +3590,12 @@
       <c r="J91" t="n">
         <v>0.4802</v>
       </c>
-      <c r="K91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>0.4802</v>
+      </c>
       <c r="L91" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M91" t="n">
@@ -3589,7 +3607,7 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>0.4802</v>
+        <v>0.4773</v>
       </c>
       <c r="C92" t="n">
         <v>0.4802</v>
@@ -3598,13 +3616,13 @@
         <v>0.4802</v>
       </c>
       <c r="E92" t="n">
-        <v>0.4802</v>
+        <v>0.4773</v>
       </c>
       <c r="F92" t="n">
-        <v>146861.7333</v>
+        <v>616302.8312</v>
       </c>
       <c r="G92" t="n">
-        <v>0.4889000000000004</v>
+        <v>0.489216666666667</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3613,7 +3631,9 @@
         <v>0</v>
       </c>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>0.4802</v>
+      </c>
       <c r="L92" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3628,33 +3648,33 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>0.4884</v>
+        <v>0.4802</v>
       </c>
       <c r="C93" t="n">
-        <v>0.4884</v>
+        <v>0.4802</v>
       </c>
       <c r="D93" t="n">
-        <v>0.4884</v>
+        <v>0.4802</v>
       </c>
       <c r="E93" t="n">
-        <v>0.4884</v>
+        <v>0.4802</v>
       </c>
       <c r="F93" t="n">
-        <v>78154.8015</v>
+        <v>146861.7333</v>
       </c>
       <c r="G93" t="n">
-        <v>0.4887266666666671</v>
+        <v>0.4889000000000004</v>
       </c>
       <c r="H93" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="n">
-        <v>0.4802</v>
-      </c>
-      <c r="K93" t="inlineStr"/>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>0.4802</v>
+      </c>
       <c r="L93" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3669,33 +3689,33 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>0.4877</v>
+        <v>0.4884</v>
       </c>
       <c r="C94" t="n">
-        <v>0.4877</v>
+        <v>0.4884</v>
       </c>
       <c r="D94" t="n">
-        <v>0.4968</v>
+        <v>0.4884</v>
       </c>
       <c r="E94" t="n">
-        <v>0.4877</v>
+        <v>0.4884</v>
       </c>
       <c r="F94" t="n">
-        <v>4642.4413</v>
+        <v>78154.8015</v>
       </c>
       <c r="G94" t="n">
-        <v>0.4885416666666671</v>
+        <v>0.4887266666666671</v>
       </c>
       <c r="H94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="n">
-        <v>0.4884</v>
-      </c>
-      <c r="K94" t="inlineStr"/>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>0.4802</v>
+      </c>
       <c r="L94" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3710,22 +3730,22 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>0.4882</v>
+        <v>0.4877</v>
       </c>
       <c r="C95" t="n">
-        <v>0.4802</v>
+        <v>0.4877</v>
       </c>
       <c r="D95" t="n">
-        <v>0.4882</v>
+        <v>0.4968</v>
       </c>
       <c r="E95" t="n">
-        <v>0.4802</v>
+        <v>0.4877</v>
       </c>
       <c r="F95" t="n">
-        <v>1069127.5347</v>
+        <v>4642.4413</v>
       </c>
       <c r="G95" t="n">
-        <v>0.4882766666666671</v>
+        <v>0.4885416666666671</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3734,7 +3754,9 @@
         <v>0</v>
       </c>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>0.4802</v>
+      </c>
       <c r="L95" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3749,22 +3771,22 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>0.4881</v>
+        <v>0.4882</v>
       </c>
       <c r="C96" t="n">
-        <v>0.4882</v>
+        <v>0.4802</v>
       </c>
       <c r="D96" t="n">
         <v>0.4882</v>
       </c>
       <c r="E96" t="n">
-        <v>0.4881</v>
+        <v>0.4802</v>
       </c>
       <c r="F96" t="n">
-        <v>187069.8219</v>
+        <v>1069127.5347</v>
       </c>
       <c r="G96" t="n">
-        <v>0.4881016666666671</v>
+        <v>0.4882766666666671</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3773,7 +3795,9 @@
         <v>0</v>
       </c>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>0.4802</v>
+      </c>
       <c r="L96" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3791,19 +3815,19 @@
         <v>0.4881</v>
       </c>
       <c r="C97" t="n">
-        <v>0.4871</v>
+        <v>0.4882</v>
       </c>
       <c r="D97" t="n">
-        <v>0.4884</v>
+        <v>0.4882</v>
       </c>
       <c r="E97" t="n">
-        <v>0.4871</v>
+        <v>0.4881</v>
       </c>
       <c r="F97" t="n">
-        <v>422489.5371</v>
+        <v>187069.8219</v>
       </c>
       <c r="G97" t="n">
-        <v>0.4881133333333338</v>
+        <v>0.4881016666666671</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -3812,7 +3836,9 @@
         <v>0</v>
       </c>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>0.4802</v>
+      </c>
       <c r="L97" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3827,22 +3853,22 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>0.4884</v>
+        <v>0.4881</v>
       </c>
       <c r="C98" t="n">
-        <v>0.4884</v>
+        <v>0.4871</v>
       </c>
       <c r="D98" t="n">
         <v>0.4884</v>
       </c>
       <c r="E98" t="n">
-        <v>0.4884</v>
+        <v>0.4871</v>
       </c>
       <c r="F98" t="n">
-        <v>1818</v>
+        <v>422489.5371</v>
       </c>
       <c r="G98" t="n">
-        <v>0.4879416666666671</v>
+        <v>0.4881133333333338</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -3851,7 +3877,9 @@
         <v>0</v>
       </c>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>0.4802</v>
+      </c>
       <c r="L98" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3866,19 +3894,19 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>0.4871</v>
+        <v>0.4884</v>
       </c>
       <c r="C99" t="n">
-        <v>0.4871</v>
+        <v>0.4884</v>
       </c>
       <c r="D99" t="n">
-        <v>0.4871</v>
+        <v>0.4884</v>
       </c>
       <c r="E99" t="n">
-        <v>0.4871</v>
+        <v>0.4884</v>
       </c>
       <c r="F99" t="n">
-        <v>115671</v>
+        <v>1818</v>
       </c>
       <c r="G99" t="n">
         <v>0.4879416666666671</v>
@@ -3890,7 +3918,9 @@
         <v>0</v>
       </c>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>0.4802</v>
+      </c>
       <c r="L99" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3908,28 +3938,32 @@
         <v>0.4871</v>
       </c>
       <c r="C100" t="n">
-        <v>0.4884</v>
+        <v>0.4871</v>
       </c>
       <c r="D100" t="n">
-        <v>0.4884</v>
+        <v>0.4871</v>
       </c>
       <c r="E100" t="n">
         <v>0.4871</v>
       </c>
       <c r="F100" t="n">
-        <v>50000</v>
+        <v>115671</v>
       </c>
       <c r="G100" t="n">
-        <v>0.4879633333333337</v>
+        <v>0.4879416666666671</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>0.4884</v>
+      </c>
+      <c r="K100" t="n">
+        <v>0.4802</v>
+      </c>
       <c r="L100" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3944,31 +3978,35 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
+        <v>0.4871</v>
+      </c>
+      <c r="C101" t="n">
         <v>0.4884</v>
-      </c>
-      <c r="C101" t="n">
-        <v>0.488</v>
       </c>
       <c r="D101" t="n">
         <v>0.4884</v>
       </c>
       <c r="E101" t="n">
-        <v>0.488</v>
+        <v>0.4871</v>
       </c>
       <c r="F101" t="n">
-        <v>12161</v>
+        <v>50000</v>
       </c>
       <c r="G101" t="n">
-        <v>0.4877883333333337</v>
+        <v>0.4879633333333337</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>0.4871</v>
+      </c>
+      <c r="K101" t="n">
+        <v>0.4802</v>
+      </c>
       <c r="L101" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3983,31 +4021,35 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>0.488</v>
+        <v>0.4884</v>
       </c>
       <c r="C102" t="n">
         <v>0.488</v>
       </c>
       <c r="D102" t="n">
-        <v>0.488</v>
+        <v>0.4884</v>
       </c>
       <c r="E102" t="n">
         <v>0.488</v>
       </c>
       <c r="F102" t="n">
-        <v>80402</v>
+        <v>12161</v>
       </c>
       <c r="G102" t="n">
-        <v>0.4876116666666671</v>
+        <v>0.4877883333333337</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>0.4884</v>
+      </c>
+      <c r="K102" t="n">
+        <v>0.4802</v>
+      </c>
       <c r="L102" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4034,10 +4076,10 @@
         <v>0.488</v>
       </c>
       <c r="F103" t="n">
-        <v>919635.1188000001</v>
+        <v>80402</v>
       </c>
       <c r="G103" t="n">
-        <v>0.487601666666667</v>
+        <v>0.4876116666666671</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4046,7 +4088,9 @@
         <v>0</v>
       </c>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>0.4802</v>
+      </c>
       <c r="L103" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4073,10 +4117,10 @@
         <v>0.488</v>
       </c>
       <c r="F104" t="n">
-        <v>98142.5386</v>
+        <v>919635.1188000001</v>
       </c>
       <c r="G104" t="n">
-        <v>0.4874283333333337</v>
+        <v>0.487601666666667</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4085,7 +4129,9 @@
         <v>0</v>
       </c>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>0.4802</v>
+      </c>
       <c r="L104" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4103,19 +4149,19 @@
         <v>0.488</v>
       </c>
       <c r="C105" t="n">
-        <v>0.4884</v>
+        <v>0.488</v>
       </c>
       <c r="D105" t="n">
-        <v>0.4884</v>
+        <v>0.488</v>
       </c>
       <c r="E105" t="n">
         <v>0.488</v>
       </c>
       <c r="F105" t="n">
-        <v>967489.548</v>
+        <v>98142.5386</v>
       </c>
       <c r="G105" t="n">
-        <v>0.487386666666667</v>
+        <v>0.4874283333333337</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4124,7 +4170,9 @@
         <v>0</v>
       </c>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>0.4802</v>
+      </c>
       <c r="L105" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4139,7 +4187,7 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>0.4884</v>
+        <v>0.488</v>
       </c>
       <c r="C106" t="n">
         <v>0.4884</v>
@@ -4148,13 +4196,13 @@
         <v>0.4884</v>
       </c>
       <c r="E106" t="n">
-        <v>0.4884</v>
+        <v>0.488</v>
       </c>
       <c r="F106" t="n">
-        <v>52430.8116</v>
+        <v>967489.548</v>
       </c>
       <c r="G106" t="n">
-        <v>0.4873833333333336</v>
+        <v>0.487386666666667</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4163,7 +4211,9 @@
         <v>0</v>
       </c>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>0.4802</v>
+      </c>
       <c r="L106" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4178,22 +4228,22 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>0.488</v>
+        <v>0.4884</v>
       </c>
       <c r="C107" t="n">
-        <v>0.488</v>
+        <v>0.4884</v>
       </c>
       <c r="D107" t="n">
-        <v>0.488</v>
+        <v>0.4884</v>
       </c>
       <c r="E107" t="n">
-        <v>0.488</v>
+        <v>0.4884</v>
       </c>
       <c r="F107" t="n">
-        <v>31060</v>
+        <v>52430.8116</v>
       </c>
       <c r="G107" t="n">
-        <v>0.4872100000000003</v>
+        <v>0.4873833333333336</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4202,7 +4252,9 @@
         <v>0</v>
       </c>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>0.4802</v>
+      </c>
       <c r="L107" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4229,10 +4281,10 @@
         <v>0.488</v>
       </c>
       <c r="F108" t="n">
-        <v>52587.285</v>
+        <v>31060</v>
       </c>
       <c r="G108" t="n">
-        <v>0.4870366666666669</v>
+        <v>0.4872100000000003</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4241,7 +4293,9 @@
         <v>0</v>
       </c>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>0.4802</v>
+      </c>
       <c r="L108" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4268,10 +4322,10 @@
         <v>0.488</v>
       </c>
       <c r="F109" t="n">
-        <v>1300</v>
+        <v>52587.285</v>
       </c>
       <c r="G109" t="n">
-        <v>0.4868633333333336</v>
+        <v>0.4870366666666669</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4280,7 +4334,9 @@
         <v>0</v>
       </c>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>0.4802</v>
+      </c>
       <c r="L109" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4307,10 +4363,10 @@
         <v>0.488</v>
       </c>
       <c r="F110" t="n">
-        <v>25000</v>
+        <v>1300</v>
       </c>
       <c r="G110" t="n">
-        <v>0.4868583333333336</v>
+        <v>0.4868633333333336</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4319,7 +4375,9 @@
         <v>0</v>
       </c>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>0.4802</v>
+      </c>
       <c r="L110" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4346,10 +4404,10 @@
         <v>0.488</v>
       </c>
       <c r="F111" t="n">
-        <v>513396.24</v>
+        <v>25000</v>
       </c>
       <c r="G111" t="n">
-        <v>0.4868933333333336</v>
+        <v>0.4868583333333336</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4358,7 +4416,9 @@
         <v>0</v>
       </c>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>0.4802</v>
+      </c>
       <c r="L111" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4376,19 +4436,19 @@
         <v>0.488</v>
       </c>
       <c r="C112" t="n">
-        <v>0.4964</v>
+        <v>0.488</v>
       </c>
       <c r="D112" t="n">
-        <v>0.4964</v>
+        <v>0.488</v>
       </c>
       <c r="E112" t="n">
         <v>0.488</v>
       </c>
       <c r="F112" t="n">
-        <v>466705.9</v>
+        <v>513396.24</v>
       </c>
       <c r="G112" t="n">
-        <v>0.4871933333333336</v>
+        <v>0.4868933333333336</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4397,7 +4457,9 @@
         <v>0</v>
       </c>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>0.4802</v>
+      </c>
       <c r="L112" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4415,19 +4477,19 @@
         <v>0.488</v>
       </c>
       <c r="C113" t="n">
-        <v>0.488</v>
+        <v>0.4964</v>
       </c>
       <c r="D113" t="n">
-        <v>0.488</v>
+        <v>0.4964</v>
       </c>
       <c r="E113" t="n">
         <v>0.488</v>
       </c>
       <c r="F113" t="n">
-        <v>96730</v>
+        <v>466705.9</v>
       </c>
       <c r="G113" t="n">
-        <v>0.4871883333333336</v>
+        <v>0.4871933333333336</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4436,7 +4498,9 @@
         <v>0</v>
       </c>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
+      <c r="K113" t="n">
+        <v>0.4802</v>
+      </c>
       <c r="L113" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4463,10 +4527,10 @@
         <v>0.488</v>
       </c>
       <c r="F114" t="n">
-        <v>846923.4313000001</v>
+        <v>96730</v>
       </c>
       <c r="G114" t="n">
-        <v>0.4870183333333336</v>
+        <v>0.4871883333333336</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4475,7 +4539,9 @@
         <v>0</v>
       </c>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>0.4802</v>
+      </c>
       <c r="L114" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4490,22 +4556,22 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>0.497</v>
+        <v>0.488</v>
       </c>
       <c r="C115" t="n">
-        <v>0.4987</v>
+        <v>0.488</v>
       </c>
       <c r="D115" t="n">
-        <v>0.4987</v>
+        <v>0.488</v>
       </c>
       <c r="E115" t="n">
-        <v>0.497</v>
+        <v>0.488</v>
       </c>
       <c r="F115" t="n">
-        <v>15403</v>
+        <v>846923.4313000001</v>
       </c>
       <c r="G115" t="n">
-        <v>0.4870266666666669</v>
+        <v>0.4870183333333336</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4514,7 +4580,9 @@
         <v>0</v>
       </c>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
+      <c r="K115" t="n">
+        <v>0.4802</v>
+      </c>
       <c r="L115" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4529,22 +4597,22 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>0.4881</v>
+        <v>0.497</v>
       </c>
       <c r="C116" t="n">
-        <v>0.4881</v>
+        <v>0.4987</v>
       </c>
       <c r="D116" t="n">
-        <v>0.4881</v>
+        <v>0.4987</v>
       </c>
       <c r="E116" t="n">
-        <v>0.4881</v>
+        <v>0.497</v>
       </c>
       <c r="F116" t="n">
-        <v>1818</v>
+        <v>15403</v>
       </c>
       <c r="G116" t="n">
-        <v>0.4868583333333335</v>
+        <v>0.4870266666666669</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4553,7 +4621,9 @@
         <v>0</v>
       </c>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>0.4802</v>
+      </c>
       <c r="L116" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4568,106 +4638,122 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
+        <v>0.4881</v>
+      </c>
+      <c r="C117" t="n">
+        <v>0.4881</v>
+      </c>
+      <c r="D117" t="n">
+        <v>0.4881</v>
+      </c>
+      <c r="E117" t="n">
+        <v>0.4881</v>
+      </c>
+      <c r="F117" t="n">
+        <v>1818</v>
+      </c>
+      <c r="G117" t="n">
+        <v>0.4868583333333335</v>
+      </c>
+      <c r="H117" t="n">
+        <v>0</v>
+      </c>
+      <c r="I117" t="n">
+        <v>0</v>
+      </c>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>0.4802</v>
+      </c>
+      <c r="L117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M117" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="n">
         <v>0.4987</v>
       </c>
-      <c r="C117" t="n">
+      <c r="C118" t="n">
         <v>0.4987</v>
       </c>
-      <c r="D117" t="n">
+      <c r="D118" t="n">
         <v>0.4987</v>
       </c>
-      <c r="E117" t="n">
+      <c r="E118" t="n">
         <v>0.4883</v>
       </c>
-      <c r="F117" t="n">
+      <c r="F118" t="n">
         <v>1814701.4486</v>
       </c>
-      <c r="G117" t="n">
+      <c r="G118" t="n">
         <v>0.4869983333333335</v>
       </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
-      <c r="I117" t="n">
-        <v>1</v>
-      </c>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr">
+      <c r="H118" t="n">
+        <v>0</v>
+      </c>
+      <c r="I118" t="n">
+        <v>0</v>
+      </c>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="n">
+        <v>0.4802</v>
+      </c>
+      <c r="L118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M118" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="n">
+        <v>0.4986</v>
+      </c>
+      <c r="C119" t="n">
+        <v>0.4986</v>
+      </c>
+      <c r="D119" t="n">
+        <v>0.4986</v>
+      </c>
+      <c r="E119" t="n">
+        <v>0.4986</v>
+      </c>
+      <c r="F119" t="n">
+        <v>1818</v>
+      </c>
+      <c r="G119" t="n">
+        <v>0.4871366666666668</v>
+      </c>
+      <c r="H119" t="n">
+        <v>0</v>
+      </c>
+      <c r="I119" t="n">
+        <v>1</v>
+      </c>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>0.4802</v>
+      </c>
+      <c r="L119" t="inlineStr">
         <is>
           <t>매도 체결</t>
         </is>
       </c>
-      <c r="M117" t="inlineStr"/>
-    </row>
-    <row r="118">
-      <c r="A118" s="1" t="n">
-        <v>116</v>
-      </c>
-      <c r="B118" t="n">
-        <v>0.4986</v>
-      </c>
-      <c r="C118" t="n">
-        <v>0.4986</v>
-      </c>
-      <c r="D118" t="n">
-        <v>0.4986</v>
-      </c>
-      <c r="E118" t="n">
-        <v>0.4986</v>
-      </c>
-      <c r="F118" t="n">
-        <v>1818</v>
-      </c>
-      <c r="G118" t="n">
-        <v>0.4871366666666668</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
-      <c r="I118" t="n">
-        <v>0</v>
-      </c>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" s="1" t="n">
-        <v>117</v>
-      </c>
-      <c r="B119" t="n">
-        <v>0.4987</v>
-      </c>
-      <c r="C119" t="n">
-        <v>0.4987</v>
-      </c>
-      <c r="D119" t="n">
-        <v>0.4987</v>
-      </c>
-      <c r="E119" t="n">
-        <v>0.4987</v>
-      </c>
-      <c r="F119" t="n">
-        <v>1818</v>
-      </c>
-      <c r="G119" t="n">
-        <v>0.4872716666666668</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
-      <c r="I119" t="n">
-        <v>1</v>
-      </c>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
       <c r="M119" t="n">
-        <v>1</v>
+        <v>1.033317367763432</v>
       </c>
     </row>
     <row r="120">
@@ -4675,22 +4761,22 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>0.4983</v>
+        <v>0.4987</v>
       </c>
       <c r="C120" t="n">
-        <v>0.4983</v>
+        <v>0.4987</v>
       </c>
       <c r="D120" t="n">
-        <v>0.4983</v>
+        <v>0.4987</v>
       </c>
       <c r="E120" t="n">
-        <v>0.4983</v>
+        <v>0.4987</v>
       </c>
       <c r="F120" t="n">
-        <v>4311.4969</v>
+        <v>1818</v>
       </c>
       <c r="G120" t="n">
-        <v>0.4875616666666668</v>
+        <v>0.4872716666666668</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -4710,22 +4796,22 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>0.4984</v>
+        <v>0.4983</v>
       </c>
       <c r="C121" t="n">
         <v>0.4983</v>
       </c>
       <c r="D121" t="n">
-        <v>0.4984</v>
+        <v>0.4983</v>
       </c>
       <c r="E121" t="n">
         <v>0.4983</v>
       </c>
       <c r="F121" t="n">
-        <v>3636</v>
+        <v>4311.4969</v>
       </c>
       <c r="G121" t="n">
-        <v>0.4876516666666669</v>
+        <v>0.4875616666666668</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -4745,22 +4831,22 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>0.4981</v>
+        <v>0.4984</v>
       </c>
       <c r="C122" t="n">
-        <v>0.498</v>
+        <v>0.4983</v>
       </c>
       <c r="D122" t="n">
-        <v>0.4981</v>
+        <v>0.4984</v>
       </c>
       <c r="E122" t="n">
-        <v>0.498</v>
+        <v>0.4983</v>
       </c>
       <c r="F122" t="n">
-        <v>57000</v>
+        <v>3636</v>
       </c>
       <c r="G122" t="n">
-        <v>0.4878083333333335</v>
+        <v>0.4876516666666669</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -4780,22 +4866,22 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>0.4979</v>
+        <v>0.4981</v>
       </c>
       <c r="C123" t="n">
-        <v>0.4979</v>
+        <v>0.498</v>
       </c>
       <c r="D123" t="n">
-        <v>0.4979</v>
+        <v>0.4981</v>
       </c>
       <c r="E123" t="n">
-        <v>0.4979</v>
+        <v>0.498</v>
       </c>
       <c r="F123" t="n">
-        <v>1818</v>
+        <v>57000</v>
       </c>
       <c r="G123" t="n">
-        <v>0.4879666666666669</v>
+        <v>0.4878083333333335</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -4815,22 +4901,22 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>0.4978</v>
+        <v>0.4979</v>
       </c>
       <c r="C124" t="n">
-        <v>0.4978</v>
+        <v>0.4979</v>
       </c>
       <c r="D124" t="n">
-        <v>0.4978</v>
+        <v>0.4979</v>
       </c>
       <c r="E124" t="n">
-        <v>0.4978</v>
+        <v>0.4979</v>
       </c>
       <c r="F124" t="n">
-        <v>30000</v>
+        <v>1818</v>
       </c>
       <c r="G124" t="n">
-        <v>0.4881366666666669</v>
+        <v>0.4879666666666669</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -4853,19 +4939,19 @@
         <v>0.4978</v>
       </c>
       <c r="C125" t="n">
-        <v>0.4988</v>
+        <v>0.4978</v>
       </c>
       <c r="D125" t="n">
-        <v>0.4988</v>
+        <v>0.4978</v>
       </c>
       <c r="E125" t="n">
         <v>0.4978</v>
       </c>
       <c r="F125" t="n">
-        <v>1058034.3638</v>
+        <v>30000</v>
       </c>
       <c r="G125" t="n">
-        <v>0.4883233333333336</v>
+        <v>0.4881366666666669</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -4888,19 +4974,19 @@
         <v>0.4978</v>
       </c>
       <c r="C126" t="n">
-        <v>0.5</v>
+        <v>0.4988</v>
       </c>
       <c r="D126" t="n">
-        <v>0.5</v>
+        <v>0.4988</v>
       </c>
       <c r="E126" t="n">
         <v>0.4978</v>
       </c>
       <c r="F126" t="n">
-        <v>715162.7711</v>
+        <v>1058034.3638</v>
       </c>
       <c r="G126" t="n">
-        <v>0.4884150000000002</v>
+        <v>0.4883233333333336</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -4920,28 +5006,28 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>0.4984</v>
+        <v>0.4978</v>
       </c>
       <c r="C127" t="n">
-        <v>0.5041</v>
+        <v>0.5</v>
       </c>
       <c r="D127" t="n">
-        <v>0.5041</v>
+        <v>0.5</v>
       </c>
       <c r="E127" t="n">
-        <v>0.4984</v>
+        <v>0.4978</v>
       </c>
       <c r="F127" t="n">
-        <v>100000</v>
+        <v>715162.7711</v>
       </c>
       <c r="G127" t="n">
-        <v>0.4886383333333336</v>
+        <v>0.4884150000000002</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
       </c>
       <c r="I127" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
@@ -4950,6 +5036,41 @@
         <v>1</v>
       </c>
     </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="n">
+        <v>0.4984</v>
+      </c>
+      <c r="C128" t="n">
+        <v>0.5041</v>
+      </c>
+      <c r="D128" t="n">
+        <v>0.5041</v>
+      </c>
+      <c r="E128" t="n">
+        <v>0.4984</v>
+      </c>
+      <c r="F128" t="n">
+        <v>100000</v>
+      </c>
+      <c r="G128" t="n">
+        <v>0.4886383333333336</v>
+      </c>
+      <c r="H128" t="n">
+        <v>0</v>
+      </c>
+      <c r="I128" t="n">
+        <v>0</v>
+      </c>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="inlineStr"/>
+      <c r="M128" t="n">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/BackTest/2020-01-19 BackTest OCN.xlsx
+++ b/BackTest/2020-01-19 BackTest OCN.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M128"/>
+  <dimension ref="A1:N138"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,35 +394,40 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>CMO</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>MA60</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>low_check</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>high_check</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -448,18 +453,21 @@
         <v>1732591.3175</v>
       </c>
       <c r="G2" t="n">
+        <v>0.5124533333333322</v>
+      </c>
+      <c r="H2" t="n">
         <v>0.5150183333333337</v>
       </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="inlineStr"/>
+      <c r="J2" t="n">
+        <v>1</v>
+      </c>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -483,18 +491,21 @@
         <v>224517.9086</v>
       </c>
       <c r="G3" t="n">
+        <v>0.5116933333333322</v>
+      </c>
+      <c r="H3" t="n">
         <v>0.514811666666667</v>
       </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="inlineStr"/>
+      <c r="J3" t="n">
+        <v>1</v>
+      </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -518,18 +529,21 @@
         <v>980</v>
       </c>
       <c r="G4" t="n">
+        <v>0.5126933333333323</v>
+      </c>
+      <c r="H4" t="n">
         <v>0.514931666666667</v>
       </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="inlineStr"/>
+      <c r="J4" t="n">
+        <v>1</v>
+      </c>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -553,18 +567,21 @@
         <v>128294.3735</v>
       </c>
       <c r="G5" t="n">
+        <v>0.512359999999999</v>
+      </c>
+      <c r="H5" t="n">
         <v>0.5148850000000003</v>
       </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="inlineStr"/>
+      <c r="J5" t="n">
+        <v>1</v>
+      </c>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -588,18 +605,21 @@
         <v>535854.42</v>
       </c>
       <c r="G6" t="n">
+        <v>0.5107599999999991</v>
+      </c>
+      <c r="H6" t="n">
         <v>0.5145200000000003</v>
       </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="inlineStr"/>
+      <c r="J6" t="n">
+        <v>1</v>
+      </c>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -623,18 +643,21 @@
         <v>536639.1271</v>
       </c>
       <c r="G7" t="n">
+        <v>0.5101733333333324</v>
+      </c>
+      <c r="H7" t="n">
         <v>0.514386666666667</v>
       </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="inlineStr"/>
+      <c r="J7" t="n">
+        <v>1</v>
+      </c>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -658,18 +681,21 @@
         <v>803974.58</v>
       </c>
       <c r="G8" t="n">
+        <v>0.5092533333333323</v>
+      </c>
+      <c r="H8" t="n">
         <v>0.514186666666667</v>
       </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="inlineStr"/>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -693,18 +719,21 @@
         <v>47540.74</v>
       </c>
       <c r="G9" t="n">
+        <v>0.5083266666666657</v>
+      </c>
+      <c r="H9" t="n">
         <v>0.5138183333333336</v>
       </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="inlineStr"/>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -728,18 +757,21 @@
         <v>71.3139</v>
       </c>
       <c r="G10" t="n">
+        <v>0.5069266666666657</v>
+      </c>
+      <c r="H10" t="n">
         <v>0.5134500000000003</v>
       </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="inlineStr"/>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -763,18 +795,21 @@
         <v>217492.4796</v>
       </c>
       <c r="G11" t="n">
+        <v>0.5048399999999991</v>
+      </c>
+      <c r="H11" t="n">
         <v>0.512911666666667</v>
       </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -798,18 +833,21 @@
         <v>142525.8128</v>
       </c>
       <c r="G12" t="n">
+        <v>0.5020866666666658</v>
+      </c>
+      <c r="H12" t="n">
         <v>0.5123733333333337</v>
       </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
+      <c r="M12" t="inlineStr"/>
+      <c r="N12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -833,18 +871,21 @@
         <v>99925.11</v>
       </c>
       <c r="G13" t="n">
+        <v>0.4998666666666657</v>
+      </c>
+      <c r="H13" t="n">
         <v>0.5118000000000003</v>
       </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
+      <c r="M13" t="inlineStr"/>
+      <c r="N13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -868,18 +909,21 @@
         <v>494668.99</v>
       </c>
       <c r="G14" t="n">
+        <v>0.4982733333333324</v>
+      </c>
+      <c r="H14" t="n">
         <v>0.5112266666666669</v>
       </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
+      <c r="M14" t="inlineStr"/>
+      <c r="N14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -903,18 +947,21 @@
         <v>25000</v>
       </c>
       <c r="G15" t="n">
+        <v>0.4952599999999991</v>
+      </c>
+      <c r="H15" t="n">
         <v>0.5104483333333335</v>
       </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
+      <c r="M15" t="inlineStr"/>
+      <c r="N15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -938,18 +985,21 @@
         <v>751534.9832</v>
       </c>
       <c r="G16" t="n">
+        <v>0.4929333333333324</v>
+      </c>
+      <c r="H16" t="n">
         <v>0.5096933333333336</v>
       </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
+      <c r="M16" t="inlineStr"/>
+      <c r="N16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -973,18 +1023,21 @@
         <v>224520</v>
       </c>
       <c r="G17" t="n">
+        <v>0.4919866666666657</v>
+      </c>
+      <c r="H17" t="n">
         <v>0.5091533333333336</v>
       </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
+      <c r="M17" t="inlineStr"/>
+      <c r="N17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1008,18 +1061,21 @@
         <v>4524.914262658866</v>
       </c>
       <c r="G18" t="n">
+        <v>0.4913399999999991</v>
+      </c>
+      <c r="H18" t="n">
         <v>0.5087766666666669</v>
       </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
+      <c r="M18" t="inlineStr"/>
+      <c r="N18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1043,18 +1099,21 @@
         <v>60567.3505</v>
       </c>
       <c r="G19" t="n">
+        <v>0.4893733333333324</v>
+      </c>
+      <c r="H19" t="n">
         <v>0.5085350000000002</v>
       </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
+      <c r="M19" t="inlineStr"/>
+      <c r="N19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1078,18 +1137,21 @@
         <v>60618.2987</v>
       </c>
       <c r="G20" t="n">
+        <v>0.4887133333333324</v>
+      </c>
+      <c r="H20" t="n">
         <v>0.5081483333333335</v>
       </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
+      <c r="M20" t="inlineStr"/>
+      <c r="N20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1113,18 +1175,21 @@
         <v>60610</v>
       </c>
       <c r="G21" t="n">
+        <v>0.4889866666666657</v>
+      </c>
+      <c r="H21" t="n">
         <v>0.5076783333333336</v>
       </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
+      <c r="M21" t="inlineStr"/>
+      <c r="N21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1148,18 +1213,21 @@
         <v>115792</v>
       </c>
       <c r="G22" t="n">
+        <v>0.4886666666666657</v>
+      </c>
+      <c r="H22" t="n">
         <v>0.5072950000000003</v>
       </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
+      <c r="M22" t="inlineStr"/>
+      <c r="N22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1183,18 +1251,21 @@
         <v>1377036.0535</v>
       </c>
       <c r="G23" t="n">
+        <v>0.4889199999999991</v>
+      </c>
+      <c r="H23" t="n">
         <v>0.5069900000000003</v>
       </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
+      <c r="M23" t="inlineStr"/>
+      <c r="N23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1218,18 +1289,21 @@
         <v>35710</v>
       </c>
       <c r="G24" t="n">
+        <v>0.4891733333333324</v>
+      </c>
+      <c r="H24" t="n">
         <v>0.5066783333333336</v>
       </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
+      <c r="M24" t="inlineStr"/>
+      <c r="N24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1253,18 +1327,21 @@
         <v>3938084.1993</v>
       </c>
       <c r="G25" t="n">
+        <v>0.4891733333333324</v>
+      </c>
+      <c r="H25" t="n">
         <v>0.5063183333333335</v>
       </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
+      <c r="M25" t="inlineStr"/>
+      <c r="N25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1288,18 +1365,21 @@
         <v>1480606.6473</v>
       </c>
       <c r="G26" t="n">
+        <v>0.4901066666666657</v>
+      </c>
+      <c r="H26" t="n">
         <v>0.5060216666666668</v>
       </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
+      <c r="M26" t="inlineStr"/>
+      <c r="N26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1323,18 +1403,21 @@
         <v>1213563.3225</v>
       </c>
       <c r="G27" t="n">
+        <v>0.4901333333333324</v>
+      </c>
+      <c r="H27" t="n">
         <v>0.5056583333333335</v>
       </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
+      <c r="M27" t="inlineStr"/>
+      <c r="N27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1358,18 +1441,21 @@
         <v>1980591.6618</v>
       </c>
       <c r="G28" t="n">
+        <v>0.4911866666666657</v>
+      </c>
+      <c r="H28" t="n">
         <v>0.5053483333333335</v>
       </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
+      <c r="M28" t="inlineStr"/>
+      <c r="N28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1393,18 +1479,21 @@
         <v>73999.5683</v>
       </c>
       <c r="G29" t="n">
+        <v>0.4920199999999991</v>
+      </c>
+      <c r="H29" t="n">
         <v>0.5049750000000003</v>
       </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
+      <c r="M29" t="inlineStr"/>
+      <c r="N29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1428,18 +1517,21 @@
         <v>4524.39</v>
       </c>
       <c r="G30" t="n">
+        <v>0.4936666666666657</v>
+      </c>
+      <c r="H30" t="n">
         <v>0.5047683333333336</v>
       </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
+      <c r="M30" t="inlineStr"/>
+      <c r="N30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1463,18 +1555,21 @@
         <v>2857.7874</v>
       </c>
       <c r="G31" t="n">
+        <v>0.495439999999999</v>
+      </c>
+      <c r="H31" t="n">
         <v>0.5044550000000003</v>
       </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
+      <c r="M31" t="inlineStr"/>
+      <c r="N31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1498,18 +1593,21 @@
         <v>20285.61</v>
       </c>
       <c r="G32" t="n">
+        <v>0.4961333333333323</v>
+      </c>
+      <c r="H32" t="n">
         <v>0.5040900000000003</v>
       </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
+      <c r="M32" t="inlineStr"/>
+      <c r="N32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1533,18 +1631,21 @@
         <v>387026.9429</v>
       </c>
       <c r="G33" t="n">
+        <v>0.4963666666666657</v>
+      </c>
+      <c r="H33" t="n">
         <v>0.5037816666666669</v>
       </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
+      <c r="M33" t="inlineStr"/>
+      <c r="N33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1568,18 +1669,21 @@
         <v>4987.0712</v>
       </c>
       <c r="G34" t="n">
+        <v>0.4965866666666657</v>
+      </c>
+      <c r="H34" t="n">
         <v>0.5034600000000002</v>
       </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
+      <c r="M34" t="inlineStr"/>
+      <c r="N34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1603,18 +1707,21 @@
         <v>565944.7037</v>
       </c>
       <c r="G35" t="n">
+        <v>0.4968333333333323</v>
+      </c>
+      <c r="H35" t="n">
         <v>0.5031066666666669</v>
       </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
+      <c r="M35" t="inlineStr"/>
+      <c r="N35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1638,18 +1745,21 @@
         <v>212470</v>
       </c>
       <c r="G36" t="n">
+        <v>0.4972333333333324</v>
+      </c>
+      <c r="H36" t="n">
         <v>0.5027083333333335</v>
       </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
+      <c r="M36" t="inlineStr"/>
+      <c r="N36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1673,18 +1783,21 @@
         <v>1201</v>
       </c>
       <c r="G37" t="n">
+        <v>0.4974666666666658</v>
+      </c>
+      <c r="H37" t="n">
         <v>0.5023883333333335</v>
       </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
+      <c r="M37" t="inlineStr"/>
+      <c r="N37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1708,18 +1821,21 @@
         <v>8284</v>
       </c>
       <c r="G38" t="n">
+        <v>0.4965666666666657</v>
+      </c>
+      <c r="H38" t="n">
         <v>0.5018650000000001</v>
       </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
+      <c r="M38" t="inlineStr"/>
+      <c r="N38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1743,18 +1859,21 @@
         <v>1087507.1756</v>
       </c>
       <c r="G39" t="n">
+        <v>0.4964866666666657</v>
+      </c>
+      <c r="H39" t="n">
         <v>0.5016750000000001</v>
       </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
+      <c r="M39" t="inlineStr"/>
+      <c r="N39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1778,18 +1897,21 @@
         <v>3636</v>
       </c>
       <c r="G40" t="n">
+        <v>0.4958866666666657</v>
+      </c>
+      <c r="H40" t="n">
         <v>0.5011716666666668</v>
       </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
+      <c r="M40" t="inlineStr"/>
+      <c r="N40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1813,18 +1935,21 @@
         <v>3636</v>
       </c>
       <c r="G41" t="n">
+        <v>0.4950333333333324</v>
+      </c>
+      <c r="H41" t="n">
         <v>0.5007900000000002</v>
       </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
+      <c r="M41" t="inlineStr"/>
+      <c r="N41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1848,18 +1973,21 @@
         <v>2009402.8691</v>
       </c>
       <c r="G42" t="n">
+        <v>0.4958466666666657</v>
+      </c>
+      <c r="H42" t="n">
         <v>0.5004766666666669</v>
       </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>0</v>
+      </c>
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
+      <c r="M42" t="inlineStr"/>
+      <c r="N42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1883,18 +2011,21 @@
         <v>169350.7744</v>
       </c>
       <c r="G43" t="n">
+        <v>0.4957733333333323</v>
+      </c>
+      <c r="H43" t="n">
         <v>0.5001716666666669</v>
       </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
+      <c r="M43" t="inlineStr"/>
+      <c r="N43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1918,18 +2049,21 @@
         <v>3636</v>
       </c>
       <c r="G44" t="n">
+        <v>0.4952533333333323</v>
+      </c>
+      <c r="H44" t="n">
         <v>0.4997016666666669</v>
       </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
+      <c r="M44" t="inlineStr"/>
+      <c r="N44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1953,18 +2087,21 @@
         <v>16399.5508</v>
       </c>
       <c r="G45" t="n">
+        <v>0.4953933333333324</v>
+      </c>
+      <c r="H45" t="n">
         <v>0.4995083333333336</v>
       </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
+      <c r="M45" t="inlineStr"/>
+      <c r="N45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1988,18 +2125,21 @@
         <v>174860.6951</v>
       </c>
       <c r="G46" t="n">
+        <v>0.4948133333333323</v>
+      </c>
+      <c r="H46" t="n">
         <v>0.4990750000000002</v>
       </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
       <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
+      <c r="M46" t="inlineStr"/>
+      <c r="N46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2023,18 +2163,21 @@
         <v>5364.5936</v>
       </c>
       <c r="G47" t="n">
+        <v>0.494299999999999</v>
+      </c>
+      <c r="H47" t="n">
         <v>0.4987183333333335</v>
       </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>0</v>
+      </c>
       <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
+      <c r="M47" t="inlineStr"/>
+      <c r="N47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2058,18 +2201,21 @@
         <v>1500</v>
       </c>
       <c r="G48" t="n">
+        <v>0.4942466666666657</v>
+      </c>
+      <c r="H48" t="n">
         <v>0.4984116666666669</v>
       </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>0</v>
+      </c>
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
+      <c r="M48" t="inlineStr"/>
+      <c r="N48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2093,18 +2239,21 @@
         <v>551297.7645</v>
       </c>
       <c r="G49" t="n">
+        <v>0.494219999999999</v>
+      </c>
+      <c r="H49" t="n">
         <v>0.4982183333333335</v>
       </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>0</v>
+      </c>
       <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
+      <c r="M49" t="inlineStr"/>
+      <c r="N49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2128,18 +2277,21 @@
         <v>2049940.698</v>
       </c>
       <c r="G50" t="n">
+        <v>0.4941933333333324</v>
+      </c>
+      <c r="H50" t="n">
         <v>0.4980250000000002</v>
       </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>0</v>
+      </c>
       <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
+      <c r="M50" t="inlineStr"/>
+      <c r="N50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2163,18 +2315,21 @@
         <v>131242.7691</v>
       </c>
       <c r="G51" t="n">
+        <v>0.4936733333333324</v>
+      </c>
+      <c r="H51" t="n">
         <v>0.4976633333333335</v>
       </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>0</v>
+      </c>
       <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
+      <c r="M51" t="inlineStr"/>
+      <c r="N51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2198,18 +2353,21 @@
         <v>1019141.3953</v>
       </c>
       <c r="G52" t="n">
+        <v>0.492819999999999</v>
+      </c>
+      <c r="H52" t="n">
         <v>0.4972816666666668</v>
       </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>0</v>
+      </c>
       <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
+      <c r="M52" t="inlineStr"/>
+      <c r="N52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2233,18 +2391,21 @@
         <v>61093.7803</v>
       </c>
       <c r="G53" t="n">
+        <v>0.4922866666666657</v>
+      </c>
+      <c r="H53" t="n">
         <v>0.4967566666666668</v>
       </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>0</v>
+      </c>
       <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
+      <c r="M53" t="inlineStr"/>
+      <c r="N53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2268,18 +2429,21 @@
         <v>65630</v>
       </c>
       <c r="G54" t="n">
+        <v>0.4915933333333323</v>
+      </c>
+      <c r="H54" t="n">
         <v>0.496395</v>
       </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>0</v>
+      </c>
       <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
+      <c r="M54" t="inlineStr"/>
+      <c r="N54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2303,18 +2467,21 @@
         <v>2400</v>
       </c>
       <c r="G55" t="n">
+        <v>0.4923333333333322</v>
+      </c>
+      <c r="H55" t="n">
         <v>0.4960800000000001</v>
       </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>0</v>
+      </c>
       <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
+      <c r="M55" t="inlineStr"/>
+      <c r="N55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2338,18 +2505,21 @@
         <v>2660.2902</v>
       </c>
       <c r="G56" t="n">
+        <v>0.4930733333333323</v>
+      </c>
+      <c r="H56" t="n">
         <v>0.4957633333333334</v>
       </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>0</v>
+      </c>
       <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
+      <c r="M56" t="inlineStr"/>
+      <c r="N56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2373,18 +2543,21 @@
         <v>8278</v>
       </c>
       <c r="G57" t="n">
+        <v>0.4930533333333322</v>
+      </c>
+      <c r="H57" t="n">
         <v>0.4952800000000001</v>
       </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>0</v>
+      </c>
       <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
+      <c r="M57" t="inlineStr"/>
+      <c r="N57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2408,18 +2581,21 @@
         <v>5453.9414</v>
       </c>
       <c r="G58" t="n">
+        <v>0.4924999999999989</v>
+      </c>
+      <c r="H58" t="n">
         <v>0.4948316666666668</v>
       </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>0</v>
+      </c>
       <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
+      <c r="M58" t="inlineStr"/>
+      <c r="N58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2443,18 +2619,21 @@
         <v>1818</v>
       </c>
       <c r="G59" t="n">
+        <v>0.4926133333333323</v>
+      </c>
+      <c r="H59" t="n">
         <v>0.4945400000000001</v>
       </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>0</v>
+      </c>
       <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
+      <c r="M59" t="inlineStr"/>
+      <c r="N59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2478,18 +2657,21 @@
         <v>150600.57</v>
       </c>
       <c r="G60" t="n">
+        <v>0.4920933333333323</v>
+      </c>
+      <c r="H60" t="n">
         <v>0.4941033333333335</v>
       </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>0</v>
+      </c>
       <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
+      <c r="M60" t="inlineStr"/>
+      <c r="N60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2513,18 +2695,21 @@
         <v>88073.8391</v>
       </c>
       <c r="G61" t="n">
+        <v>0.4914266666666656</v>
+      </c>
+      <c r="H61" t="n">
         <v>0.4936533333333335</v>
       </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>0</v>
+      </c>
       <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
+      <c r="M61" t="inlineStr"/>
+      <c r="N61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2548,18 +2733,21 @@
         <v>4656176.5536</v>
       </c>
       <c r="G62" t="n">
+        <v>0.4917133333333323</v>
+      </c>
+      <c r="H62" t="n">
         <v>0.4935333333333335</v>
       </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>0</v>
+      </c>
       <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
+      <c r="M62" t="inlineStr"/>
+      <c r="N62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2583,18 +2771,21 @@
         <v>1310194.8078</v>
       </c>
       <c r="G63" t="n">
+        <v>0.4910599999999989</v>
+      </c>
+      <c r="H63" t="n">
         <v>0.4932533333333335</v>
       </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>0</v>
+      </c>
       <c r="K63" t="inlineStr"/>
       <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
+      <c r="M63" t="inlineStr"/>
+      <c r="N63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2618,18 +2809,21 @@
         <v>6321</v>
       </c>
       <c r="G64" t="n">
+        <v>0.4903933333333323</v>
+      </c>
+      <c r="H64" t="n">
         <v>0.4926433333333335</v>
       </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>0</v>
+      </c>
       <c r="K64" t="inlineStr"/>
       <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
+      <c r="M64" t="inlineStr"/>
+      <c r="N64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2653,18 +2847,21 @@
         <v>43017</v>
       </c>
       <c r="G65" t="n">
+        <v>0.4896733333333322</v>
+      </c>
+      <c r="H65" t="n">
         <v>0.4923533333333335</v>
       </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>0</v>
+      </c>
       <c r="K65" t="inlineStr"/>
       <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
+      <c r="M65" t="inlineStr"/>
+      <c r="N65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2688,18 +2885,21 @@
         <v>24315</v>
       </c>
       <c r="G66" t="n">
+        <v>0.4896266666666655</v>
+      </c>
+      <c r="H66" t="n">
         <v>0.4923800000000002</v>
       </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>0</v>
+      </c>
       <c r="K66" t="inlineStr"/>
       <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
+      <c r="M66" t="inlineStr"/>
+      <c r="N66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2723,18 +2923,21 @@
         <v>230571</v>
       </c>
       <c r="G67" t="n">
+        <v>0.4901999999999989</v>
+      </c>
+      <c r="H67" t="n">
         <v>0.4922883333333335</v>
       </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>0</v>
+      </c>
       <c r="K67" t="inlineStr"/>
       <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
+      <c r="M67" t="inlineStr"/>
+      <c r="N67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2758,18 +2961,21 @@
         <v>92590</v>
       </c>
       <c r="G68" t="n">
+        <v>0.491019999999999</v>
+      </c>
+      <c r="H68" t="n">
         <v>0.4921983333333335</v>
       </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>0</v>
+      </c>
       <c r="K68" t="inlineStr"/>
       <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
+      <c r="M68" t="inlineStr"/>
+      <c r="N68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2793,18 +2999,21 @@
         <v>456923.4114</v>
       </c>
       <c r="G69" t="n">
+        <v>0.4909666666666656</v>
+      </c>
+      <c r="H69" t="n">
         <v>0.4920550000000002</v>
       </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>0</v>
+      </c>
       <c r="K69" t="inlineStr"/>
       <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
+      <c r="M69" t="inlineStr"/>
+      <c r="N69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2828,18 +3037,21 @@
         <v>660190.7595</v>
       </c>
       <c r="G70" t="n">
+        <v>0.4902533333333323</v>
+      </c>
+      <c r="H70" t="n">
         <v>0.4919116666666669</v>
       </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>0</v>
+      </c>
       <c r="K70" t="inlineStr"/>
       <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
+      <c r="M70" t="inlineStr"/>
+      <c r="N70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2863,18 +3075,21 @@
         <v>12098</v>
       </c>
       <c r="G71" t="n">
+        <v>0.4895333333333323</v>
+      </c>
+      <c r="H71" t="n">
         <v>0.4919366666666669</v>
       </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>0</v>
+      </c>
       <c r="K71" t="inlineStr"/>
       <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
+      <c r="M71" t="inlineStr"/>
+      <c r="N71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2898,18 +3113,21 @@
         <v>160262.7257799671</v>
       </c>
       <c r="G72" t="n">
+        <v>0.488819999999999</v>
+      </c>
+      <c r="H72" t="n">
         <v>0.4919633333333336</v>
       </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>0</v>
+      </c>
       <c r="K72" t="inlineStr"/>
       <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
+      <c r="M72" t="inlineStr"/>
+      <c r="N72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2933,18 +3151,21 @@
         <v>134013</v>
       </c>
       <c r="G73" t="n">
+        <v>0.4886333333333323</v>
+      </c>
+      <c r="H73" t="n">
         <v>0.4920233333333336</v>
       </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>0</v>
+      </c>
       <c r="K73" t="inlineStr"/>
       <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
+      <c r="M73" t="inlineStr"/>
+      <c r="N73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2968,18 +3189,21 @@
         <v>10262.7257</v>
       </c>
       <c r="G74" t="n">
+        <v>0.4882266666666656</v>
+      </c>
+      <c r="H74" t="n">
         <v>0.4920283333333337</v>
       </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>0</v>
+      </c>
       <c r="K74" t="inlineStr"/>
       <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
+      <c r="M74" t="inlineStr"/>
+      <c r="N74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3003,18 +3227,21 @@
         <v>8288</v>
       </c>
       <c r="G75" t="n">
+        <v>0.488019999999999</v>
+      </c>
+      <c r="H75" t="n">
         <v>0.4922933333333337</v>
       </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>0</v>
+      </c>
       <c r="K75" t="inlineStr"/>
       <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
+      <c r="M75" t="inlineStr"/>
+      <c r="N75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3038,18 +3265,21 @@
         <v>6035</v>
       </c>
       <c r="G76" t="n">
+        <v>0.4884533333333323</v>
+      </c>
+      <c r="H76" t="n">
         <v>0.4925333333333338</v>
       </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>0</v>
+      </c>
       <c r="K76" t="inlineStr"/>
       <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
+      <c r="M76" t="inlineStr"/>
+      <c r="N76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3073,18 +3303,21 @@
         <v>30000</v>
       </c>
       <c r="G77" t="n">
+        <v>0.4880866666666657</v>
+      </c>
+      <c r="H77" t="n">
         <v>0.4925583333333338</v>
       </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>0</v>
+      </c>
       <c r="K77" t="inlineStr"/>
       <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
+      <c r="M77" t="inlineStr"/>
+      <c r="N77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3108,18 +3341,21 @@
         <v>168376.3837</v>
       </c>
       <c r="G78" t="n">
+        <v>0.4880066666666656</v>
+      </c>
+      <c r="H78" t="n">
         <v>0.4924200000000004</v>
       </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>0</v>
+      </c>
       <c r="K78" t="inlineStr"/>
       <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
+      <c r="M78" t="inlineStr"/>
+      <c r="N78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3143,18 +3379,21 @@
         <v>4961</v>
       </c>
       <c r="G79" t="n">
+        <v>0.4879333333333323</v>
+      </c>
+      <c r="H79" t="n">
         <v>0.4922833333333338</v>
       </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>0</v>
+      </c>
       <c r="K79" t="inlineStr"/>
       <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
+      <c r="M79" t="inlineStr"/>
+      <c r="N79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3178,18 +3417,21 @@
         <v>4468</v>
       </c>
       <c r="G80" t="n">
+        <v>0.4879133333333324</v>
+      </c>
+      <c r="H80" t="n">
         <v>0.4921533333333338</v>
       </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>0</v>
+      </c>
       <c r="K80" t="inlineStr"/>
       <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
+      <c r="M80" t="inlineStr"/>
+      <c r="N80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3213,18 +3455,21 @@
         <v>2281</v>
       </c>
       <c r="G81" t="n">
+        <v>0.4878933333333324</v>
+      </c>
+      <c r="H81" t="n">
         <v>0.4921066666666672</v>
       </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>0</v>
+      </c>
       <c r="K81" t="inlineStr"/>
       <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
+      <c r="M81" t="inlineStr"/>
+      <c r="N81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3248,18 +3493,21 @@
         <v>55182</v>
       </c>
       <c r="G82" t="n">
+        <v>0.4871666666666657</v>
+      </c>
+      <c r="H82" t="n">
         <v>0.4919133333333338</v>
       </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>0</v>
+      </c>
       <c r="K82" t="inlineStr"/>
       <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
+      <c r="M82" t="inlineStr"/>
+      <c r="N82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3283,18 +3531,21 @@
         <v>162312</v>
       </c>
       <c r="G83" t="n">
+        <v>0.486699999999999</v>
+      </c>
+      <c r="H83" t="n">
         <v>0.4916433333333338</v>
       </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>0</v>
+      </c>
       <c r="K83" t="inlineStr"/>
       <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
+      <c r="M83" t="inlineStr"/>
+      <c r="N83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3318,18 +3569,21 @@
         <v>366914.4842</v>
       </c>
       <c r="G84" t="n">
+        <v>0.4864066666666657</v>
+      </c>
+      <c r="H84" t="n">
         <v>0.4913633333333338</v>
       </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>0</v>
+      </c>
       <c r="K84" t="inlineStr"/>
       <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
+      <c r="M84" t="inlineStr"/>
+      <c r="N84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3353,18 +3607,21 @@
         <v>1221593.2844</v>
       </c>
       <c r="G85" t="n">
+        <v>0.4859266666666657</v>
+      </c>
+      <c r="H85" t="n">
         <v>0.4911000000000005</v>
       </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>0</v>
+      </c>
       <c r="K85" t="inlineStr"/>
       <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
+      <c r="M85" t="inlineStr"/>
+      <c r="N85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3388,18 +3645,21 @@
         <v>330000</v>
       </c>
       <c r="G86" t="n">
+        <v>0.4854533333333323</v>
+      </c>
+      <c r="H86" t="n">
         <v>0.4907733333333338</v>
       </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>0</v>
+      </c>
       <c r="K86" t="inlineStr"/>
       <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
+      <c r="M86" t="inlineStr"/>
+      <c r="N86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3423,18 +3683,21 @@
         <v>575206</v>
       </c>
       <c r="G87" t="n">
+        <v>0.4849666666666657</v>
+      </c>
+      <c r="H87" t="n">
         <v>0.4906716666666672</v>
       </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>0</v>
+      </c>
       <c r="K87" t="inlineStr"/>
       <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
+      <c r="M87" t="inlineStr"/>
+      <c r="N87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3458,22 +3721,21 @@
         <v>348813.9454</v>
       </c>
       <c r="G88" t="n">
+        <v>0.484479999999999</v>
+      </c>
+      <c r="H88" t="n">
         <v>0.4903466666666672</v>
       </c>
-      <c r="H88" t="n">
-        <v>1</v>
-      </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
       <c r="J88" t="n">
-        <v>0.4802</v>
-      </c>
-      <c r="K88" t="n">
-        <v>0.4802</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K88" t="inlineStr"/>
       <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
+      <c r="M88" t="inlineStr"/>
+      <c r="N88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3497,1577 +3759,2043 @@
         <v>467217.3011</v>
       </c>
       <c r="G89" t="n">
+        <v>0.4842133333333323</v>
+      </c>
+      <c r="H89" t="n">
         <v>0.4900766666666671</v>
       </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="n">
+      <c r="J89" t="n">
+        <v>0</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
+      <c r="L89" t="inlineStr"/>
+      <c r="M89" t="inlineStr"/>
+      <c r="N89" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="n">
         <v>0.4802</v>
       </c>
-      <c r="L89" t="inlineStr">
+      <c r="C90" t="n">
+        <v>0.4802</v>
+      </c>
+      <c r="D90" t="n">
+        <v>0.4802</v>
+      </c>
+      <c r="E90" t="n">
+        <v>0.4802</v>
+      </c>
+      <c r="F90" t="n">
+        <v>565634.8251</v>
+      </c>
+      <c r="G90" t="n">
+        <v>0.4837266666666657</v>
+      </c>
+      <c r="H90" t="n">
+        <v>0.4898083333333337</v>
+      </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>0</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
+      <c r="L90" t="inlineStr"/>
+      <c r="M90" t="inlineStr"/>
+      <c r="N90" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="n">
+        <v>0.4802</v>
+      </c>
+      <c r="C91" t="n">
+        <v>0.4802</v>
+      </c>
+      <c r="D91" t="n">
+        <v>0.4802</v>
+      </c>
+      <c r="E91" t="n">
+        <v>0.4802</v>
+      </c>
+      <c r="F91" t="n">
+        <v>34471.1143</v>
+      </c>
+      <c r="G91" t="n">
+        <v>0.4832466666666657</v>
+      </c>
+      <c r="H91" t="n">
+        <v>0.4894850000000004</v>
+      </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>0</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
+      <c r="L91" t="inlineStr"/>
+      <c r="M91" t="inlineStr"/>
+      <c r="N91" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="n">
+        <v>0.4773</v>
+      </c>
+      <c r="C92" t="n">
+        <v>0.4802</v>
+      </c>
+      <c r="D92" t="n">
+        <v>0.4802</v>
+      </c>
+      <c r="E92" t="n">
+        <v>0.4773</v>
+      </c>
+      <c r="F92" t="n">
+        <v>616302.8312</v>
+      </c>
+      <c r="G92" t="n">
+        <v>0.4827666666666657</v>
+      </c>
+      <c r="H92" t="n">
+        <v>0.489216666666667</v>
+      </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>0</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
+      <c r="L92" t="inlineStr"/>
+      <c r="M92" t="inlineStr"/>
+      <c r="N92" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="n">
+        <v>0.4802</v>
+      </c>
+      <c r="C93" t="n">
+        <v>0.4802</v>
+      </c>
+      <c r="D93" t="n">
+        <v>0.4802</v>
+      </c>
+      <c r="E93" t="n">
+        <v>0.4802</v>
+      </c>
+      <c r="F93" t="n">
+        <v>146861.7333</v>
+      </c>
+      <c r="G93" t="n">
+        <v>0.4822866666666657</v>
+      </c>
+      <c r="H93" t="n">
+        <v>0.4889000000000004</v>
+      </c>
+      <c r="I93" t="n">
+        <v>0</v>
+      </c>
+      <c r="J93" t="n">
+        <v>0</v>
+      </c>
+      <c r="K93" t="inlineStr"/>
+      <c r="L93" t="inlineStr"/>
+      <c r="M93" t="inlineStr"/>
+      <c r="N93" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="n">
+        <v>0.4884</v>
+      </c>
+      <c r="C94" t="n">
+        <v>0.4884</v>
+      </c>
+      <c r="D94" t="n">
+        <v>0.4884</v>
+      </c>
+      <c r="E94" t="n">
+        <v>0.4884</v>
+      </c>
+      <c r="F94" t="n">
+        <v>78154.8015</v>
+      </c>
+      <c r="G94" t="n">
+        <v>0.482359999999999</v>
+      </c>
+      <c r="H94" t="n">
+        <v>0.4887266666666671</v>
+      </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>0</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
+      <c r="L94" t="inlineStr"/>
+      <c r="M94" t="inlineStr"/>
+      <c r="N94" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="n">
+        <v>0.4877</v>
+      </c>
+      <c r="C95" t="n">
+        <v>0.4877</v>
+      </c>
+      <c r="D95" t="n">
+        <v>0.4968</v>
+      </c>
+      <c r="E95" t="n">
+        <v>0.4877</v>
+      </c>
+      <c r="F95" t="n">
+        <v>4642.4413</v>
+      </c>
+      <c r="G95" t="n">
+        <v>0.4823866666666657</v>
+      </c>
+      <c r="H95" t="n">
+        <v>0.4885416666666671</v>
+      </c>
+      <c r="I95" t="n">
+        <v>0</v>
+      </c>
+      <c r="J95" t="n">
+        <v>0</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
+      <c r="L95" t="inlineStr"/>
+      <c r="M95" t="inlineStr"/>
+      <c r="N95" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="n">
+        <v>0.4882</v>
+      </c>
+      <c r="C96" t="n">
+        <v>0.4802</v>
+      </c>
+      <c r="D96" t="n">
+        <v>0.4882</v>
+      </c>
+      <c r="E96" t="n">
+        <v>0.4802</v>
+      </c>
+      <c r="F96" t="n">
+        <v>1069127.5347</v>
+      </c>
+      <c r="G96" t="n">
+        <v>0.4819133333333323</v>
+      </c>
+      <c r="H96" t="n">
+        <v>0.4882766666666671</v>
+      </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>0</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
+      <c r="L96" t="inlineStr"/>
+      <c r="M96" t="inlineStr"/>
+      <c r="N96" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="n">
+        <v>0.4881</v>
+      </c>
+      <c r="C97" t="n">
+        <v>0.4882</v>
+      </c>
+      <c r="D97" t="n">
+        <v>0.4882</v>
+      </c>
+      <c r="E97" t="n">
+        <v>0.4881</v>
+      </c>
+      <c r="F97" t="n">
+        <v>187069.8219</v>
+      </c>
+      <c r="G97" t="n">
+        <v>0.482219999999999</v>
+      </c>
+      <c r="H97" t="n">
+        <v>0.4881016666666671</v>
+      </c>
+      <c r="I97" t="n">
+        <v>0</v>
+      </c>
+      <c r="J97" t="n">
+        <v>0</v>
+      </c>
+      <c r="K97" t="inlineStr"/>
+      <c r="L97" t="inlineStr"/>
+      <c r="M97" t="inlineStr"/>
+      <c r="N97" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="n">
+        <v>0.4881</v>
+      </c>
+      <c r="C98" t="n">
+        <v>0.4871</v>
+      </c>
+      <c r="D98" t="n">
+        <v>0.4884</v>
+      </c>
+      <c r="E98" t="n">
+        <v>0.4871</v>
+      </c>
+      <c r="F98" t="n">
+        <v>422489.5371</v>
+      </c>
+      <c r="G98" t="n">
+        <v>0.4824466666666656</v>
+      </c>
+      <c r="H98" t="n">
+        <v>0.4881133333333338</v>
+      </c>
+      <c r="I98" t="n">
+        <v>0</v>
+      </c>
+      <c r="J98" t="n">
+        <v>0</v>
+      </c>
+      <c r="K98" t="inlineStr"/>
+      <c r="L98" t="inlineStr"/>
+      <c r="M98" t="inlineStr"/>
+      <c r="N98" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="n">
+        <v>0.4884</v>
+      </c>
+      <c r="C99" t="n">
+        <v>0.4884</v>
+      </c>
+      <c r="D99" t="n">
+        <v>0.4884</v>
+      </c>
+      <c r="E99" t="n">
+        <v>0.4884</v>
+      </c>
+      <c r="F99" t="n">
+        <v>1818</v>
+      </c>
+      <c r="G99" t="n">
+        <v>0.482799999999999</v>
+      </c>
+      <c r="H99" t="n">
+        <v>0.4879416666666671</v>
+      </c>
+      <c r="I99" t="n">
+        <v>0</v>
+      </c>
+      <c r="J99" t="n">
+        <v>0</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
+      <c r="L99" t="inlineStr"/>
+      <c r="M99" t="inlineStr"/>
+      <c r="N99" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="n">
+        <v>0.4871</v>
+      </c>
+      <c r="C100" t="n">
+        <v>0.4871</v>
+      </c>
+      <c r="D100" t="n">
+        <v>0.4871</v>
+      </c>
+      <c r="E100" t="n">
+        <v>0.4871</v>
+      </c>
+      <c r="F100" t="n">
+        <v>115671</v>
+      </c>
+      <c r="G100" t="n">
+        <v>0.4832533333333323</v>
+      </c>
+      <c r="H100" t="n">
+        <v>0.4879416666666671</v>
+      </c>
+      <c r="I100" t="n">
+        <v>0</v>
+      </c>
+      <c r="J100" t="n">
+        <v>0</v>
+      </c>
+      <c r="K100" t="inlineStr"/>
+      <c r="L100" t="inlineStr"/>
+      <c r="M100" t="inlineStr"/>
+      <c r="N100" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="n">
+        <v>0.4871</v>
+      </c>
+      <c r="C101" t="n">
+        <v>0.4884</v>
+      </c>
+      <c r="D101" t="n">
+        <v>0.4884</v>
+      </c>
+      <c r="E101" t="n">
+        <v>0.4871</v>
+      </c>
+      <c r="F101" t="n">
+        <v>50000</v>
+      </c>
+      <c r="G101" t="n">
+        <v>0.4837933333333324</v>
+      </c>
+      <c r="H101" t="n">
+        <v>0.4879633333333337</v>
+      </c>
+      <c r="I101" t="n">
+        <v>0</v>
+      </c>
+      <c r="J101" t="n">
+        <v>0</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
+      <c r="L101" t="inlineStr"/>
+      <c r="M101" t="inlineStr"/>
+      <c r="N101" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="n">
+        <v>0.4884</v>
+      </c>
+      <c r="C102" t="n">
+        <v>0.488</v>
+      </c>
+      <c r="D102" t="n">
+        <v>0.4884</v>
+      </c>
+      <c r="E102" t="n">
+        <v>0.488</v>
+      </c>
+      <c r="F102" t="n">
+        <v>12161</v>
+      </c>
+      <c r="G102" t="n">
+        <v>0.4843133333333324</v>
+      </c>
+      <c r="H102" t="n">
+        <v>0.4877883333333337</v>
+      </c>
+      <c r="I102" t="n">
+        <v>0</v>
+      </c>
+      <c r="J102" t="n">
+        <v>0</v>
+      </c>
+      <c r="K102" t="inlineStr"/>
+      <c r="L102" t="inlineStr"/>
+      <c r="M102" t="inlineStr"/>
+      <c r="N102" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="n">
+        <v>0.488</v>
+      </c>
+      <c r="C103" t="n">
+        <v>0.488</v>
+      </c>
+      <c r="D103" t="n">
+        <v>0.488</v>
+      </c>
+      <c r="E103" t="n">
+        <v>0.488</v>
+      </c>
+      <c r="F103" t="n">
+        <v>80402</v>
+      </c>
+      <c r="G103" t="n">
+        <v>0.4848333333333323</v>
+      </c>
+      <c r="H103" t="n">
+        <v>0.4876116666666671</v>
+      </c>
+      <c r="I103" t="n">
+        <v>0</v>
+      </c>
+      <c r="J103" t="n">
+        <v>0</v>
+      </c>
+      <c r="K103" t="inlineStr"/>
+      <c r="L103" t="inlineStr"/>
+      <c r="M103" t="inlineStr"/>
+      <c r="N103" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="n">
+        <v>0.488</v>
+      </c>
+      <c r="C104" t="n">
+        <v>0.488</v>
+      </c>
+      <c r="D104" t="n">
+        <v>0.488</v>
+      </c>
+      <c r="E104" t="n">
+        <v>0.488</v>
+      </c>
+      <c r="F104" t="n">
+        <v>919635.1188000001</v>
+      </c>
+      <c r="G104" t="n">
+        <v>0.4853533333333323</v>
+      </c>
+      <c r="H104" t="n">
+        <v>0.487601666666667</v>
+      </c>
+      <c r="I104" t="n">
+        <v>0</v>
+      </c>
+      <c r="J104" t="n">
+        <v>0</v>
+      </c>
+      <c r="K104" t="inlineStr"/>
+      <c r="L104" t="inlineStr"/>
+      <c r="M104" t="inlineStr"/>
+      <c r="N104" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="n">
+        <v>0.488</v>
+      </c>
+      <c r="C105" t="n">
+        <v>0.488</v>
+      </c>
+      <c r="D105" t="n">
+        <v>0.488</v>
+      </c>
+      <c r="E105" t="n">
+        <v>0.488</v>
+      </c>
+      <c r="F105" t="n">
+        <v>98142.5386</v>
+      </c>
+      <c r="G105" t="n">
+        <v>0.4858733333333323</v>
+      </c>
+      <c r="H105" t="n">
+        <v>0.4874283333333337</v>
+      </c>
+      <c r="I105" t="n">
+        <v>0</v>
+      </c>
+      <c r="J105" t="n">
+        <v>0</v>
+      </c>
+      <c r="K105" t="inlineStr"/>
+      <c r="L105" t="inlineStr"/>
+      <c r="M105" t="inlineStr"/>
+      <c r="N105" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="n">
+        <v>0.488</v>
+      </c>
+      <c r="C106" t="n">
+        <v>0.4884</v>
+      </c>
+      <c r="D106" t="n">
+        <v>0.4884</v>
+      </c>
+      <c r="E106" t="n">
+        <v>0.488</v>
+      </c>
+      <c r="F106" t="n">
+        <v>967489.548</v>
+      </c>
+      <c r="G106" t="n">
+        <v>0.486419999999999</v>
+      </c>
+      <c r="H106" t="n">
+        <v>0.487386666666667</v>
+      </c>
+      <c r="I106" t="n">
+        <v>1</v>
+      </c>
+      <c r="J106" t="n">
+        <v>0</v>
+      </c>
+      <c r="K106" t="n">
+        <v>0.488</v>
+      </c>
+      <c r="L106" t="inlineStr"/>
+      <c r="M106" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" s="1" t="n">
-        <v>88</v>
-      </c>
-      <c r="B90" t="n">
-        <v>0.4802</v>
-      </c>
-      <c r="C90" t="n">
-        <v>0.4802</v>
-      </c>
-      <c r="D90" t="n">
-        <v>0.4802</v>
-      </c>
-      <c r="E90" t="n">
-        <v>0.4802</v>
-      </c>
-      <c r="F90" t="n">
-        <v>565634.8251</v>
-      </c>
-      <c r="G90" t="n">
-        <v>0.4898083333333337</v>
-      </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="n">
-        <v>0.4802</v>
-      </c>
-      <c r="L90" t="inlineStr">
+      <c r="N106" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="n">
+        <v>0.4884</v>
+      </c>
+      <c r="C107" t="n">
+        <v>0.4884</v>
+      </c>
+      <c r="D107" t="n">
+        <v>0.4884</v>
+      </c>
+      <c r="E107" t="n">
+        <v>0.4884</v>
+      </c>
+      <c r="F107" t="n">
+        <v>52430.8116</v>
+      </c>
+      <c r="G107" t="n">
+        <v>0.4869666666666657</v>
+      </c>
+      <c r="H107" t="n">
+        <v>0.4873833333333336</v>
+      </c>
+      <c r="I107" t="n">
+        <v>1</v>
+      </c>
+      <c r="J107" t="n">
+        <v>0</v>
+      </c>
+      <c r="K107" t="n">
+        <v>0.4884</v>
+      </c>
+      <c r="L107" t="inlineStr"/>
+      <c r="M107" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" s="1" t="n">
-        <v>89</v>
-      </c>
-      <c r="B91" t="n">
-        <v>0.4802</v>
-      </c>
-      <c r="C91" t="n">
-        <v>0.4802</v>
-      </c>
-      <c r="D91" t="n">
-        <v>0.4802</v>
-      </c>
-      <c r="E91" t="n">
-        <v>0.4802</v>
-      </c>
-      <c r="F91" t="n">
-        <v>34471.1143</v>
-      </c>
-      <c r="G91" t="n">
-        <v>0.4894850000000004</v>
-      </c>
-      <c r="H91" t="n">
-        <v>1</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>0.4802</v>
-      </c>
-      <c r="K91" t="n">
-        <v>0.4802</v>
-      </c>
-      <c r="L91" t="inlineStr">
+      <c r="N107" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="n">
+        <v>0.488</v>
+      </c>
+      <c r="C108" t="n">
+        <v>0.488</v>
+      </c>
+      <c r="D108" t="n">
+        <v>0.488</v>
+      </c>
+      <c r="E108" t="n">
+        <v>0.488</v>
+      </c>
+      <c r="F108" t="n">
+        <v>31060</v>
+      </c>
+      <c r="G108" t="n">
+        <v>0.4874866666666656</v>
+      </c>
+      <c r="H108" t="n">
+        <v>0.4872100000000003</v>
+      </c>
+      <c r="I108" t="n">
+        <v>1</v>
+      </c>
+      <c r="J108" t="n">
+        <v>0</v>
+      </c>
+      <c r="K108" t="n">
+        <v>0.4884</v>
+      </c>
+      <c r="L108" t="inlineStr"/>
+      <c r="M108" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" s="1" t="n">
-        <v>90</v>
-      </c>
-      <c r="B92" t="n">
-        <v>0.4773</v>
-      </c>
-      <c r="C92" t="n">
-        <v>0.4802</v>
-      </c>
-      <c r="D92" t="n">
-        <v>0.4802</v>
-      </c>
-      <c r="E92" t="n">
-        <v>0.4773</v>
-      </c>
-      <c r="F92" t="n">
-        <v>616302.8312</v>
-      </c>
-      <c r="G92" t="n">
-        <v>0.489216666666667</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
-      <c r="I92" t="n">
-        <v>0</v>
-      </c>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="n">
-        <v>0.4802</v>
-      </c>
-      <c r="L92" t="inlineStr">
+      <c r="N108" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="n">
+        <v>0.488</v>
+      </c>
+      <c r="C109" t="n">
+        <v>0.488</v>
+      </c>
+      <c r="D109" t="n">
+        <v>0.488</v>
+      </c>
+      <c r="E109" t="n">
+        <v>0.488</v>
+      </c>
+      <c r="F109" t="n">
+        <v>52587.285</v>
+      </c>
+      <c r="G109" t="n">
+        <v>0.4874599999999989</v>
+      </c>
+      <c r="H109" t="n">
+        <v>0.4870366666666669</v>
+      </c>
+      <c r="I109" t="n">
+        <v>1</v>
+      </c>
+      <c r="J109" t="n">
+        <v>0</v>
+      </c>
+      <c r="K109" t="n">
+        <v>0.488</v>
+      </c>
+      <c r="L109" t="inlineStr"/>
+      <c r="M109" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" s="1" t="n">
-        <v>91</v>
-      </c>
-      <c r="B93" t="n">
-        <v>0.4802</v>
-      </c>
-      <c r="C93" t="n">
-        <v>0.4802</v>
-      </c>
-      <c r="D93" t="n">
-        <v>0.4802</v>
-      </c>
-      <c r="E93" t="n">
-        <v>0.4802</v>
-      </c>
-      <c r="F93" t="n">
-        <v>146861.7333</v>
-      </c>
-      <c r="G93" t="n">
-        <v>0.4889000000000004</v>
-      </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
-      <c r="I93" t="n">
-        <v>0</v>
-      </c>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="n">
-        <v>0.4802</v>
-      </c>
-      <c r="L93" t="inlineStr">
+      <c r="N109" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="n">
+        <v>0.488</v>
+      </c>
+      <c r="C110" t="n">
+        <v>0.488</v>
+      </c>
+      <c r="D110" t="n">
+        <v>0.488</v>
+      </c>
+      <c r="E110" t="n">
+        <v>0.488</v>
+      </c>
+      <c r="F110" t="n">
+        <v>1300</v>
+      </c>
+      <c r="G110" t="n">
+        <v>0.4874799999999989</v>
+      </c>
+      <c r="H110" t="n">
+        <v>0.4868633333333336</v>
+      </c>
+      <c r="I110" t="n">
+        <v>1</v>
+      </c>
+      <c r="J110" t="n">
+        <v>0</v>
+      </c>
+      <c r="K110" t="n">
+        <v>0.488</v>
+      </c>
+      <c r="L110" t="inlineStr"/>
+      <c r="M110" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" s="1" t="n">
-        <v>92</v>
-      </c>
-      <c r="B94" t="n">
-        <v>0.4884</v>
-      </c>
-      <c r="C94" t="n">
-        <v>0.4884</v>
-      </c>
-      <c r="D94" t="n">
-        <v>0.4884</v>
-      </c>
-      <c r="E94" t="n">
-        <v>0.4884</v>
-      </c>
-      <c r="F94" t="n">
-        <v>78154.8015</v>
-      </c>
-      <c r="G94" t="n">
-        <v>0.4887266666666671</v>
-      </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="n">
-        <v>0.4802</v>
-      </c>
-      <c r="L94" t="inlineStr">
+      <c r="N110" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="n">
+        <v>0.488</v>
+      </c>
+      <c r="C111" t="n">
+        <v>0.488</v>
+      </c>
+      <c r="D111" t="n">
+        <v>0.488</v>
+      </c>
+      <c r="E111" t="n">
+        <v>0.488</v>
+      </c>
+      <c r="F111" t="n">
+        <v>25000</v>
+      </c>
+      <c r="G111" t="n">
+        <v>0.4879999999999988</v>
+      </c>
+      <c r="H111" t="n">
+        <v>0.4868583333333336</v>
+      </c>
+      <c r="I111" t="n">
+        <v>1</v>
+      </c>
+      <c r="J111" t="n">
+        <v>0</v>
+      </c>
+      <c r="K111" t="n">
+        <v>0.488</v>
+      </c>
+      <c r="L111" t="inlineStr"/>
+      <c r="M111" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" s="1" t="n">
-        <v>93</v>
-      </c>
-      <c r="B95" t="n">
-        <v>0.4877</v>
-      </c>
-      <c r="C95" t="n">
-        <v>0.4877</v>
-      </c>
-      <c r="D95" t="n">
-        <v>0.4968</v>
-      </c>
-      <c r="E95" t="n">
-        <v>0.4877</v>
-      </c>
-      <c r="F95" t="n">
-        <v>4642.4413</v>
-      </c>
-      <c r="G95" t="n">
-        <v>0.4885416666666671</v>
-      </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
-      <c r="I95" t="n">
-        <v>0</v>
-      </c>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="n">
-        <v>0.4802</v>
-      </c>
-      <c r="L95" t="inlineStr">
+      <c r="N111" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="n">
+        <v>0.488</v>
+      </c>
+      <c r="C112" t="n">
+        <v>0.488</v>
+      </c>
+      <c r="D112" t="n">
+        <v>0.488</v>
+      </c>
+      <c r="E112" t="n">
+        <v>0.488</v>
+      </c>
+      <c r="F112" t="n">
+        <v>513396.24</v>
+      </c>
+      <c r="G112" t="n">
+        <v>0.4879866666666655</v>
+      </c>
+      <c r="H112" t="n">
+        <v>0.4868933333333336</v>
+      </c>
+      <c r="I112" t="n">
+        <v>1</v>
+      </c>
+      <c r="J112" t="n">
+        <v>0</v>
+      </c>
+      <c r="K112" t="n">
+        <v>0.488</v>
+      </c>
+      <c r="L112" t="inlineStr"/>
+      <c r="M112" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" s="1" t="n">
-        <v>94</v>
-      </c>
-      <c r="B96" t="n">
-        <v>0.4882</v>
-      </c>
-      <c r="C96" t="n">
-        <v>0.4802</v>
-      </c>
-      <c r="D96" t="n">
-        <v>0.4882</v>
-      </c>
-      <c r="E96" t="n">
-        <v>0.4802</v>
-      </c>
-      <c r="F96" t="n">
-        <v>1069127.5347</v>
-      </c>
-      <c r="G96" t="n">
-        <v>0.4882766666666671</v>
-      </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="n">
-        <v>0.4802</v>
-      </c>
-      <c r="L96" t="inlineStr">
+      <c r="N112" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="n">
+        <v>0.488</v>
+      </c>
+      <c r="C113" t="n">
+        <v>0.4964</v>
+      </c>
+      <c r="D113" t="n">
+        <v>0.4964</v>
+      </c>
+      <c r="E113" t="n">
+        <v>0.488</v>
+      </c>
+      <c r="F113" t="n">
+        <v>466705.9</v>
+      </c>
+      <c r="G113" t="n">
+        <v>0.4886066666666655</v>
+      </c>
+      <c r="H113" t="n">
+        <v>0.4871933333333336</v>
+      </c>
+      <c r="I113" t="n">
+        <v>1</v>
+      </c>
+      <c r="J113" t="n">
+        <v>0</v>
+      </c>
+      <c r="K113" t="n">
+        <v>0.488</v>
+      </c>
+      <c r="L113" t="inlineStr"/>
+      <c r="M113" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" s="1" t="n">
-        <v>95</v>
-      </c>
-      <c r="B97" t="n">
-        <v>0.4881</v>
-      </c>
-      <c r="C97" t="n">
-        <v>0.4882</v>
-      </c>
-      <c r="D97" t="n">
-        <v>0.4882</v>
-      </c>
-      <c r="E97" t="n">
-        <v>0.4881</v>
-      </c>
-      <c r="F97" t="n">
-        <v>187069.8219</v>
-      </c>
-      <c r="G97" t="n">
-        <v>0.4881016666666671</v>
-      </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
-      <c r="I97" t="n">
-        <v>0</v>
-      </c>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="n">
-        <v>0.4802</v>
-      </c>
-      <c r="L97" t="inlineStr">
+      <c r="N113" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="n">
+        <v>0.488</v>
+      </c>
+      <c r="C114" t="n">
+        <v>0.488</v>
+      </c>
+      <c r="D114" t="n">
+        <v>0.488</v>
+      </c>
+      <c r="E114" t="n">
+        <v>0.488</v>
+      </c>
+      <c r="F114" t="n">
+        <v>96730</v>
+      </c>
+      <c r="G114" t="n">
+        <v>0.4885799999999988</v>
+      </c>
+      <c r="H114" t="n">
+        <v>0.4871883333333336</v>
+      </c>
+      <c r="I114" t="n">
+        <v>1</v>
+      </c>
+      <c r="J114" t="n">
+        <v>0</v>
+      </c>
+      <c r="K114" t="n">
+        <v>0.4964</v>
+      </c>
+      <c r="L114" t="inlineStr"/>
+      <c r="M114" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" s="1" t="n">
-        <v>96</v>
-      </c>
-      <c r="B98" t="n">
-        <v>0.4881</v>
-      </c>
-      <c r="C98" t="n">
-        <v>0.4871</v>
-      </c>
-      <c r="D98" t="n">
-        <v>0.4884</v>
-      </c>
-      <c r="E98" t="n">
-        <v>0.4871</v>
-      </c>
-      <c r="F98" t="n">
-        <v>422489.5371</v>
-      </c>
-      <c r="G98" t="n">
-        <v>0.4881133333333338</v>
-      </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>0</v>
-      </c>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="n">
-        <v>0.4802</v>
-      </c>
-      <c r="L98" t="inlineStr">
+      <c r="N114" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="n">
+        <v>0.488</v>
+      </c>
+      <c r="C115" t="n">
+        <v>0.488</v>
+      </c>
+      <c r="D115" t="n">
+        <v>0.488</v>
+      </c>
+      <c r="E115" t="n">
+        <v>0.488</v>
+      </c>
+      <c r="F115" t="n">
+        <v>846923.4313000001</v>
+      </c>
+      <c r="G115" t="n">
+        <v>0.4886399999999987</v>
+      </c>
+      <c r="H115" t="n">
+        <v>0.4870183333333336</v>
+      </c>
+      <c r="I115" t="n">
+        <v>1</v>
+      </c>
+      <c r="J115" t="n">
+        <v>0</v>
+      </c>
+      <c r="K115" t="n">
+        <v>0.488</v>
+      </c>
+      <c r="L115" t="inlineStr"/>
+      <c r="M115" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" s="1" t="n">
-        <v>97</v>
-      </c>
-      <c r="B99" t="n">
-        <v>0.4884</v>
-      </c>
-      <c r="C99" t="n">
-        <v>0.4884</v>
-      </c>
-      <c r="D99" t="n">
-        <v>0.4884</v>
-      </c>
-      <c r="E99" t="n">
-        <v>0.4884</v>
-      </c>
-      <c r="F99" t="n">
-        <v>1818</v>
-      </c>
-      <c r="G99" t="n">
-        <v>0.4879416666666671</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
-      <c r="I99" t="n">
-        <v>0</v>
-      </c>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="n">
-        <v>0.4802</v>
-      </c>
-      <c r="L99" t="inlineStr">
+      <c r="N115" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="n">
+        <v>0.497</v>
+      </c>
+      <c r="C116" t="n">
+        <v>0.4987</v>
+      </c>
+      <c r="D116" t="n">
+        <v>0.4987</v>
+      </c>
+      <c r="E116" t="n">
+        <v>0.497</v>
+      </c>
+      <c r="F116" t="n">
+        <v>15403</v>
+      </c>
+      <c r="G116" t="n">
+        <v>0.4893266666666654</v>
+      </c>
+      <c r="H116" t="n">
+        <v>0.4870266666666669</v>
+      </c>
+      <c r="I116" t="n">
+        <v>1</v>
+      </c>
+      <c r="J116" t="n">
+        <v>0</v>
+      </c>
+      <c r="K116" t="n">
+        <v>0.488</v>
+      </c>
+      <c r="L116" t="inlineStr"/>
+      <c r="M116" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" s="1" t="n">
-        <v>98</v>
-      </c>
-      <c r="B100" t="n">
-        <v>0.4871</v>
-      </c>
-      <c r="C100" t="n">
-        <v>0.4871</v>
-      </c>
-      <c r="D100" t="n">
-        <v>0.4871</v>
-      </c>
-      <c r="E100" t="n">
-        <v>0.4871</v>
-      </c>
-      <c r="F100" t="n">
-        <v>115671</v>
-      </c>
-      <c r="G100" t="n">
-        <v>0.4879416666666671</v>
-      </c>
-      <c r="H100" t="n">
-        <v>1</v>
-      </c>
-      <c r="I100" t="n">
-        <v>0</v>
-      </c>
-      <c r="J100" t="n">
-        <v>0.4884</v>
-      </c>
-      <c r="K100" t="n">
-        <v>0.4802</v>
-      </c>
-      <c r="L100" t="inlineStr">
+      <c r="N116" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="n">
+        <v>0.4881</v>
+      </c>
+      <c r="C117" t="n">
+        <v>0.4881</v>
+      </c>
+      <c r="D117" t="n">
+        <v>0.4881</v>
+      </c>
+      <c r="E117" t="n">
+        <v>0.4881</v>
+      </c>
+      <c r="F117" t="n">
+        <v>1818</v>
+      </c>
+      <c r="G117" t="n">
+        <v>0.4893333333333321</v>
+      </c>
+      <c r="H117" t="n">
+        <v>0.4868583333333335</v>
+      </c>
+      <c r="I117" t="n">
+        <v>1</v>
+      </c>
+      <c r="J117" t="n">
+        <v>0</v>
+      </c>
+      <c r="K117" t="n">
+        <v>0.4987</v>
+      </c>
+      <c r="L117" t="inlineStr"/>
+      <c r="M117" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" s="1" t="n">
-        <v>99</v>
-      </c>
-      <c r="B101" t="n">
-        <v>0.4871</v>
-      </c>
-      <c r="C101" t="n">
-        <v>0.4884</v>
-      </c>
-      <c r="D101" t="n">
-        <v>0.4884</v>
-      </c>
-      <c r="E101" t="n">
-        <v>0.4871</v>
-      </c>
-      <c r="F101" t="n">
-        <v>50000</v>
-      </c>
-      <c r="G101" t="n">
-        <v>0.4879633333333337</v>
-      </c>
-      <c r="H101" t="n">
-        <v>1</v>
-      </c>
-      <c r="I101" t="n">
-        <v>0</v>
-      </c>
-      <c r="J101" t="n">
-        <v>0.4871</v>
-      </c>
-      <c r="K101" t="n">
-        <v>0.4802</v>
-      </c>
-      <c r="L101" t="inlineStr">
+      <c r="N117" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="n">
+        <v>0.4987</v>
+      </c>
+      <c r="C118" t="n">
+        <v>0.4987</v>
+      </c>
+      <c r="D118" t="n">
+        <v>0.4987</v>
+      </c>
+      <c r="E118" t="n">
+        <v>0.4883</v>
+      </c>
+      <c r="F118" t="n">
+        <v>1814701.4486</v>
+      </c>
+      <c r="G118" t="n">
+        <v>0.4900466666666655</v>
+      </c>
+      <c r="H118" t="n">
+        <v>0.4869983333333335</v>
+      </c>
+      <c r="I118" t="n">
+        <v>1</v>
+      </c>
+      <c r="J118" t="n">
+        <v>0</v>
+      </c>
+      <c r="K118" t="n">
+        <v>0.4881</v>
+      </c>
+      <c r="L118" t="inlineStr"/>
+      <c r="M118" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" s="1" t="n">
-        <v>100</v>
-      </c>
-      <c r="B102" t="n">
-        <v>0.4884</v>
-      </c>
-      <c r="C102" t="n">
-        <v>0.488</v>
-      </c>
-      <c r="D102" t="n">
-        <v>0.4884</v>
-      </c>
-      <c r="E102" t="n">
-        <v>0.488</v>
-      </c>
-      <c r="F102" t="n">
-        <v>12161</v>
-      </c>
-      <c r="G102" t="n">
-        <v>0.4877883333333337</v>
-      </c>
-      <c r="H102" t="n">
-        <v>1</v>
-      </c>
-      <c r="I102" t="n">
-        <v>0</v>
-      </c>
-      <c r="J102" t="n">
-        <v>0.4884</v>
-      </c>
-      <c r="K102" t="n">
-        <v>0.4802</v>
-      </c>
-      <c r="L102" t="inlineStr">
+      <c r="N118" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="n">
+        <v>0.4986</v>
+      </c>
+      <c r="C119" t="n">
+        <v>0.4986</v>
+      </c>
+      <c r="D119" t="n">
+        <v>0.4986</v>
+      </c>
+      <c r="E119" t="n">
+        <v>0.4986</v>
+      </c>
+      <c r="F119" t="n">
+        <v>1818</v>
+      </c>
+      <c r="G119" t="n">
+        <v>0.4907533333333322</v>
+      </c>
+      <c r="H119" t="n">
+        <v>0.4871366666666668</v>
+      </c>
+      <c r="I119" t="n">
+        <v>1</v>
+      </c>
+      <c r="J119" t="n">
+        <v>0</v>
+      </c>
+      <c r="K119" t="n">
+        <v>0.4987</v>
+      </c>
+      <c r="L119" t="inlineStr"/>
+      <c r="M119" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" s="1" t="n">
-        <v>101</v>
-      </c>
-      <c r="B103" t="n">
-        <v>0.488</v>
-      </c>
-      <c r="C103" t="n">
-        <v>0.488</v>
-      </c>
-      <c r="D103" t="n">
-        <v>0.488</v>
-      </c>
-      <c r="E103" t="n">
-        <v>0.488</v>
-      </c>
-      <c r="F103" t="n">
-        <v>80402</v>
-      </c>
-      <c r="G103" t="n">
-        <v>0.4876116666666671</v>
-      </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
-      <c r="I103" t="n">
-        <v>0</v>
-      </c>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="n">
-        <v>0.4802</v>
-      </c>
-      <c r="L103" t="inlineStr">
+      <c r="N119" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="n">
+        <v>0.4987</v>
+      </c>
+      <c r="C120" t="n">
+        <v>0.4987</v>
+      </c>
+      <c r="D120" t="n">
+        <v>0.4987</v>
+      </c>
+      <c r="E120" t="n">
+        <v>0.4987</v>
+      </c>
+      <c r="F120" t="n">
+        <v>1818</v>
+      </c>
+      <c r="G120" t="n">
+        <v>0.4914666666666655</v>
+      </c>
+      <c r="H120" t="n">
+        <v>0.4872716666666668</v>
+      </c>
+      <c r="I120" t="n">
+        <v>0</v>
+      </c>
+      <c r="J120" t="n">
+        <v>0</v>
+      </c>
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="inlineStr"/>
+      <c r="M120" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" s="1" t="n">
-        <v>102</v>
-      </c>
-      <c r="B104" t="n">
-        <v>0.488</v>
-      </c>
-      <c r="C104" t="n">
-        <v>0.488</v>
-      </c>
-      <c r="D104" t="n">
-        <v>0.488</v>
-      </c>
-      <c r="E104" t="n">
-        <v>0.488</v>
-      </c>
-      <c r="F104" t="n">
-        <v>919635.1188000001</v>
-      </c>
-      <c r="G104" t="n">
-        <v>0.487601666666667</v>
-      </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
-      <c r="I104" t="n">
-        <v>0</v>
-      </c>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="n">
-        <v>0.4802</v>
-      </c>
-      <c r="L104" t="inlineStr">
+      <c r="N120" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="n">
+        <v>0.4983</v>
+      </c>
+      <c r="C121" t="n">
+        <v>0.4983</v>
+      </c>
+      <c r="D121" t="n">
+        <v>0.4983</v>
+      </c>
+      <c r="E121" t="n">
+        <v>0.4983</v>
+      </c>
+      <c r="F121" t="n">
+        <v>4311.4969</v>
+      </c>
+      <c r="G121" t="n">
+        <v>0.4921266666666655</v>
+      </c>
+      <c r="H121" t="n">
+        <v>0.4875616666666668</v>
+      </c>
+      <c r="I121" t="n">
+        <v>0</v>
+      </c>
+      <c r="J121" t="n">
+        <v>0</v>
+      </c>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="inlineStr"/>
+      <c r="M121" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" s="1" t="n">
-        <v>103</v>
-      </c>
-      <c r="B105" t="n">
-        <v>0.488</v>
-      </c>
-      <c r="C105" t="n">
-        <v>0.488</v>
-      </c>
-      <c r="D105" t="n">
-        <v>0.488</v>
-      </c>
-      <c r="E105" t="n">
-        <v>0.488</v>
-      </c>
-      <c r="F105" t="n">
-        <v>98142.5386</v>
-      </c>
-      <c r="G105" t="n">
-        <v>0.4874283333333337</v>
-      </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
-      <c r="I105" t="n">
-        <v>0</v>
-      </c>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="n">
-        <v>0.4802</v>
-      </c>
-      <c r="L105" t="inlineStr">
+      <c r="N121" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="n">
+        <v>0.4984</v>
+      </c>
+      <c r="C122" t="n">
+        <v>0.4983</v>
+      </c>
+      <c r="D122" t="n">
+        <v>0.4984</v>
+      </c>
+      <c r="E122" t="n">
+        <v>0.4983</v>
+      </c>
+      <c r="F122" t="n">
+        <v>3636</v>
+      </c>
+      <c r="G122" t="n">
+        <v>0.4927866666666655</v>
+      </c>
+      <c r="H122" t="n">
+        <v>0.4876516666666669</v>
+      </c>
+      <c r="I122" t="n">
+        <v>0</v>
+      </c>
+      <c r="J122" t="n">
+        <v>0</v>
+      </c>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="inlineStr"/>
+      <c r="M122" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" s="1" t="n">
-        <v>104</v>
-      </c>
-      <c r="B106" t="n">
-        <v>0.488</v>
-      </c>
-      <c r="C106" t="n">
-        <v>0.4884</v>
-      </c>
-      <c r="D106" t="n">
-        <v>0.4884</v>
-      </c>
-      <c r="E106" t="n">
-        <v>0.488</v>
-      </c>
-      <c r="F106" t="n">
-        <v>967489.548</v>
-      </c>
-      <c r="G106" t="n">
-        <v>0.487386666666667</v>
-      </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
-      <c r="I106" t="n">
-        <v>0</v>
-      </c>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="n">
-        <v>0.4802</v>
-      </c>
-      <c r="L106" t="inlineStr">
+      <c r="N122" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="n">
+        <v>0.4981</v>
+      </c>
+      <c r="C123" t="n">
+        <v>0.498</v>
+      </c>
+      <c r="D123" t="n">
+        <v>0.4981</v>
+      </c>
+      <c r="E123" t="n">
+        <v>0.498</v>
+      </c>
+      <c r="F123" t="n">
+        <v>57000</v>
+      </c>
+      <c r="G123" t="n">
+        <v>0.4934533333333321</v>
+      </c>
+      <c r="H123" t="n">
+        <v>0.4878083333333335</v>
+      </c>
+      <c r="I123" t="n">
+        <v>0</v>
+      </c>
+      <c r="J123" t="n">
+        <v>0</v>
+      </c>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="inlineStr"/>
+      <c r="M123" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" s="1" t="n">
-        <v>105</v>
-      </c>
-      <c r="B107" t="n">
-        <v>0.4884</v>
-      </c>
-      <c r="C107" t="n">
-        <v>0.4884</v>
-      </c>
-      <c r="D107" t="n">
-        <v>0.4884</v>
-      </c>
-      <c r="E107" t="n">
-        <v>0.4884</v>
-      </c>
-      <c r="F107" t="n">
-        <v>52430.8116</v>
-      </c>
-      <c r="G107" t="n">
-        <v>0.4873833333333336</v>
-      </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
-      <c r="I107" t="n">
-        <v>0</v>
-      </c>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="n">
-        <v>0.4802</v>
-      </c>
-      <c r="L107" t="inlineStr">
+      <c r="N123" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="n">
+        <v>0.4979</v>
+      </c>
+      <c r="C124" t="n">
+        <v>0.4979</v>
+      </c>
+      <c r="D124" t="n">
+        <v>0.4979</v>
+      </c>
+      <c r="E124" t="n">
+        <v>0.4979</v>
+      </c>
+      <c r="F124" t="n">
+        <v>1818</v>
+      </c>
+      <c r="G124" t="n">
+        <v>0.4941133333333321</v>
+      </c>
+      <c r="H124" t="n">
+        <v>0.4879666666666669</v>
+      </c>
+      <c r="I124" t="n">
+        <v>0</v>
+      </c>
+      <c r="J124" t="n">
+        <v>0</v>
+      </c>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="inlineStr"/>
+      <c r="M124" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" s="1" t="n">
-        <v>106</v>
-      </c>
-      <c r="B108" t="n">
-        <v>0.488</v>
-      </c>
-      <c r="C108" t="n">
-        <v>0.488</v>
-      </c>
-      <c r="D108" t="n">
-        <v>0.488</v>
-      </c>
-      <c r="E108" t="n">
-        <v>0.488</v>
-      </c>
-      <c r="F108" t="n">
-        <v>31060</v>
-      </c>
-      <c r="G108" t="n">
-        <v>0.4872100000000003</v>
-      </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
-      <c r="I108" t="n">
-        <v>0</v>
-      </c>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="n">
-        <v>0.4802</v>
-      </c>
-      <c r="L108" t="inlineStr">
+      <c r="N124" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="n">
+        <v>0.4978</v>
+      </c>
+      <c r="C125" t="n">
+        <v>0.4978</v>
+      </c>
+      <c r="D125" t="n">
+        <v>0.4978</v>
+      </c>
+      <c r="E125" t="n">
+        <v>0.4978</v>
+      </c>
+      <c r="F125" t="n">
+        <v>30000</v>
+      </c>
+      <c r="G125" t="n">
+        <v>0.4947666666666655</v>
+      </c>
+      <c r="H125" t="n">
+        <v>0.4881366666666669</v>
+      </c>
+      <c r="I125" t="n">
+        <v>0</v>
+      </c>
+      <c r="J125" t="n">
+        <v>0</v>
+      </c>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="inlineStr"/>
+      <c r="M125" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" s="1" t="n">
-        <v>107</v>
-      </c>
-      <c r="B109" t="n">
-        <v>0.488</v>
-      </c>
-      <c r="C109" t="n">
-        <v>0.488</v>
-      </c>
-      <c r="D109" t="n">
-        <v>0.488</v>
-      </c>
-      <c r="E109" t="n">
-        <v>0.488</v>
-      </c>
-      <c r="F109" t="n">
-        <v>52587.285</v>
-      </c>
-      <c r="G109" t="n">
-        <v>0.4870366666666669</v>
-      </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
-      <c r="I109" t="n">
-        <v>0</v>
-      </c>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="n">
-        <v>0.4802</v>
-      </c>
-      <c r="L109" t="inlineStr">
+      <c r="N125" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="n">
+        <v>0.4978</v>
+      </c>
+      <c r="C126" t="n">
+        <v>0.4988</v>
+      </c>
+      <c r="D126" t="n">
+        <v>0.4988</v>
+      </c>
+      <c r="E126" t="n">
+        <v>0.4978</v>
+      </c>
+      <c r="F126" t="n">
+        <v>1058034.3638</v>
+      </c>
+      <c r="G126" t="n">
+        <v>0.4954866666666655</v>
+      </c>
+      <c r="H126" t="n">
+        <v>0.4883233333333336</v>
+      </c>
+      <c r="I126" t="n">
+        <v>0</v>
+      </c>
+      <c r="J126" t="n">
+        <v>0</v>
+      </c>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="inlineStr"/>
+      <c r="M126" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" s="1" t="n">
-        <v>108</v>
-      </c>
-      <c r="B110" t="n">
-        <v>0.488</v>
-      </c>
-      <c r="C110" t="n">
-        <v>0.488</v>
-      </c>
-      <c r="D110" t="n">
-        <v>0.488</v>
-      </c>
-      <c r="E110" t="n">
-        <v>0.488</v>
-      </c>
-      <c r="F110" t="n">
-        <v>1300</v>
-      </c>
-      <c r="G110" t="n">
-        <v>0.4868633333333336</v>
-      </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
-      <c r="I110" t="n">
-        <v>0</v>
-      </c>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="n">
-        <v>0.4802</v>
-      </c>
-      <c r="L110" t="inlineStr">
+      <c r="N126" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="n">
+        <v>0.4978</v>
+      </c>
+      <c r="C127" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D127" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E127" t="n">
+        <v>0.4978</v>
+      </c>
+      <c r="F127" t="n">
+        <v>715162.7711</v>
+      </c>
+      <c r="G127" t="n">
+        <v>0.4962866666666655</v>
+      </c>
+      <c r="H127" t="n">
+        <v>0.4884150000000002</v>
+      </c>
+      <c r="I127" t="n">
+        <v>0</v>
+      </c>
+      <c r="J127" t="n">
+        <v>0</v>
+      </c>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="inlineStr"/>
+      <c r="M127" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" s="1" t="n">
-        <v>109</v>
-      </c>
-      <c r="B111" t="n">
-        <v>0.488</v>
-      </c>
-      <c r="C111" t="n">
-        <v>0.488</v>
-      </c>
-      <c r="D111" t="n">
-        <v>0.488</v>
-      </c>
-      <c r="E111" t="n">
-        <v>0.488</v>
-      </c>
-      <c r="F111" t="n">
-        <v>25000</v>
-      </c>
-      <c r="G111" t="n">
-        <v>0.4868583333333336</v>
-      </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
-      <c r="I111" t="n">
-        <v>0</v>
-      </c>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="n">
-        <v>0.4802</v>
-      </c>
-      <c r="L111" t="inlineStr">
+      <c r="N127" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="n">
+        <v>0.4984</v>
+      </c>
+      <c r="C128" t="n">
+        <v>0.5041</v>
+      </c>
+      <c r="D128" t="n">
+        <v>0.5041</v>
+      </c>
+      <c r="E128" t="n">
+        <v>0.4984</v>
+      </c>
+      <c r="F128" t="n">
+        <v>100000</v>
+      </c>
+      <c r="G128" t="n">
+        <v>0.4967999999999988</v>
+      </c>
+      <c r="H128" t="n">
+        <v>0.4886383333333336</v>
+      </c>
+      <c r="I128" t="n">
+        <v>0</v>
+      </c>
+      <c r="J128" t="n">
+        <v>0</v>
+      </c>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="inlineStr"/>
+      <c r="M128" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" s="1" t="n">
-        <v>110</v>
-      </c>
-      <c r="B112" t="n">
-        <v>0.488</v>
-      </c>
-      <c r="C112" t="n">
-        <v>0.488</v>
-      </c>
-      <c r="D112" t="n">
-        <v>0.488</v>
-      </c>
-      <c r="E112" t="n">
-        <v>0.488</v>
-      </c>
-      <c r="F112" t="n">
-        <v>513396.24</v>
-      </c>
-      <c r="G112" t="n">
-        <v>0.4868933333333336</v>
-      </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
-      <c r="I112" t="n">
-        <v>0</v>
-      </c>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="n">
-        <v>0.4802</v>
-      </c>
-      <c r="L112" t="inlineStr">
+      <c r="N128" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="n">
+        <v>0.504</v>
+      </c>
+      <c r="C129" t="n">
+        <v>0.5041</v>
+      </c>
+      <c r="D129" t="n">
+        <v>0.5084</v>
+      </c>
+      <c r="E129" t="n">
+        <v>0.504</v>
+      </c>
+      <c r="F129" t="n">
+        <v>6241756.7929</v>
+      </c>
+      <c r="G129" t="n">
+        <v>0.4978733333333321</v>
+      </c>
+      <c r="H129" t="n">
+        <v>0.4889150000000003</v>
+      </c>
+      <c r="I129" t="n">
+        <v>0</v>
+      </c>
+      <c r="J129" t="n">
+        <v>0</v>
+      </c>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="inlineStr"/>
+      <c r="M129" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" s="1" t="n">
-        <v>111</v>
-      </c>
-      <c r="B113" t="n">
-        <v>0.488</v>
-      </c>
-      <c r="C113" t="n">
-        <v>0.4964</v>
-      </c>
-      <c r="D113" t="n">
-        <v>0.4964</v>
-      </c>
-      <c r="E113" t="n">
-        <v>0.488</v>
-      </c>
-      <c r="F113" t="n">
-        <v>466705.9</v>
-      </c>
-      <c r="G113" t="n">
-        <v>0.4871933333333336</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
-      <c r="I113" t="n">
-        <v>0</v>
-      </c>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="n">
-        <v>0.4802</v>
-      </c>
-      <c r="L113" t="inlineStr">
+      <c r="N129" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="n">
+        <v>0.5218</v>
+      </c>
+      <c r="C130" t="n">
+        <v>0.5218</v>
+      </c>
+      <c r="D130" t="n">
+        <v>0.5218</v>
+      </c>
+      <c r="E130" t="n">
+        <v>0.5218</v>
+      </c>
+      <c r="F130" t="n">
+        <v>1818</v>
+      </c>
+      <c r="G130" t="n">
+        <v>0.5001266666666654</v>
+      </c>
+      <c r="H130" t="n">
+        <v>0.4894866666666669</v>
+      </c>
+      <c r="I130" t="n">
+        <v>0</v>
+      </c>
+      <c r="J130" t="n">
+        <v>0</v>
+      </c>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="inlineStr"/>
+      <c r="M130" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" s="1" t="n">
-        <v>112</v>
-      </c>
-      <c r="B114" t="n">
-        <v>0.488</v>
-      </c>
-      <c r="C114" t="n">
-        <v>0.488</v>
-      </c>
-      <c r="D114" t="n">
-        <v>0.488</v>
-      </c>
-      <c r="E114" t="n">
-        <v>0.488</v>
-      </c>
-      <c r="F114" t="n">
-        <v>96730</v>
-      </c>
-      <c r="G114" t="n">
-        <v>0.4871883333333336</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
-      <c r="I114" t="n">
-        <v>0</v>
-      </c>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="n">
-        <v>0.4802</v>
-      </c>
-      <c r="L114" t="inlineStr">
+      <c r="N130" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="n">
+        <v>0.5042</v>
+      </c>
+      <c r="C131" t="n">
+        <v>0.5042</v>
+      </c>
+      <c r="D131" t="n">
+        <v>0.5042</v>
+      </c>
+      <c r="E131" t="n">
+        <v>0.5042</v>
+      </c>
+      <c r="F131" t="n">
+        <v>4905.01</v>
+      </c>
+      <c r="G131" t="n">
+        <v>0.5004933333333321</v>
+      </c>
+      <c r="H131" t="n">
+        <v>0.4897666666666669</v>
+      </c>
+      <c r="I131" t="n">
+        <v>0</v>
+      </c>
+      <c r="J131" t="n">
+        <v>0</v>
+      </c>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="inlineStr"/>
+      <c r="M131" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" s="1" t="n">
-        <v>113</v>
-      </c>
-      <c r="B115" t="n">
-        <v>0.488</v>
-      </c>
-      <c r="C115" t="n">
-        <v>0.488</v>
-      </c>
-      <c r="D115" t="n">
-        <v>0.488</v>
-      </c>
-      <c r="E115" t="n">
-        <v>0.488</v>
-      </c>
-      <c r="F115" t="n">
-        <v>846923.4313000001</v>
-      </c>
-      <c r="G115" t="n">
-        <v>0.4870183333333336</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
-      <c r="I115" t="n">
-        <v>0</v>
-      </c>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="n">
-        <v>0.4802</v>
-      </c>
-      <c r="L115" t="inlineStr">
+      <c r="N131" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="n">
+        <v>0.5042</v>
+      </c>
+      <c r="C132" t="n">
+        <v>0.5042</v>
+      </c>
+      <c r="D132" t="n">
+        <v>0.5042</v>
+      </c>
+      <c r="E132" t="n">
+        <v>0.5042</v>
+      </c>
+      <c r="F132" t="n">
+        <v>143403.24</v>
+      </c>
+      <c r="G132" t="n">
+        <v>0.5015666666666655</v>
+      </c>
+      <c r="H132" t="n">
+        <v>0.4900450000000002</v>
+      </c>
+      <c r="I132" t="n">
+        <v>0</v>
+      </c>
+      <c r="J132" t="n">
+        <v>0</v>
+      </c>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="inlineStr"/>
+      <c r="M132" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" s="1" t="n">
-        <v>114</v>
-      </c>
-      <c r="B116" t="n">
-        <v>0.497</v>
-      </c>
-      <c r="C116" t="n">
-        <v>0.4987</v>
-      </c>
-      <c r="D116" t="n">
-        <v>0.4987</v>
-      </c>
-      <c r="E116" t="n">
-        <v>0.497</v>
-      </c>
-      <c r="F116" t="n">
-        <v>15403</v>
-      </c>
-      <c r="G116" t="n">
-        <v>0.4870266666666669</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
-      <c r="I116" t="n">
-        <v>0</v>
-      </c>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="n">
-        <v>0.4802</v>
-      </c>
-      <c r="L116" t="inlineStr">
+      <c r="N132" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="n">
+        <v>0.5042</v>
+      </c>
+      <c r="C133" t="n">
+        <v>0.5042</v>
+      </c>
+      <c r="D133" t="n">
+        <v>0.5042</v>
+      </c>
+      <c r="E133" t="n">
+        <v>0.5042</v>
+      </c>
+      <c r="F133" t="n">
+        <v>100896.75</v>
+      </c>
+      <c r="G133" t="n">
+        <v>0.5019333333333321</v>
+      </c>
+      <c r="H133" t="n">
+        <v>0.4903233333333336</v>
+      </c>
+      <c r="I133" t="n">
+        <v>0</v>
+      </c>
+      <c r="J133" t="n">
+        <v>0</v>
+      </c>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="inlineStr"/>
+      <c r="M133" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" s="1" t="n">
-        <v>115</v>
-      </c>
-      <c r="B117" t="n">
-        <v>0.4881</v>
-      </c>
-      <c r="C117" t="n">
-        <v>0.4881</v>
-      </c>
-      <c r="D117" t="n">
-        <v>0.4881</v>
-      </c>
-      <c r="E117" t="n">
-        <v>0.4881</v>
-      </c>
-      <c r="F117" t="n">
-        <v>1818</v>
-      </c>
-      <c r="G117" t="n">
-        <v>0.4868583333333335</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
-      <c r="I117" t="n">
-        <v>0</v>
-      </c>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="n">
-        <v>0.4802</v>
-      </c>
-      <c r="L117" t="inlineStr">
+      <c r="N133" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="n">
+        <v>0.5041</v>
+      </c>
+      <c r="C134" t="n">
+        <v>0.5041</v>
+      </c>
+      <c r="D134" t="n">
+        <v>0.5041</v>
+      </c>
+      <c r="E134" t="n">
+        <v>0.5041</v>
+      </c>
+      <c r="F134" t="n">
+        <v>207171.7069</v>
+      </c>
+      <c r="G134" t="n">
+        <v>0.5022999999999987</v>
+      </c>
+      <c r="H134" t="n">
+        <v>0.4906550000000002</v>
+      </c>
+      <c r="I134" t="n">
+        <v>0</v>
+      </c>
+      <c r="J134" t="n">
+        <v>0</v>
+      </c>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="inlineStr"/>
+      <c r="M134" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" s="1" t="n">
-        <v>116</v>
-      </c>
-      <c r="B118" t="n">
-        <v>0.4987</v>
-      </c>
-      <c r="C118" t="n">
-        <v>0.4987</v>
-      </c>
-      <c r="D118" t="n">
-        <v>0.4987</v>
-      </c>
-      <c r="E118" t="n">
-        <v>0.4883</v>
-      </c>
-      <c r="F118" t="n">
-        <v>1814701.4486</v>
-      </c>
-      <c r="G118" t="n">
-        <v>0.4869983333333335</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
-      <c r="I118" t="n">
-        <v>0</v>
-      </c>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="n">
-        <v>0.4802</v>
-      </c>
-      <c r="L118" t="inlineStr">
+      <c r="N134" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="n">
+        <v>0.5097</v>
+      </c>
+      <c r="C135" t="n">
+        <v>0.5097</v>
+      </c>
+      <c r="D135" t="n">
+        <v>0.5097</v>
+      </c>
+      <c r="E135" t="n">
+        <v>0.5097</v>
+      </c>
+      <c r="F135" t="n">
+        <v>1818</v>
+      </c>
+      <c r="G135" t="n">
+        <v>0.5030333333333321</v>
+      </c>
+      <c r="H135" t="n">
+        <v>0.4910250000000002</v>
+      </c>
+      <c r="I135" t="n">
+        <v>0</v>
+      </c>
+      <c r="J135" t="n">
+        <v>0</v>
+      </c>
+      <c r="K135" t="inlineStr"/>
+      <c r="L135" t="inlineStr"/>
+      <c r="M135" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" s="1" t="n">
-        <v>117</v>
-      </c>
-      <c r="B119" t="n">
-        <v>0.4986</v>
-      </c>
-      <c r="C119" t="n">
-        <v>0.4986</v>
-      </c>
-      <c r="D119" t="n">
-        <v>0.4986</v>
-      </c>
-      <c r="E119" t="n">
-        <v>0.4986</v>
-      </c>
-      <c r="F119" t="n">
-        <v>1818</v>
-      </c>
-      <c r="G119" t="n">
-        <v>0.4871366666666668</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
-      <c r="I119" t="n">
-        <v>1</v>
-      </c>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="n">
-        <v>0.4802</v>
-      </c>
-      <c r="L119" t="inlineStr">
+      <c r="N135" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="n">
+        <v>0.5096000000000001</v>
+      </c>
+      <c r="C136" t="n">
+        <v>0.5096000000000001</v>
+      </c>
+      <c r="D136" t="n">
+        <v>0.5096000000000001</v>
+      </c>
+      <c r="E136" t="n">
+        <v>0.5096000000000001</v>
+      </c>
+      <c r="F136" t="n">
+        <v>5870.332</v>
+      </c>
+      <c r="G136" t="n">
+        <v>0.5037866666666654</v>
+      </c>
+      <c r="H136" t="n">
+        <v>0.4913950000000001</v>
+      </c>
+      <c r="I136" t="n">
+        <v>0</v>
+      </c>
+      <c r="J136" t="n">
+        <v>0</v>
+      </c>
+      <c r="K136" t="inlineStr"/>
+      <c r="L136" t="inlineStr"/>
+      <c r="M136" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
-      <c r="M119" t="n">
-        <v>1.033317367763432</v>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" s="1" t="n">
-        <v>118</v>
-      </c>
-      <c r="B120" t="n">
-        <v>0.4987</v>
-      </c>
-      <c r="C120" t="n">
-        <v>0.4987</v>
-      </c>
-      <c r="D120" t="n">
-        <v>0.4987</v>
-      </c>
-      <c r="E120" t="n">
-        <v>0.4987</v>
-      </c>
-      <c r="F120" t="n">
-        <v>1818</v>
-      </c>
-      <c r="G120" t="n">
-        <v>0.4872716666666668</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
-      <c r="I120" t="n">
-        <v>1</v>
-      </c>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" s="1" t="n">
-        <v>119</v>
-      </c>
-      <c r="B121" t="n">
-        <v>0.4983</v>
-      </c>
-      <c r="C121" t="n">
-        <v>0.4983</v>
-      </c>
-      <c r="D121" t="n">
-        <v>0.4983</v>
-      </c>
-      <c r="E121" t="n">
-        <v>0.4983</v>
-      </c>
-      <c r="F121" t="n">
-        <v>4311.4969</v>
-      </c>
-      <c r="G121" t="n">
-        <v>0.4875616666666668</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
-      <c r="I121" t="n">
-        <v>1</v>
-      </c>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" s="1" t="n">
-        <v>120</v>
-      </c>
-      <c r="B122" t="n">
-        <v>0.4984</v>
-      </c>
-      <c r="C122" t="n">
-        <v>0.4983</v>
-      </c>
-      <c r="D122" t="n">
-        <v>0.4984</v>
-      </c>
-      <c r="E122" t="n">
-        <v>0.4983</v>
-      </c>
-      <c r="F122" t="n">
-        <v>3636</v>
-      </c>
-      <c r="G122" t="n">
-        <v>0.4876516666666669</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
-      <c r="I122" t="n">
-        <v>0</v>
-      </c>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" s="1" t="n">
-        <v>121</v>
-      </c>
-      <c r="B123" t="n">
-        <v>0.4981</v>
-      </c>
-      <c r="C123" t="n">
-        <v>0.498</v>
-      </c>
-      <c r="D123" t="n">
-        <v>0.4981</v>
-      </c>
-      <c r="E123" t="n">
-        <v>0.498</v>
-      </c>
-      <c r="F123" t="n">
-        <v>57000</v>
-      </c>
-      <c r="G123" t="n">
-        <v>0.4878083333333335</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
-      <c r="I123" t="n">
-        <v>0</v>
-      </c>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" s="1" t="n">
-        <v>122</v>
-      </c>
-      <c r="B124" t="n">
-        <v>0.4979</v>
-      </c>
-      <c r="C124" t="n">
-        <v>0.4979</v>
-      </c>
-      <c r="D124" t="n">
-        <v>0.4979</v>
-      </c>
-      <c r="E124" t="n">
-        <v>0.4979</v>
-      </c>
-      <c r="F124" t="n">
-        <v>1818</v>
-      </c>
-      <c r="G124" t="n">
-        <v>0.4879666666666669</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
-      <c r="I124" t="n">
-        <v>0</v>
-      </c>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" s="1" t="n">
-        <v>123</v>
-      </c>
-      <c r="B125" t="n">
-        <v>0.4978</v>
-      </c>
-      <c r="C125" t="n">
-        <v>0.4978</v>
-      </c>
-      <c r="D125" t="n">
-        <v>0.4978</v>
-      </c>
-      <c r="E125" t="n">
-        <v>0.4978</v>
-      </c>
-      <c r="F125" t="n">
-        <v>30000</v>
-      </c>
-      <c r="G125" t="n">
-        <v>0.4881366666666669</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
-      <c r="I125" t="n">
-        <v>0</v>
-      </c>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" s="1" t="n">
-        <v>124</v>
-      </c>
-      <c r="B126" t="n">
-        <v>0.4978</v>
-      </c>
-      <c r="C126" t="n">
-        <v>0.4988</v>
-      </c>
-      <c r="D126" t="n">
-        <v>0.4988</v>
-      </c>
-      <c r="E126" t="n">
-        <v>0.4978</v>
-      </c>
-      <c r="F126" t="n">
-        <v>1058034.3638</v>
-      </c>
-      <c r="G126" t="n">
-        <v>0.4883233333333336</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
-      <c r="I126" t="n">
-        <v>0</v>
-      </c>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" s="1" t="n">
-        <v>125</v>
-      </c>
-      <c r="B127" t="n">
-        <v>0.4978</v>
-      </c>
-      <c r="C127" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="D127" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="E127" t="n">
-        <v>0.4978</v>
-      </c>
-      <c r="F127" t="n">
-        <v>715162.7711</v>
-      </c>
-      <c r="G127" t="n">
-        <v>0.4884150000000002</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
-      <c r="I127" t="n">
-        <v>0</v>
-      </c>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" s="1" t="n">
-        <v>126</v>
-      </c>
-      <c r="B128" t="n">
-        <v>0.4984</v>
-      </c>
-      <c r="C128" t="n">
-        <v>0.5041</v>
-      </c>
-      <c r="D128" t="n">
-        <v>0.5041</v>
-      </c>
-      <c r="E128" t="n">
-        <v>0.4984</v>
-      </c>
-      <c r="F128" t="n">
-        <v>100000</v>
-      </c>
-      <c r="G128" t="n">
-        <v>0.4886383333333336</v>
-      </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
-      <c r="I128" t="n">
-        <v>0</v>
-      </c>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
-      <c r="M128" t="n">
+      <c r="N136" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="n">
+        <v>0.499</v>
+      </c>
+      <c r="C137" t="n">
+        <v>0.5065</v>
+      </c>
+      <c r="D137" t="n">
+        <v>0.5286</v>
+      </c>
+      <c r="E137" t="n">
+        <v>0.499</v>
+      </c>
+      <c r="F137" t="n">
+        <v>5334290.5796</v>
+      </c>
+      <c r="G137" t="n">
+        <v>0.504333333333332</v>
+      </c>
+      <c r="H137" t="n">
+        <v>0.4917133333333334</v>
+      </c>
+      <c r="I137" t="n">
+        <v>0</v>
+      </c>
+      <c r="J137" t="n">
+        <v>0</v>
+      </c>
+      <c r="K137" t="inlineStr"/>
+      <c r="L137" t="inlineStr"/>
+      <c r="M137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N137" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="n">
+        <v>0.5065</v>
+      </c>
+      <c r="C138" t="n">
+        <v>0.5065</v>
+      </c>
+      <c r="D138" t="n">
+        <v>0.5302</v>
+      </c>
+      <c r="E138" t="n">
+        <v>0.5065</v>
+      </c>
+      <c r="F138" t="n">
+        <v>1940985.5835</v>
+      </c>
+      <c r="G138" t="n">
+        <v>0.5048999999999986</v>
+      </c>
+      <c r="H138" t="n">
+        <v>0.4920316666666668</v>
+      </c>
+      <c r="I138" t="n">
+        <v>0</v>
+      </c>
+      <c r="J138" t="n">
+        <v>0</v>
+      </c>
+      <c r="K138" t="inlineStr"/>
+      <c r="L138" t="inlineStr"/>
+      <c r="M138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N138" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2020-01-19 BackTest OCN.xlsx
+++ b/BackTest/2020-01-19 BackTest OCN.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N138"/>
+  <dimension ref="A1:M167"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,40 +394,35 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>MA60</t>
+          <t>low_check</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>high_check</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>high_check</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Condition</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -438,36 +433,33 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.5077</v>
+        <v>0.5177</v>
       </c>
       <c r="C2" t="n">
-        <v>0.5001</v>
+        <v>0.5177</v>
       </c>
       <c r="D2" t="n">
-        <v>0.5077</v>
+        <v>0.5177</v>
       </c>
       <c r="E2" t="n">
-        <v>0.5001</v>
+        <v>0.5177</v>
       </c>
       <c r="F2" t="n">
-        <v>1732591.3175</v>
+        <v>101000</v>
       </c>
       <c r="G2" t="n">
-        <v>0.5124533333333322</v>
+        <v>-6768503.019000001</v>
       </c>
       <c r="H2" t="n">
-        <v>0.5150183333333337</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="n">
+      <c r="M2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -476,36 +468,33 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.5062</v>
+        <v>0.5181</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5054</v>
+        <v>0.5181</v>
       </c>
       <c r="D3" t="n">
-        <v>0.5062</v>
+        <v>0.5181</v>
       </c>
       <c r="E3" t="n">
-        <v>0.5054</v>
+        <v>0.5181</v>
       </c>
       <c r="F3" t="n">
-        <v>224517.9086</v>
+        <v>61270</v>
       </c>
       <c r="G3" t="n">
-        <v>0.5116933333333322</v>
+        <v>-6707233.019000001</v>
       </c>
       <c r="H3" t="n">
-        <v>0.514811666666667</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="n">
+      <c r="M3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -514,36 +503,33 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.525</v>
+        <v>0.521</v>
       </c>
       <c r="C4" t="n">
-        <v>0.525</v>
+        <v>0.52</v>
       </c>
       <c r="D4" t="n">
-        <v>0.525</v>
+        <v>0.528</v>
       </c>
       <c r="E4" t="n">
-        <v>0.525</v>
+        <v>0.52</v>
       </c>
       <c r="F4" t="n">
-        <v>980</v>
+        <v>187830.5064</v>
       </c>
       <c r="G4" t="n">
-        <v>0.5126933333333323</v>
+        <v>-6519402.512600001</v>
       </c>
       <c r="H4" t="n">
-        <v>0.514931666666667</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="n">
-        <v>1</v>
-      </c>
+      <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
-      <c r="N4" t="n">
+      <c r="M4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -552,36 +538,33 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.51</v>
+        <v>0.52</v>
       </c>
       <c r="C5" t="n">
-        <v>0.505</v>
+        <v>0.52</v>
       </c>
       <c r="D5" t="n">
-        <v>0.51</v>
+        <v>0.52</v>
       </c>
       <c r="E5" t="n">
-        <v>0.505</v>
+        <v>0.52</v>
       </c>
       <c r="F5" t="n">
-        <v>128294.3735</v>
+        <v>1092125.114</v>
       </c>
       <c r="G5" t="n">
-        <v>0.512359999999999</v>
+        <v>-6519402.512600001</v>
       </c>
       <c r="H5" t="n">
-        <v>0.5148850000000003</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
-      <c r="N5" t="n">
+      <c r="M5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -590,36 +573,33 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.5041</v>
+        <v>0.5179</v>
       </c>
       <c r="C6" t="n">
-        <v>0.486</v>
+        <v>0.5179</v>
       </c>
       <c r="D6" t="n">
-        <v>0.5041</v>
+        <v>0.5179</v>
       </c>
       <c r="E6" t="n">
-        <v>0.4859</v>
+        <v>0.5179</v>
       </c>
       <c r="F6" t="n">
-        <v>535854.42</v>
+        <v>81140</v>
       </c>
       <c r="G6" t="n">
-        <v>0.5107599999999991</v>
+        <v>-6600542.512600001</v>
       </c>
       <c r="H6" t="n">
-        <v>0.5145200000000003</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr"/>
-      <c r="N6" t="n">
+      <c r="M6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -628,36 +608,33 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.4997</v>
+        <v>0.5179</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5</v>
+        <v>0.5178</v>
       </c>
       <c r="D7" t="n">
-        <v>0.5</v>
+        <v>0.5179</v>
       </c>
       <c r="E7" t="n">
-        <v>0.4997</v>
+        <v>0.5178</v>
       </c>
       <c r="F7" t="n">
-        <v>536639.1271</v>
+        <v>447500</v>
       </c>
       <c r="G7" t="n">
-        <v>0.5101733333333324</v>
+        <v>-7048042.512600001</v>
       </c>
       <c r="H7" t="n">
-        <v>0.514386666666667</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr"/>
-      <c r="N7" t="n">
+      <c r="M7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -666,36 +643,33 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.4961</v>
+        <v>0.5274</v>
       </c>
       <c r="C8" t="n">
-        <v>0.4961</v>
+        <v>0.5101</v>
       </c>
       <c r="D8" t="n">
-        <v>0.4962</v>
+        <v>0.5274</v>
       </c>
       <c r="E8" t="n">
-        <v>0.4961</v>
+        <v>0.5101</v>
       </c>
       <c r="F8" t="n">
-        <v>803974.58</v>
+        <v>526561.5105</v>
       </c>
       <c r="G8" t="n">
-        <v>0.5092533333333323</v>
+        <v>-7574604.023100001</v>
       </c>
       <c r="H8" t="n">
-        <v>0.514186666666667</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr"/>
-      <c r="N8" t="n">
+      <c r="M8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -704,36 +678,33 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0.4961</v>
+        <v>0.5173</v>
       </c>
       <c r="C9" t="n">
-        <v>0.4961</v>
+        <v>0.5173</v>
       </c>
       <c r="D9" t="n">
-        <v>0.4961</v>
+        <v>0.5173</v>
       </c>
       <c r="E9" t="n">
-        <v>0.4961</v>
+        <v>0.5173</v>
       </c>
       <c r="F9" t="n">
-        <v>47540.74</v>
+        <v>107623.2673</v>
       </c>
       <c r="G9" t="n">
-        <v>0.5083266666666657</v>
+        <v>-7466980.7558</v>
       </c>
       <c r="H9" t="n">
-        <v>0.5138183333333336</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr"/>
-      <c r="N9" t="n">
+      <c r="M9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -742,36 +713,33 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0.4961</v>
+        <v>0.5101</v>
       </c>
       <c r="C10" t="n">
-        <v>0.4961</v>
+        <v>0.51</v>
       </c>
       <c r="D10" t="n">
-        <v>0.4961</v>
+        <v>0.5101</v>
       </c>
       <c r="E10" t="n">
-        <v>0.4961</v>
+        <v>0.51</v>
       </c>
       <c r="F10" t="n">
-        <v>71.3139</v>
+        <v>1142036.3414</v>
       </c>
       <c r="G10" t="n">
-        <v>0.5069266666666657</v>
+        <v>-8609017.097200001</v>
       </c>
       <c r="H10" t="n">
-        <v>0.5134500000000003</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
+      <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr"/>
-      <c r="N10" t="n">
+      <c r="M10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -780,36 +748,33 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0.4859</v>
+        <v>0.5173</v>
       </c>
       <c r="C11" t="n">
-        <v>0.4859</v>
+        <v>0.5173</v>
       </c>
       <c r="D11" t="n">
-        <v>0.4859</v>
+        <v>0.5173</v>
       </c>
       <c r="E11" t="n">
-        <v>0.4859</v>
+        <v>0.5173</v>
       </c>
       <c r="F11" t="n">
-        <v>217492.4796</v>
+        <v>5773.7735</v>
       </c>
       <c r="G11" t="n">
-        <v>0.5048399999999991</v>
+        <v>-8603243.323700001</v>
       </c>
       <c r="H11" t="n">
-        <v>0.512911666666667</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
+      <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
-      <c r="M11" t="inlineStr"/>
-      <c r="N11" t="n">
+      <c r="M11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -818,36 +783,33 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>0.4859</v>
+        <v>0.517</v>
       </c>
       <c r="C12" t="n">
-        <v>0.4859</v>
+        <v>0.5169</v>
       </c>
       <c r="D12" t="n">
-        <v>0.4859</v>
+        <v>0.517</v>
       </c>
       <c r="E12" t="n">
-        <v>0.4859</v>
+        <v>0.5169</v>
       </c>
       <c r="F12" t="n">
-        <v>142525.8128</v>
+        <v>291833.1677</v>
       </c>
       <c r="G12" t="n">
-        <v>0.5020866666666658</v>
+        <v>-8895076.491400002</v>
       </c>
       <c r="H12" t="n">
-        <v>0.5123733333333337</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="n">
-        <v>0</v>
-      </c>
+      <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
-      <c r="M12" t="inlineStr"/>
-      <c r="N12" t="n">
+      <c r="M12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -856,36 +818,33 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>0.4858</v>
+        <v>0.5168</v>
       </c>
       <c r="C13" t="n">
-        <v>0.4839</v>
+        <v>0.5168</v>
       </c>
       <c r="D13" t="n">
-        <v>0.4858</v>
+        <v>0.5168</v>
       </c>
       <c r="E13" t="n">
-        <v>0.4839</v>
+        <v>0.5168</v>
       </c>
       <c r="F13" t="n">
-        <v>99925.11</v>
+        <v>175164.3626</v>
       </c>
       <c r="G13" t="n">
-        <v>0.4998666666666657</v>
+        <v>-9070240.854000002</v>
       </c>
       <c r="H13" t="n">
-        <v>0.5118000000000003</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="n">
-        <v>0</v>
-      </c>
+      <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
-      <c r="M13" t="inlineStr"/>
-      <c r="N13" t="n">
+      <c r="M13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -894,36 +853,33 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>0.4839</v>
+        <v>0.51</v>
       </c>
       <c r="C14" t="n">
-        <v>0.4839</v>
+        <v>0.51</v>
       </c>
       <c r="D14" t="n">
-        <v>0.4839</v>
+        <v>0.51</v>
       </c>
       <c r="E14" t="n">
-        <v>0.4839</v>
+        <v>0.51</v>
       </c>
       <c r="F14" t="n">
-        <v>494668.99</v>
+        <v>3413.5727</v>
       </c>
       <c r="G14" t="n">
-        <v>0.4982733333333324</v>
+        <v>-9073654.426700002</v>
       </c>
       <c r="H14" t="n">
-        <v>0.5112266666666669</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
+      <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
-      <c r="M14" t="inlineStr"/>
-      <c r="N14" t="n">
+      <c r="M14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -932,36 +888,33 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>0.4839</v>
+        <v>0.5169</v>
       </c>
       <c r="C15" t="n">
-        <v>0.4716</v>
+        <v>0.5169</v>
       </c>
       <c r="D15" t="n">
-        <v>0.4839</v>
+        <v>0.5169</v>
       </c>
       <c r="E15" t="n">
-        <v>0.4716</v>
+        <v>0.5169</v>
       </c>
       <c r="F15" t="n">
-        <v>25000</v>
+        <v>136864.5517</v>
       </c>
       <c r="G15" t="n">
-        <v>0.4952599999999991</v>
+        <v>-8936789.875000002</v>
       </c>
       <c r="H15" t="n">
-        <v>0.5104483333333335</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="n">
-        <v>0</v>
-      </c>
+      <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
-      <c r="M15" t="inlineStr"/>
-      <c r="N15" t="n">
+      <c r="M15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -970,36 +923,33 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>0.4731</v>
+        <v>0.51</v>
       </c>
       <c r="C16" t="n">
-        <v>0.473</v>
+        <v>0.51</v>
       </c>
       <c r="D16" t="n">
-        <v>0.4731</v>
+        <v>0.51</v>
       </c>
       <c r="E16" t="n">
-        <v>0.473</v>
+        <v>0.51</v>
       </c>
       <c r="F16" t="n">
-        <v>751534.9832</v>
+        <v>68335.7313</v>
       </c>
       <c r="G16" t="n">
-        <v>0.4929333333333324</v>
+        <v>-9005125.606300002</v>
       </c>
       <c r="H16" t="n">
-        <v>0.5096933333333336</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="n">
-        <v>0</v>
-      </c>
+      <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
-      <c r="M16" t="inlineStr"/>
-      <c r="N16" t="n">
+      <c r="M16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1008,36 +958,33 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>0.4859</v>
+        <v>0.5168</v>
       </c>
       <c r="C17" t="n">
-        <v>0.4859</v>
+        <v>0.5168</v>
       </c>
       <c r="D17" t="n">
-        <v>0.4859</v>
+        <v>0.5168</v>
       </c>
       <c r="E17" t="n">
-        <v>0.4859</v>
+        <v>0.5168</v>
       </c>
       <c r="F17" t="n">
-        <v>224520</v>
+        <v>980</v>
       </c>
       <c r="G17" t="n">
-        <v>0.4919866666666657</v>
+        <v>-9004145.606300002</v>
       </c>
       <c r="H17" t="n">
-        <v>0.5091533333333336</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
+      <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
-      <c r="M17" t="inlineStr"/>
-      <c r="N17" t="n">
+      <c r="M17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1046,36 +993,33 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>0.4957</v>
+        <v>0.51</v>
       </c>
       <c r="C18" t="n">
-        <v>0.4957</v>
+        <v>0.51</v>
       </c>
       <c r="D18" t="n">
-        <v>0.4957</v>
+        <v>0.51</v>
       </c>
       <c r="E18" t="n">
-        <v>0.4957</v>
+        <v>0.51</v>
       </c>
       <c r="F18" t="n">
-        <v>4524.914262658866</v>
+        <v>364732.8242</v>
       </c>
       <c r="G18" t="n">
-        <v>0.4913399999999991</v>
+        <v>-9368878.430500003</v>
       </c>
       <c r="H18" t="n">
-        <v>0.5087766666666669</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="n">
-        <v>0</v>
-      </c>
+      <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
-      <c r="M18" t="inlineStr"/>
-      <c r="N18" t="n">
+      <c r="M18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1084,36 +1028,33 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>0.4955</v>
+        <v>0.51</v>
       </c>
       <c r="C19" t="n">
-        <v>0.4955</v>
+        <v>0.51</v>
       </c>
       <c r="D19" t="n">
-        <v>0.4955</v>
+        <v>0.51</v>
       </c>
       <c r="E19" t="n">
-        <v>0.4955</v>
+        <v>0.51</v>
       </c>
       <c r="F19" t="n">
-        <v>60567.3505</v>
+        <v>78007.6237</v>
       </c>
       <c r="G19" t="n">
-        <v>0.4893733333333324</v>
+        <v>-9368878.430500003</v>
       </c>
       <c r="H19" t="n">
-        <v>0.5085350000000002</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="n">
-        <v>0</v>
-      </c>
+      <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
-      <c r="M19" t="inlineStr"/>
-      <c r="N19" t="n">
+      <c r="M19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1122,36 +1063,33 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>0.4951</v>
+        <v>0.51</v>
       </c>
       <c r="C20" t="n">
-        <v>0.4951</v>
+        <v>0.51</v>
       </c>
       <c r="D20" t="n">
-        <v>0.4951</v>
+        <v>0.51</v>
       </c>
       <c r="E20" t="n">
-        <v>0.4951</v>
+        <v>0.51</v>
       </c>
       <c r="F20" t="n">
-        <v>60618.2987</v>
+        <v>582.4569</v>
       </c>
       <c r="G20" t="n">
-        <v>0.4887133333333324</v>
+        <v>-9368878.430500003</v>
       </c>
       <c r="H20" t="n">
-        <v>0.5081483333333335</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
+      <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
-      <c r="M20" t="inlineStr"/>
-      <c r="N20" t="n">
+      <c r="M20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1160,36 +1098,33 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>0.4901</v>
+        <v>0.5088</v>
       </c>
       <c r="C21" t="n">
-        <v>0.4901</v>
+        <v>0.5088</v>
       </c>
       <c r="D21" t="n">
-        <v>0.4901</v>
+        <v>0.5088</v>
       </c>
       <c r="E21" t="n">
-        <v>0.4901</v>
+        <v>0.5088</v>
       </c>
       <c r="F21" t="n">
-        <v>60610</v>
+        <v>324748.6526</v>
       </c>
       <c r="G21" t="n">
-        <v>0.4889866666666657</v>
+        <v>-9693627.083100002</v>
       </c>
       <c r="H21" t="n">
-        <v>0.5076783333333336</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="n">
-        <v>0</v>
-      </c>
+      <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
-      <c r="M21" t="inlineStr"/>
-      <c r="N21" t="n">
+      <c r="M21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1198,36 +1133,33 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>0.4898</v>
+        <v>0.5088</v>
       </c>
       <c r="C22" t="n">
-        <v>0.4952</v>
+        <v>0.5099</v>
       </c>
       <c r="D22" t="n">
-        <v>0.4952</v>
+        <v>0.5099</v>
       </c>
       <c r="E22" t="n">
-        <v>0.4898</v>
+        <v>0.5087</v>
       </c>
       <c r="F22" t="n">
-        <v>115792</v>
+        <v>290846.5178</v>
       </c>
       <c r="G22" t="n">
-        <v>0.4886666666666657</v>
+        <v>-9402780.565300003</v>
       </c>
       <c r="H22" t="n">
-        <v>0.5072950000000003</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="n">
-        <v>0</v>
-      </c>
+      <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr"/>
-      <c r="M22" t="inlineStr"/>
-      <c r="N22" t="n">
+      <c r="M22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1236,36 +1168,33 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>0.4961</v>
+        <v>0.51</v>
       </c>
       <c r="C23" t="n">
-        <v>0.4999</v>
+        <v>0.51</v>
       </c>
       <c r="D23" t="n">
-        <v>0.4999</v>
+        <v>0.51</v>
       </c>
       <c r="E23" t="n">
-        <v>0.4961</v>
+        <v>0.51</v>
       </c>
       <c r="F23" t="n">
-        <v>1377036.0535</v>
+        <v>46265.6791</v>
       </c>
       <c r="G23" t="n">
-        <v>0.4889199999999991</v>
+        <v>-9356514.886200003</v>
       </c>
       <c r="H23" t="n">
-        <v>0.5069900000000003</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
+      <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr"/>
-      <c r="M23" t="inlineStr"/>
-      <c r="N23" t="n">
+      <c r="M23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1274,36 +1203,33 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>0.4999</v>
+        <v>0.51</v>
       </c>
       <c r="C24" t="n">
-        <v>0.4999</v>
+        <v>0.5171</v>
       </c>
       <c r="D24" t="n">
-        <v>0.4999</v>
+        <v>0.5171</v>
       </c>
       <c r="E24" t="n">
-        <v>0.4999</v>
+        <v>0.51</v>
       </c>
       <c r="F24" t="n">
-        <v>35710</v>
+        <v>60145.4</v>
       </c>
       <c r="G24" t="n">
-        <v>0.4891733333333324</v>
+        <v>-9296369.486200003</v>
       </c>
       <c r="H24" t="n">
-        <v>0.5066783333333336</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="n">
-        <v>0</v>
-      </c>
+      <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr"/>
-      <c r="M24" t="inlineStr"/>
-      <c r="N24" t="n">
+      <c r="M24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1312,36 +1238,33 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>0.4962</v>
+        <v>0.517</v>
       </c>
       <c r="C25" t="n">
-        <v>0.4961</v>
+        <v>0.5172</v>
       </c>
       <c r="D25" t="n">
-        <v>0.4962</v>
+        <v>0.5172</v>
       </c>
       <c r="E25" t="n">
-        <v>0.4961</v>
+        <v>0.517</v>
       </c>
       <c r="F25" t="n">
-        <v>3938084.1993</v>
+        <v>822118.9789</v>
       </c>
       <c r="G25" t="n">
-        <v>0.4891733333333324</v>
+        <v>-8474250.507300003</v>
       </c>
       <c r="H25" t="n">
-        <v>0.5063183333333335</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="n">
-        <v>0</v>
-      </c>
+      <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr"/>
-      <c r="M25" t="inlineStr"/>
-      <c r="N25" t="n">
+      <c r="M25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1350,36 +1273,33 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>0.4961</v>
+        <v>0.5272</v>
       </c>
       <c r="C26" t="n">
-        <v>0.4999</v>
+        <v>0.5272</v>
       </c>
       <c r="D26" t="n">
-        <v>0.4999</v>
+        <v>0.5272</v>
       </c>
       <c r="E26" t="n">
-        <v>0.4961</v>
+        <v>0.5272</v>
       </c>
       <c r="F26" t="n">
-        <v>1480606.6473</v>
+        <v>1000</v>
       </c>
       <c r="G26" t="n">
-        <v>0.4901066666666657</v>
+        <v>-8473250.507300003</v>
       </c>
       <c r="H26" t="n">
-        <v>0.5060216666666668</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="n">
-        <v>0</v>
-      </c>
+      <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr"/>
-      <c r="M26" t="inlineStr"/>
-      <c r="N26" t="n">
+      <c r="M26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1388,36 +1308,33 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>0.4863</v>
+        <v>0.5272</v>
       </c>
       <c r="C27" t="n">
-        <v>0.4863</v>
+        <v>0.5172</v>
       </c>
       <c r="D27" t="n">
-        <v>0.4863</v>
+        <v>0.5272</v>
       </c>
       <c r="E27" t="n">
-        <v>0.4863</v>
+        <v>0.5172</v>
       </c>
       <c r="F27" t="n">
-        <v>1213563.3225</v>
+        <v>2059212.5611</v>
       </c>
       <c r="G27" t="n">
-        <v>0.4901333333333324</v>
+        <v>-10532463.0684</v>
       </c>
       <c r="H27" t="n">
-        <v>0.5056583333333335</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
-      </c>
-      <c r="J27" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr"/>
-      <c r="M27" t="inlineStr"/>
-      <c r="N27" t="n">
+      <c r="M27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1426,36 +1343,33 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>0.4863</v>
+        <v>0.5172</v>
       </c>
       <c r="C28" t="n">
-        <v>0.4997</v>
+        <v>0.5078</v>
       </c>
       <c r="D28" t="n">
-        <v>0.4998</v>
+        <v>0.5172</v>
       </c>
       <c r="E28" t="n">
-        <v>0.4863</v>
+        <v>0.5078</v>
       </c>
       <c r="F28" t="n">
-        <v>1980591.6618</v>
+        <v>920064.66</v>
       </c>
       <c r="G28" t="n">
-        <v>0.4911866666666657</v>
+        <v>-11452527.7284</v>
       </c>
       <c r="H28" t="n">
-        <v>0.5053483333333335</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
-      </c>
-      <c r="J28" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr"/>
-      <c r="M28" t="inlineStr"/>
-      <c r="N28" t="n">
+      <c r="M28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1464,36 +1378,33 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>0.4964</v>
+        <v>0.5168</v>
       </c>
       <c r="C29" t="n">
-        <v>0.4964</v>
+        <v>0.5168</v>
       </c>
       <c r="D29" t="n">
-        <v>0.4964</v>
+        <v>0.5168</v>
       </c>
       <c r="E29" t="n">
-        <v>0.4964</v>
+        <v>0.5168</v>
       </c>
       <c r="F29" t="n">
-        <v>73999.5683</v>
+        <v>63215.6808</v>
       </c>
       <c r="G29" t="n">
-        <v>0.4920199999999991</v>
+        <v>-11389312.0476</v>
       </c>
       <c r="H29" t="n">
-        <v>0.5049750000000003</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="n">
-        <v>0</v>
-      </c>
+      <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr"/>
-      <c r="M29" t="inlineStr"/>
-      <c r="N29" t="n">
+      <c r="M29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1502,36 +1413,33 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>0.4963</v>
+        <v>0.5079</v>
       </c>
       <c r="C30" t="n">
-        <v>0.4963</v>
+        <v>0.5079</v>
       </c>
       <c r="D30" t="n">
-        <v>0.4963</v>
+        <v>0.5079</v>
       </c>
       <c r="E30" t="n">
-        <v>0.4963</v>
+        <v>0.5079</v>
       </c>
       <c r="F30" t="n">
-        <v>4524.39</v>
+        <v>93904.2313</v>
       </c>
       <c r="G30" t="n">
-        <v>0.4936666666666657</v>
+        <v>-11483216.2789</v>
       </c>
       <c r="H30" t="n">
-        <v>0.5047683333333336</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="n">
-        <v>0</v>
-      </c>
+      <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
-      <c r="M30" t="inlineStr"/>
-      <c r="N30" t="n">
+      <c r="M30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1540,36 +1448,33 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>0.4996</v>
+        <v>0.5077</v>
       </c>
       <c r="C31" t="n">
-        <v>0.4996</v>
+        <v>0.5001</v>
       </c>
       <c r="D31" t="n">
-        <v>0.4996</v>
+        <v>0.5077</v>
       </c>
       <c r="E31" t="n">
-        <v>0.4996</v>
+        <v>0.5001</v>
       </c>
       <c r="F31" t="n">
-        <v>2857.7874</v>
+        <v>1732591.3175</v>
       </c>
       <c r="G31" t="n">
-        <v>0.495439999999999</v>
+        <v>-13215807.5964</v>
       </c>
       <c r="H31" t="n">
-        <v>0.5044550000000003</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="n">
-        <v>0</v>
-      </c>
+      <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr"/>
-      <c r="M31" t="inlineStr"/>
-      <c r="N31" t="n">
+      <c r="M31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1578,36 +1483,33 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>0.4963</v>
+        <v>0.5062</v>
       </c>
       <c r="C32" t="n">
-        <v>0.4963</v>
+        <v>0.5054</v>
       </c>
       <c r="D32" t="n">
-        <v>0.4963</v>
+        <v>0.5062</v>
       </c>
       <c r="E32" t="n">
-        <v>0.4963</v>
+        <v>0.5054</v>
       </c>
       <c r="F32" t="n">
-        <v>20285.61</v>
+        <v>224517.9086</v>
       </c>
       <c r="G32" t="n">
-        <v>0.4961333333333323</v>
+        <v>-12991289.6878</v>
       </c>
       <c r="H32" t="n">
-        <v>0.5040900000000003</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="n">
-        <v>0</v>
-      </c>
+      <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr"/>
-      <c r="M32" t="inlineStr"/>
-      <c r="N32" t="n">
+      <c r="M32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1616,36 +1518,33 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>0.4863</v>
+        <v>0.525</v>
       </c>
       <c r="C33" t="n">
-        <v>0.4992</v>
+        <v>0.525</v>
       </c>
       <c r="D33" t="n">
-        <v>0.4993</v>
+        <v>0.525</v>
       </c>
       <c r="E33" t="n">
-        <v>0.4863</v>
+        <v>0.525</v>
       </c>
       <c r="F33" t="n">
-        <v>387026.9429</v>
+        <v>980</v>
       </c>
       <c r="G33" t="n">
-        <v>0.4963666666666657</v>
+        <v>-12990309.6878</v>
       </c>
       <c r="H33" t="n">
-        <v>0.5037816666666669</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="n">
-        <v>0</v>
-      </c>
+      <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr"/>
-      <c r="M33" t="inlineStr"/>
-      <c r="N33" t="n">
+      <c r="M33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1654,36 +1553,33 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>0.4988</v>
+        <v>0.51</v>
       </c>
       <c r="C34" t="n">
-        <v>0.4988</v>
+        <v>0.505</v>
       </c>
       <c r="D34" t="n">
-        <v>0.4988</v>
+        <v>0.51</v>
       </c>
       <c r="E34" t="n">
-        <v>0.4988</v>
+        <v>0.505</v>
       </c>
       <c r="F34" t="n">
-        <v>4987.0712</v>
+        <v>128294.3735</v>
       </c>
       <c r="G34" t="n">
-        <v>0.4965866666666657</v>
+        <v>-13118604.0613</v>
       </c>
       <c r="H34" t="n">
-        <v>0.5034600000000002</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="n">
-        <v>0</v>
-      </c>
+      <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr"/>
-      <c r="M34" t="inlineStr"/>
-      <c r="N34" t="n">
+      <c r="M34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1692,36 +1588,33 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>0.4868</v>
+        <v>0.5041</v>
       </c>
       <c r="C35" t="n">
-        <v>0.4988</v>
+        <v>0.486</v>
       </c>
       <c r="D35" t="n">
-        <v>0.4988</v>
+        <v>0.5041</v>
       </c>
       <c r="E35" t="n">
-        <v>0.4867</v>
+        <v>0.4859</v>
       </c>
       <c r="F35" t="n">
-        <v>565944.7037</v>
+        <v>535854.42</v>
       </c>
       <c r="G35" t="n">
-        <v>0.4968333333333323</v>
+        <v>-13654458.4813</v>
       </c>
       <c r="H35" t="n">
-        <v>0.5031066666666669</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="n">
-        <v>0</v>
-      </c>
+      <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr"/>
-      <c r="M35" t="inlineStr"/>
-      <c r="N35" t="n">
+      <c r="M35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1730,36 +1623,33 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>0.4961</v>
+        <v>0.4997</v>
       </c>
       <c r="C36" t="n">
-        <v>0.4961</v>
+        <v>0.5</v>
       </c>
       <c r="D36" t="n">
-        <v>0.4961</v>
+        <v>0.5</v>
       </c>
       <c r="E36" t="n">
-        <v>0.4961</v>
+        <v>0.4997</v>
       </c>
       <c r="F36" t="n">
-        <v>212470</v>
+        <v>536639.1271</v>
       </c>
       <c r="G36" t="n">
-        <v>0.4972333333333324</v>
+        <v>-13117819.3542</v>
       </c>
       <c r="H36" t="n">
-        <v>0.5027083333333335</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="n">
-        <v>0</v>
-      </c>
+      <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr"/>
-      <c r="M36" t="inlineStr"/>
-      <c r="N36" t="n">
+      <c r="M36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1768,36 +1658,33 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>0.4987</v>
+        <v>0.4961</v>
       </c>
       <c r="C37" t="n">
-        <v>0.4987</v>
+        <v>0.4961</v>
       </c>
       <c r="D37" t="n">
-        <v>0.4987</v>
+        <v>0.4962</v>
       </c>
       <c r="E37" t="n">
-        <v>0.4987</v>
+        <v>0.4961</v>
       </c>
       <c r="F37" t="n">
-        <v>1201</v>
+        <v>803974.58</v>
       </c>
       <c r="G37" t="n">
-        <v>0.4974666666666658</v>
+        <v>-13921793.9342</v>
       </c>
       <c r="H37" t="n">
-        <v>0.5023883333333335</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="n">
-        <v>0</v>
-      </c>
+      <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr"/>
-      <c r="M37" t="inlineStr"/>
-      <c r="N37" t="n">
+      <c r="M37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1806,36 +1693,33 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>0.4863</v>
+        <v>0.4961</v>
       </c>
       <c r="C38" t="n">
-        <v>0.4864</v>
+        <v>0.4961</v>
       </c>
       <c r="D38" t="n">
-        <v>0.4987</v>
+        <v>0.4961</v>
       </c>
       <c r="E38" t="n">
-        <v>0.4863</v>
+        <v>0.4961</v>
       </c>
       <c r="F38" t="n">
-        <v>8284</v>
+        <v>47540.74</v>
       </c>
       <c r="G38" t="n">
-        <v>0.4965666666666657</v>
+        <v>-13921793.9342</v>
       </c>
       <c r="H38" t="n">
-        <v>0.5018650000000001</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="n">
-        <v>0</v>
-      </c>
+      <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr"/>
-      <c r="M38" t="inlineStr"/>
-      <c r="N38" t="n">
+      <c r="M38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1844,36 +1728,33 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>0.4867</v>
+        <v>0.4961</v>
       </c>
       <c r="C39" t="n">
-        <v>0.4987</v>
+        <v>0.4961</v>
       </c>
       <c r="D39" t="n">
-        <v>0.4987</v>
+        <v>0.4961</v>
       </c>
       <c r="E39" t="n">
-        <v>0.4867</v>
+        <v>0.4961</v>
       </c>
       <c r="F39" t="n">
-        <v>1087507.1756</v>
+        <v>71.3139</v>
       </c>
       <c r="G39" t="n">
-        <v>0.4964866666666657</v>
+        <v>-13921793.9342</v>
       </c>
       <c r="H39" t="n">
-        <v>0.5016750000000001</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="n">
-        <v>0</v>
-      </c>
+      <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr"/>
-      <c r="M39" t="inlineStr"/>
-      <c r="N39" t="n">
+      <c r="M39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1882,36 +1763,33 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>0.4871</v>
+        <v>0.4859</v>
       </c>
       <c r="C40" t="n">
-        <v>0.4871</v>
+        <v>0.4859</v>
       </c>
       <c r="D40" t="n">
-        <v>0.4871</v>
+        <v>0.4859</v>
       </c>
       <c r="E40" t="n">
-        <v>0.4871</v>
+        <v>0.4859</v>
       </c>
       <c r="F40" t="n">
-        <v>3636</v>
+        <v>217492.4796</v>
       </c>
       <c r="G40" t="n">
-        <v>0.4958866666666657</v>
+        <v>-14139286.4138</v>
       </c>
       <c r="H40" t="n">
-        <v>0.5011716666666668</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="n">
-        <v>0</v>
-      </c>
+      <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr"/>
-      <c r="M40" t="inlineStr"/>
-      <c r="N40" t="n">
+      <c r="M40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1920,36 +1798,33 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>0.4871</v>
+        <v>0.4859</v>
       </c>
       <c r="C41" t="n">
-        <v>0.4871</v>
+        <v>0.4859</v>
       </c>
       <c r="D41" t="n">
-        <v>0.4871</v>
+        <v>0.4859</v>
       </c>
       <c r="E41" t="n">
-        <v>0.4871</v>
+        <v>0.4859</v>
       </c>
       <c r="F41" t="n">
-        <v>3636</v>
+        <v>142525.8128</v>
       </c>
       <c r="G41" t="n">
-        <v>0.4950333333333324</v>
+        <v>-14139286.4138</v>
       </c>
       <c r="H41" t="n">
-        <v>0.5007900000000002</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="n">
-        <v>0</v>
-      </c>
+      <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr"/>
-      <c r="M41" t="inlineStr"/>
-      <c r="N41" t="n">
+      <c r="M41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1958,36 +1833,33 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>0.487</v>
+        <v>0.4858</v>
       </c>
       <c r="C42" t="n">
-        <v>0.4985</v>
+        <v>0.4839</v>
       </c>
       <c r="D42" t="n">
-        <v>0.4987</v>
+        <v>0.4858</v>
       </c>
       <c r="E42" t="n">
-        <v>0.487</v>
+        <v>0.4839</v>
       </c>
       <c r="F42" t="n">
-        <v>2009402.8691</v>
+        <v>99925.11</v>
       </c>
       <c r="G42" t="n">
-        <v>0.4958466666666657</v>
+        <v>-14239211.5238</v>
       </c>
       <c r="H42" t="n">
-        <v>0.5004766666666669</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="n">
-        <v>0</v>
-      </c>
+      <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr"/>
-      <c r="M42" t="inlineStr"/>
-      <c r="N42" t="n">
+      <c r="M42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1996,36 +1868,33 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>0.4886</v>
+        <v>0.4839</v>
       </c>
       <c r="C43" t="n">
-        <v>0.4986</v>
+        <v>0.4839</v>
       </c>
       <c r="D43" t="n">
-        <v>0.4986</v>
+        <v>0.4839</v>
       </c>
       <c r="E43" t="n">
-        <v>0.4885</v>
+        <v>0.4839</v>
       </c>
       <c r="F43" t="n">
-        <v>169350.7744</v>
+        <v>494668.99</v>
       </c>
       <c r="G43" t="n">
-        <v>0.4957733333333323</v>
+        <v>-14239211.5238</v>
       </c>
       <c r="H43" t="n">
-        <v>0.5001716666666669</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="n">
-        <v>0</v>
-      </c>
+      <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr"/>
-      <c r="M43" t="inlineStr"/>
-      <c r="N43" t="n">
+      <c r="M43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2034,36 +1903,33 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>0.4886</v>
+        <v>0.4839</v>
       </c>
       <c r="C44" t="n">
-        <v>0.4886</v>
+        <v>0.4716</v>
       </c>
       <c r="D44" t="n">
-        <v>0.4886</v>
+        <v>0.4839</v>
       </c>
       <c r="E44" t="n">
-        <v>0.4886</v>
+        <v>0.4716</v>
       </c>
       <c r="F44" t="n">
-        <v>3636</v>
+        <v>25000</v>
       </c>
       <c r="G44" t="n">
-        <v>0.4952533333333323</v>
+        <v>-14264211.5238</v>
       </c>
       <c r="H44" t="n">
-        <v>0.4997016666666669</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="n">
-        <v>0</v>
-      </c>
+      <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr"/>
-      <c r="M44" t="inlineStr"/>
-      <c r="N44" t="n">
+      <c r="M44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2072,36 +1938,37 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>0.4984</v>
+        <v>0.4731</v>
       </c>
       <c r="C45" t="n">
-        <v>0.4984</v>
+        <v>0.473</v>
       </c>
       <c r="D45" t="n">
-        <v>0.4984</v>
+        <v>0.4731</v>
       </c>
       <c r="E45" t="n">
-        <v>0.4984</v>
+        <v>0.473</v>
       </c>
       <c r="F45" t="n">
-        <v>16399.5508</v>
+        <v>751534.9832</v>
       </c>
       <c r="G45" t="n">
-        <v>0.4953933333333324</v>
+        <v>-13512676.5406</v>
       </c>
       <c r="H45" t="n">
-        <v>0.4995083333333336</v>
+        <v>1</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
-      </c>
-      <c r="K45" t="inlineStr"/>
+        <v>0.4716</v>
+      </c>
+      <c r="K45" t="n">
+        <v>0.4716</v>
+      </c>
       <c r="L45" t="inlineStr"/>
-      <c r="M45" t="inlineStr"/>
-      <c r="N45" t="n">
+      <c r="M45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2110,36 +1977,41 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>0.4984</v>
+        <v>0.4859</v>
       </c>
       <c r="C46" t="n">
-        <v>0.4909</v>
+        <v>0.4859</v>
       </c>
       <c r="D46" t="n">
-        <v>0.4984</v>
+        <v>0.4859</v>
       </c>
       <c r="E46" t="n">
-        <v>0.4909</v>
+        <v>0.4859</v>
       </c>
       <c r="F46" t="n">
-        <v>174860.6951</v>
+        <v>224520</v>
       </c>
       <c r="G46" t="n">
-        <v>0.4948133333333323</v>
+        <v>-13288156.5406</v>
       </c>
       <c r="H46" t="n">
-        <v>0.4990750000000002</v>
+        <v>1</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
-      </c>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="inlineStr"/>
-      <c r="N46" t="n">
+        <v>0.473</v>
+      </c>
+      <c r="K46" t="n">
+        <v>0.4716</v>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2148,36 +2020,41 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>0.4909</v>
+        <v>0.4957</v>
       </c>
       <c r="C47" t="n">
-        <v>0.4886</v>
+        <v>0.4957</v>
       </c>
       <c r="D47" t="n">
-        <v>0.4909</v>
+        <v>0.4957</v>
       </c>
       <c r="E47" t="n">
-        <v>0.4886</v>
+        <v>0.4957</v>
       </c>
       <c r="F47" t="n">
-        <v>5364.5936</v>
+        <v>4524.914262658866</v>
       </c>
       <c r="G47" t="n">
-        <v>0.494299999999999</v>
+        <v>-13283631.62633734</v>
       </c>
       <c r="H47" t="n">
-        <v>0.4987183333333335</v>
+        <v>1</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
       <c r="J47" t="n">
-        <v>0</v>
-      </c>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="inlineStr"/>
-      <c r="N47" t="n">
+        <v>0.4859</v>
+      </c>
+      <c r="K47" t="n">
+        <v>0.4716</v>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2186,36 +2063,37 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>0.4984</v>
+        <v>0.4955</v>
       </c>
       <c r="C48" t="n">
-        <v>0.4984</v>
+        <v>0.4955</v>
       </c>
       <c r="D48" t="n">
-        <v>0.4984</v>
+        <v>0.4955</v>
       </c>
       <c r="E48" t="n">
-        <v>0.4984</v>
+        <v>0.4955</v>
       </c>
       <c r="F48" t="n">
-        <v>1500</v>
+        <v>60567.3505</v>
       </c>
       <c r="G48" t="n">
-        <v>0.4942466666666657</v>
+        <v>-13344198.97683734</v>
       </c>
       <c r="H48" t="n">
-        <v>0.4984116666666669</v>
+        <v>1</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
       <c r="J48" t="n">
-        <v>0</v>
-      </c>
-      <c r="K48" t="inlineStr"/>
+        <v>0.4957</v>
+      </c>
+      <c r="K48" t="n">
+        <v>0.4957</v>
+      </c>
       <c r="L48" t="inlineStr"/>
-      <c r="M48" t="inlineStr"/>
-      <c r="N48" t="n">
+      <c r="M48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2224,36 +2102,41 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>0.4909</v>
+        <v>0.4951</v>
       </c>
       <c r="C49" t="n">
-        <v>0.4984</v>
+        <v>0.4951</v>
       </c>
       <c r="D49" t="n">
-        <v>0.4984</v>
+        <v>0.4951</v>
       </c>
       <c r="E49" t="n">
-        <v>0.4859</v>
+        <v>0.4951</v>
       </c>
       <c r="F49" t="n">
-        <v>551297.7645</v>
+        <v>60618.2987</v>
       </c>
       <c r="G49" t="n">
-        <v>0.494219999999999</v>
+        <v>-13404817.27553734</v>
       </c>
       <c r="H49" t="n">
-        <v>0.4982183333333335</v>
+        <v>1</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
       <c r="J49" t="n">
-        <v>0</v>
-      </c>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="inlineStr"/>
-      <c r="N49" t="n">
+        <v>0.4955</v>
+      </c>
+      <c r="K49" t="n">
+        <v>0.4957</v>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2262,36 +2145,39 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>0.4984</v>
+        <v>0.4901</v>
       </c>
       <c r="C50" t="n">
-        <v>0.4984</v>
+        <v>0.4901</v>
       </c>
       <c r="D50" t="n">
-        <v>0.4984</v>
+        <v>0.4901</v>
       </c>
       <c r="E50" t="n">
-        <v>0.4984</v>
+        <v>0.4901</v>
       </c>
       <c r="F50" t="n">
-        <v>2049940.698</v>
+        <v>60610</v>
       </c>
       <c r="G50" t="n">
-        <v>0.4941933333333324</v>
+        <v>-13465427.27553734</v>
       </c>
       <c r="H50" t="n">
-        <v>0.4980250000000002</v>
+        <v>0</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="n">
-        <v>0</v>
-      </c>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="inlineStr"/>
-      <c r="N50" t="n">
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>0.4957</v>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2300,36 +2186,33 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>0.4883</v>
+        <v>0.4898</v>
       </c>
       <c r="C51" t="n">
-        <v>0.4883</v>
+        <v>0.4952</v>
       </c>
       <c r="D51" t="n">
-        <v>0.4883</v>
+        <v>0.4952</v>
       </c>
       <c r="E51" t="n">
-        <v>0.4883</v>
+        <v>0.4898</v>
       </c>
       <c r="F51" t="n">
-        <v>131242.7691</v>
+        <v>115792</v>
       </c>
       <c r="G51" t="n">
-        <v>0.4936733333333324</v>
+        <v>-13349635.27553734</v>
       </c>
       <c r="H51" t="n">
-        <v>0.4976633333333335</v>
+        <v>0</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="n">
-        <v>0</v>
-      </c>
+      <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr"/>
-      <c r="M51" t="inlineStr"/>
-      <c r="N51" t="n">
+      <c r="M51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2338,36 +2221,33 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>0.4883</v>
+        <v>0.4961</v>
       </c>
       <c r="C52" t="n">
-        <v>0.4859</v>
+        <v>0.4999</v>
       </c>
       <c r="D52" t="n">
-        <v>0.4883</v>
+        <v>0.4999</v>
       </c>
       <c r="E52" t="n">
-        <v>0.4859</v>
+        <v>0.4961</v>
       </c>
       <c r="F52" t="n">
-        <v>1019141.3953</v>
+        <v>1377036.0535</v>
       </c>
       <c r="G52" t="n">
-        <v>0.492819999999999</v>
+        <v>-11972599.22203734</v>
       </c>
       <c r="H52" t="n">
-        <v>0.4972816666666668</v>
+        <v>0</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="n">
-        <v>0</v>
-      </c>
+      <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr"/>
-      <c r="M52" t="inlineStr"/>
-      <c r="N52" t="n">
+      <c r="M52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2376,36 +2256,33 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>0.4859</v>
+        <v>0.4999</v>
       </c>
       <c r="C53" t="n">
-        <v>0.4784</v>
+        <v>0.4999</v>
       </c>
       <c r="D53" t="n">
-        <v>0.4859</v>
+        <v>0.4999</v>
       </c>
       <c r="E53" t="n">
-        <v>0.4784</v>
+        <v>0.4999</v>
       </c>
       <c r="F53" t="n">
-        <v>61093.7803</v>
+        <v>35710</v>
       </c>
       <c r="G53" t="n">
-        <v>0.4922866666666657</v>
+        <v>-11972599.22203734</v>
       </c>
       <c r="H53" t="n">
-        <v>0.4967566666666668</v>
+        <v>0</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="n">
-        <v>0</v>
-      </c>
+      <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr"/>
-      <c r="M53" t="inlineStr"/>
-      <c r="N53" t="n">
+      <c r="M53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2414,36 +2291,33 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>0.4883</v>
+        <v>0.4962</v>
       </c>
       <c r="C54" t="n">
-        <v>0.4883</v>
+        <v>0.4961</v>
       </c>
       <c r="D54" t="n">
-        <v>0.4883</v>
+        <v>0.4962</v>
       </c>
       <c r="E54" t="n">
-        <v>0.4883</v>
+        <v>0.4961</v>
       </c>
       <c r="F54" t="n">
-        <v>65630</v>
+        <v>3938084.1993</v>
       </c>
       <c r="G54" t="n">
-        <v>0.4915933333333323</v>
+        <v>-15910683.42133734</v>
       </c>
       <c r="H54" t="n">
-        <v>0.496395</v>
+        <v>0</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="n">
-        <v>0</v>
-      </c>
+      <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr"/>
-      <c r="M54" t="inlineStr"/>
-      <c r="N54" t="n">
+      <c r="M54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2452,36 +2326,33 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>0.4982</v>
+        <v>0.4961</v>
       </c>
       <c r="C55" t="n">
-        <v>0.4982</v>
+        <v>0.4999</v>
       </c>
       <c r="D55" t="n">
-        <v>0.4982</v>
+        <v>0.4999</v>
       </c>
       <c r="E55" t="n">
-        <v>0.4982</v>
+        <v>0.4961</v>
       </c>
       <c r="F55" t="n">
-        <v>2400</v>
+        <v>1480606.6473</v>
       </c>
       <c r="G55" t="n">
-        <v>0.4923333333333322</v>
+        <v>-14430076.77403734</v>
       </c>
       <c r="H55" t="n">
-        <v>0.4960800000000001</v>
+        <v>0</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="n">
-        <v>0</v>
-      </c>
+      <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr"/>
-      <c r="M55" t="inlineStr"/>
-      <c r="N55" t="n">
+      <c r="M55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2490,36 +2361,33 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>0.4982</v>
+        <v>0.4863</v>
       </c>
       <c r="C56" t="n">
-        <v>0.4982</v>
+        <v>0.4863</v>
       </c>
       <c r="D56" t="n">
-        <v>0.4982</v>
+        <v>0.4863</v>
       </c>
       <c r="E56" t="n">
-        <v>0.4982</v>
+        <v>0.4863</v>
       </c>
       <c r="F56" t="n">
-        <v>2660.2902</v>
+        <v>1213563.3225</v>
       </c>
       <c r="G56" t="n">
-        <v>0.4930733333333323</v>
+        <v>-15643640.09653734</v>
       </c>
       <c r="H56" t="n">
-        <v>0.4957633333333334</v>
+        <v>0</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="n">
-        <v>0</v>
-      </c>
+      <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr"/>
-      <c r="M56" t="inlineStr"/>
-      <c r="N56" t="n">
+      <c r="M56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2528,36 +2396,33 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>0.4902</v>
+        <v>0.4863</v>
       </c>
       <c r="C57" t="n">
-        <v>0.4982</v>
+        <v>0.4997</v>
       </c>
       <c r="D57" t="n">
-        <v>0.4982</v>
+        <v>0.4998</v>
       </c>
       <c r="E57" t="n">
-        <v>0.4902</v>
+        <v>0.4863</v>
       </c>
       <c r="F57" t="n">
-        <v>8278</v>
+        <v>1980591.6618</v>
       </c>
       <c r="G57" t="n">
-        <v>0.4930533333333322</v>
+        <v>-13663048.43473734</v>
       </c>
       <c r="H57" t="n">
-        <v>0.4952800000000001</v>
+        <v>0</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="n">
-        <v>0</v>
-      </c>
+      <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr"/>
-      <c r="M57" t="inlineStr"/>
-      <c r="N57" t="n">
+      <c r="M57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2566,36 +2431,33 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>0.497</v>
+        <v>0.4964</v>
       </c>
       <c r="C58" t="n">
-        <v>0.4903</v>
+        <v>0.4964</v>
       </c>
       <c r="D58" t="n">
-        <v>0.497</v>
+        <v>0.4964</v>
       </c>
       <c r="E58" t="n">
-        <v>0.4903</v>
+        <v>0.4964</v>
       </c>
       <c r="F58" t="n">
-        <v>5453.9414</v>
+        <v>73999.5683</v>
       </c>
       <c r="G58" t="n">
-        <v>0.4924999999999989</v>
+        <v>-13737048.00303734</v>
       </c>
       <c r="H58" t="n">
-        <v>0.4948316666666668</v>
+        <v>0</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="n">
-        <v>0</v>
-      </c>
+      <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr"/>
-      <c r="M58" t="inlineStr"/>
-      <c r="N58" t="n">
+      <c r="M58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2604,36 +2466,33 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>0.4903</v>
+        <v>0.4963</v>
       </c>
       <c r="C59" t="n">
-        <v>0.4903</v>
+        <v>0.4963</v>
       </c>
       <c r="D59" t="n">
-        <v>0.4903</v>
+        <v>0.4963</v>
       </c>
       <c r="E59" t="n">
-        <v>0.4903</v>
+        <v>0.4963</v>
       </c>
       <c r="F59" t="n">
-        <v>1818</v>
+        <v>4524.39</v>
       </c>
       <c r="G59" t="n">
-        <v>0.4926133333333323</v>
+        <v>-13741572.39303734</v>
       </c>
       <c r="H59" t="n">
-        <v>0.4945400000000001</v>
+        <v>0</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="n">
-        <v>0</v>
-      </c>
+      <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr"/>
-      <c r="M59" t="inlineStr"/>
-      <c r="N59" t="n">
+      <c r="M59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2642,36 +2501,33 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>0.4903</v>
+        <v>0.4996</v>
       </c>
       <c r="C60" t="n">
-        <v>0.4906</v>
+        <v>0.4996</v>
       </c>
       <c r="D60" t="n">
-        <v>0.4906</v>
+        <v>0.4996</v>
       </c>
       <c r="E60" t="n">
-        <v>0.4903</v>
+        <v>0.4996</v>
       </c>
       <c r="F60" t="n">
-        <v>150600.57</v>
+        <v>2857.7874</v>
       </c>
       <c r="G60" t="n">
-        <v>0.4920933333333323</v>
+        <v>-13738714.60563734</v>
       </c>
       <c r="H60" t="n">
-        <v>0.4941033333333335</v>
+        <v>0</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="n">
-        <v>0</v>
-      </c>
+      <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr"/>
-      <c r="M60" t="inlineStr"/>
-      <c r="N60" t="n">
+      <c r="M60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2680,36 +2536,33 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>0.4901</v>
+        <v>0.4963</v>
       </c>
       <c r="C61" t="n">
-        <v>0.4809</v>
+        <v>0.4963</v>
       </c>
       <c r="D61" t="n">
-        <v>0.4902</v>
+        <v>0.4963</v>
       </c>
       <c r="E61" t="n">
-        <v>0.4809</v>
+        <v>0.4963</v>
       </c>
       <c r="F61" t="n">
-        <v>88073.8391</v>
+        <v>20285.61</v>
       </c>
       <c r="G61" t="n">
-        <v>0.4914266666666656</v>
+        <v>-13759000.21563734</v>
       </c>
       <c r="H61" t="n">
-        <v>0.4936533333333335</v>
+        <v>0</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="n">
-        <v>0</v>
-      </c>
+      <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr"/>
-      <c r="M61" t="inlineStr"/>
-      <c r="N61" t="n">
+      <c r="M61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2718,36 +2571,33 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>0.4809</v>
+        <v>0.4863</v>
       </c>
       <c r="C62" t="n">
-        <v>0.4929</v>
+        <v>0.4992</v>
       </c>
       <c r="D62" t="n">
-        <v>0.493</v>
+        <v>0.4993</v>
       </c>
       <c r="E62" t="n">
-        <v>0.4806</v>
+        <v>0.4863</v>
       </c>
       <c r="F62" t="n">
-        <v>4656176.5536</v>
+        <v>387026.9429</v>
       </c>
       <c r="G62" t="n">
-        <v>0.4917133333333323</v>
+        <v>-13371973.27273734</v>
       </c>
       <c r="H62" t="n">
-        <v>0.4935333333333335</v>
+        <v>0</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="n">
-        <v>0</v>
-      </c>
+      <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr"/>
-      <c r="M62" t="inlineStr"/>
-      <c r="N62" t="n">
+      <c r="M62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2756,36 +2606,33 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>0.4876</v>
+        <v>0.4988</v>
       </c>
       <c r="C63" t="n">
-        <v>0.4886</v>
+        <v>0.4988</v>
       </c>
       <c r="D63" t="n">
-        <v>0.4887</v>
+        <v>0.4988</v>
       </c>
       <c r="E63" t="n">
-        <v>0.4876</v>
+        <v>0.4988</v>
       </c>
       <c r="F63" t="n">
-        <v>1310194.8078</v>
+        <v>4987.0712</v>
       </c>
       <c r="G63" t="n">
-        <v>0.4910599999999989</v>
+        <v>-13376960.34393734</v>
       </c>
       <c r="H63" t="n">
-        <v>0.4932533333333335</v>
+        <v>0</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="n">
-        <v>0</v>
-      </c>
+      <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
       <c r="L63" t="inlineStr"/>
-      <c r="M63" t="inlineStr"/>
-      <c r="N63" t="n">
+      <c r="M63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2794,36 +2641,33 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>0.4884</v>
+        <v>0.4868</v>
       </c>
       <c r="C64" t="n">
-        <v>0.4884</v>
+        <v>0.4988</v>
       </c>
       <c r="D64" t="n">
-        <v>0.4884</v>
+        <v>0.4988</v>
       </c>
       <c r="E64" t="n">
-        <v>0.4884</v>
+        <v>0.4867</v>
       </c>
       <c r="F64" t="n">
-        <v>6321</v>
+        <v>565944.7037</v>
       </c>
       <c r="G64" t="n">
-        <v>0.4903933333333323</v>
+        <v>-13376960.34393734</v>
       </c>
       <c r="H64" t="n">
-        <v>0.4926433333333335</v>
+        <v>0</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="n">
-        <v>0</v>
-      </c>
+      <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
       <c r="L64" t="inlineStr"/>
-      <c r="M64" t="inlineStr"/>
-      <c r="N64" t="n">
+      <c r="M64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2832,36 +2676,33 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>0.4876</v>
+        <v>0.4961</v>
       </c>
       <c r="C65" t="n">
-        <v>0.4876</v>
+        <v>0.4961</v>
       </c>
       <c r="D65" t="n">
-        <v>0.4876</v>
+        <v>0.4961</v>
       </c>
       <c r="E65" t="n">
-        <v>0.4876</v>
+        <v>0.4961</v>
       </c>
       <c r="F65" t="n">
-        <v>43017</v>
+        <v>212470</v>
       </c>
       <c r="G65" t="n">
-        <v>0.4896733333333322</v>
+        <v>-13589430.34393734</v>
       </c>
       <c r="H65" t="n">
-        <v>0.4923533333333335</v>
+        <v>0</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="n">
-        <v>0</v>
-      </c>
+      <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
       <c r="L65" t="inlineStr"/>
-      <c r="M65" t="inlineStr"/>
-      <c r="N65" t="n">
+      <c r="M65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2870,36 +2711,33 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>0.4876</v>
+        <v>0.4987</v>
       </c>
       <c r="C66" t="n">
-        <v>0.4876</v>
+        <v>0.4987</v>
       </c>
       <c r="D66" t="n">
-        <v>0.4876</v>
+        <v>0.4987</v>
       </c>
       <c r="E66" t="n">
-        <v>0.4876</v>
+        <v>0.4987</v>
       </c>
       <c r="F66" t="n">
-        <v>24315</v>
+        <v>1201</v>
       </c>
       <c r="G66" t="n">
-        <v>0.4896266666666655</v>
+        <v>-13588229.34393734</v>
       </c>
       <c r="H66" t="n">
-        <v>0.4923800000000002</v>
+        <v>0</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="n">
-        <v>0</v>
-      </c>
+      <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
       <c r="L66" t="inlineStr"/>
-      <c r="M66" t="inlineStr"/>
-      <c r="N66" t="n">
+      <c r="M66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2908,36 +2746,33 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>0.4883</v>
+        <v>0.4863</v>
       </c>
       <c r="C67" t="n">
-        <v>0.4945</v>
+        <v>0.4864</v>
       </c>
       <c r="D67" t="n">
-        <v>0.4945</v>
+        <v>0.4987</v>
       </c>
       <c r="E67" t="n">
-        <v>0.4883</v>
+        <v>0.4863</v>
       </c>
       <c r="F67" t="n">
-        <v>230571</v>
+        <v>8284</v>
       </c>
       <c r="G67" t="n">
-        <v>0.4901999999999989</v>
+        <v>-13596513.34393734</v>
       </c>
       <c r="H67" t="n">
-        <v>0.4922883333333335</v>
+        <v>0</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="n">
-        <v>0</v>
-      </c>
+      <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
       <c r="L67" t="inlineStr"/>
-      <c r="M67" t="inlineStr"/>
-      <c r="N67" t="n">
+      <c r="M67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2946,36 +2781,33 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>0.4907</v>
+        <v>0.4867</v>
       </c>
       <c r="C68" t="n">
-        <v>0.4907</v>
+        <v>0.4987</v>
       </c>
       <c r="D68" t="n">
-        <v>0.4907</v>
+        <v>0.4987</v>
       </c>
       <c r="E68" t="n">
-        <v>0.4907</v>
+        <v>0.4867</v>
       </c>
       <c r="F68" t="n">
-        <v>92590</v>
+        <v>1087507.1756</v>
       </c>
       <c r="G68" t="n">
-        <v>0.491019999999999</v>
+        <v>-12509006.16833734</v>
       </c>
       <c r="H68" t="n">
-        <v>0.4921983333333335</v>
+        <v>0</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="n">
-        <v>0</v>
-      </c>
+      <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
       <c r="L68" t="inlineStr"/>
-      <c r="M68" t="inlineStr"/>
-      <c r="N68" t="n">
+      <c r="M68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2984,36 +2816,33 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>0.4876</v>
+        <v>0.4871</v>
       </c>
       <c r="C69" t="n">
-        <v>0.4875</v>
+        <v>0.4871</v>
       </c>
       <c r="D69" t="n">
-        <v>0.4876</v>
+        <v>0.4871</v>
       </c>
       <c r="E69" t="n">
-        <v>0.4839</v>
+        <v>0.4871</v>
       </c>
       <c r="F69" t="n">
-        <v>456923.4114</v>
+        <v>3636</v>
       </c>
       <c r="G69" t="n">
-        <v>0.4909666666666656</v>
+        <v>-12512642.16833734</v>
       </c>
       <c r="H69" t="n">
-        <v>0.4920550000000002</v>
+        <v>0</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="n">
-        <v>0</v>
-      </c>
+      <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
       <c r="L69" t="inlineStr"/>
-      <c r="M69" t="inlineStr"/>
-      <c r="N69" t="n">
+      <c r="M69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3022,36 +2851,33 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>0.4875</v>
+        <v>0.4871</v>
       </c>
       <c r="C70" t="n">
-        <v>0.4875</v>
+        <v>0.4871</v>
       </c>
       <c r="D70" t="n">
-        <v>0.4875</v>
+        <v>0.4871</v>
       </c>
       <c r="E70" t="n">
-        <v>0.4875</v>
+        <v>0.4871</v>
       </c>
       <c r="F70" t="n">
-        <v>660190.7595</v>
+        <v>3636</v>
       </c>
       <c r="G70" t="n">
-        <v>0.4902533333333323</v>
+        <v>-12512642.16833734</v>
       </c>
       <c r="H70" t="n">
-        <v>0.4919116666666669</v>
+        <v>0</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="n">
-        <v>0</v>
-      </c>
+      <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
       <c r="L70" t="inlineStr"/>
-      <c r="M70" t="inlineStr"/>
-      <c r="N70" t="n">
+      <c r="M70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3060,36 +2886,33 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>0.4874</v>
+        <v>0.487</v>
       </c>
       <c r="C71" t="n">
-        <v>0.4874</v>
+        <v>0.4985</v>
       </c>
       <c r="D71" t="n">
-        <v>0.4874</v>
+        <v>0.4987</v>
       </c>
       <c r="E71" t="n">
-        <v>0.4833</v>
+        <v>0.487</v>
       </c>
       <c r="F71" t="n">
-        <v>12098</v>
+        <v>2009402.8691</v>
       </c>
       <c r="G71" t="n">
-        <v>0.4895333333333323</v>
+        <v>-10503239.29923734</v>
       </c>
       <c r="H71" t="n">
-        <v>0.4919366666666669</v>
+        <v>0</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="n">
-        <v>0</v>
-      </c>
+      <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
       <c r="L71" t="inlineStr"/>
-      <c r="M71" t="inlineStr"/>
-      <c r="N71" t="n">
+      <c r="M71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3098,36 +2921,33 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>0.4872</v>
+        <v>0.4886</v>
       </c>
       <c r="C72" t="n">
-        <v>0.4875</v>
+        <v>0.4986</v>
       </c>
       <c r="D72" t="n">
-        <v>0.4875</v>
+        <v>0.4986</v>
       </c>
       <c r="E72" t="n">
-        <v>0.4857</v>
+        <v>0.4885</v>
       </c>
       <c r="F72" t="n">
-        <v>160262.7257799671</v>
+        <v>169350.7744</v>
       </c>
       <c r="G72" t="n">
-        <v>0.488819999999999</v>
+        <v>-10333888.52483734</v>
       </c>
       <c r="H72" t="n">
-        <v>0.4919633333333336</v>
+        <v>0</v>
       </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="n">
-        <v>0</v>
-      </c>
+      <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
       <c r="L72" t="inlineStr"/>
-      <c r="M72" t="inlineStr"/>
-      <c r="N72" t="n">
+      <c r="M72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3136,36 +2956,33 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>0.4857</v>
+        <v>0.4886</v>
       </c>
       <c r="C73" t="n">
-        <v>0.4875</v>
+        <v>0.4886</v>
       </c>
       <c r="D73" t="n">
-        <v>0.4875</v>
+        <v>0.4886</v>
       </c>
       <c r="E73" t="n">
-        <v>0.4857</v>
+        <v>0.4886</v>
       </c>
       <c r="F73" t="n">
-        <v>134013</v>
+        <v>3636</v>
       </c>
       <c r="G73" t="n">
-        <v>0.4886333333333323</v>
+        <v>-10337524.52483734</v>
       </c>
       <c r="H73" t="n">
-        <v>0.4920233333333336</v>
+        <v>0</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="n">
-        <v>0</v>
-      </c>
+      <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
       <c r="L73" t="inlineStr"/>
-      <c r="M73" t="inlineStr"/>
-      <c r="N73" t="n">
+      <c r="M73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3174,36 +2991,33 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>0.4842</v>
+        <v>0.4984</v>
       </c>
       <c r="C74" t="n">
-        <v>0.4842</v>
+        <v>0.4984</v>
       </c>
       <c r="D74" t="n">
-        <v>0.4842</v>
+        <v>0.4984</v>
       </c>
       <c r="E74" t="n">
-        <v>0.4842</v>
+        <v>0.4984</v>
       </c>
       <c r="F74" t="n">
-        <v>10262.7257</v>
+        <v>16399.5508</v>
       </c>
       <c r="G74" t="n">
-        <v>0.4882266666666656</v>
+        <v>-10321124.97403734</v>
       </c>
       <c r="H74" t="n">
-        <v>0.4920283333333337</v>
+        <v>0</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="n">
-        <v>0</v>
-      </c>
+      <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
       <c r="L74" t="inlineStr"/>
-      <c r="M74" t="inlineStr"/>
-      <c r="N74" t="n">
+      <c r="M74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3212,36 +3026,33 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>0.4875</v>
+        <v>0.4984</v>
       </c>
       <c r="C75" t="n">
-        <v>0.4875</v>
+        <v>0.4909</v>
       </c>
       <c r="D75" t="n">
-        <v>0.4875</v>
+        <v>0.4984</v>
       </c>
       <c r="E75" t="n">
-        <v>0.4875</v>
+        <v>0.4909</v>
       </c>
       <c r="F75" t="n">
-        <v>8288</v>
+        <v>174860.6951</v>
       </c>
       <c r="G75" t="n">
-        <v>0.488019999999999</v>
+        <v>-10495985.66913734</v>
       </c>
       <c r="H75" t="n">
-        <v>0.4922933333333337</v>
+        <v>0</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="n">
-        <v>0</v>
-      </c>
+      <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
       <c r="L75" t="inlineStr"/>
-      <c r="M75" t="inlineStr"/>
-      <c r="N75" t="n">
+      <c r="M75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3250,36 +3061,33 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>0.4874</v>
+        <v>0.4909</v>
       </c>
       <c r="C76" t="n">
-        <v>0.4874</v>
+        <v>0.4886</v>
       </c>
       <c r="D76" t="n">
-        <v>0.4874</v>
+        <v>0.4909</v>
       </c>
       <c r="E76" t="n">
-        <v>0.4874</v>
+        <v>0.4886</v>
       </c>
       <c r="F76" t="n">
-        <v>6035</v>
+        <v>5364.5936</v>
       </c>
       <c r="G76" t="n">
-        <v>0.4884533333333323</v>
+        <v>-10501350.26273734</v>
       </c>
       <c r="H76" t="n">
-        <v>0.4925333333333338</v>
+        <v>0</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="n">
-        <v>0</v>
-      </c>
+      <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
       <c r="L76" t="inlineStr"/>
-      <c r="M76" t="inlineStr"/>
-      <c r="N76" t="n">
+      <c r="M76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3288,36 +3096,33 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>0.4874</v>
+        <v>0.4984</v>
       </c>
       <c r="C77" t="n">
-        <v>0.4874</v>
+        <v>0.4984</v>
       </c>
       <c r="D77" t="n">
-        <v>0.4874</v>
+        <v>0.4984</v>
       </c>
       <c r="E77" t="n">
-        <v>0.4874</v>
+        <v>0.4984</v>
       </c>
       <c r="F77" t="n">
-        <v>30000</v>
+        <v>1500</v>
       </c>
       <c r="G77" t="n">
-        <v>0.4880866666666657</v>
+        <v>-10499850.26273734</v>
       </c>
       <c r="H77" t="n">
-        <v>0.4925583333333338</v>
+        <v>0</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="n">
-        <v>0</v>
-      </c>
+      <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
       <c r="L77" t="inlineStr"/>
-      <c r="M77" t="inlineStr"/>
-      <c r="N77" t="n">
+      <c r="M77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3326,36 +3131,33 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>0.4875</v>
+        <v>0.4909</v>
       </c>
       <c r="C78" t="n">
-        <v>0.4874</v>
+        <v>0.4984</v>
       </c>
       <c r="D78" t="n">
-        <v>0.4875</v>
+        <v>0.4984</v>
       </c>
       <c r="E78" t="n">
-        <v>0.4874</v>
+        <v>0.4859</v>
       </c>
       <c r="F78" t="n">
-        <v>168376.3837</v>
+        <v>551297.7645</v>
       </c>
       <c r="G78" t="n">
-        <v>0.4880066666666656</v>
+        <v>-10499850.26273734</v>
       </c>
       <c r="H78" t="n">
-        <v>0.4924200000000004</v>
+        <v>0</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="n">
-        <v>0</v>
-      </c>
+      <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
       <c r="L78" t="inlineStr"/>
-      <c r="M78" t="inlineStr"/>
-      <c r="N78" t="n">
+      <c r="M78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3364,36 +3166,33 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>0.4873</v>
+        <v>0.4984</v>
       </c>
       <c r="C79" t="n">
-        <v>0.4873</v>
+        <v>0.4984</v>
       </c>
       <c r="D79" t="n">
-        <v>0.4873</v>
+        <v>0.4984</v>
       </c>
       <c r="E79" t="n">
-        <v>0.4873</v>
+        <v>0.4984</v>
       </c>
       <c r="F79" t="n">
-        <v>4961</v>
+        <v>2049940.698</v>
       </c>
       <c r="G79" t="n">
-        <v>0.4879333333333323</v>
+        <v>-10499850.26273734</v>
       </c>
       <c r="H79" t="n">
-        <v>0.4922833333333338</v>
+        <v>0</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="n">
-        <v>0</v>
-      </c>
+      <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
       <c r="L79" t="inlineStr"/>
-      <c r="M79" t="inlineStr"/>
-      <c r="N79" t="n">
+      <c r="M79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3402,36 +3201,33 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>0.4873</v>
+        <v>0.4883</v>
       </c>
       <c r="C80" t="n">
-        <v>0.4873</v>
+        <v>0.4883</v>
       </c>
       <c r="D80" t="n">
-        <v>0.4873</v>
+        <v>0.4883</v>
       </c>
       <c r="E80" t="n">
-        <v>0.4873</v>
+        <v>0.4883</v>
       </c>
       <c r="F80" t="n">
-        <v>4468</v>
+        <v>131242.7691</v>
       </c>
       <c r="G80" t="n">
-        <v>0.4879133333333324</v>
+        <v>-10631093.03183734</v>
       </c>
       <c r="H80" t="n">
-        <v>0.4921533333333338</v>
+        <v>0</v>
       </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="n">
-        <v>0</v>
-      </c>
+      <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
       <c r="L80" t="inlineStr"/>
-      <c r="M80" t="inlineStr"/>
-      <c r="N80" t="n">
+      <c r="M80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3440,36 +3236,33 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>0.4873</v>
+        <v>0.4883</v>
       </c>
       <c r="C81" t="n">
-        <v>0.4873</v>
+        <v>0.4859</v>
       </c>
       <c r="D81" t="n">
-        <v>0.4873</v>
+        <v>0.4883</v>
       </c>
       <c r="E81" t="n">
-        <v>0.4873</v>
+        <v>0.4859</v>
       </c>
       <c r="F81" t="n">
-        <v>2281</v>
+        <v>1019141.3953</v>
       </c>
       <c r="G81" t="n">
-        <v>0.4878933333333324</v>
+        <v>-11650234.42713734</v>
       </c>
       <c r="H81" t="n">
-        <v>0.4921066666666672</v>
+        <v>0</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="n">
-        <v>0</v>
-      </c>
+      <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
       <c r="L81" t="inlineStr"/>
-      <c r="M81" t="inlineStr"/>
-      <c r="N81" t="n">
+      <c r="M81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3478,36 +3271,33 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>0.4836</v>
+        <v>0.4859</v>
       </c>
       <c r="C82" t="n">
-        <v>0.4836</v>
+        <v>0.4784</v>
       </c>
       <c r="D82" t="n">
-        <v>0.4836</v>
+        <v>0.4859</v>
       </c>
       <c r="E82" t="n">
-        <v>0.4836</v>
+        <v>0.4784</v>
       </c>
       <c r="F82" t="n">
-        <v>55182</v>
+        <v>61093.7803</v>
       </c>
       <c r="G82" t="n">
-        <v>0.4871666666666657</v>
+        <v>-11711328.20743734</v>
       </c>
       <c r="H82" t="n">
-        <v>0.4919133333333338</v>
+        <v>0</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="n">
-        <v>0</v>
-      </c>
+      <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
       <c r="L82" t="inlineStr"/>
-      <c r="M82" t="inlineStr"/>
-      <c r="N82" t="n">
+      <c r="M82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3516,36 +3306,33 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>0.4836</v>
+        <v>0.4883</v>
       </c>
       <c r="C83" t="n">
-        <v>0.4837</v>
+        <v>0.4883</v>
       </c>
       <c r="D83" t="n">
-        <v>0.4837</v>
+        <v>0.4883</v>
       </c>
       <c r="E83" t="n">
-        <v>0.4833</v>
+        <v>0.4883</v>
       </c>
       <c r="F83" t="n">
-        <v>162312</v>
+        <v>65630</v>
       </c>
       <c r="G83" t="n">
-        <v>0.486699999999999</v>
+        <v>-11645698.20743734</v>
       </c>
       <c r="H83" t="n">
-        <v>0.4916433333333338</v>
+        <v>0</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="n">
-        <v>0</v>
-      </c>
+      <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
       <c r="L83" t="inlineStr"/>
-      <c r="M83" t="inlineStr"/>
-      <c r="N83" t="n">
+      <c r="M83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3554,36 +3341,33 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>0.4837</v>
+        <v>0.4982</v>
       </c>
       <c r="C84" t="n">
-        <v>0.4831</v>
+        <v>0.4982</v>
       </c>
       <c r="D84" t="n">
-        <v>0.4837</v>
+        <v>0.4982</v>
       </c>
       <c r="E84" t="n">
-        <v>0.4831</v>
+        <v>0.4982</v>
       </c>
       <c r="F84" t="n">
-        <v>366914.4842</v>
+        <v>2400</v>
       </c>
       <c r="G84" t="n">
-        <v>0.4864066666666657</v>
+        <v>-11643298.20743734</v>
       </c>
       <c r="H84" t="n">
-        <v>0.4913633333333338</v>
+        <v>0</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="n">
-        <v>0</v>
-      </c>
+      <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
       <c r="L84" t="inlineStr"/>
-      <c r="M84" t="inlineStr"/>
-      <c r="N84" t="n">
+      <c r="M84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3592,36 +3376,33 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>0.4803</v>
+        <v>0.4982</v>
       </c>
       <c r="C85" t="n">
-        <v>0.4803</v>
+        <v>0.4982</v>
       </c>
       <c r="D85" t="n">
-        <v>0.4803</v>
+        <v>0.4982</v>
       </c>
       <c r="E85" t="n">
-        <v>0.4802</v>
+        <v>0.4982</v>
       </c>
       <c r="F85" t="n">
-        <v>1221593.2844</v>
+        <v>2660.2902</v>
       </c>
       <c r="G85" t="n">
-        <v>0.4859266666666657</v>
+        <v>-11643298.20743734</v>
       </c>
       <c r="H85" t="n">
-        <v>0.4911000000000005</v>
+        <v>0</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="n">
-        <v>0</v>
-      </c>
+      <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
       <c r="L85" t="inlineStr"/>
-      <c r="M85" t="inlineStr"/>
-      <c r="N85" t="n">
+      <c r="M85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3630,36 +3411,33 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>0.4803</v>
+        <v>0.4902</v>
       </c>
       <c r="C86" t="n">
-        <v>0.4803</v>
+        <v>0.4982</v>
       </c>
       <c r="D86" t="n">
-        <v>0.4803</v>
+        <v>0.4982</v>
       </c>
       <c r="E86" t="n">
-        <v>0.4803</v>
+        <v>0.4902</v>
       </c>
       <c r="F86" t="n">
-        <v>330000</v>
+        <v>8278</v>
       </c>
       <c r="G86" t="n">
-        <v>0.4854533333333323</v>
+        <v>-11643298.20743734</v>
       </c>
       <c r="H86" t="n">
-        <v>0.4907733333333338</v>
+        <v>0</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="n">
-        <v>0</v>
-      </c>
+      <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
       <c r="L86" t="inlineStr"/>
-      <c r="M86" t="inlineStr"/>
-      <c r="N86" t="n">
+      <c r="M86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3668,36 +3446,33 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>0.4802</v>
+        <v>0.497</v>
       </c>
       <c r="C87" t="n">
-        <v>0.4802</v>
+        <v>0.4903</v>
       </c>
       <c r="D87" t="n">
-        <v>0.4802</v>
+        <v>0.497</v>
       </c>
       <c r="E87" t="n">
-        <v>0.4802</v>
+        <v>0.4903</v>
       </c>
       <c r="F87" t="n">
-        <v>575206</v>
+        <v>5453.9414</v>
       </c>
       <c r="G87" t="n">
-        <v>0.4849666666666657</v>
+        <v>-11648752.14883734</v>
       </c>
       <c r="H87" t="n">
-        <v>0.4906716666666672</v>
+        <v>0</v>
       </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="n">
-        <v>0</v>
-      </c>
+      <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
       <c r="L87" t="inlineStr"/>
-      <c r="M87" t="inlineStr"/>
-      <c r="N87" t="n">
+      <c r="M87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3706,36 +3481,33 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>0.4802</v>
+        <v>0.4903</v>
       </c>
       <c r="C88" t="n">
-        <v>0.4802</v>
+        <v>0.4903</v>
       </c>
       <c r="D88" t="n">
-        <v>0.4802</v>
+        <v>0.4903</v>
       </c>
       <c r="E88" t="n">
-        <v>0.4802</v>
+        <v>0.4903</v>
       </c>
       <c r="F88" t="n">
-        <v>348813.9454</v>
+        <v>1818</v>
       </c>
       <c r="G88" t="n">
-        <v>0.484479999999999</v>
+        <v>-11648752.14883734</v>
       </c>
       <c r="H88" t="n">
-        <v>0.4903466666666672</v>
+        <v>0</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="n">
-        <v>0</v>
-      </c>
+      <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
       <c r="L88" t="inlineStr"/>
-      <c r="M88" t="inlineStr"/>
-      <c r="N88" t="n">
+      <c r="M88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3744,36 +3516,33 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>0.4801</v>
+        <v>0.4903</v>
       </c>
       <c r="C89" t="n">
-        <v>0.4802</v>
+        <v>0.4906</v>
       </c>
       <c r="D89" t="n">
-        <v>0.4802</v>
+        <v>0.4906</v>
       </c>
       <c r="E89" t="n">
-        <v>0.4801</v>
+        <v>0.4903</v>
       </c>
       <c r="F89" t="n">
-        <v>467217.3011</v>
+        <v>150600.57</v>
       </c>
       <c r="G89" t="n">
-        <v>0.4842133333333323</v>
+        <v>-11498151.57883734</v>
       </c>
       <c r="H89" t="n">
-        <v>0.4900766666666671</v>
+        <v>0</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="n">
-        <v>0</v>
-      </c>
+      <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
       <c r="L89" t="inlineStr"/>
-      <c r="M89" t="inlineStr"/>
-      <c r="N89" t="n">
+      <c r="M89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3782,36 +3551,33 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>0.4802</v>
+        <v>0.4901</v>
       </c>
       <c r="C90" t="n">
-        <v>0.4802</v>
+        <v>0.4809</v>
       </c>
       <c r="D90" t="n">
-        <v>0.4802</v>
+        <v>0.4902</v>
       </c>
       <c r="E90" t="n">
-        <v>0.4802</v>
+        <v>0.4809</v>
       </c>
       <c r="F90" t="n">
-        <v>565634.8251</v>
+        <v>88073.8391</v>
       </c>
       <c r="G90" t="n">
-        <v>0.4837266666666657</v>
+        <v>-11586225.41793734</v>
       </c>
       <c r="H90" t="n">
-        <v>0.4898083333333337</v>
+        <v>0</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="n">
-        <v>0</v>
-      </c>
+      <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
       <c r="L90" t="inlineStr"/>
-      <c r="M90" t="inlineStr"/>
-      <c r="N90" t="n">
+      <c r="M90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3820,36 +3586,33 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>0.4802</v>
+        <v>0.4809</v>
       </c>
       <c r="C91" t="n">
-        <v>0.4802</v>
+        <v>0.4929</v>
       </c>
       <c r="D91" t="n">
-        <v>0.4802</v>
+        <v>0.493</v>
       </c>
       <c r="E91" t="n">
-        <v>0.4802</v>
+        <v>0.4806</v>
       </c>
       <c r="F91" t="n">
-        <v>34471.1143</v>
+        <v>4656176.5536</v>
       </c>
       <c r="G91" t="n">
-        <v>0.4832466666666657</v>
+        <v>-6930048.864337342</v>
       </c>
       <c r="H91" t="n">
-        <v>0.4894850000000004</v>
+        <v>0</v>
       </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="n">
-        <v>0</v>
-      </c>
+      <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
       <c r="L91" t="inlineStr"/>
-      <c r="M91" t="inlineStr"/>
-      <c r="N91" t="n">
+      <c r="M91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3858,36 +3621,33 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>0.4773</v>
+        <v>0.4876</v>
       </c>
       <c r="C92" t="n">
-        <v>0.4802</v>
+        <v>0.4886</v>
       </c>
       <c r="D92" t="n">
-        <v>0.4802</v>
+        <v>0.4887</v>
       </c>
       <c r="E92" t="n">
-        <v>0.4773</v>
+        <v>0.4876</v>
       </c>
       <c r="F92" t="n">
-        <v>616302.8312</v>
+        <v>1310194.8078</v>
       </c>
       <c r="G92" t="n">
-        <v>0.4827666666666657</v>
+        <v>-8240243.672137342</v>
       </c>
       <c r="H92" t="n">
-        <v>0.489216666666667</v>
+        <v>0</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="n">
-        <v>0</v>
-      </c>
+      <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
       <c r="L92" t="inlineStr"/>
-      <c r="M92" t="inlineStr"/>
-      <c r="N92" t="n">
+      <c r="M92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3896,36 +3656,33 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>0.4802</v>
+        <v>0.4884</v>
       </c>
       <c r="C93" t="n">
-        <v>0.4802</v>
+        <v>0.4884</v>
       </c>
       <c r="D93" t="n">
-        <v>0.4802</v>
+        <v>0.4884</v>
       </c>
       <c r="E93" t="n">
-        <v>0.4802</v>
+        <v>0.4884</v>
       </c>
       <c r="F93" t="n">
-        <v>146861.7333</v>
+        <v>6321</v>
       </c>
       <c r="G93" t="n">
-        <v>0.4822866666666657</v>
+        <v>-8246564.672137342</v>
       </c>
       <c r="H93" t="n">
-        <v>0.4889000000000004</v>
+        <v>0</v>
       </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="n">
-        <v>0</v>
-      </c>
+      <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
       <c r="L93" t="inlineStr"/>
-      <c r="M93" t="inlineStr"/>
-      <c r="N93" t="n">
+      <c r="M93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3934,36 +3691,37 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>0.4884</v>
+        <v>0.4876</v>
       </c>
       <c r="C94" t="n">
-        <v>0.4884</v>
+        <v>0.4876</v>
       </c>
       <c r="D94" t="n">
-        <v>0.4884</v>
+        <v>0.4876</v>
       </c>
       <c r="E94" t="n">
-        <v>0.4884</v>
+        <v>0.4876</v>
       </c>
       <c r="F94" t="n">
-        <v>78154.8015</v>
+        <v>43017</v>
       </c>
       <c r="G94" t="n">
-        <v>0.482359999999999</v>
+        <v>-8289581.672137342</v>
       </c>
       <c r="H94" t="n">
-        <v>0.4887266666666671</v>
+        <v>1</v>
       </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
       <c r="J94" t="n">
-        <v>0</v>
-      </c>
-      <c r="K94" t="inlineStr"/>
+        <v>0.4884</v>
+      </c>
+      <c r="K94" t="n">
+        <v>0.4884</v>
+      </c>
       <c r="L94" t="inlineStr"/>
-      <c r="M94" t="inlineStr"/>
-      <c r="N94" t="n">
+      <c r="M94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3972,36 +3730,39 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>0.4877</v>
+        <v>0.4876</v>
       </c>
       <c r="C95" t="n">
-        <v>0.4877</v>
+        <v>0.4876</v>
       </c>
       <c r="D95" t="n">
-        <v>0.4968</v>
+        <v>0.4876</v>
       </c>
       <c r="E95" t="n">
-        <v>0.4877</v>
+        <v>0.4876</v>
       </c>
       <c r="F95" t="n">
-        <v>4642.4413</v>
+        <v>24315</v>
       </c>
       <c r="G95" t="n">
-        <v>0.4823866666666657</v>
+        <v>-8289581.672137342</v>
       </c>
       <c r="H95" t="n">
-        <v>0.4885416666666671</v>
+        <v>0</v>
       </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="n">
-        <v>0</v>
-      </c>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
-      <c r="M95" t="inlineStr"/>
-      <c r="N95" t="n">
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>0.4884</v>
+      </c>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4010,36 +3771,41 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>0.4882</v>
+        <v>0.4883</v>
       </c>
       <c r="C96" t="n">
-        <v>0.4802</v>
+        <v>0.4945</v>
       </c>
       <c r="D96" t="n">
-        <v>0.4882</v>
+        <v>0.4945</v>
       </c>
       <c r="E96" t="n">
-        <v>0.4802</v>
+        <v>0.4883</v>
       </c>
       <c r="F96" t="n">
-        <v>1069127.5347</v>
+        <v>230571</v>
       </c>
       <c r="G96" t="n">
-        <v>0.4819133333333323</v>
+        <v>-8059010.672137342</v>
       </c>
       <c r="H96" t="n">
-        <v>0.4882766666666671</v>
+        <v>1</v>
       </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
       <c r="J96" t="n">
-        <v>0</v>
-      </c>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
-      <c r="M96" t="inlineStr"/>
-      <c r="N96" t="n">
+        <v>0.4876</v>
+      </c>
+      <c r="K96" t="n">
+        <v>0.4884</v>
+      </c>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="M96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4048,36 +3814,39 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>0.4881</v>
+        <v>0.4907</v>
       </c>
       <c r="C97" t="n">
-        <v>0.4882</v>
+        <v>0.4907</v>
       </c>
       <c r="D97" t="n">
-        <v>0.4882</v>
+        <v>0.4907</v>
       </c>
       <c r="E97" t="n">
-        <v>0.4881</v>
+        <v>0.4907</v>
       </c>
       <c r="F97" t="n">
-        <v>187069.8219</v>
+        <v>92590</v>
       </c>
       <c r="G97" t="n">
-        <v>0.482219999999999</v>
+        <v>-8151600.672137342</v>
       </c>
       <c r="H97" t="n">
-        <v>0.4881016666666671</v>
+        <v>0</v>
       </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="n">
-        <v>0</v>
-      </c>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
-      <c r="M97" t="inlineStr"/>
-      <c r="N97" t="n">
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>0.4884</v>
+      </c>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4086,36 +3855,39 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>0.4881</v>
+        <v>0.4876</v>
       </c>
       <c r="C98" t="n">
-        <v>0.4871</v>
+        <v>0.4875</v>
       </c>
       <c r="D98" t="n">
-        <v>0.4884</v>
+        <v>0.4876</v>
       </c>
       <c r="E98" t="n">
-        <v>0.4871</v>
+        <v>0.4839</v>
       </c>
       <c r="F98" t="n">
-        <v>422489.5371</v>
+        <v>456923.4114</v>
       </c>
       <c r="G98" t="n">
-        <v>0.4824466666666656</v>
+        <v>-8608524.083537342</v>
       </c>
       <c r="H98" t="n">
-        <v>0.4881133333333338</v>
+        <v>0</v>
       </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="n">
-        <v>0</v>
-      </c>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
-      <c r="M98" t="inlineStr"/>
-      <c r="N98" t="n">
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>0.4884</v>
+      </c>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4124,36 +3896,41 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>0.4884</v>
+        <v>0.4875</v>
       </c>
       <c r="C99" t="n">
-        <v>0.4884</v>
+        <v>0.4875</v>
       </c>
       <c r="D99" t="n">
-        <v>0.4884</v>
+        <v>0.4875</v>
       </c>
       <c r="E99" t="n">
-        <v>0.4884</v>
+        <v>0.4875</v>
       </c>
       <c r="F99" t="n">
-        <v>1818</v>
+        <v>660190.7595</v>
       </c>
       <c r="G99" t="n">
-        <v>0.482799999999999</v>
+        <v>-8608524.083537342</v>
       </c>
       <c r="H99" t="n">
-        <v>0.4879416666666671</v>
+        <v>1</v>
       </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
       <c r="J99" t="n">
-        <v>0</v>
-      </c>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
-      <c r="M99" t="inlineStr"/>
-      <c r="N99" t="n">
+        <v>0.4875</v>
+      </c>
+      <c r="K99" t="n">
+        <v>0.4884</v>
+      </c>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4162,36 +3939,39 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>0.4871</v>
+        <v>0.4874</v>
       </c>
       <c r="C100" t="n">
-        <v>0.4871</v>
+        <v>0.4874</v>
       </c>
       <c r="D100" t="n">
-        <v>0.4871</v>
+        <v>0.4874</v>
       </c>
       <c r="E100" t="n">
-        <v>0.4871</v>
+        <v>0.4833</v>
       </c>
       <c r="F100" t="n">
-        <v>115671</v>
+        <v>12098</v>
       </c>
       <c r="G100" t="n">
-        <v>0.4832533333333323</v>
+        <v>-8620622.083537342</v>
       </c>
       <c r="H100" t="n">
-        <v>0.4879416666666671</v>
+        <v>0</v>
       </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="n">
-        <v>0</v>
-      </c>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
-      <c r="M100" t="inlineStr"/>
-      <c r="N100" t="n">
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>0.4884</v>
+      </c>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4200,36 +3980,39 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>0.4871</v>
+        <v>0.4872</v>
       </c>
       <c r="C101" t="n">
-        <v>0.4884</v>
+        <v>0.4875</v>
       </c>
       <c r="D101" t="n">
-        <v>0.4884</v>
+        <v>0.4875</v>
       </c>
       <c r="E101" t="n">
-        <v>0.4871</v>
+        <v>0.4857</v>
       </c>
       <c r="F101" t="n">
-        <v>50000</v>
+        <v>160262.7257799671</v>
       </c>
       <c r="G101" t="n">
-        <v>0.4837933333333324</v>
+        <v>-8460359.357757375</v>
       </c>
       <c r="H101" t="n">
-        <v>0.4879633333333337</v>
+        <v>0</v>
       </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="n">
-        <v>0</v>
-      </c>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
-      <c r="M101" t="inlineStr"/>
-      <c r="N101" t="n">
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>0.4884</v>
+      </c>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4238,36 +4021,39 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>0.4884</v>
+        <v>0.4857</v>
       </c>
       <c r="C102" t="n">
-        <v>0.488</v>
+        <v>0.4875</v>
       </c>
       <c r="D102" t="n">
-        <v>0.4884</v>
+        <v>0.4875</v>
       </c>
       <c r="E102" t="n">
-        <v>0.488</v>
+        <v>0.4857</v>
       </c>
       <c r="F102" t="n">
-        <v>12161</v>
+        <v>134013</v>
       </c>
       <c r="G102" t="n">
-        <v>0.4843133333333324</v>
+        <v>-8460359.357757375</v>
       </c>
       <c r="H102" t="n">
-        <v>0.4877883333333337</v>
+        <v>0</v>
       </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="n">
-        <v>0</v>
-      </c>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
-      <c r="M102" t="inlineStr"/>
-      <c r="N102" t="n">
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>0.4884</v>
+      </c>
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4276,36 +4062,39 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>0.488</v>
+        <v>0.4842</v>
       </c>
       <c r="C103" t="n">
-        <v>0.488</v>
+        <v>0.4842</v>
       </c>
       <c r="D103" t="n">
-        <v>0.488</v>
+        <v>0.4842</v>
       </c>
       <c r="E103" t="n">
-        <v>0.488</v>
+        <v>0.4842</v>
       </c>
       <c r="F103" t="n">
-        <v>80402</v>
+        <v>10262.7257</v>
       </c>
       <c r="G103" t="n">
-        <v>0.4848333333333323</v>
+        <v>-8470622.083457375</v>
       </c>
       <c r="H103" t="n">
-        <v>0.4876116666666671</v>
+        <v>0</v>
       </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="n">
-        <v>0</v>
-      </c>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
-      <c r="M103" t="inlineStr"/>
-      <c r="N103" t="n">
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>0.4884</v>
+      </c>
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4314,36 +4103,39 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>0.488</v>
+        <v>0.4875</v>
       </c>
       <c r="C104" t="n">
-        <v>0.488</v>
+        <v>0.4875</v>
       </c>
       <c r="D104" t="n">
-        <v>0.488</v>
+        <v>0.4875</v>
       </c>
       <c r="E104" t="n">
-        <v>0.488</v>
+        <v>0.4875</v>
       </c>
       <c r="F104" t="n">
-        <v>919635.1188000001</v>
+        <v>8288</v>
       </c>
       <c r="G104" t="n">
-        <v>0.4853533333333323</v>
+        <v>-8462334.083457375</v>
       </c>
       <c r="H104" t="n">
-        <v>0.487601666666667</v>
+        <v>0</v>
       </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="n">
-        <v>0</v>
-      </c>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
-      <c r="M104" t="inlineStr"/>
-      <c r="N104" t="n">
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>0.4884</v>
+      </c>
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4352,36 +4144,39 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>0.488</v>
+        <v>0.4874</v>
       </c>
       <c r="C105" t="n">
-        <v>0.488</v>
+        <v>0.4874</v>
       </c>
       <c r="D105" t="n">
-        <v>0.488</v>
+        <v>0.4874</v>
       </c>
       <c r="E105" t="n">
-        <v>0.488</v>
+        <v>0.4874</v>
       </c>
       <c r="F105" t="n">
-        <v>98142.5386</v>
+        <v>6035</v>
       </c>
       <c r="G105" t="n">
-        <v>0.4858733333333323</v>
+        <v>-8468369.083457375</v>
       </c>
       <c r="H105" t="n">
-        <v>0.4874283333333337</v>
+        <v>0</v>
       </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="n">
-        <v>0</v>
-      </c>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
-      <c r="M105" t="inlineStr"/>
-      <c r="N105" t="n">
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>0.4884</v>
+      </c>
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4390,42 +4185,39 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>0.488</v>
+        <v>0.4874</v>
       </c>
       <c r="C106" t="n">
-        <v>0.4884</v>
+        <v>0.4874</v>
       </c>
       <c r="D106" t="n">
-        <v>0.4884</v>
+        <v>0.4874</v>
       </c>
       <c r="E106" t="n">
-        <v>0.488</v>
+        <v>0.4874</v>
       </c>
       <c r="F106" t="n">
-        <v>967489.548</v>
+        <v>30000</v>
       </c>
       <c r="G106" t="n">
-        <v>0.486419999999999</v>
+        <v>-8468369.083457375</v>
       </c>
       <c r="H106" t="n">
-        <v>0.487386666666667</v>
+        <v>0</v>
       </c>
       <c r="I106" t="n">
-        <v>1</v>
-      </c>
-      <c r="J106" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J106" t="inlineStr"/>
       <c r="K106" t="n">
-        <v>0.488</v>
-      </c>
-      <c r="L106" t="inlineStr"/>
-      <c r="M106" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="N106" t="n">
+        <v>0.4884</v>
+      </c>
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4434,42 +4226,39 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>0.4884</v>
+        <v>0.4875</v>
       </c>
       <c r="C107" t="n">
-        <v>0.4884</v>
+        <v>0.4874</v>
       </c>
       <c r="D107" t="n">
-        <v>0.4884</v>
+        <v>0.4875</v>
       </c>
       <c r="E107" t="n">
-        <v>0.4884</v>
+        <v>0.4874</v>
       </c>
       <c r="F107" t="n">
-        <v>52430.8116</v>
+        <v>168376.3837</v>
       </c>
       <c r="G107" t="n">
-        <v>0.4869666666666657</v>
+        <v>-8468369.083457375</v>
       </c>
       <c r="H107" t="n">
-        <v>0.4873833333333336</v>
+        <v>0</v>
       </c>
       <c r="I107" t="n">
-        <v>1</v>
-      </c>
-      <c r="J107" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J107" t="inlineStr"/>
       <c r="K107" t="n">
         <v>0.4884</v>
       </c>
-      <c r="L107" t="inlineStr"/>
-      <c r="M107" t="inlineStr">
+      <c r="L107" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N107" t="n">
+      <c r="M107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4478,42 +4267,39 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>0.488</v>
+        <v>0.4873</v>
       </c>
       <c r="C108" t="n">
-        <v>0.488</v>
+        <v>0.4873</v>
       </c>
       <c r="D108" t="n">
-        <v>0.488</v>
+        <v>0.4873</v>
       </c>
       <c r="E108" t="n">
-        <v>0.488</v>
+        <v>0.4873</v>
       </c>
       <c r="F108" t="n">
-        <v>31060</v>
+        <v>4961</v>
       </c>
       <c r="G108" t="n">
-        <v>0.4874866666666656</v>
+        <v>-8473330.083457375</v>
       </c>
       <c r="H108" t="n">
-        <v>0.4872100000000003</v>
+        <v>0</v>
       </c>
       <c r="I108" t="n">
-        <v>1</v>
-      </c>
-      <c r="J108" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J108" t="inlineStr"/>
       <c r="K108" t="n">
         <v>0.4884</v>
       </c>
-      <c r="L108" t="inlineStr"/>
-      <c r="M108" t="inlineStr">
+      <c r="L108" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N108" t="n">
+      <c r="M108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4522,42 +4308,39 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>0.488</v>
+        <v>0.4873</v>
       </c>
       <c r="C109" t="n">
-        <v>0.488</v>
+        <v>0.4873</v>
       </c>
       <c r="D109" t="n">
-        <v>0.488</v>
+        <v>0.4873</v>
       </c>
       <c r="E109" t="n">
-        <v>0.488</v>
+        <v>0.4873</v>
       </c>
       <c r="F109" t="n">
-        <v>52587.285</v>
+        <v>4468</v>
       </c>
       <c r="G109" t="n">
-        <v>0.4874599999999989</v>
+        <v>-8473330.083457375</v>
       </c>
       <c r="H109" t="n">
-        <v>0.4870366666666669</v>
+        <v>0</v>
       </c>
       <c r="I109" t="n">
-        <v>1</v>
-      </c>
-      <c r="J109" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J109" t="inlineStr"/>
       <c r="K109" t="n">
-        <v>0.488</v>
-      </c>
-      <c r="L109" t="inlineStr"/>
-      <c r="M109" t="inlineStr">
+        <v>0.4884</v>
+      </c>
+      <c r="L109" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N109" t="n">
+      <c r="M109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4566,42 +4349,39 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>0.488</v>
+        <v>0.4873</v>
       </c>
       <c r="C110" t="n">
-        <v>0.488</v>
+        <v>0.4873</v>
       </c>
       <c r="D110" t="n">
-        <v>0.488</v>
+        <v>0.4873</v>
       </c>
       <c r="E110" t="n">
-        <v>0.488</v>
+        <v>0.4873</v>
       </c>
       <c r="F110" t="n">
-        <v>1300</v>
+        <v>2281</v>
       </c>
       <c r="G110" t="n">
-        <v>0.4874799999999989</v>
+        <v>-8473330.083457375</v>
       </c>
       <c r="H110" t="n">
-        <v>0.4868633333333336</v>
+        <v>0</v>
       </c>
       <c r="I110" t="n">
-        <v>1</v>
-      </c>
-      <c r="J110" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J110" t="inlineStr"/>
       <c r="K110" t="n">
-        <v>0.488</v>
-      </c>
-      <c r="L110" t="inlineStr"/>
-      <c r="M110" t="inlineStr">
+        <v>0.4884</v>
+      </c>
+      <c r="L110" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N110" t="n">
+      <c r="M110" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4610,42 +4390,39 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>0.488</v>
+        <v>0.4836</v>
       </c>
       <c r="C111" t="n">
-        <v>0.488</v>
+        <v>0.4836</v>
       </c>
       <c r="D111" t="n">
-        <v>0.488</v>
+        <v>0.4836</v>
       </c>
       <c r="E111" t="n">
-        <v>0.488</v>
+        <v>0.4836</v>
       </c>
       <c r="F111" t="n">
-        <v>25000</v>
+        <v>55182</v>
       </c>
       <c r="G111" t="n">
-        <v>0.4879999999999988</v>
+        <v>-8528512.083457375</v>
       </c>
       <c r="H111" t="n">
-        <v>0.4868583333333336</v>
+        <v>0</v>
       </c>
       <c r="I111" t="n">
-        <v>1</v>
-      </c>
-      <c r="J111" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J111" t="inlineStr"/>
       <c r="K111" t="n">
-        <v>0.488</v>
-      </c>
-      <c r="L111" t="inlineStr"/>
-      <c r="M111" t="inlineStr">
+        <v>0.4884</v>
+      </c>
+      <c r="L111" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N111" t="n">
+      <c r="M111" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4654,42 +4431,39 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>0.488</v>
+        <v>0.4836</v>
       </c>
       <c r="C112" t="n">
-        <v>0.488</v>
+        <v>0.4837</v>
       </c>
       <c r="D112" t="n">
-        <v>0.488</v>
+        <v>0.4837</v>
       </c>
       <c r="E112" t="n">
-        <v>0.488</v>
+        <v>0.4833</v>
       </c>
       <c r="F112" t="n">
-        <v>513396.24</v>
+        <v>162312</v>
       </c>
       <c r="G112" t="n">
-        <v>0.4879866666666655</v>
+        <v>-8366200.083457375</v>
       </c>
       <c r="H112" t="n">
-        <v>0.4868933333333336</v>
+        <v>0</v>
       </c>
       <c r="I112" t="n">
-        <v>1</v>
-      </c>
-      <c r="J112" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J112" t="inlineStr"/>
       <c r="K112" t="n">
-        <v>0.488</v>
-      </c>
-      <c r="L112" t="inlineStr"/>
-      <c r="M112" t="inlineStr">
+        <v>0.4884</v>
+      </c>
+      <c r="L112" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N112" t="n">
+      <c r="M112" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4698,42 +4472,39 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>0.488</v>
+        <v>0.4837</v>
       </c>
       <c r="C113" t="n">
-        <v>0.4964</v>
+        <v>0.4831</v>
       </c>
       <c r="D113" t="n">
-        <v>0.4964</v>
+        <v>0.4837</v>
       </c>
       <c r="E113" t="n">
-        <v>0.488</v>
+        <v>0.4831</v>
       </c>
       <c r="F113" t="n">
-        <v>466705.9</v>
+        <v>366914.4842</v>
       </c>
       <c r="G113" t="n">
-        <v>0.4886066666666655</v>
+        <v>-8733114.567657376</v>
       </c>
       <c r="H113" t="n">
-        <v>0.4871933333333336</v>
+        <v>0</v>
       </c>
       <c r="I113" t="n">
-        <v>1</v>
-      </c>
-      <c r="J113" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J113" t="inlineStr"/>
       <c r="K113" t="n">
-        <v>0.488</v>
-      </c>
-      <c r="L113" t="inlineStr"/>
-      <c r="M113" t="inlineStr">
+        <v>0.4884</v>
+      </c>
+      <c r="L113" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N113" t="n">
+      <c r="M113" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4742,42 +4513,39 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>0.488</v>
+        <v>0.4803</v>
       </c>
       <c r="C114" t="n">
-        <v>0.488</v>
+        <v>0.4803</v>
       </c>
       <c r="D114" t="n">
-        <v>0.488</v>
+        <v>0.4803</v>
       </c>
       <c r="E114" t="n">
-        <v>0.488</v>
+        <v>0.4802</v>
       </c>
       <c r="F114" t="n">
-        <v>96730</v>
+        <v>1221593.2844</v>
       </c>
       <c r="G114" t="n">
-        <v>0.4885799999999988</v>
+        <v>-9954707.852057375</v>
       </c>
       <c r="H114" t="n">
-        <v>0.4871883333333336</v>
+        <v>0</v>
       </c>
       <c r="I114" t="n">
-        <v>1</v>
-      </c>
-      <c r="J114" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J114" t="inlineStr"/>
       <c r="K114" t="n">
-        <v>0.4964</v>
-      </c>
-      <c r="L114" t="inlineStr"/>
-      <c r="M114" t="inlineStr">
+        <v>0.4884</v>
+      </c>
+      <c r="L114" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N114" t="n">
+      <c r="M114" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4786,42 +4554,39 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>0.488</v>
+        <v>0.4803</v>
       </c>
       <c r="C115" t="n">
-        <v>0.488</v>
+        <v>0.4803</v>
       </c>
       <c r="D115" t="n">
-        <v>0.488</v>
+        <v>0.4803</v>
       </c>
       <c r="E115" t="n">
-        <v>0.488</v>
+        <v>0.4803</v>
       </c>
       <c r="F115" t="n">
-        <v>846923.4313000001</v>
+        <v>330000</v>
       </c>
       <c r="G115" t="n">
-        <v>0.4886399999999987</v>
+        <v>-9954707.852057375</v>
       </c>
       <c r="H115" t="n">
-        <v>0.4870183333333336</v>
+        <v>0</v>
       </c>
       <c r="I115" t="n">
-        <v>1</v>
-      </c>
-      <c r="J115" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J115" t="inlineStr"/>
       <c r="K115" t="n">
-        <v>0.488</v>
-      </c>
-      <c r="L115" t="inlineStr"/>
-      <c r="M115" t="inlineStr">
+        <v>0.4884</v>
+      </c>
+      <c r="L115" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N115" t="n">
+      <c r="M115" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4830,42 +4595,39 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>0.497</v>
+        <v>0.4802</v>
       </c>
       <c r="C116" t="n">
-        <v>0.4987</v>
+        <v>0.4802</v>
       </c>
       <c r="D116" t="n">
-        <v>0.4987</v>
+        <v>0.4802</v>
       </c>
       <c r="E116" t="n">
-        <v>0.497</v>
+        <v>0.4802</v>
       </c>
       <c r="F116" t="n">
-        <v>15403</v>
+        <v>575206</v>
       </c>
       <c r="G116" t="n">
-        <v>0.4893266666666654</v>
+        <v>-10529913.85205738</v>
       </c>
       <c r="H116" t="n">
-        <v>0.4870266666666669</v>
+        <v>0</v>
       </c>
       <c r="I116" t="n">
-        <v>1</v>
-      </c>
-      <c r="J116" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J116" t="inlineStr"/>
       <c r="K116" t="n">
-        <v>0.488</v>
-      </c>
-      <c r="L116" t="inlineStr"/>
-      <c r="M116" t="inlineStr">
+        <v>0.4884</v>
+      </c>
+      <c r="L116" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N116" t="n">
+      <c r="M116" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4874,42 +4636,39 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>0.4881</v>
+        <v>0.4802</v>
       </c>
       <c r="C117" t="n">
-        <v>0.4881</v>
+        <v>0.4802</v>
       </c>
       <c r="D117" t="n">
-        <v>0.4881</v>
+        <v>0.4802</v>
       </c>
       <c r="E117" t="n">
-        <v>0.4881</v>
+        <v>0.4802</v>
       </c>
       <c r="F117" t="n">
-        <v>1818</v>
+        <v>348813.9454</v>
       </c>
       <c r="G117" t="n">
-        <v>0.4893333333333321</v>
+        <v>-10529913.85205738</v>
       </c>
       <c r="H117" t="n">
-        <v>0.4868583333333335</v>
+        <v>0</v>
       </c>
       <c r="I117" t="n">
-        <v>1</v>
-      </c>
-      <c r="J117" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J117" t="inlineStr"/>
       <c r="K117" t="n">
-        <v>0.4987</v>
-      </c>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="inlineStr">
+        <v>0.4884</v>
+      </c>
+      <c r="L117" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N117" t="n">
+      <c r="M117" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4918,42 +4677,39 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>0.4987</v>
+        <v>0.4801</v>
       </c>
       <c r="C118" t="n">
-        <v>0.4987</v>
+        <v>0.4802</v>
       </c>
       <c r="D118" t="n">
-        <v>0.4987</v>
+        <v>0.4802</v>
       </c>
       <c r="E118" t="n">
-        <v>0.4883</v>
+        <v>0.4801</v>
       </c>
       <c r="F118" t="n">
-        <v>1814701.4486</v>
+        <v>467217.3011</v>
       </c>
       <c r="G118" t="n">
-        <v>0.4900466666666655</v>
+        <v>-10529913.85205738</v>
       </c>
       <c r="H118" t="n">
-        <v>0.4869983333333335</v>
+        <v>0</v>
       </c>
       <c r="I118" t="n">
-        <v>1</v>
-      </c>
-      <c r="J118" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J118" t="inlineStr"/>
       <c r="K118" t="n">
-        <v>0.4881</v>
-      </c>
-      <c r="L118" t="inlineStr"/>
-      <c r="M118" t="inlineStr">
+        <v>0.4884</v>
+      </c>
+      <c r="L118" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N118" t="n">
+      <c r="M118" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4962,42 +4718,39 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>0.4986</v>
+        <v>0.4802</v>
       </c>
       <c r="C119" t="n">
-        <v>0.4986</v>
+        <v>0.4802</v>
       </c>
       <c r="D119" t="n">
-        <v>0.4986</v>
+        <v>0.4802</v>
       </c>
       <c r="E119" t="n">
-        <v>0.4986</v>
+        <v>0.4802</v>
       </c>
       <c r="F119" t="n">
-        <v>1818</v>
+        <v>565634.8251</v>
       </c>
       <c r="G119" t="n">
-        <v>0.4907533333333322</v>
+        <v>-10529913.85205738</v>
       </c>
       <c r="H119" t="n">
-        <v>0.4871366666666668</v>
+        <v>0</v>
       </c>
       <c r="I119" t="n">
-        <v>1</v>
-      </c>
-      <c r="J119" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J119" t="inlineStr"/>
       <c r="K119" t="n">
-        <v>0.4987</v>
-      </c>
-      <c r="L119" t="inlineStr"/>
-      <c r="M119" t="inlineStr">
+        <v>0.4884</v>
+      </c>
+      <c r="L119" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N119" t="n">
+      <c r="M119" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5006,40 +4759,39 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>0.4987</v>
+        <v>0.4802</v>
       </c>
       <c r="C120" t="n">
-        <v>0.4987</v>
+        <v>0.4802</v>
       </c>
       <c r="D120" t="n">
-        <v>0.4987</v>
+        <v>0.4802</v>
       </c>
       <c r="E120" t="n">
-        <v>0.4987</v>
+        <v>0.4802</v>
       </c>
       <c r="F120" t="n">
-        <v>1818</v>
+        <v>34471.1143</v>
       </c>
       <c r="G120" t="n">
-        <v>0.4914666666666655</v>
+        <v>-10529913.85205738</v>
       </c>
       <c r="H120" t="n">
-        <v>0.4872716666666668</v>
+        <v>0</v>
       </c>
       <c r="I120" t="n">
         <v>0</v>
       </c>
-      <c r="J120" t="n">
-        <v>0</v>
-      </c>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
-      <c r="M120" t="inlineStr">
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="n">
+        <v>0.4884</v>
+      </c>
+      <c r="L120" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N120" t="n">
+      <c r="M120" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5048,40 +4800,39 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>0.4983</v>
+        <v>0.4773</v>
       </c>
       <c r="C121" t="n">
-        <v>0.4983</v>
+        <v>0.4802</v>
       </c>
       <c r="D121" t="n">
-        <v>0.4983</v>
+        <v>0.4802</v>
       </c>
       <c r="E121" t="n">
-        <v>0.4983</v>
+        <v>0.4773</v>
       </c>
       <c r="F121" t="n">
-        <v>4311.4969</v>
+        <v>616302.8312</v>
       </c>
       <c r="G121" t="n">
-        <v>0.4921266666666655</v>
+        <v>-10529913.85205738</v>
       </c>
       <c r="H121" t="n">
-        <v>0.4875616666666668</v>
+        <v>0</v>
       </c>
       <c r="I121" t="n">
         <v>0</v>
       </c>
-      <c r="J121" t="n">
-        <v>0</v>
-      </c>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
-      <c r="M121" t="inlineStr">
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="n">
+        <v>0.4884</v>
+      </c>
+      <c r="L121" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N121" t="n">
+      <c r="M121" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5090,40 +4841,39 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>0.4984</v>
+        <v>0.4802</v>
       </c>
       <c r="C122" t="n">
-        <v>0.4983</v>
+        <v>0.4802</v>
       </c>
       <c r="D122" t="n">
-        <v>0.4984</v>
+        <v>0.4802</v>
       </c>
       <c r="E122" t="n">
-        <v>0.4983</v>
+        <v>0.4802</v>
       </c>
       <c r="F122" t="n">
-        <v>3636</v>
+        <v>146861.7333</v>
       </c>
       <c r="G122" t="n">
-        <v>0.4927866666666655</v>
+        <v>-10529913.85205738</v>
       </c>
       <c r="H122" t="n">
-        <v>0.4876516666666669</v>
+        <v>0</v>
       </c>
       <c r="I122" t="n">
         <v>0</v>
       </c>
-      <c r="J122" t="n">
-        <v>0</v>
-      </c>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
-      <c r="M122" t="inlineStr">
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="n">
+        <v>0.4884</v>
+      </c>
+      <c r="L122" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N122" t="n">
+      <c r="M122" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5132,40 +4882,39 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>0.4981</v>
+        <v>0.4884</v>
       </c>
       <c r="C123" t="n">
-        <v>0.498</v>
+        <v>0.4884</v>
       </c>
       <c r="D123" t="n">
-        <v>0.4981</v>
+        <v>0.4884</v>
       </c>
       <c r="E123" t="n">
-        <v>0.498</v>
+        <v>0.4884</v>
       </c>
       <c r="F123" t="n">
-        <v>57000</v>
+        <v>78154.8015</v>
       </c>
       <c r="G123" t="n">
-        <v>0.4934533333333321</v>
+        <v>-10451759.05055737</v>
       </c>
       <c r="H123" t="n">
-        <v>0.4878083333333335</v>
+        <v>0</v>
       </c>
       <c r="I123" t="n">
         <v>0</v>
       </c>
-      <c r="J123" t="n">
-        <v>0</v>
-      </c>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
-      <c r="M123" t="inlineStr">
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="n">
+        <v>0.4884</v>
+      </c>
+      <c r="L123" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N123" t="n">
+      <c r="M123" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5174,40 +4923,39 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>0.4979</v>
+        <v>0.4877</v>
       </c>
       <c r="C124" t="n">
-        <v>0.4979</v>
+        <v>0.4877</v>
       </c>
       <c r="D124" t="n">
-        <v>0.4979</v>
+        <v>0.4968</v>
       </c>
       <c r="E124" t="n">
-        <v>0.4979</v>
+        <v>0.4877</v>
       </c>
       <c r="F124" t="n">
-        <v>1818</v>
+        <v>4642.4413</v>
       </c>
       <c r="G124" t="n">
-        <v>0.4941133333333321</v>
+        <v>-10456401.49185737</v>
       </c>
       <c r="H124" t="n">
-        <v>0.4879666666666669</v>
+        <v>0</v>
       </c>
       <c r="I124" t="n">
         <v>0</v>
       </c>
-      <c r="J124" t="n">
-        <v>0</v>
-      </c>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
-      <c r="M124" t="inlineStr">
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="n">
+        <v>0.4884</v>
+      </c>
+      <c r="L124" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N124" t="n">
+      <c r="M124" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5216,40 +4964,39 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>0.4978</v>
+        <v>0.4882</v>
       </c>
       <c r="C125" t="n">
-        <v>0.4978</v>
+        <v>0.4802</v>
       </c>
       <c r="D125" t="n">
-        <v>0.4978</v>
+        <v>0.4882</v>
       </c>
       <c r="E125" t="n">
-        <v>0.4978</v>
+        <v>0.4802</v>
       </c>
       <c r="F125" t="n">
-        <v>30000</v>
+        <v>1069127.5347</v>
       </c>
       <c r="G125" t="n">
-        <v>0.4947666666666655</v>
+        <v>-11525529.02655737</v>
       </c>
       <c r="H125" t="n">
-        <v>0.4881366666666669</v>
+        <v>0</v>
       </c>
       <c r="I125" t="n">
         <v>0</v>
       </c>
-      <c r="J125" t="n">
-        <v>0</v>
-      </c>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
-      <c r="M125" t="inlineStr">
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="n">
+        <v>0.4884</v>
+      </c>
+      <c r="L125" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N125" t="n">
+      <c r="M125" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5258,40 +5005,39 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>0.4978</v>
+        <v>0.4881</v>
       </c>
       <c r="C126" t="n">
-        <v>0.4988</v>
+        <v>0.4882</v>
       </c>
       <c r="D126" t="n">
-        <v>0.4988</v>
+        <v>0.4882</v>
       </c>
       <c r="E126" t="n">
-        <v>0.4978</v>
+        <v>0.4881</v>
       </c>
       <c r="F126" t="n">
-        <v>1058034.3638</v>
+        <v>187069.8219</v>
       </c>
       <c r="G126" t="n">
-        <v>0.4954866666666655</v>
+        <v>-11338459.20465737</v>
       </c>
       <c r="H126" t="n">
-        <v>0.4883233333333336</v>
+        <v>0</v>
       </c>
       <c r="I126" t="n">
         <v>0</v>
       </c>
-      <c r="J126" t="n">
-        <v>0</v>
-      </c>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
-      <c r="M126" t="inlineStr">
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="n">
+        <v>0.4884</v>
+      </c>
+      <c r="L126" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N126" t="n">
+      <c r="M126" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5300,40 +5046,39 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>0.4978</v>
+        <v>0.4881</v>
       </c>
       <c r="C127" t="n">
-        <v>0.5</v>
+        <v>0.4871</v>
       </c>
       <c r="D127" t="n">
-        <v>0.5</v>
+        <v>0.4884</v>
       </c>
       <c r="E127" t="n">
-        <v>0.4978</v>
+        <v>0.4871</v>
       </c>
       <c r="F127" t="n">
-        <v>715162.7711</v>
+        <v>422489.5371</v>
       </c>
       <c r="G127" t="n">
-        <v>0.4962866666666655</v>
+        <v>-11760948.74175737</v>
       </c>
       <c r="H127" t="n">
-        <v>0.4884150000000002</v>
+        <v>0</v>
       </c>
       <c r="I127" t="n">
         <v>0</v>
       </c>
-      <c r="J127" t="n">
-        <v>0</v>
-      </c>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
-      <c r="M127" t="inlineStr">
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="n">
+        <v>0.4884</v>
+      </c>
+      <c r="L127" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N127" t="n">
+      <c r="M127" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5342,40 +5087,39 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>0.4984</v>
+        <v>0.4884</v>
       </c>
       <c r="C128" t="n">
-        <v>0.5041</v>
+        <v>0.4884</v>
       </c>
       <c r="D128" t="n">
-        <v>0.5041</v>
+        <v>0.4884</v>
       </c>
       <c r="E128" t="n">
-        <v>0.4984</v>
+        <v>0.4884</v>
       </c>
       <c r="F128" t="n">
-        <v>100000</v>
+        <v>1818</v>
       </c>
       <c r="G128" t="n">
-        <v>0.4967999999999988</v>
+        <v>-11759130.74175737</v>
       </c>
       <c r="H128" t="n">
-        <v>0.4886383333333336</v>
+        <v>0</v>
       </c>
       <c r="I128" t="n">
         <v>0</v>
       </c>
-      <c r="J128" t="n">
-        <v>0</v>
-      </c>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
-      <c r="M128" t="inlineStr">
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="n">
+        <v>0.4884</v>
+      </c>
+      <c r="L128" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N128" t="n">
+      <c r="M128" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5384,40 +5128,39 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>0.504</v>
+        <v>0.4871</v>
       </c>
       <c r="C129" t="n">
-        <v>0.5041</v>
+        <v>0.4871</v>
       </c>
       <c r="D129" t="n">
-        <v>0.5084</v>
+        <v>0.4871</v>
       </c>
       <c r="E129" t="n">
-        <v>0.504</v>
+        <v>0.4871</v>
       </c>
       <c r="F129" t="n">
-        <v>6241756.7929</v>
+        <v>115671</v>
       </c>
       <c r="G129" t="n">
-        <v>0.4978733333333321</v>
+        <v>-11874801.74175737</v>
       </c>
       <c r="H129" t="n">
-        <v>0.4889150000000003</v>
+        <v>0</v>
       </c>
       <c r="I129" t="n">
         <v>0</v>
       </c>
-      <c r="J129" t="n">
-        <v>0</v>
-      </c>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
-      <c r="M129" t="inlineStr">
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="n">
+        <v>0.4884</v>
+      </c>
+      <c r="L129" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N129" t="n">
+      <c r="M129" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5426,40 +5169,39 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>0.5218</v>
+        <v>0.4871</v>
       </c>
       <c r="C130" t="n">
-        <v>0.5218</v>
+        <v>0.4884</v>
       </c>
       <c r="D130" t="n">
-        <v>0.5218</v>
+        <v>0.4884</v>
       </c>
       <c r="E130" t="n">
-        <v>0.5218</v>
+        <v>0.4871</v>
       </c>
       <c r="F130" t="n">
-        <v>1818</v>
+        <v>50000</v>
       </c>
       <c r="G130" t="n">
-        <v>0.5001266666666654</v>
+        <v>-11824801.74175737</v>
       </c>
       <c r="H130" t="n">
-        <v>0.4894866666666669</v>
+        <v>0</v>
       </c>
       <c r="I130" t="n">
         <v>0</v>
       </c>
-      <c r="J130" t="n">
-        <v>0</v>
-      </c>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
-      <c r="M130" t="inlineStr">
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="n">
+        <v>0.4884</v>
+      </c>
+      <c r="L130" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N130" t="n">
+      <c r="M130" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5468,40 +5210,39 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>0.5042</v>
+        <v>0.4884</v>
       </c>
       <c r="C131" t="n">
-        <v>0.5042</v>
+        <v>0.488</v>
       </c>
       <c r="D131" t="n">
-        <v>0.5042</v>
+        <v>0.4884</v>
       </c>
       <c r="E131" t="n">
-        <v>0.5042</v>
+        <v>0.488</v>
       </c>
       <c r="F131" t="n">
-        <v>4905.01</v>
+        <v>12161</v>
       </c>
       <c r="G131" t="n">
-        <v>0.5004933333333321</v>
+        <v>-11836962.74175737</v>
       </c>
       <c r="H131" t="n">
-        <v>0.4897666666666669</v>
+        <v>0</v>
       </c>
       <c r="I131" t="n">
         <v>0</v>
       </c>
-      <c r="J131" t="n">
-        <v>0</v>
-      </c>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
-      <c r="M131" t="inlineStr">
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="n">
+        <v>0.4884</v>
+      </c>
+      <c r="L131" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N131" t="n">
+      <c r="M131" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5510,40 +5251,39 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>0.5042</v>
+        <v>0.488</v>
       </c>
       <c r="C132" t="n">
-        <v>0.5042</v>
+        <v>0.488</v>
       </c>
       <c r="D132" t="n">
-        <v>0.5042</v>
+        <v>0.488</v>
       </c>
       <c r="E132" t="n">
-        <v>0.5042</v>
+        <v>0.488</v>
       </c>
       <c r="F132" t="n">
-        <v>143403.24</v>
+        <v>80402</v>
       </c>
       <c r="G132" t="n">
-        <v>0.5015666666666655</v>
+        <v>-11836962.74175737</v>
       </c>
       <c r="H132" t="n">
-        <v>0.4900450000000002</v>
+        <v>0</v>
       </c>
       <c r="I132" t="n">
         <v>0</v>
       </c>
-      <c r="J132" t="n">
-        <v>0</v>
-      </c>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
-      <c r="M132" t="inlineStr">
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="n">
+        <v>0.4884</v>
+      </c>
+      <c r="L132" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N132" t="n">
+      <c r="M132" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5552,40 +5292,39 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>0.5042</v>
+        <v>0.488</v>
       </c>
       <c r="C133" t="n">
-        <v>0.5042</v>
+        <v>0.488</v>
       </c>
       <c r="D133" t="n">
-        <v>0.5042</v>
+        <v>0.488</v>
       </c>
       <c r="E133" t="n">
-        <v>0.5042</v>
+        <v>0.488</v>
       </c>
       <c r="F133" t="n">
-        <v>100896.75</v>
+        <v>919635.1188000001</v>
       </c>
       <c r="G133" t="n">
-        <v>0.5019333333333321</v>
+        <v>-11836962.74175737</v>
       </c>
       <c r="H133" t="n">
-        <v>0.4903233333333336</v>
+        <v>0</v>
       </c>
       <c r="I133" t="n">
         <v>0</v>
       </c>
-      <c r="J133" t="n">
-        <v>0</v>
-      </c>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
-      <c r="M133" t="inlineStr">
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="n">
+        <v>0.4884</v>
+      </c>
+      <c r="L133" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N133" t="n">
+      <c r="M133" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5594,40 +5333,39 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>0.5041</v>
+        <v>0.488</v>
       </c>
       <c r="C134" t="n">
-        <v>0.5041</v>
+        <v>0.488</v>
       </c>
       <c r="D134" t="n">
-        <v>0.5041</v>
+        <v>0.488</v>
       </c>
       <c r="E134" t="n">
-        <v>0.5041</v>
+        <v>0.488</v>
       </c>
       <c r="F134" t="n">
-        <v>207171.7069</v>
+        <v>98142.5386</v>
       </c>
       <c r="G134" t="n">
-        <v>0.5022999999999987</v>
+        <v>-11836962.74175737</v>
       </c>
       <c r="H134" t="n">
-        <v>0.4906550000000002</v>
+        <v>0</v>
       </c>
       <c r="I134" t="n">
         <v>0</v>
       </c>
-      <c r="J134" t="n">
-        <v>0</v>
-      </c>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
-      <c r="M134" t="inlineStr">
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="n">
+        <v>0.4884</v>
+      </c>
+      <c r="L134" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N134" t="n">
+      <c r="M134" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5636,40 +5374,39 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>0.5097</v>
+        <v>0.488</v>
       </c>
       <c r="C135" t="n">
-        <v>0.5097</v>
+        <v>0.4884</v>
       </c>
       <c r="D135" t="n">
-        <v>0.5097</v>
+        <v>0.4884</v>
       </c>
       <c r="E135" t="n">
-        <v>0.5097</v>
+        <v>0.488</v>
       </c>
       <c r="F135" t="n">
-        <v>1818</v>
+        <v>967489.548</v>
       </c>
       <c r="G135" t="n">
-        <v>0.5030333333333321</v>
+        <v>-10869473.19375737</v>
       </c>
       <c r="H135" t="n">
-        <v>0.4910250000000002</v>
+        <v>0</v>
       </c>
       <c r="I135" t="n">
         <v>0</v>
       </c>
-      <c r="J135" t="n">
-        <v>0</v>
-      </c>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
-      <c r="M135" t="inlineStr">
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="n">
+        <v>0.4884</v>
+      </c>
+      <c r="L135" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N135" t="n">
+      <c r="M135" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5678,40 +5415,39 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>0.5096000000000001</v>
+        <v>0.4884</v>
       </c>
       <c r="C136" t="n">
-        <v>0.5096000000000001</v>
+        <v>0.4884</v>
       </c>
       <c r="D136" t="n">
-        <v>0.5096000000000001</v>
+        <v>0.4884</v>
       </c>
       <c r="E136" t="n">
-        <v>0.5096000000000001</v>
+        <v>0.4884</v>
       </c>
       <c r="F136" t="n">
-        <v>5870.332</v>
+        <v>52430.8116</v>
       </c>
       <c r="G136" t="n">
-        <v>0.5037866666666654</v>
+        <v>-10869473.19375737</v>
       </c>
       <c r="H136" t="n">
-        <v>0.4913950000000001</v>
+        <v>0</v>
       </c>
       <c r="I136" t="n">
         <v>0</v>
       </c>
-      <c r="J136" t="n">
-        <v>0</v>
-      </c>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
-      <c r="M136" t="inlineStr">
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="n">
+        <v>0.4884</v>
+      </c>
+      <c r="L136" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N136" t="n">
+      <c r="M136" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5720,40 +5456,39 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>0.499</v>
+        <v>0.488</v>
       </c>
       <c r="C137" t="n">
-        <v>0.5065</v>
+        <v>0.488</v>
       </c>
       <c r="D137" t="n">
-        <v>0.5286</v>
+        <v>0.488</v>
       </c>
       <c r="E137" t="n">
-        <v>0.499</v>
+        <v>0.488</v>
       </c>
       <c r="F137" t="n">
-        <v>5334290.5796</v>
+        <v>31060</v>
       </c>
       <c r="G137" t="n">
-        <v>0.504333333333332</v>
+        <v>-10900533.19375737</v>
       </c>
       <c r="H137" t="n">
-        <v>0.4917133333333334</v>
+        <v>0</v>
       </c>
       <c r="I137" t="n">
         <v>0</v>
       </c>
-      <c r="J137" t="n">
-        <v>0</v>
-      </c>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
-      <c r="M137" t="inlineStr">
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="n">
+        <v>0.4884</v>
+      </c>
+      <c r="L137" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N137" t="n">
+      <c r="M137" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5762,40 +5497,1186 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
+        <v>0.488</v>
+      </c>
+      <c r="C138" t="n">
+        <v>0.488</v>
+      </c>
+      <c r="D138" t="n">
+        <v>0.488</v>
+      </c>
+      <c r="E138" t="n">
+        <v>0.488</v>
+      </c>
+      <c r="F138" t="n">
+        <v>52587.285</v>
+      </c>
+      <c r="G138" t="n">
+        <v>-10900533.19375737</v>
+      </c>
+      <c r="H138" t="n">
+        <v>0</v>
+      </c>
+      <c r="I138" t="n">
+        <v>0</v>
+      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="n">
+        <v>0.4884</v>
+      </c>
+      <c r="L138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M138" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="n">
+        <v>0.488</v>
+      </c>
+      <c r="C139" t="n">
+        <v>0.488</v>
+      </c>
+      <c r="D139" t="n">
+        <v>0.488</v>
+      </c>
+      <c r="E139" t="n">
+        <v>0.488</v>
+      </c>
+      <c r="F139" t="n">
+        <v>1300</v>
+      </c>
+      <c r="G139" t="n">
+        <v>-10900533.19375737</v>
+      </c>
+      <c r="H139" t="n">
+        <v>0</v>
+      </c>
+      <c r="I139" t="n">
+        <v>0</v>
+      </c>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="n">
+        <v>0.4884</v>
+      </c>
+      <c r="L139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M139" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="n">
+        <v>0.488</v>
+      </c>
+      <c r="C140" t="n">
+        <v>0.488</v>
+      </c>
+      <c r="D140" t="n">
+        <v>0.488</v>
+      </c>
+      <c r="E140" t="n">
+        <v>0.488</v>
+      </c>
+      <c r="F140" t="n">
+        <v>25000</v>
+      </c>
+      <c r="G140" t="n">
+        <v>-10900533.19375737</v>
+      </c>
+      <c r="H140" t="n">
+        <v>0</v>
+      </c>
+      <c r="I140" t="n">
+        <v>0</v>
+      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="n">
+        <v>0.4884</v>
+      </c>
+      <c r="L140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M140" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="n">
+        <v>0.488</v>
+      </c>
+      <c r="C141" t="n">
+        <v>0.488</v>
+      </c>
+      <c r="D141" t="n">
+        <v>0.488</v>
+      </c>
+      <c r="E141" t="n">
+        <v>0.488</v>
+      </c>
+      <c r="F141" t="n">
+        <v>513396.24</v>
+      </c>
+      <c r="G141" t="n">
+        <v>-10900533.19375737</v>
+      </c>
+      <c r="H141" t="n">
+        <v>0</v>
+      </c>
+      <c r="I141" t="n">
+        <v>0</v>
+      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="n">
+        <v>0.4884</v>
+      </c>
+      <c r="L141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M141" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="n">
+        <v>0.488</v>
+      </c>
+      <c r="C142" t="n">
+        <v>0.4964</v>
+      </c>
+      <c r="D142" t="n">
+        <v>0.4964</v>
+      </c>
+      <c r="E142" t="n">
+        <v>0.488</v>
+      </c>
+      <c r="F142" t="n">
+        <v>466705.9</v>
+      </c>
+      <c r="G142" t="n">
+        <v>-10433827.29375737</v>
+      </c>
+      <c r="H142" t="n">
+        <v>0</v>
+      </c>
+      <c r="I142" t="n">
+        <v>0</v>
+      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="n">
+        <v>0.4884</v>
+      </c>
+      <c r="L142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M142" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="n">
+        <v>0.488</v>
+      </c>
+      <c r="C143" t="n">
+        <v>0.488</v>
+      </c>
+      <c r="D143" t="n">
+        <v>0.488</v>
+      </c>
+      <c r="E143" t="n">
+        <v>0.488</v>
+      </c>
+      <c r="F143" t="n">
+        <v>96730</v>
+      </c>
+      <c r="G143" t="n">
+        <v>-10530557.29375737</v>
+      </c>
+      <c r="H143" t="n">
+        <v>0</v>
+      </c>
+      <c r="I143" t="n">
+        <v>0</v>
+      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="n">
+        <v>0.4884</v>
+      </c>
+      <c r="L143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M143" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="n">
+        <v>0.488</v>
+      </c>
+      <c r="C144" t="n">
+        <v>0.488</v>
+      </c>
+      <c r="D144" t="n">
+        <v>0.488</v>
+      </c>
+      <c r="E144" t="n">
+        <v>0.488</v>
+      </c>
+      <c r="F144" t="n">
+        <v>846923.4313000001</v>
+      </c>
+      <c r="G144" t="n">
+        <v>-10530557.29375737</v>
+      </c>
+      <c r="H144" t="n">
+        <v>0</v>
+      </c>
+      <c r="I144" t="n">
+        <v>0</v>
+      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="n">
+        <v>0.4884</v>
+      </c>
+      <c r="L144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M144" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="n">
+        <v>0.497</v>
+      </c>
+      <c r="C145" t="n">
+        <v>0.4987</v>
+      </c>
+      <c r="D145" t="n">
+        <v>0.4987</v>
+      </c>
+      <c r="E145" t="n">
+        <v>0.497</v>
+      </c>
+      <c r="F145" t="n">
+        <v>15403</v>
+      </c>
+      <c r="G145" t="n">
+        <v>-10515154.29375737</v>
+      </c>
+      <c r="H145" t="n">
+        <v>0</v>
+      </c>
+      <c r="I145" t="n">
+        <v>0</v>
+      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="n">
+        <v>0.4884</v>
+      </c>
+      <c r="L145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M145" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="n">
+        <v>0.4881</v>
+      </c>
+      <c r="C146" t="n">
+        <v>0.4881</v>
+      </c>
+      <c r="D146" t="n">
+        <v>0.4881</v>
+      </c>
+      <c r="E146" t="n">
+        <v>0.4881</v>
+      </c>
+      <c r="F146" t="n">
+        <v>1818</v>
+      </c>
+      <c r="G146" t="n">
+        <v>-10516972.29375737</v>
+      </c>
+      <c r="H146" t="n">
+        <v>0</v>
+      </c>
+      <c r="I146" t="n">
+        <v>0</v>
+      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="n">
+        <v>0.4884</v>
+      </c>
+      <c r="L146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M146" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="n">
+        <v>0.4987</v>
+      </c>
+      <c r="C147" t="n">
+        <v>0.4987</v>
+      </c>
+      <c r="D147" t="n">
+        <v>0.4987</v>
+      </c>
+      <c r="E147" t="n">
+        <v>0.4883</v>
+      </c>
+      <c r="F147" t="n">
+        <v>1814701.4486</v>
+      </c>
+      <c r="G147" t="n">
+        <v>-8702270.845157374</v>
+      </c>
+      <c r="H147" t="n">
+        <v>0</v>
+      </c>
+      <c r="I147" t="n">
+        <v>0</v>
+      </c>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="n">
+        <v>0.4884</v>
+      </c>
+      <c r="L147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M147" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="n">
+        <v>0.4986</v>
+      </c>
+      <c r="C148" t="n">
+        <v>0.4986</v>
+      </c>
+      <c r="D148" t="n">
+        <v>0.4986</v>
+      </c>
+      <c r="E148" t="n">
+        <v>0.4986</v>
+      </c>
+      <c r="F148" t="n">
+        <v>1818</v>
+      </c>
+      <c r="G148" t="n">
+        <v>-8704088.845157374</v>
+      </c>
+      <c r="H148" t="n">
+        <v>0</v>
+      </c>
+      <c r="I148" t="n">
+        <v>0</v>
+      </c>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="n">
+        <v>0.4884</v>
+      </c>
+      <c r="L148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M148" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="n">
+        <v>0.4987</v>
+      </c>
+      <c r="C149" t="n">
+        <v>0.4987</v>
+      </c>
+      <c r="D149" t="n">
+        <v>0.4987</v>
+      </c>
+      <c r="E149" t="n">
+        <v>0.4987</v>
+      </c>
+      <c r="F149" t="n">
+        <v>1818</v>
+      </c>
+      <c r="G149" t="n">
+        <v>-8702270.845157374</v>
+      </c>
+      <c r="H149" t="n">
+        <v>0</v>
+      </c>
+      <c r="I149" t="n">
+        <v>0</v>
+      </c>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="n">
+        <v>0.4884</v>
+      </c>
+      <c r="L149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M149" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="n">
+        <v>0.4983</v>
+      </c>
+      <c r="C150" t="n">
+        <v>0.4983</v>
+      </c>
+      <c r="D150" t="n">
+        <v>0.4983</v>
+      </c>
+      <c r="E150" t="n">
+        <v>0.4983</v>
+      </c>
+      <c r="F150" t="n">
+        <v>4311.4969</v>
+      </c>
+      <c r="G150" t="n">
+        <v>-8706582.342057373</v>
+      </c>
+      <c r="H150" t="n">
+        <v>0</v>
+      </c>
+      <c r="I150" t="n">
+        <v>0</v>
+      </c>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="n">
+        <v>0.4884</v>
+      </c>
+      <c r="L150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M150" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="n">
+        <v>0.4984</v>
+      </c>
+      <c r="C151" t="n">
+        <v>0.4983</v>
+      </c>
+      <c r="D151" t="n">
+        <v>0.4984</v>
+      </c>
+      <c r="E151" t="n">
+        <v>0.4983</v>
+      </c>
+      <c r="F151" t="n">
+        <v>3636</v>
+      </c>
+      <c r="G151" t="n">
+        <v>-8706582.342057373</v>
+      </c>
+      <c r="H151" t="n">
+        <v>0</v>
+      </c>
+      <c r="I151" t="n">
+        <v>0</v>
+      </c>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="n">
+        <v>0.4884</v>
+      </c>
+      <c r="L151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M151" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="n">
+        <v>0.4981</v>
+      </c>
+      <c r="C152" t="n">
+        <v>0.498</v>
+      </c>
+      <c r="D152" t="n">
+        <v>0.4981</v>
+      </c>
+      <c r="E152" t="n">
+        <v>0.498</v>
+      </c>
+      <c r="F152" t="n">
+        <v>57000</v>
+      </c>
+      <c r="G152" t="n">
+        <v>-8763582.342057373</v>
+      </c>
+      <c r="H152" t="n">
+        <v>0</v>
+      </c>
+      <c r="I152" t="n">
+        <v>0</v>
+      </c>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="n">
+        <v>0.4884</v>
+      </c>
+      <c r="L152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M152" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="n">
+        <v>0.4979</v>
+      </c>
+      <c r="C153" t="n">
+        <v>0.4979</v>
+      </c>
+      <c r="D153" t="n">
+        <v>0.4979</v>
+      </c>
+      <c r="E153" t="n">
+        <v>0.4979</v>
+      </c>
+      <c r="F153" t="n">
+        <v>1818</v>
+      </c>
+      <c r="G153" t="n">
+        <v>-8765400.342057373</v>
+      </c>
+      <c r="H153" t="n">
+        <v>0</v>
+      </c>
+      <c r="I153" t="n">
+        <v>0</v>
+      </c>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="n">
+        <v>0.4884</v>
+      </c>
+      <c r="L153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M153" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="n">
+        <v>0.4978</v>
+      </c>
+      <c r="C154" t="n">
+        <v>0.4978</v>
+      </c>
+      <c r="D154" t="n">
+        <v>0.4978</v>
+      </c>
+      <c r="E154" t="n">
+        <v>0.4978</v>
+      </c>
+      <c r="F154" t="n">
+        <v>30000</v>
+      </c>
+      <c r="G154" t="n">
+        <v>-8795400.342057373</v>
+      </c>
+      <c r="H154" t="n">
+        <v>0</v>
+      </c>
+      <c r="I154" t="n">
+        <v>0</v>
+      </c>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="n">
+        <v>0.4884</v>
+      </c>
+      <c r="L154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M154" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="n">
+        <v>0.4978</v>
+      </c>
+      <c r="C155" t="n">
+        <v>0.4988</v>
+      </c>
+      <c r="D155" t="n">
+        <v>0.4988</v>
+      </c>
+      <c r="E155" t="n">
+        <v>0.4978</v>
+      </c>
+      <c r="F155" t="n">
+        <v>1058034.3638</v>
+      </c>
+      <c r="G155" t="n">
+        <v>-7737365.978257373</v>
+      </c>
+      <c r="H155" t="n">
+        <v>0</v>
+      </c>
+      <c r="I155" t="n">
+        <v>0</v>
+      </c>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="n">
+        <v>0.4884</v>
+      </c>
+      <c r="L155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M155" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="n">
+        <v>0.4978</v>
+      </c>
+      <c r="C156" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D156" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E156" t="n">
+        <v>0.4978</v>
+      </c>
+      <c r="F156" t="n">
+        <v>715162.7711</v>
+      </c>
+      <c r="G156" t="n">
+        <v>-7022203.207157373</v>
+      </c>
+      <c r="H156" t="n">
+        <v>0</v>
+      </c>
+      <c r="I156" t="n">
+        <v>0</v>
+      </c>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="n">
+        <v>0.4884</v>
+      </c>
+      <c r="L156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M156" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="n">
+        <v>0.4984</v>
+      </c>
+      <c r="C157" t="n">
+        <v>0.5041</v>
+      </c>
+      <c r="D157" t="n">
+        <v>0.5041</v>
+      </c>
+      <c r="E157" t="n">
+        <v>0.4984</v>
+      </c>
+      <c r="F157" t="n">
+        <v>100000</v>
+      </c>
+      <c r="G157" t="n">
+        <v>-6922203.207157373</v>
+      </c>
+      <c r="H157" t="n">
+        <v>0</v>
+      </c>
+      <c r="I157" t="n">
+        <v>0</v>
+      </c>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="n">
+        <v>0.4884</v>
+      </c>
+      <c r="L157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M157" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="n">
+        <v>0.504</v>
+      </c>
+      <c r="C158" t="n">
+        <v>0.5041</v>
+      </c>
+      <c r="D158" t="n">
+        <v>0.5084</v>
+      </c>
+      <c r="E158" t="n">
+        <v>0.504</v>
+      </c>
+      <c r="F158" t="n">
+        <v>6241756.7929</v>
+      </c>
+      <c r="G158" t="n">
+        <v>-6922203.207157373</v>
+      </c>
+      <c r="H158" t="n">
+        <v>0</v>
+      </c>
+      <c r="I158" t="n">
+        <v>0</v>
+      </c>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="n">
+        <v>0.4884</v>
+      </c>
+      <c r="L158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M158" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="n">
+        <v>0.5218</v>
+      </c>
+      <c r="C159" t="n">
+        <v>0.5218</v>
+      </c>
+      <c r="D159" t="n">
+        <v>0.5218</v>
+      </c>
+      <c r="E159" t="n">
+        <v>0.5218</v>
+      </c>
+      <c r="F159" t="n">
+        <v>1818</v>
+      </c>
+      <c r="G159" t="n">
+        <v>-6920385.207157373</v>
+      </c>
+      <c r="H159" t="n">
+        <v>0</v>
+      </c>
+      <c r="I159" t="n">
+        <v>0</v>
+      </c>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="n">
+        <v>0.4884</v>
+      </c>
+      <c r="L159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M159" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="n">
+        <v>0.5042</v>
+      </c>
+      <c r="C160" t="n">
+        <v>0.5042</v>
+      </c>
+      <c r="D160" t="n">
+        <v>0.5042</v>
+      </c>
+      <c r="E160" t="n">
+        <v>0.5042</v>
+      </c>
+      <c r="F160" t="n">
+        <v>4905.01</v>
+      </c>
+      <c r="G160" t="n">
+        <v>-6925290.217157373</v>
+      </c>
+      <c r="H160" t="n">
+        <v>0</v>
+      </c>
+      <c r="I160" t="n">
+        <v>1</v>
+      </c>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="n">
+        <v>0.4884</v>
+      </c>
+      <c r="L160" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="M160" t="n">
+        <v>1.027350532350532</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="n">
+        <v>0.5042</v>
+      </c>
+      <c r="C161" t="n">
+        <v>0.5042</v>
+      </c>
+      <c r="D161" t="n">
+        <v>0.5042</v>
+      </c>
+      <c r="E161" t="n">
+        <v>0.5042</v>
+      </c>
+      <c r="F161" t="n">
+        <v>143403.24</v>
+      </c>
+      <c r="G161" t="n">
+        <v>-6925290.217157373</v>
+      </c>
+      <c r="H161" t="n">
+        <v>0</v>
+      </c>
+      <c r="I161" t="n">
+        <v>1</v>
+      </c>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="inlineStr"/>
+      <c r="L161" t="inlineStr"/>
+      <c r="M161" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="n">
+        <v>0.5042</v>
+      </c>
+      <c r="C162" t="n">
+        <v>0.5042</v>
+      </c>
+      <c r="D162" t="n">
+        <v>0.5042</v>
+      </c>
+      <c r="E162" t="n">
+        <v>0.5042</v>
+      </c>
+      <c r="F162" t="n">
+        <v>100896.75</v>
+      </c>
+      <c r="G162" t="n">
+        <v>-6925290.217157373</v>
+      </c>
+      <c r="H162" t="n">
+        <v>0</v>
+      </c>
+      <c r="I162" t="n">
+        <v>0</v>
+      </c>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
+      <c r="L162" t="inlineStr"/>
+      <c r="M162" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="n">
+        <v>0.5041</v>
+      </c>
+      <c r="C163" t="n">
+        <v>0.5041</v>
+      </c>
+      <c r="D163" t="n">
+        <v>0.5041</v>
+      </c>
+      <c r="E163" t="n">
+        <v>0.5041</v>
+      </c>
+      <c r="F163" t="n">
+        <v>207171.7069</v>
+      </c>
+      <c r="G163" t="n">
+        <v>-7132461.924057373</v>
+      </c>
+      <c r="H163" t="n">
+        <v>0</v>
+      </c>
+      <c r="I163" t="n">
+        <v>0</v>
+      </c>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="inlineStr"/>
+      <c r="L163" t="inlineStr"/>
+      <c r="M163" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="n">
+        <v>0.5097</v>
+      </c>
+      <c r="C164" t="n">
+        <v>0.5097</v>
+      </c>
+      <c r="D164" t="n">
+        <v>0.5097</v>
+      </c>
+      <c r="E164" t="n">
+        <v>0.5097</v>
+      </c>
+      <c r="F164" t="n">
+        <v>1818</v>
+      </c>
+      <c r="G164" t="n">
+        <v>-7130643.924057373</v>
+      </c>
+      <c r="H164" t="n">
+        <v>0</v>
+      </c>
+      <c r="I164" t="n">
+        <v>0</v>
+      </c>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="inlineStr"/>
+      <c r="L164" t="inlineStr"/>
+      <c r="M164" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="n">
+        <v>0.5096000000000001</v>
+      </c>
+      <c r="C165" t="n">
+        <v>0.5096000000000001</v>
+      </c>
+      <c r="D165" t="n">
+        <v>0.5096000000000001</v>
+      </c>
+      <c r="E165" t="n">
+        <v>0.5096000000000001</v>
+      </c>
+      <c r="F165" t="n">
+        <v>5870.332</v>
+      </c>
+      <c r="G165" t="n">
+        <v>-7136514.256057373</v>
+      </c>
+      <c r="H165" t="n">
+        <v>0</v>
+      </c>
+      <c r="I165" t="n">
+        <v>0</v>
+      </c>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="inlineStr"/>
+      <c r="L165" t="inlineStr"/>
+      <c r="M165" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="n">
+        <v>0.499</v>
+      </c>
+      <c r="C166" t="n">
         <v>0.5065</v>
       </c>
-      <c r="C138" t="n">
+      <c r="D166" t="n">
+        <v>0.5286</v>
+      </c>
+      <c r="E166" t="n">
+        <v>0.499</v>
+      </c>
+      <c r="F166" t="n">
+        <v>5334290.5796</v>
+      </c>
+      <c r="G166" t="n">
+        <v>-12470804.83565737</v>
+      </c>
+      <c r="H166" t="n">
+        <v>0</v>
+      </c>
+      <c r="I166" t="n">
+        <v>0</v>
+      </c>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="inlineStr"/>
+      <c r="L166" t="inlineStr"/>
+      <c r="M166" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="n">
         <v>0.5065</v>
       </c>
-      <c r="D138" t="n">
+      <c r="C167" t="n">
+        <v>0.5065</v>
+      </c>
+      <c r="D167" t="n">
         <v>0.5302</v>
       </c>
-      <c r="E138" t="n">
+      <c r="E167" t="n">
         <v>0.5065</v>
       </c>
-      <c r="F138" t="n">
+      <c r="F167" t="n">
         <v>1940985.5835</v>
       </c>
-      <c r="G138" t="n">
-        <v>0.5048999999999986</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0.4920316666666668</v>
-      </c>
-      <c r="I138" t="n">
-        <v>0</v>
-      </c>
-      <c r="J138" t="n">
-        <v>0</v>
-      </c>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
-      <c r="M138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N138" t="n">
+      <c r="G167" t="n">
+        <v>-12470804.83565737</v>
+      </c>
+      <c r="H167" t="n">
+        <v>0</v>
+      </c>
+      <c r="I167" t="n">
+        <v>1</v>
+      </c>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="inlineStr"/>
+      <c r="L167" t="inlineStr"/>
+      <c r="M167" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2020-01-19 BackTest OCN.xlsx
+++ b/BackTest/2020-01-19 BackTest OCN.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M167"/>
+  <dimension ref="A1:N125"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -427,34 +427,39 @@
           <t>Profits</t>
         </is>
       </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Price_point</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.5177</v>
+        <v>0.4839</v>
       </c>
       <c r="C2" t="n">
-        <v>0.5177</v>
+        <v>0.4716</v>
       </c>
       <c r="D2" t="n">
-        <v>0.5177</v>
+        <v>0.4839</v>
       </c>
       <c r="E2" t="n">
-        <v>0.5177</v>
+        <v>0.4716</v>
       </c>
       <c r="F2" t="n">
-        <v>101000</v>
+        <v>25000</v>
       </c>
       <c r="G2" t="n">
-        <v>-6768503.019000001</v>
+        <v>-14264211.5238</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
@@ -462,34 +467,35 @@
       <c r="M2" t="n">
         <v>1</v>
       </c>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.5181</v>
+        <v>0.4731</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5181</v>
+        <v>0.473</v>
       </c>
       <c r="D3" t="n">
-        <v>0.5181</v>
+        <v>0.4731</v>
       </c>
       <c r="E3" t="n">
-        <v>0.5181</v>
+        <v>0.473</v>
       </c>
       <c r="F3" t="n">
-        <v>61270</v>
+        <v>751534.9832</v>
       </c>
       <c r="G3" t="n">
-        <v>-6707233.019000001</v>
+        <v>-13512676.5406</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
@@ -497,139 +503,161 @@
       <c r="M3" t="n">
         <v>1</v>
       </c>
+      <c r="N3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.521</v>
+        <v>0.4859</v>
       </c>
       <c r="C4" t="n">
-        <v>0.52</v>
+        <v>0.4859</v>
       </c>
       <c r="D4" t="n">
-        <v>0.528</v>
+        <v>0.4859</v>
       </c>
       <c r="E4" t="n">
-        <v>0.52</v>
+        <v>0.4859</v>
       </c>
       <c r="F4" t="n">
-        <v>187830.5064</v>
+        <v>224520</v>
       </c>
       <c r="G4" t="n">
-        <v>-6519402.512600001</v>
+        <v>-13288156.5406</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
+      <c r="J4" t="n">
+        <v>0.473</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.473</v>
+      </c>
       <c r="L4" t="inlineStr"/>
       <c r="M4" t="n">
         <v>1</v>
       </c>
+      <c r="N4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.52</v>
+        <v>0.4957</v>
       </c>
       <c r="C5" t="n">
-        <v>0.52</v>
+        <v>0.4957</v>
       </c>
       <c r="D5" t="n">
-        <v>0.52</v>
+        <v>0.4957</v>
       </c>
       <c r="E5" t="n">
-        <v>0.52</v>
+        <v>0.4957</v>
       </c>
       <c r="F5" t="n">
-        <v>1092125.114</v>
+        <v>4524.914262658866</v>
       </c>
       <c r="G5" t="n">
-        <v>-6519402.512600001</v>
+        <v>-13283631.62633734</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
-        <v>1</v>
-      </c>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.4859</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.473</v>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M5" t="n">
         <v>1</v>
       </c>
+      <c r="N5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.5179</v>
+        <v>0.4955</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5179</v>
+        <v>0.4955</v>
       </c>
       <c r="D6" t="n">
-        <v>0.5179</v>
+        <v>0.4955</v>
       </c>
       <c r="E6" t="n">
-        <v>0.5179</v>
+        <v>0.4955</v>
       </c>
       <c r="F6" t="n">
-        <v>81140</v>
+        <v>60567.3505</v>
       </c>
       <c r="G6" t="n">
-        <v>-6600542.512600001</v>
+        <v>-13344198.97683734</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>0.473</v>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M6" t="n">
         <v>1</v>
       </c>
+      <c r="N6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.5179</v>
+        <v>0.4951</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5178</v>
+        <v>0.4951</v>
       </c>
       <c r="D7" t="n">
-        <v>0.5179</v>
+        <v>0.4951</v>
       </c>
       <c r="E7" t="n">
-        <v>0.5178</v>
+        <v>0.4951</v>
       </c>
       <c r="F7" t="n">
-        <v>447500</v>
+        <v>60618.2987</v>
       </c>
       <c r="G7" t="n">
-        <v>-7048042.512600001</v>
+        <v>-13404817.27553734</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
@@ -637,34 +665,35 @@
       <c r="M7" t="n">
         <v>1</v>
       </c>
+      <c r="N7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.5274</v>
+        <v>0.4901</v>
       </c>
       <c r="C8" t="n">
-        <v>0.5101</v>
+        <v>0.4901</v>
       </c>
       <c r="D8" t="n">
-        <v>0.5274</v>
+        <v>0.4901</v>
       </c>
       <c r="E8" t="n">
-        <v>0.5101</v>
+        <v>0.4901</v>
       </c>
       <c r="F8" t="n">
-        <v>526561.5105</v>
+        <v>60610</v>
       </c>
       <c r="G8" t="n">
-        <v>-7574604.023100001</v>
+        <v>-13465427.27553734</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
@@ -672,34 +701,35 @@
       <c r="M8" t="n">
         <v>1</v>
       </c>
+      <c r="N8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0.5173</v>
+        <v>0.4898</v>
       </c>
       <c r="C9" t="n">
-        <v>0.5173</v>
+        <v>0.4952</v>
       </c>
       <c r="D9" t="n">
-        <v>0.5173</v>
+        <v>0.4952</v>
       </c>
       <c r="E9" t="n">
-        <v>0.5173</v>
+        <v>0.4898</v>
       </c>
       <c r="F9" t="n">
-        <v>107623.2673</v>
+        <v>115792</v>
       </c>
       <c r="G9" t="n">
-        <v>-7466980.7558</v>
+        <v>-13349635.27553734</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
@@ -707,28 +737,29 @@
       <c r="M9" t="n">
         <v>1</v>
       </c>
+      <c r="N9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0.5101</v>
+        <v>0.4961</v>
       </c>
       <c r="C10" t="n">
-        <v>0.51</v>
+        <v>0.4999</v>
       </c>
       <c r="D10" t="n">
-        <v>0.5101</v>
+        <v>0.4999</v>
       </c>
       <c r="E10" t="n">
-        <v>0.51</v>
+        <v>0.4961</v>
       </c>
       <c r="F10" t="n">
-        <v>1142036.3414</v>
+        <v>1377036.0535</v>
       </c>
       <c r="G10" t="n">
-        <v>-8609017.097200001</v>
+        <v>-11972599.22203734</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -742,28 +773,29 @@
       <c r="M10" t="n">
         <v>1</v>
       </c>
+      <c r="N10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0.5173</v>
+        <v>0.4999</v>
       </c>
       <c r="C11" t="n">
-        <v>0.5173</v>
+        <v>0.4999</v>
       </c>
       <c r="D11" t="n">
-        <v>0.5173</v>
+        <v>0.4999</v>
       </c>
       <c r="E11" t="n">
-        <v>0.5173</v>
+        <v>0.4999</v>
       </c>
       <c r="F11" t="n">
-        <v>5773.7735</v>
+        <v>35710</v>
       </c>
       <c r="G11" t="n">
-        <v>-8603243.323700001</v>
+        <v>-11972599.22203734</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -777,28 +809,29 @@
       <c r="M11" t="n">
         <v>1</v>
       </c>
+      <c r="N11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>0.517</v>
+        <v>0.4962</v>
       </c>
       <c r="C12" t="n">
-        <v>0.5169</v>
+        <v>0.4961</v>
       </c>
       <c r="D12" t="n">
-        <v>0.517</v>
+        <v>0.4962</v>
       </c>
       <c r="E12" t="n">
-        <v>0.5169</v>
+        <v>0.4961</v>
       </c>
       <c r="F12" t="n">
-        <v>291833.1677</v>
+        <v>3938084.1993</v>
       </c>
       <c r="G12" t="n">
-        <v>-8895076.491400002</v>
+        <v>-15910683.42133734</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -812,34 +845,35 @@
       <c r="M12" t="n">
         <v>1</v>
       </c>
+      <c r="N12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>0.5168</v>
+        <v>0.4961</v>
       </c>
       <c r="C13" t="n">
-        <v>0.5168</v>
+        <v>0.4999</v>
       </c>
       <c r="D13" t="n">
-        <v>0.5168</v>
+        <v>0.4999</v>
       </c>
       <c r="E13" t="n">
-        <v>0.5168</v>
+        <v>0.4961</v>
       </c>
       <c r="F13" t="n">
-        <v>175164.3626</v>
+        <v>1480606.6473</v>
       </c>
       <c r="G13" t="n">
-        <v>-9070240.854000002</v>
+        <v>-14430076.77403734</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
@@ -847,28 +881,29 @@
       <c r="M13" t="n">
         <v>1</v>
       </c>
+      <c r="N13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>0.51</v>
+        <v>0.4863</v>
       </c>
       <c r="C14" t="n">
-        <v>0.51</v>
+        <v>0.4863</v>
       </c>
       <c r="D14" t="n">
-        <v>0.51</v>
+        <v>0.4863</v>
       </c>
       <c r="E14" t="n">
-        <v>0.51</v>
+        <v>0.4863</v>
       </c>
       <c r="F14" t="n">
-        <v>3413.5727</v>
+        <v>1213563.3225</v>
       </c>
       <c r="G14" t="n">
-        <v>-9073654.426700002</v>
+        <v>-15643640.09653734</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -882,28 +917,29 @@
       <c r="M14" t="n">
         <v>1</v>
       </c>
+      <c r="N14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>0.5169</v>
+        <v>0.4863</v>
       </c>
       <c r="C15" t="n">
-        <v>0.5169</v>
+        <v>0.4997</v>
       </c>
       <c r="D15" t="n">
-        <v>0.5169</v>
+        <v>0.4998</v>
       </c>
       <c r="E15" t="n">
-        <v>0.5169</v>
+        <v>0.4863</v>
       </c>
       <c r="F15" t="n">
-        <v>136864.5517</v>
+        <v>1980591.6618</v>
       </c>
       <c r="G15" t="n">
-        <v>-8936789.875000002</v>
+        <v>-13663048.43473734</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -917,28 +953,29 @@
       <c r="M15" t="n">
         <v>1</v>
       </c>
+      <c r="N15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>0.51</v>
+        <v>0.4964</v>
       </c>
       <c r="C16" t="n">
-        <v>0.51</v>
+        <v>0.4964</v>
       </c>
       <c r="D16" t="n">
-        <v>0.51</v>
+        <v>0.4964</v>
       </c>
       <c r="E16" t="n">
-        <v>0.51</v>
+        <v>0.4964</v>
       </c>
       <c r="F16" t="n">
-        <v>68335.7313</v>
+        <v>73999.5683</v>
       </c>
       <c r="G16" t="n">
-        <v>-9005125.606300002</v>
+        <v>-13737048.00303734</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -952,28 +989,29 @@
       <c r="M16" t="n">
         <v>1</v>
       </c>
+      <c r="N16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>0.5168</v>
+        <v>0.4963</v>
       </c>
       <c r="C17" t="n">
-        <v>0.5168</v>
+        <v>0.4963</v>
       </c>
       <c r="D17" t="n">
-        <v>0.5168</v>
+        <v>0.4963</v>
       </c>
       <c r="E17" t="n">
-        <v>0.5168</v>
+        <v>0.4963</v>
       </c>
       <c r="F17" t="n">
-        <v>980</v>
+        <v>4524.39</v>
       </c>
       <c r="G17" t="n">
-        <v>-9004145.606300002</v>
+        <v>-13741572.39303734</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -987,28 +1025,29 @@
       <c r="M17" t="n">
         <v>1</v>
       </c>
+      <c r="N17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>0.51</v>
+        <v>0.4996</v>
       </c>
       <c r="C18" t="n">
-        <v>0.51</v>
+        <v>0.4996</v>
       </c>
       <c r="D18" t="n">
-        <v>0.51</v>
+        <v>0.4996</v>
       </c>
       <c r="E18" t="n">
-        <v>0.51</v>
+        <v>0.4996</v>
       </c>
       <c r="F18" t="n">
-        <v>364732.8242</v>
+        <v>2857.7874</v>
       </c>
       <c r="G18" t="n">
-        <v>-9368878.430500003</v>
+        <v>-13738714.60563734</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1022,28 +1061,29 @@
       <c r="M18" t="n">
         <v>1</v>
       </c>
+      <c r="N18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>0.51</v>
+        <v>0.4963</v>
       </c>
       <c r="C19" t="n">
-        <v>0.51</v>
+        <v>0.4963</v>
       </c>
       <c r="D19" t="n">
-        <v>0.51</v>
+        <v>0.4963</v>
       </c>
       <c r="E19" t="n">
-        <v>0.51</v>
+        <v>0.4963</v>
       </c>
       <c r="F19" t="n">
-        <v>78007.6237</v>
+        <v>20285.61</v>
       </c>
       <c r="G19" t="n">
-        <v>-9368878.430500003</v>
+        <v>-13759000.21563734</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1057,28 +1097,29 @@
       <c r="M19" t="n">
         <v>1</v>
       </c>
+      <c r="N19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>0.51</v>
+        <v>0.4863</v>
       </c>
       <c r="C20" t="n">
-        <v>0.51</v>
+        <v>0.4992</v>
       </c>
       <c r="D20" t="n">
-        <v>0.51</v>
+        <v>0.4993</v>
       </c>
       <c r="E20" t="n">
-        <v>0.51</v>
+        <v>0.4863</v>
       </c>
       <c r="F20" t="n">
-        <v>582.4569</v>
+        <v>387026.9429</v>
       </c>
       <c r="G20" t="n">
-        <v>-9368878.430500003</v>
+        <v>-13371973.27273734</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1092,28 +1133,29 @@
       <c r="M20" t="n">
         <v>1</v>
       </c>
+      <c r="N20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>0.5088</v>
+        <v>0.4988</v>
       </c>
       <c r="C21" t="n">
-        <v>0.5088</v>
+        <v>0.4988</v>
       </c>
       <c r="D21" t="n">
-        <v>0.5088</v>
+        <v>0.4988</v>
       </c>
       <c r="E21" t="n">
-        <v>0.5088</v>
+        <v>0.4988</v>
       </c>
       <c r="F21" t="n">
-        <v>324748.6526</v>
+        <v>4987.0712</v>
       </c>
       <c r="G21" t="n">
-        <v>-9693627.083100002</v>
+        <v>-13376960.34393734</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1127,28 +1169,29 @@
       <c r="M21" t="n">
         <v>1</v>
       </c>
+      <c r="N21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>0.5088</v>
+        <v>0.4868</v>
       </c>
       <c r="C22" t="n">
-        <v>0.5099</v>
+        <v>0.4988</v>
       </c>
       <c r="D22" t="n">
-        <v>0.5099</v>
+        <v>0.4988</v>
       </c>
       <c r="E22" t="n">
-        <v>0.5087</v>
+        <v>0.4867</v>
       </c>
       <c r="F22" t="n">
-        <v>290846.5178</v>
+        <v>565944.7037</v>
       </c>
       <c r="G22" t="n">
-        <v>-9402780.565300003</v>
+        <v>-13376960.34393734</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1162,28 +1205,29 @@
       <c r="M22" t="n">
         <v>1</v>
       </c>
+      <c r="N22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>0.51</v>
+        <v>0.4961</v>
       </c>
       <c r="C23" t="n">
-        <v>0.51</v>
+        <v>0.4961</v>
       </c>
       <c r="D23" t="n">
-        <v>0.51</v>
+        <v>0.4961</v>
       </c>
       <c r="E23" t="n">
-        <v>0.51</v>
+        <v>0.4961</v>
       </c>
       <c r="F23" t="n">
-        <v>46265.6791</v>
+        <v>212470</v>
       </c>
       <c r="G23" t="n">
-        <v>-9356514.886200003</v>
+        <v>-13589430.34393734</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1197,28 +1241,29 @@
       <c r="M23" t="n">
         <v>1</v>
       </c>
+      <c r="N23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>0.51</v>
+        <v>0.4987</v>
       </c>
       <c r="C24" t="n">
-        <v>0.5171</v>
+        <v>0.4987</v>
       </c>
       <c r="D24" t="n">
-        <v>0.5171</v>
+        <v>0.4987</v>
       </c>
       <c r="E24" t="n">
-        <v>0.51</v>
+        <v>0.4987</v>
       </c>
       <c r="F24" t="n">
-        <v>60145.4</v>
+        <v>1201</v>
       </c>
       <c r="G24" t="n">
-        <v>-9296369.486200003</v>
+        <v>-13588229.34393734</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1232,28 +1277,29 @@
       <c r="M24" t="n">
         <v>1</v>
       </c>
+      <c r="N24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>0.517</v>
+        <v>0.4863</v>
       </c>
       <c r="C25" t="n">
-        <v>0.5172</v>
+        <v>0.4864</v>
       </c>
       <c r="D25" t="n">
-        <v>0.5172</v>
+        <v>0.4987</v>
       </c>
       <c r="E25" t="n">
-        <v>0.517</v>
+        <v>0.4863</v>
       </c>
       <c r="F25" t="n">
-        <v>822118.9789</v>
+        <v>8284</v>
       </c>
       <c r="G25" t="n">
-        <v>-8474250.507300003</v>
+        <v>-13596513.34393734</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1267,28 +1313,29 @@
       <c r="M25" t="n">
         <v>1</v>
       </c>
+      <c r="N25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>0.5272</v>
+        <v>0.4867</v>
       </c>
       <c r="C26" t="n">
-        <v>0.5272</v>
+        <v>0.4987</v>
       </c>
       <c r="D26" t="n">
-        <v>0.5272</v>
+        <v>0.4987</v>
       </c>
       <c r="E26" t="n">
-        <v>0.5272</v>
+        <v>0.4867</v>
       </c>
       <c r="F26" t="n">
-        <v>1000</v>
+        <v>1087507.1756</v>
       </c>
       <c r="G26" t="n">
-        <v>-8473250.507300003</v>
+        <v>-12509006.16833734</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1302,34 +1349,35 @@
       <c r="M26" t="n">
         <v>1</v>
       </c>
+      <c r="N26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>0.5272</v>
+        <v>0.4871</v>
       </c>
       <c r="C27" t="n">
-        <v>0.5172</v>
+        <v>0.4871</v>
       </c>
       <c r="D27" t="n">
-        <v>0.5272</v>
+        <v>0.4871</v>
       </c>
       <c r="E27" t="n">
-        <v>0.5172</v>
+        <v>0.4871</v>
       </c>
       <c r="F27" t="n">
-        <v>2059212.5611</v>
+        <v>3636</v>
       </c>
       <c r="G27" t="n">
-        <v>-10532463.0684</v>
+        <v>-12512642.16833734</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
@@ -1337,34 +1385,35 @@
       <c r="M27" t="n">
         <v>1</v>
       </c>
+      <c r="N27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>0.5172</v>
+        <v>0.4871</v>
       </c>
       <c r="C28" t="n">
-        <v>0.5078</v>
+        <v>0.4871</v>
       </c>
       <c r="D28" t="n">
-        <v>0.5172</v>
+        <v>0.4871</v>
       </c>
       <c r="E28" t="n">
-        <v>0.5078</v>
+        <v>0.4871</v>
       </c>
       <c r="F28" t="n">
-        <v>920064.66</v>
+        <v>3636</v>
       </c>
       <c r="G28" t="n">
-        <v>-11452527.7284</v>
+        <v>-12512642.16833734</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
@@ -1372,28 +1421,29 @@
       <c r="M28" t="n">
         <v>1</v>
       </c>
+      <c r="N28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>0.5168</v>
+        <v>0.487</v>
       </c>
       <c r="C29" t="n">
-        <v>0.5168</v>
+        <v>0.4985</v>
       </c>
       <c r="D29" t="n">
-        <v>0.5168</v>
+        <v>0.4987</v>
       </c>
       <c r="E29" t="n">
-        <v>0.5168</v>
+        <v>0.487</v>
       </c>
       <c r="F29" t="n">
-        <v>63215.6808</v>
+        <v>2009402.8691</v>
       </c>
       <c r="G29" t="n">
-        <v>-11389312.0476</v>
+        <v>-10503239.29923734</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1407,28 +1457,29 @@
       <c r="M29" t="n">
         <v>1</v>
       </c>
+      <c r="N29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>0.5079</v>
+        <v>0.4886</v>
       </c>
       <c r="C30" t="n">
-        <v>0.5079</v>
+        <v>0.4986</v>
       </c>
       <c r="D30" t="n">
-        <v>0.5079</v>
+        <v>0.4986</v>
       </c>
       <c r="E30" t="n">
-        <v>0.5079</v>
+        <v>0.4885</v>
       </c>
       <c r="F30" t="n">
-        <v>93904.2313</v>
+        <v>169350.7744</v>
       </c>
       <c r="G30" t="n">
-        <v>-11483216.2789</v>
+        <v>-10333888.52483734</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1442,28 +1493,29 @@
       <c r="M30" t="n">
         <v>1</v>
       </c>
+      <c r="N30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>0.5077</v>
+        <v>0.4886</v>
       </c>
       <c r="C31" t="n">
-        <v>0.5001</v>
+        <v>0.4886</v>
       </c>
       <c r="D31" t="n">
-        <v>0.5077</v>
+        <v>0.4886</v>
       </c>
       <c r="E31" t="n">
-        <v>0.5001</v>
+        <v>0.4886</v>
       </c>
       <c r="F31" t="n">
-        <v>1732591.3175</v>
+        <v>3636</v>
       </c>
       <c r="G31" t="n">
-        <v>-13215807.5964</v>
+        <v>-10337524.52483734</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1477,28 +1529,29 @@
       <c r="M31" t="n">
         <v>1</v>
       </c>
+      <c r="N31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>0.5062</v>
+        <v>0.4984</v>
       </c>
       <c r="C32" t="n">
-        <v>0.5054</v>
+        <v>0.4984</v>
       </c>
       <c r="D32" t="n">
-        <v>0.5062</v>
+        <v>0.4984</v>
       </c>
       <c r="E32" t="n">
-        <v>0.5054</v>
+        <v>0.4984</v>
       </c>
       <c r="F32" t="n">
-        <v>224517.9086</v>
+        <v>16399.5508</v>
       </c>
       <c r="G32" t="n">
-        <v>-12991289.6878</v>
+        <v>-10321124.97403734</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1512,28 +1565,29 @@
       <c r="M32" t="n">
         <v>1</v>
       </c>
+      <c r="N32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>0.525</v>
+        <v>0.4984</v>
       </c>
       <c r="C33" t="n">
-        <v>0.525</v>
+        <v>0.4909</v>
       </c>
       <c r="D33" t="n">
-        <v>0.525</v>
+        <v>0.4984</v>
       </c>
       <c r="E33" t="n">
-        <v>0.525</v>
+        <v>0.4909</v>
       </c>
       <c r="F33" t="n">
-        <v>980</v>
+        <v>174860.6951</v>
       </c>
       <c r="G33" t="n">
-        <v>-12990309.6878</v>
+        <v>-10495985.66913734</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1547,28 +1601,29 @@
       <c r="M33" t="n">
         <v>1</v>
       </c>
+      <c r="N33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>0.51</v>
+        <v>0.4909</v>
       </c>
       <c r="C34" t="n">
-        <v>0.505</v>
+        <v>0.4886</v>
       </c>
       <c r="D34" t="n">
-        <v>0.51</v>
+        <v>0.4909</v>
       </c>
       <c r="E34" t="n">
-        <v>0.505</v>
+        <v>0.4886</v>
       </c>
       <c r="F34" t="n">
-        <v>128294.3735</v>
+        <v>5364.5936</v>
       </c>
       <c r="G34" t="n">
-        <v>-13118604.0613</v>
+        <v>-10501350.26273734</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1582,28 +1637,29 @@
       <c r="M34" t="n">
         <v>1</v>
       </c>
+      <c r="N34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>0.5041</v>
+        <v>0.4984</v>
       </c>
       <c r="C35" t="n">
-        <v>0.486</v>
+        <v>0.4984</v>
       </c>
       <c r="D35" t="n">
-        <v>0.5041</v>
+        <v>0.4984</v>
       </c>
       <c r="E35" t="n">
-        <v>0.4859</v>
+        <v>0.4984</v>
       </c>
       <c r="F35" t="n">
-        <v>535854.42</v>
+        <v>1500</v>
       </c>
       <c r="G35" t="n">
-        <v>-13654458.4813</v>
+        <v>-10499850.26273734</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1617,28 +1673,29 @@
       <c r="M35" t="n">
         <v>1</v>
       </c>
+      <c r="N35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>0.4997</v>
+        <v>0.4909</v>
       </c>
       <c r="C36" t="n">
-        <v>0.5</v>
+        <v>0.4984</v>
       </c>
       <c r="D36" t="n">
-        <v>0.5</v>
+        <v>0.4984</v>
       </c>
       <c r="E36" t="n">
-        <v>0.4997</v>
+        <v>0.4859</v>
       </c>
       <c r="F36" t="n">
-        <v>536639.1271</v>
+        <v>551297.7645</v>
       </c>
       <c r="G36" t="n">
-        <v>-13117819.3542</v>
+        <v>-10499850.26273734</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1652,28 +1709,29 @@
       <c r="M36" t="n">
         <v>1</v>
       </c>
+      <c r="N36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>0.4961</v>
+        <v>0.4984</v>
       </c>
       <c r="C37" t="n">
-        <v>0.4961</v>
+        <v>0.4984</v>
       </c>
       <c r="D37" t="n">
-        <v>0.4962</v>
+        <v>0.4984</v>
       </c>
       <c r="E37" t="n">
-        <v>0.4961</v>
+        <v>0.4984</v>
       </c>
       <c r="F37" t="n">
-        <v>803974.58</v>
+        <v>2049940.698</v>
       </c>
       <c r="G37" t="n">
-        <v>-13921793.9342</v>
+        <v>-10499850.26273734</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1687,28 +1745,29 @@
       <c r="M37" t="n">
         <v>1</v>
       </c>
+      <c r="N37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>0.4961</v>
+        <v>0.4883</v>
       </c>
       <c r="C38" t="n">
-        <v>0.4961</v>
+        <v>0.4883</v>
       </c>
       <c r="D38" t="n">
-        <v>0.4961</v>
+        <v>0.4883</v>
       </c>
       <c r="E38" t="n">
-        <v>0.4961</v>
+        <v>0.4883</v>
       </c>
       <c r="F38" t="n">
-        <v>47540.74</v>
+        <v>131242.7691</v>
       </c>
       <c r="G38" t="n">
-        <v>-13921793.9342</v>
+        <v>-10631093.03183734</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1722,28 +1781,29 @@
       <c r="M38" t="n">
         <v>1</v>
       </c>
+      <c r="N38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>0.4961</v>
+        <v>0.4883</v>
       </c>
       <c r="C39" t="n">
-        <v>0.4961</v>
+        <v>0.4859</v>
       </c>
       <c r="D39" t="n">
-        <v>0.4961</v>
+        <v>0.4883</v>
       </c>
       <c r="E39" t="n">
-        <v>0.4961</v>
+        <v>0.4859</v>
       </c>
       <c r="F39" t="n">
-        <v>71.3139</v>
+        <v>1019141.3953</v>
       </c>
       <c r="G39" t="n">
-        <v>-13921793.9342</v>
+        <v>-11650234.42713734</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1757,6 +1817,7 @@
       <c r="M39" t="n">
         <v>1</v>
       </c>
+      <c r="N39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1766,19 +1827,19 @@
         <v>0.4859</v>
       </c>
       <c r="C40" t="n">
-        <v>0.4859</v>
+        <v>0.4784</v>
       </c>
       <c r="D40" t="n">
         <v>0.4859</v>
       </c>
       <c r="E40" t="n">
-        <v>0.4859</v>
+        <v>0.4784</v>
       </c>
       <c r="F40" t="n">
-        <v>217492.4796</v>
+        <v>61093.7803</v>
       </c>
       <c r="G40" t="n">
-        <v>-14139286.4138</v>
+        <v>-11711328.20743734</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1792,28 +1853,29 @@
       <c r="M40" t="n">
         <v>1</v>
       </c>
+      <c r="N40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>0.4859</v>
+        <v>0.4883</v>
       </c>
       <c r="C41" t="n">
-        <v>0.4859</v>
+        <v>0.4883</v>
       </c>
       <c r="D41" t="n">
-        <v>0.4859</v>
+        <v>0.4883</v>
       </c>
       <c r="E41" t="n">
-        <v>0.4859</v>
+        <v>0.4883</v>
       </c>
       <c r="F41" t="n">
-        <v>142525.8128</v>
+        <v>65630</v>
       </c>
       <c r="G41" t="n">
-        <v>-14139286.4138</v>
+        <v>-11645698.20743734</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1827,28 +1889,29 @@
       <c r="M41" t="n">
         <v>1</v>
       </c>
+      <c r="N41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>0.4858</v>
+        <v>0.4982</v>
       </c>
       <c r="C42" t="n">
-        <v>0.4839</v>
+        <v>0.4982</v>
       </c>
       <c r="D42" t="n">
-        <v>0.4858</v>
+        <v>0.4982</v>
       </c>
       <c r="E42" t="n">
-        <v>0.4839</v>
+        <v>0.4982</v>
       </c>
       <c r="F42" t="n">
-        <v>99925.11</v>
+        <v>2400</v>
       </c>
       <c r="G42" t="n">
-        <v>-14239211.5238</v>
+        <v>-11643298.20743734</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1862,28 +1925,29 @@
       <c r="M42" t="n">
         <v>1</v>
       </c>
+      <c r="N42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>0.4839</v>
+        <v>0.4982</v>
       </c>
       <c r="C43" t="n">
-        <v>0.4839</v>
+        <v>0.4982</v>
       </c>
       <c r="D43" t="n">
-        <v>0.4839</v>
+        <v>0.4982</v>
       </c>
       <c r="E43" t="n">
-        <v>0.4839</v>
+        <v>0.4982</v>
       </c>
       <c r="F43" t="n">
-        <v>494668.99</v>
+        <v>2660.2902</v>
       </c>
       <c r="G43" t="n">
-        <v>-14239211.5238</v>
+        <v>-11643298.20743734</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1897,28 +1961,29 @@
       <c r="M43" t="n">
         <v>1</v>
       </c>
+      <c r="N43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>0.4839</v>
+        <v>0.4902</v>
       </c>
       <c r="C44" t="n">
-        <v>0.4716</v>
+        <v>0.4982</v>
       </c>
       <c r="D44" t="n">
-        <v>0.4839</v>
+        <v>0.4982</v>
       </c>
       <c r="E44" t="n">
-        <v>0.4716</v>
+        <v>0.4902</v>
       </c>
       <c r="F44" t="n">
-        <v>25000</v>
+        <v>8278</v>
       </c>
       <c r="G44" t="n">
-        <v>-14264211.5238</v>
+        <v>-11643298.20743734</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1932,235 +1997,209 @@
       <c r="M44" t="n">
         <v>1</v>
       </c>
+      <c r="N44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>0.4731</v>
+        <v>0.497</v>
       </c>
       <c r="C45" t="n">
-        <v>0.473</v>
+        <v>0.4903</v>
       </c>
       <c r="D45" t="n">
-        <v>0.4731</v>
+        <v>0.497</v>
       </c>
       <c r="E45" t="n">
-        <v>0.473</v>
+        <v>0.4903</v>
       </c>
       <c r="F45" t="n">
-        <v>751534.9832</v>
+        <v>5453.9414</v>
       </c>
       <c r="G45" t="n">
-        <v>-13512676.5406</v>
+        <v>-11648752.14883734</v>
       </c>
       <c r="H45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="n">
-        <v>0.4716</v>
-      </c>
-      <c r="K45" t="n">
-        <v>0.4716</v>
-      </c>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr"/>
       <c r="M45" t="n">
         <v>1</v>
       </c>
+      <c r="N45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>0.4859</v>
+        <v>0.4903</v>
       </c>
       <c r="C46" t="n">
-        <v>0.4859</v>
+        <v>0.4903</v>
       </c>
       <c r="D46" t="n">
-        <v>0.4859</v>
+        <v>0.4903</v>
       </c>
       <c r="E46" t="n">
-        <v>0.4859</v>
+        <v>0.4903</v>
       </c>
       <c r="F46" t="n">
-        <v>224520</v>
+        <v>1818</v>
       </c>
       <c r="G46" t="n">
-        <v>-13288156.5406</v>
+        <v>-11648752.14883734</v>
       </c>
       <c r="H46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="n">
-        <v>0.473</v>
-      </c>
-      <c r="K46" t="n">
-        <v>0.4716</v>
-      </c>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="inlineStr"/>
       <c r="M46" t="n">
         <v>1</v>
       </c>
+      <c r="N46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>0.4957</v>
+        <v>0.4903</v>
       </c>
       <c r="C47" t="n">
-        <v>0.4957</v>
+        <v>0.4906</v>
       </c>
       <c r="D47" t="n">
-        <v>0.4957</v>
+        <v>0.4906</v>
       </c>
       <c r="E47" t="n">
-        <v>0.4957</v>
+        <v>0.4903</v>
       </c>
       <c r="F47" t="n">
-        <v>4524.914262658866</v>
+        <v>150600.57</v>
       </c>
       <c r="G47" t="n">
-        <v>-13283631.62633734</v>
+        <v>-11498151.57883734</v>
       </c>
       <c r="H47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="n">
-        <v>0.4859</v>
-      </c>
-      <c r="K47" t="n">
-        <v>0.4716</v>
-      </c>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="inlineStr"/>
       <c r="M47" t="n">
         <v>1</v>
       </c>
+      <c r="N47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>0.4955</v>
+        <v>0.4901</v>
       </c>
       <c r="C48" t="n">
-        <v>0.4955</v>
+        <v>0.4809</v>
       </c>
       <c r="D48" t="n">
-        <v>0.4955</v>
+        <v>0.4902</v>
       </c>
       <c r="E48" t="n">
-        <v>0.4955</v>
+        <v>0.4809</v>
       </c>
       <c r="F48" t="n">
-        <v>60567.3505</v>
+        <v>88073.8391</v>
       </c>
       <c r="G48" t="n">
-        <v>-13344198.97683734</v>
+        <v>-11586225.41793734</v>
       </c>
       <c r="H48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="n">
-        <v>0.4957</v>
-      </c>
-      <c r="K48" t="n">
-        <v>0.4957</v>
-      </c>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr"/>
       <c r="M48" t="n">
         <v>1</v>
       </c>
+      <c r="N48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>0.4951</v>
+        <v>0.4809</v>
       </c>
       <c r="C49" t="n">
-        <v>0.4951</v>
+        <v>0.4929</v>
       </c>
       <c r="D49" t="n">
-        <v>0.4951</v>
+        <v>0.493</v>
       </c>
       <c r="E49" t="n">
-        <v>0.4951</v>
+        <v>0.4806</v>
       </c>
       <c r="F49" t="n">
-        <v>60618.2987</v>
+        <v>4656176.5536</v>
       </c>
       <c r="G49" t="n">
-        <v>-13404817.27553734</v>
+        <v>-6930048.864337342</v>
       </c>
       <c r="H49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="n">
-        <v>0.4955</v>
-      </c>
-      <c r="K49" t="n">
-        <v>0.4957</v>
-      </c>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="inlineStr"/>
       <c r="M49" t="n">
         <v>1</v>
       </c>
+      <c r="N49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>0.4901</v>
+        <v>0.4876</v>
       </c>
       <c r="C50" t="n">
-        <v>0.4901</v>
+        <v>0.4886</v>
       </c>
       <c r="D50" t="n">
-        <v>0.4901</v>
+        <v>0.4887</v>
       </c>
       <c r="E50" t="n">
-        <v>0.4901</v>
+        <v>0.4876</v>
       </c>
       <c r="F50" t="n">
-        <v>60610</v>
+        <v>1310194.8078</v>
       </c>
       <c r="G50" t="n">
-        <v>-13465427.27553734</v>
+        <v>-8240243.672137342</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2169,39 +2208,34 @@
         <v>0</v>
       </c>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="n">
-        <v>0.4957</v>
-      </c>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="inlineStr"/>
       <c r="M50" t="n">
         <v>1</v>
       </c>
+      <c r="N50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>0.4898</v>
+        <v>0.4884</v>
       </c>
       <c r="C51" t="n">
-        <v>0.4952</v>
+        <v>0.4884</v>
       </c>
       <c r="D51" t="n">
-        <v>0.4952</v>
+        <v>0.4884</v>
       </c>
       <c r="E51" t="n">
-        <v>0.4898</v>
+        <v>0.4884</v>
       </c>
       <c r="F51" t="n">
-        <v>115792</v>
+        <v>6321</v>
       </c>
       <c r="G51" t="n">
-        <v>-13349635.27553734</v>
+        <v>-8246564.672137342</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2215,28 +2249,29 @@
       <c r="M51" t="n">
         <v>1</v>
       </c>
+      <c r="N51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>0.4961</v>
+        <v>0.4876</v>
       </c>
       <c r="C52" t="n">
-        <v>0.4999</v>
+        <v>0.4876</v>
       </c>
       <c r="D52" t="n">
-        <v>0.4999</v>
+        <v>0.4876</v>
       </c>
       <c r="E52" t="n">
-        <v>0.4961</v>
+        <v>0.4876</v>
       </c>
       <c r="F52" t="n">
-        <v>1377036.0535</v>
+        <v>43017</v>
       </c>
       <c r="G52" t="n">
-        <v>-11972599.22203734</v>
+        <v>-8289581.672137342</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2250,28 +2285,29 @@
       <c r="M52" t="n">
         <v>1</v>
       </c>
+      <c r="N52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>0.4999</v>
+        <v>0.4876</v>
       </c>
       <c r="C53" t="n">
-        <v>0.4999</v>
+        <v>0.4876</v>
       </c>
       <c r="D53" t="n">
-        <v>0.4999</v>
+        <v>0.4876</v>
       </c>
       <c r="E53" t="n">
-        <v>0.4999</v>
+        <v>0.4876</v>
       </c>
       <c r="F53" t="n">
-        <v>35710</v>
+        <v>24315</v>
       </c>
       <c r="G53" t="n">
-        <v>-11972599.22203734</v>
+        <v>-8289581.672137342</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2285,28 +2321,29 @@
       <c r="M53" t="n">
         <v>1</v>
       </c>
+      <c r="N53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>0.4962</v>
+        <v>0.4883</v>
       </c>
       <c r="C54" t="n">
-        <v>0.4961</v>
+        <v>0.4945</v>
       </c>
       <c r="D54" t="n">
-        <v>0.4962</v>
+        <v>0.4945</v>
       </c>
       <c r="E54" t="n">
-        <v>0.4961</v>
+        <v>0.4883</v>
       </c>
       <c r="F54" t="n">
-        <v>3938084.1993</v>
+        <v>230571</v>
       </c>
       <c r="G54" t="n">
-        <v>-15910683.42133734</v>
+        <v>-8059010.672137342</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2320,28 +2357,29 @@
       <c r="M54" t="n">
         <v>1</v>
       </c>
+      <c r="N54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>0.4961</v>
+        <v>0.4907</v>
       </c>
       <c r="C55" t="n">
-        <v>0.4999</v>
+        <v>0.4907</v>
       </c>
       <c r="D55" t="n">
-        <v>0.4999</v>
+        <v>0.4907</v>
       </c>
       <c r="E55" t="n">
-        <v>0.4961</v>
+        <v>0.4907</v>
       </c>
       <c r="F55" t="n">
-        <v>1480606.6473</v>
+        <v>92590</v>
       </c>
       <c r="G55" t="n">
-        <v>-14430076.77403734</v>
+        <v>-8151600.672137342</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2355,28 +2393,29 @@
       <c r="M55" t="n">
         <v>1</v>
       </c>
+      <c r="N55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>0.4863</v>
+        <v>0.4876</v>
       </c>
       <c r="C56" t="n">
-        <v>0.4863</v>
+        <v>0.4875</v>
       </c>
       <c r="D56" t="n">
-        <v>0.4863</v>
+        <v>0.4876</v>
       </c>
       <c r="E56" t="n">
-        <v>0.4863</v>
+        <v>0.4839</v>
       </c>
       <c r="F56" t="n">
-        <v>1213563.3225</v>
+        <v>456923.4114</v>
       </c>
       <c r="G56" t="n">
-        <v>-15643640.09653734</v>
+        <v>-8608524.083537342</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2390,28 +2429,29 @@
       <c r="M56" t="n">
         <v>1</v>
       </c>
+      <c r="N56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>0.4863</v>
+        <v>0.4875</v>
       </c>
       <c r="C57" t="n">
-        <v>0.4997</v>
+        <v>0.4875</v>
       </c>
       <c r="D57" t="n">
-        <v>0.4998</v>
+        <v>0.4875</v>
       </c>
       <c r="E57" t="n">
-        <v>0.4863</v>
+        <v>0.4875</v>
       </c>
       <c r="F57" t="n">
-        <v>1980591.6618</v>
+        <v>660190.7595</v>
       </c>
       <c r="G57" t="n">
-        <v>-13663048.43473734</v>
+        <v>-8608524.083537342</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2425,28 +2465,29 @@
       <c r="M57" t="n">
         <v>1</v>
       </c>
+      <c r="N57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>0.4964</v>
+        <v>0.4874</v>
       </c>
       <c r="C58" t="n">
-        <v>0.4964</v>
+        <v>0.4874</v>
       </c>
       <c r="D58" t="n">
-        <v>0.4964</v>
+        <v>0.4874</v>
       </c>
       <c r="E58" t="n">
-        <v>0.4964</v>
+        <v>0.4833</v>
       </c>
       <c r="F58" t="n">
-        <v>73999.5683</v>
+        <v>12098</v>
       </c>
       <c r="G58" t="n">
-        <v>-13737048.00303734</v>
+        <v>-8620622.083537342</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2460,28 +2501,29 @@
       <c r="M58" t="n">
         <v>1</v>
       </c>
+      <c r="N58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>0.4963</v>
+        <v>0.4872</v>
       </c>
       <c r="C59" t="n">
-        <v>0.4963</v>
+        <v>0.4875</v>
       </c>
       <c r="D59" t="n">
-        <v>0.4963</v>
+        <v>0.4875</v>
       </c>
       <c r="E59" t="n">
-        <v>0.4963</v>
+        <v>0.4857</v>
       </c>
       <c r="F59" t="n">
-        <v>4524.39</v>
+        <v>160262.7257799671</v>
       </c>
       <c r="G59" t="n">
-        <v>-13741572.39303734</v>
+        <v>-8460359.357757375</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2495,28 +2537,29 @@
       <c r="M59" t="n">
         <v>1</v>
       </c>
+      <c r="N59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>0.4996</v>
+        <v>0.4857</v>
       </c>
       <c r="C60" t="n">
-        <v>0.4996</v>
+        <v>0.4875</v>
       </c>
       <c r="D60" t="n">
-        <v>0.4996</v>
+        <v>0.4875</v>
       </c>
       <c r="E60" t="n">
-        <v>0.4996</v>
+        <v>0.4857</v>
       </c>
       <c r="F60" t="n">
-        <v>2857.7874</v>
+        <v>134013</v>
       </c>
       <c r="G60" t="n">
-        <v>-13738714.60563734</v>
+        <v>-8460359.357757375</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2530,28 +2573,29 @@
       <c r="M60" t="n">
         <v>1</v>
       </c>
+      <c r="N60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>0.4963</v>
+        <v>0.4842</v>
       </c>
       <c r="C61" t="n">
-        <v>0.4963</v>
+        <v>0.4842</v>
       </c>
       <c r="D61" t="n">
-        <v>0.4963</v>
+        <v>0.4842</v>
       </c>
       <c r="E61" t="n">
-        <v>0.4963</v>
+        <v>0.4842</v>
       </c>
       <c r="F61" t="n">
-        <v>20285.61</v>
+        <v>10262.7257</v>
       </c>
       <c r="G61" t="n">
-        <v>-13759000.21563734</v>
+        <v>-8470622.083457375</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2565,28 +2609,29 @@
       <c r="M61" t="n">
         <v>1</v>
       </c>
+      <c r="N61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>0.4863</v>
+        <v>0.4875</v>
       </c>
       <c r="C62" t="n">
-        <v>0.4992</v>
+        <v>0.4875</v>
       </c>
       <c r="D62" t="n">
-        <v>0.4993</v>
+        <v>0.4875</v>
       </c>
       <c r="E62" t="n">
-        <v>0.4863</v>
+        <v>0.4875</v>
       </c>
       <c r="F62" t="n">
-        <v>387026.9429</v>
+        <v>8288</v>
       </c>
       <c r="G62" t="n">
-        <v>-13371973.27273734</v>
+        <v>-8462334.083457375</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2600,28 +2645,29 @@
       <c r="M62" t="n">
         <v>1</v>
       </c>
+      <c r="N62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>0.4988</v>
+        <v>0.4874</v>
       </c>
       <c r="C63" t="n">
-        <v>0.4988</v>
+        <v>0.4874</v>
       </c>
       <c r="D63" t="n">
-        <v>0.4988</v>
+        <v>0.4874</v>
       </c>
       <c r="E63" t="n">
-        <v>0.4988</v>
+        <v>0.4874</v>
       </c>
       <c r="F63" t="n">
-        <v>4987.0712</v>
+        <v>6035</v>
       </c>
       <c r="G63" t="n">
-        <v>-13376960.34393734</v>
+        <v>-8468369.083457375</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2635,28 +2681,29 @@
       <c r="M63" t="n">
         <v>1</v>
       </c>
+      <c r="N63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>0.4868</v>
+        <v>0.4874</v>
       </c>
       <c r="C64" t="n">
-        <v>0.4988</v>
+        <v>0.4874</v>
       </c>
       <c r="D64" t="n">
-        <v>0.4988</v>
+        <v>0.4874</v>
       </c>
       <c r="E64" t="n">
-        <v>0.4867</v>
+        <v>0.4874</v>
       </c>
       <c r="F64" t="n">
-        <v>565944.7037</v>
+        <v>30000</v>
       </c>
       <c r="G64" t="n">
-        <v>-13376960.34393734</v>
+        <v>-8468369.083457375</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2670,28 +2717,29 @@
       <c r="M64" t="n">
         <v>1</v>
       </c>
+      <c r="N64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>0.4961</v>
+        <v>0.4875</v>
       </c>
       <c r="C65" t="n">
-        <v>0.4961</v>
+        <v>0.4874</v>
       </c>
       <c r="D65" t="n">
-        <v>0.4961</v>
+        <v>0.4875</v>
       </c>
       <c r="E65" t="n">
-        <v>0.4961</v>
+        <v>0.4874</v>
       </c>
       <c r="F65" t="n">
-        <v>212470</v>
+        <v>168376.3837</v>
       </c>
       <c r="G65" t="n">
-        <v>-13589430.34393734</v>
+        <v>-8468369.083457375</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2705,28 +2753,29 @@
       <c r="M65" t="n">
         <v>1</v>
       </c>
+      <c r="N65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>0.4987</v>
+        <v>0.4873</v>
       </c>
       <c r="C66" t="n">
-        <v>0.4987</v>
+        <v>0.4873</v>
       </c>
       <c r="D66" t="n">
-        <v>0.4987</v>
+        <v>0.4873</v>
       </c>
       <c r="E66" t="n">
-        <v>0.4987</v>
+        <v>0.4873</v>
       </c>
       <c r="F66" t="n">
-        <v>1201</v>
+        <v>4961</v>
       </c>
       <c r="G66" t="n">
-        <v>-13588229.34393734</v>
+        <v>-8473330.083457375</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2740,28 +2789,29 @@
       <c r="M66" t="n">
         <v>1</v>
       </c>
+      <c r="N66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>0.4863</v>
+        <v>0.4873</v>
       </c>
       <c r="C67" t="n">
-        <v>0.4864</v>
+        <v>0.4873</v>
       </c>
       <c r="D67" t="n">
-        <v>0.4987</v>
+        <v>0.4873</v>
       </c>
       <c r="E67" t="n">
-        <v>0.4863</v>
+        <v>0.4873</v>
       </c>
       <c r="F67" t="n">
-        <v>8284</v>
+        <v>4468</v>
       </c>
       <c r="G67" t="n">
-        <v>-13596513.34393734</v>
+        <v>-8473330.083457375</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2775,28 +2825,29 @@
       <c r="M67" t="n">
         <v>1</v>
       </c>
+      <c r="N67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>0.4867</v>
+        <v>0.4873</v>
       </c>
       <c r="C68" t="n">
-        <v>0.4987</v>
+        <v>0.4873</v>
       </c>
       <c r="D68" t="n">
-        <v>0.4987</v>
+        <v>0.4873</v>
       </c>
       <c r="E68" t="n">
-        <v>0.4867</v>
+        <v>0.4873</v>
       </c>
       <c r="F68" t="n">
-        <v>1087507.1756</v>
+        <v>2281</v>
       </c>
       <c r="G68" t="n">
-        <v>-12509006.16833734</v>
+        <v>-8473330.083457375</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2810,28 +2861,29 @@
       <c r="M68" t="n">
         <v>1</v>
       </c>
+      <c r="N68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>0.4871</v>
+        <v>0.4836</v>
       </c>
       <c r="C69" t="n">
-        <v>0.4871</v>
+        <v>0.4836</v>
       </c>
       <c r="D69" t="n">
-        <v>0.4871</v>
+        <v>0.4836</v>
       </c>
       <c r="E69" t="n">
-        <v>0.4871</v>
+        <v>0.4836</v>
       </c>
       <c r="F69" t="n">
-        <v>3636</v>
+        <v>55182</v>
       </c>
       <c r="G69" t="n">
-        <v>-12512642.16833734</v>
+        <v>-8528512.083457375</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2845,28 +2897,29 @@
       <c r="M69" t="n">
         <v>1</v>
       </c>
+      <c r="N69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>0.4871</v>
+        <v>0.4836</v>
       </c>
       <c r="C70" t="n">
-        <v>0.4871</v>
+        <v>0.4837</v>
       </c>
       <c r="D70" t="n">
-        <v>0.4871</v>
+        <v>0.4837</v>
       </c>
       <c r="E70" t="n">
-        <v>0.4871</v>
+        <v>0.4833</v>
       </c>
       <c r="F70" t="n">
-        <v>3636</v>
+        <v>162312</v>
       </c>
       <c r="G70" t="n">
-        <v>-12512642.16833734</v>
+        <v>-8366200.083457375</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2880,28 +2933,29 @@
       <c r="M70" t="n">
         <v>1</v>
       </c>
+      <c r="N70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>0.487</v>
+        <v>0.4837</v>
       </c>
       <c r="C71" t="n">
-        <v>0.4985</v>
+        <v>0.4831</v>
       </c>
       <c r="D71" t="n">
-        <v>0.4987</v>
+        <v>0.4837</v>
       </c>
       <c r="E71" t="n">
-        <v>0.487</v>
+        <v>0.4831</v>
       </c>
       <c r="F71" t="n">
-        <v>2009402.8691</v>
+        <v>366914.4842</v>
       </c>
       <c r="G71" t="n">
-        <v>-10503239.29923734</v>
+        <v>-8733114.567657376</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2915,28 +2969,29 @@
       <c r="M71" t="n">
         <v>1</v>
       </c>
+      <c r="N71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>0.4886</v>
+        <v>0.4803</v>
       </c>
       <c r="C72" t="n">
-        <v>0.4986</v>
+        <v>0.4803</v>
       </c>
       <c r="D72" t="n">
-        <v>0.4986</v>
+        <v>0.4803</v>
       </c>
       <c r="E72" t="n">
-        <v>0.4885</v>
+        <v>0.4802</v>
       </c>
       <c r="F72" t="n">
-        <v>169350.7744</v>
+        <v>1221593.2844</v>
       </c>
       <c r="G72" t="n">
-        <v>-10333888.52483734</v>
+        <v>-9954707.852057375</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -2950,28 +3005,29 @@
       <c r="M72" t="n">
         <v>1</v>
       </c>
+      <c r="N72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>0.4886</v>
+        <v>0.4803</v>
       </c>
       <c r="C73" t="n">
-        <v>0.4886</v>
+        <v>0.4803</v>
       </c>
       <c r="D73" t="n">
-        <v>0.4886</v>
+        <v>0.4803</v>
       </c>
       <c r="E73" t="n">
-        <v>0.4886</v>
+        <v>0.4803</v>
       </c>
       <c r="F73" t="n">
-        <v>3636</v>
+        <v>330000</v>
       </c>
       <c r="G73" t="n">
-        <v>-10337524.52483734</v>
+        <v>-9954707.852057375</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -2985,28 +3041,29 @@
       <c r="M73" t="n">
         <v>1</v>
       </c>
+      <c r="N73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>0.4984</v>
+        <v>0.4802</v>
       </c>
       <c r="C74" t="n">
-        <v>0.4984</v>
+        <v>0.4802</v>
       </c>
       <c r="D74" t="n">
-        <v>0.4984</v>
+        <v>0.4802</v>
       </c>
       <c r="E74" t="n">
-        <v>0.4984</v>
+        <v>0.4802</v>
       </c>
       <c r="F74" t="n">
-        <v>16399.5508</v>
+        <v>575206</v>
       </c>
       <c r="G74" t="n">
-        <v>-10321124.97403734</v>
+        <v>-10529913.85205738</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3020,28 +3077,29 @@
       <c r="M74" t="n">
         <v>1</v>
       </c>
+      <c r="N74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>0.4984</v>
+        <v>0.4802</v>
       </c>
       <c r="C75" t="n">
-        <v>0.4909</v>
+        <v>0.4802</v>
       </c>
       <c r="D75" t="n">
-        <v>0.4984</v>
+        <v>0.4802</v>
       </c>
       <c r="E75" t="n">
-        <v>0.4909</v>
+        <v>0.4802</v>
       </c>
       <c r="F75" t="n">
-        <v>174860.6951</v>
+        <v>348813.9454</v>
       </c>
       <c r="G75" t="n">
-        <v>-10495985.66913734</v>
+        <v>-10529913.85205738</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3055,28 +3113,29 @@
       <c r="M75" t="n">
         <v>1</v>
       </c>
+      <c r="N75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>0.4909</v>
+        <v>0.4801</v>
       </c>
       <c r="C76" t="n">
-        <v>0.4886</v>
+        <v>0.4802</v>
       </c>
       <c r="D76" t="n">
-        <v>0.4909</v>
+        <v>0.4802</v>
       </c>
       <c r="E76" t="n">
-        <v>0.4886</v>
+        <v>0.4801</v>
       </c>
       <c r="F76" t="n">
-        <v>5364.5936</v>
+        <v>467217.3011</v>
       </c>
       <c r="G76" t="n">
-        <v>-10501350.26273734</v>
+        <v>-10529913.85205738</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3090,28 +3149,29 @@
       <c r="M76" t="n">
         <v>1</v>
       </c>
+      <c r="N76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>0.4984</v>
+        <v>0.4802</v>
       </c>
       <c r="C77" t="n">
-        <v>0.4984</v>
+        <v>0.4802</v>
       </c>
       <c r="D77" t="n">
-        <v>0.4984</v>
+        <v>0.4802</v>
       </c>
       <c r="E77" t="n">
-        <v>0.4984</v>
+        <v>0.4802</v>
       </c>
       <c r="F77" t="n">
-        <v>1500</v>
+        <v>565634.8251</v>
       </c>
       <c r="G77" t="n">
-        <v>-10499850.26273734</v>
+        <v>-10529913.85205738</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3125,28 +3185,29 @@
       <c r="M77" t="n">
         <v>1</v>
       </c>
+      <c r="N77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>0.4909</v>
+        <v>0.4802</v>
       </c>
       <c r="C78" t="n">
-        <v>0.4984</v>
+        <v>0.4802</v>
       </c>
       <c r="D78" t="n">
-        <v>0.4984</v>
+        <v>0.4802</v>
       </c>
       <c r="E78" t="n">
-        <v>0.4859</v>
+        <v>0.4802</v>
       </c>
       <c r="F78" t="n">
-        <v>551297.7645</v>
+        <v>34471.1143</v>
       </c>
       <c r="G78" t="n">
-        <v>-10499850.26273734</v>
+        <v>-10529913.85205738</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3160,28 +3221,29 @@
       <c r="M78" t="n">
         <v>1</v>
       </c>
+      <c r="N78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>0.4984</v>
+        <v>0.4773</v>
       </c>
       <c r="C79" t="n">
-        <v>0.4984</v>
+        <v>0.4802</v>
       </c>
       <c r="D79" t="n">
-        <v>0.4984</v>
+        <v>0.4802</v>
       </c>
       <c r="E79" t="n">
-        <v>0.4984</v>
+        <v>0.4773</v>
       </c>
       <c r="F79" t="n">
-        <v>2049940.698</v>
+        <v>616302.8312</v>
       </c>
       <c r="G79" t="n">
-        <v>-10499850.26273734</v>
+        <v>-10529913.85205738</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3195,28 +3257,29 @@
       <c r="M79" t="n">
         <v>1</v>
       </c>
+      <c r="N79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>0.4883</v>
+        <v>0.4802</v>
       </c>
       <c r="C80" t="n">
-        <v>0.4883</v>
+        <v>0.4802</v>
       </c>
       <c r="D80" t="n">
-        <v>0.4883</v>
+        <v>0.4802</v>
       </c>
       <c r="E80" t="n">
-        <v>0.4883</v>
+        <v>0.4802</v>
       </c>
       <c r="F80" t="n">
-        <v>131242.7691</v>
+        <v>146861.7333</v>
       </c>
       <c r="G80" t="n">
-        <v>-10631093.03183734</v>
+        <v>-10529913.85205738</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3230,28 +3293,29 @@
       <c r="M80" t="n">
         <v>1</v>
       </c>
+      <c r="N80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>0.4883</v>
+        <v>0.4884</v>
       </c>
       <c r="C81" t="n">
-        <v>0.4859</v>
+        <v>0.4884</v>
       </c>
       <c r="D81" t="n">
-        <v>0.4883</v>
+        <v>0.4884</v>
       </c>
       <c r="E81" t="n">
-        <v>0.4859</v>
+        <v>0.4884</v>
       </c>
       <c r="F81" t="n">
-        <v>1019141.3953</v>
+        <v>78154.8015</v>
       </c>
       <c r="G81" t="n">
-        <v>-11650234.42713734</v>
+        <v>-10451759.05055737</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3265,28 +3329,29 @@
       <c r="M81" t="n">
         <v>1</v>
       </c>
+      <c r="N81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>0.4859</v>
+        <v>0.4877</v>
       </c>
       <c r="C82" t="n">
-        <v>0.4784</v>
+        <v>0.4877</v>
       </c>
       <c r="D82" t="n">
-        <v>0.4859</v>
+        <v>0.4968</v>
       </c>
       <c r="E82" t="n">
-        <v>0.4784</v>
+        <v>0.4877</v>
       </c>
       <c r="F82" t="n">
-        <v>61093.7803</v>
+        <v>4642.4413</v>
       </c>
       <c r="G82" t="n">
-        <v>-11711328.20743734</v>
+        <v>-10456401.49185737</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3300,28 +3365,29 @@
       <c r="M82" t="n">
         <v>1</v>
       </c>
+      <c r="N82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>0.4883</v>
+        <v>0.4882</v>
       </c>
       <c r="C83" t="n">
-        <v>0.4883</v>
+        <v>0.4802</v>
       </c>
       <c r="D83" t="n">
-        <v>0.4883</v>
+        <v>0.4882</v>
       </c>
       <c r="E83" t="n">
-        <v>0.4883</v>
+        <v>0.4802</v>
       </c>
       <c r="F83" t="n">
-        <v>65630</v>
+        <v>1069127.5347</v>
       </c>
       <c r="G83" t="n">
-        <v>-11645698.20743734</v>
+        <v>-11525529.02655737</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3335,28 +3401,29 @@
       <c r="M83" t="n">
         <v>1</v>
       </c>
+      <c r="N83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>0.4982</v>
+        <v>0.4881</v>
       </c>
       <c r="C84" t="n">
-        <v>0.4982</v>
+        <v>0.4882</v>
       </c>
       <c r="D84" t="n">
-        <v>0.4982</v>
+        <v>0.4882</v>
       </c>
       <c r="E84" t="n">
-        <v>0.4982</v>
+        <v>0.4881</v>
       </c>
       <c r="F84" t="n">
-        <v>2400</v>
+        <v>187069.8219</v>
       </c>
       <c r="G84" t="n">
-        <v>-11643298.20743734</v>
+        <v>-11338459.20465737</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3370,28 +3437,29 @@
       <c r="M84" t="n">
         <v>1</v>
       </c>
+      <c r="N84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>0.4982</v>
+        <v>0.4881</v>
       </c>
       <c r="C85" t="n">
-        <v>0.4982</v>
+        <v>0.4871</v>
       </c>
       <c r="D85" t="n">
-        <v>0.4982</v>
+        <v>0.4884</v>
       </c>
       <c r="E85" t="n">
-        <v>0.4982</v>
+        <v>0.4871</v>
       </c>
       <c r="F85" t="n">
-        <v>2660.2902</v>
+        <v>422489.5371</v>
       </c>
       <c r="G85" t="n">
-        <v>-11643298.20743734</v>
+        <v>-11760948.74175737</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3405,28 +3473,29 @@
       <c r="M85" t="n">
         <v>1</v>
       </c>
+      <c r="N85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>0.4902</v>
+        <v>0.4884</v>
       </c>
       <c r="C86" t="n">
-        <v>0.4982</v>
+        <v>0.4884</v>
       </c>
       <c r="D86" t="n">
-        <v>0.4982</v>
+        <v>0.4884</v>
       </c>
       <c r="E86" t="n">
-        <v>0.4902</v>
+        <v>0.4884</v>
       </c>
       <c r="F86" t="n">
-        <v>8278</v>
+        <v>1818</v>
       </c>
       <c r="G86" t="n">
-        <v>-11643298.20743734</v>
+        <v>-11759130.74175737</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3440,28 +3509,29 @@
       <c r="M86" t="n">
         <v>1</v>
       </c>
+      <c r="N86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>0.497</v>
+        <v>0.4871</v>
       </c>
       <c r="C87" t="n">
-        <v>0.4903</v>
+        <v>0.4871</v>
       </c>
       <c r="D87" t="n">
-        <v>0.497</v>
+        <v>0.4871</v>
       </c>
       <c r="E87" t="n">
-        <v>0.4903</v>
+        <v>0.4871</v>
       </c>
       <c r="F87" t="n">
-        <v>5453.9414</v>
+        <v>115671</v>
       </c>
       <c r="G87" t="n">
-        <v>-11648752.14883734</v>
+        <v>-11874801.74175737</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3475,28 +3545,29 @@
       <c r="M87" t="n">
         <v>1</v>
       </c>
+      <c r="N87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>0.4903</v>
+        <v>0.4871</v>
       </c>
       <c r="C88" t="n">
-        <v>0.4903</v>
+        <v>0.4884</v>
       </c>
       <c r="D88" t="n">
-        <v>0.4903</v>
+        <v>0.4884</v>
       </c>
       <c r="E88" t="n">
-        <v>0.4903</v>
+        <v>0.4871</v>
       </c>
       <c r="F88" t="n">
-        <v>1818</v>
+        <v>50000</v>
       </c>
       <c r="G88" t="n">
-        <v>-11648752.14883734</v>
+        <v>-11824801.74175737</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3510,63 +3581,71 @@
       <c r="M88" t="n">
         <v>1</v>
       </c>
+      <c r="N88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>0.4903</v>
+        <v>0.4884</v>
       </c>
       <c r="C89" t="n">
-        <v>0.4906</v>
+        <v>0.488</v>
       </c>
       <c r="D89" t="n">
-        <v>0.4906</v>
+        <v>0.4884</v>
       </c>
       <c r="E89" t="n">
-        <v>0.4903</v>
+        <v>0.488</v>
       </c>
       <c r="F89" t="n">
-        <v>150600.57</v>
+        <v>12161</v>
       </c>
       <c r="G89" t="n">
-        <v>-11498151.57883734</v>
+        <v>-11836962.74175737</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>0.4884</v>
+      </c>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M89" t="n">
         <v>1</v>
       </c>
+      <c r="N89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>0.4901</v>
+        <v>0.488</v>
       </c>
       <c r="C90" t="n">
-        <v>0.4809</v>
+        <v>0.488</v>
       </c>
       <c r="D90" t="n">
-        <v>0.4902</v>
+        <v>0.488</v>
       </c>
       <c r="E90" t="n">
-        <v>0.4809</v>
+        <v>0.488</v>
       </c>
       <c r="F90" t="n">
-        <v>88073.8391</v>
+        <v>80402</v>
       </c>
       <c r="G90" t="n">
-        <v>-11586225.41793734</v>
+        <v>-11836962.74175737</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3576,87 +3655,106 @@
       </c>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M90" t="n">
         <v>1</v>
       </c>
+      <c r="N90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>0.4809</v>
+        <v>0.488</v>
       </c>
       <c r="C91" t="n">
-        <v>0.4929</v>
+        <v>0.488</v>
       </c>
       <c r="D91" t="n">
-        <v>0.493</v>
+        <v>0.488</v>
       </c>
       <c r="E91" t="n">
-        <v>0.4806</v>
+        <v>0.488</v>
       </c>
       <c r="F91" t="n">
-        <v>4656176.5536</v>
+        <v>919635.1188000001</v>
       </c>
       <c r="G91" t="n">
-        <v>-6930048.864337342</v>
+        <v>-11836962.74175737</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>0.488</v>
+      </c>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M91" t="n">
         <v>1</v>
       </c>
+      <c r="N91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>0.4876</v>
+        <v>0.488</v>
       </c>
       <c r="C92" t="n">
-        <v>0.4886</v>
+        <v>0.488</v>
       </c>
       <c r="D92" t="n">
-        <v>0.4887</v>
+        <v>0.488</v>
       </c>
       <c r="E92" t="n">
-        <v>0.4876</v>
+        <v>0.488</v>
       </c>
       <c r="F92" t="n">
-        <v>1310194.8078</v>
+        <v>98142.5386</v>
       </c>
       <c r="G92" t="n">
-        <v>-8240243.672137342</v>
+        <v>-11836962.74175737</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>0.488</v>
+      </c>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M92" t="n">
         <v>1</v>
       </c>
+      <c r="N92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>0.4884</v>
+        <v>0.488</v>
       </c>
       <c r="C93" t="n">
         <v>0.4884</v>
@@ -3665,48 +3763,55 @@
         <v>0.4884</v>
       </c>
       <c r="E93" t="n">
-        <v>0.4884</v>
+        <v>0.488</v>
       </c>
       <c r="F93" t="n">
-        <v>6321</v>
+        <v>967489.548</v>
       </c>
       <c r="G93" t="n">
-        <v>-8246564.672137342</v>
+        <v>-10869473.19375737</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>0.488</v>
+      </c>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M93" t="n">
         <v>1</v>
       </c>
+      <c r="N93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>0.4876</v>
+        <v>0.4884</v>
       </c>
       <c r="C94" t="n">
-        <v>0.4876</v>
+        <v>0.4884</v>
       </c>
       <c r="D94" t="n">
-        <v>0.4876</v>
+        <v>0.4884</v>
       </c>
       <c r="E94" t="n">
-        <v>0.4876</v>
+        <v>0.4884</v>
       </c>
       <c r="F94" t="n">
-        <v>43017</v>
+        <v>52430.8116</v>
       </c>
       <c r="G94" t="n">
-        <v>-8289581.672137342</v>
+        <v>-10869473.19375737</v>
       </c>
       <c r="H94" t="n">
         <v>1</v>
@@ -3717,76 +3822,80 @@
       <c r="J94" t="n">
         <v>0.4884</v>
       </c>
-      <c r="K94" t="n">
-        <v>0.4884</v>
-      </c>
-      <c r="L94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M94" t="n">
         <v>1</v>
       </c>
+      <c r="N94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>0.4876</v>
+        <v>0.488</v>
       </c>
       <c r="C95" t="n">
-        <v>0.4876</v>
+        <v>0.488</v>
       </c>
       <c r="D95" t="n">
-        <v>0.4876</v>
+        <v>0.488</v>
       </c>
       <c r="E95" t="n">
-        <v>0.4876</v>
+        <v>0.488</v>
       </c>
       <c r="F95" t="n">
-        <v>24315</v>
+        <v>31060</v>
       </c>
       <c r="G95" t="n">
-        <v>-8289581.672137342</v>
+        <v>-10900533.19375737</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="n">
+      <c r="J95" t="n">
         <v>0.4884</v>
       </c>
+      <c r="K95" t="inlineStr"/>
       <c r="L95" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M95" t="n">
         <v>1</v>
       </c>
+      <c r="N95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>0.4883</v>
+        <v>0.488</v>
       </c>
       <c r="C96" t="n">
-        <v>0.4945</v>
+        <v>0.488</v>
       </c>
       <c r="D96" t="n">
-        <v>0.4945</v>
+        <v>0.488</v>
       </c>
       <c r="E96" t="n">
-        <v>0.4883</v>
+        <v>0.488</v>
       </c>
       <c r="F96" t="n">
-        <v>230571</v>
+        <v>52587.285</v>
       </c>
       <c r="G96" t="n">
-        <v>-8059010.672137342</v>
+        <v>-10900533.19375737</v>
       </c>
       <c r="H96" t="n">
         <v>1</v>
@@ -3795,52 +3904,51 @@
         <v>0</v>
       </c>
       <c r="J96" t="n">
-        <v>0.4876</v>
-      </c>
-      <c r="K96" t="n">
-        <v>0.4884</v>
-      </c>
+        <v>0.488</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
       <c r="L96" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M96" t="n">
         <v>1</v>
       </c>
+      <c r="N96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>0.4907</v>
+        <v>0.488</v>
       </c>
       <c r="C97" t="n">
-        <v>0.4907</v>
+        <v>0.488</v>
       </c>
       <c r="D97" t="n">
-        <v>0.4907</v>
+        <v>0.488</v>
       </c>
       <c r="E97" t="n">
-        <v>0.4907</v>
+        <v>0.488</v>
       </c>
       <c r="F97" t="n">
-        <v>92590</v>
+        <v>1300</v>
       </c>
       <c r="G97" t="n">
-        <v>-8151600.672137342</v>
+        <v>-10900533.19375737</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="n">
-        <v>0.4884</v>
-      </c>
+      <c r="J97" t="n">
+        <v>0.488</v>
+      </c>
+      <c r="K97" t="inlineStr"/>
       <c r="L97" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3849,28 +3957,29 @@
       <c r="M97" t="n">
         <v>1</v>
       </c>
+      <c r="N97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>0.4876</v>
+        <v>0.488</v>
       </c>
       <c r="C98" t="n">
-        <v>0.4875</v>
+        <v>0.488</v>
       </c>
       <c r="D98" t="n">
-        <v>0.4876</v>
+        <v>0.488</v>
       </c>
       <c r="E98" t="n">
-        <v>0.4839</v>
+        <v>0.488</v>
       </c>
       <c r="F98" t="n">
-        <v>456923.4114</v>
+        <v>25000</v>
       </c>
       <c r="G98" t="n">
-        <v>-8608524.083537342</v>
+        <v>-10900533.19375737</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -3879,9 +3988,7 @@
         <v>0</v>
       </c>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="n">
-        <v>0.4884</v>
-      </c>
+      <c r="K98" t="inlineStr"/>
       <c r="L98" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3890,41 +3997,38 @@
       <c r="M98" t="n">
         <v>1</v>
       </c>
+      <c r="N98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>0.4875</v>
+        <v>0.488</v>
       </c>
       <c r="C99" t="n">
-        <v>0.4875</v>
+        <v>0.488</v>
       </c>
       <c r="D99" t="n">
-        <v>0.4875</v>
+        <v>0.488</v>
       </c>
       <c r="E99" t="n">
-        <v>0.4875</v>
+        <v>0.488</v>
       </c>
       <c r="F99" t="n">
-        <v>660190.7595</v>
+        <v>513396.24</v>
       </c>
       <c r="G99" t="n">
-        <v>-8608524.083537342</v>
+        <v>-10900533.19375737</v>
       </c>
       <c r="H99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="n">
-        <v>0.4875</v>
-      </c>
-      <c r="K99" t="n">
-        <v>0.4884</v>
-      </c>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
       <c r="L99" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3933,39 +4037,40 @@
       <c r="M99" t="n">
         <v>1</v>
       </c>
+      <c r="N99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>0.4874</v>
+        <v>0.488</v>
       </c>
       <c r="C100" t="n">
-        <v>0.4874</v>
+        <v>0.4964</v>
       </c>
       <c r="D100" t="n">
-        <v>0.4874</v>
+        <v>0.4964</v>
       </c>
       <c r="E100" t="n">
-        <v>0.4833</v>
+        <v>0.488</v>
       </c>
       <c r="F100" t="n">
-        <v>12098</v>
+        <v>466705.9</v>
       </c>
       <c r="G100" t="n">
-        <v>-8620622.083537342</v>
+        <v>-10433827.29375737</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="n">
-        <v>0.4884</v>
-      </c>
+      <c r="J100" t="n">
+        <v>0.488</v>
+      </c>
+      <c r="K100" t="inlineStr"/>
       <c r="L100" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3974,39 +4079,40 @@
       <c r="M100" t="n">
         <v>1</v>
       </c>
+      <c r="N100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>0.4872</v>
+        <v>0.488</v>
       </c>
       <c r="C101" t="n">
-        <v>0.4875</v>
+        <v>0.488</v>
       </c>
       <c r="D101" t="n">
-        <v>0.4875</v>
+        <v>0.488</v>
       </c>
       <c r="E101" t="n">
-        <v>0.4857</v>
+        <v>0.488</v>
       </c>
       <c r="F101" t="n">
-        <v>160262.7257799671</v>
+        <v>96730</v>
       </c>
       <c r="G101" t="n">
-        <v>-8460359.357757375</v>
+        <v>-10530557.29375737</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="n">
-        <v>0.4884</v>
-      </c>
+      <c r="J101" t="n">
+        <v>0.4964</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
       <c r="L101" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4015,28 +4121,29 @@
       <c r="M101" t="n">
         <v>1</v>
       </c>
+      <c r="N101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>0.4857</v>
+        <v>0.488</v>
       </c>
       <c r="C102" t="n">
-        <v>0.4875</v>
+        <v>0.488</v>
       </c>
       <c r="D102" t="n">
-        <v>0.4875</v>
+        <v>0.488</v>
       </c>
       <c r="E102" t="n">
-        <v>0.4857</v>
+        <v>0.488</v>
       </c>
       <c r="F102" t="n">
-        <v>134013</v>
+        <v>846923.4313000001</v>
       </c>
       <c r="G102" t="n">
-        <v>-8460359.357757375</v>
+        <v>-10530557.29375737</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -4045,9 +4152,7 @@
         <v>0</v>
       </c>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="n">
-        <v>0.4884</v>
-      </c>
+      <c r="K102" t="inlineStr"/>
       <c r="L102" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4056,39 +4161,40 @@
       <c r="M102" t="n">
         <v>1</v>
       </c>
+      <c r="N102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>0.4842</v>
+        <v>0.497</v>
       </c>
       <c r="C103" t="n">
-        <v>0.4842</v>
+        <v>0.4987</v>
       </c>
       <c r="D103" t="n">
-        <v>0.4842</v>
+        <v>0.4987</v>
       </c>
       <c r="E103" t="n">
-        <v>0.4842</v>
+        <v>0.497</v>
       </c>
       <c r="F103" t="n">
-        <v>10262.7257</v>
+        <v>15403</v>
       </c>
       <c r="G103" t="n">
-        <v>-8470622.083457375</v>
+        <v>-10515154.29375737</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="n">
-        <v>0.4884</v>
-      </c>
+      <c r="J103" t="n">
+        <v>0.488</v>
+      </c>
+      <c r="K103" t="inlineStr"/>
       <c r="L103" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4097,28 +4203,29 @@
       <c r="M103" t="n">
         <v>1</v>
       </c>
+      <c r="N103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>0.4875</v>
+        <v>0.4881</v>
       </c>
       <c r="C104" t="n">
-        <v>0.4875</v>
+        <v>0.4881</v>
       </c>
       <c r="D104" t="n">
-        <v>0.4875</v>
+        <v>0.4881</v>
       </c>
       <c r="E104" t="n">
-        <v>0.4875</v>
+        <v>0.4881</v>
       </c>
       <c r="F104" t="n">
-        <v>8288</v>
+        <v>1818</v>
       </c>
       <c r="G104" t="n">
-        <v>-8462334.083457375</v>
+        <v>-10516972.29375737</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4127,9 +4234,7 @@
         <v>0</v>
       </c>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="n">
-        <v>0.4884</v>
-      </c>
+      <c r="K104" t="inlineStr"/>
       <c r="L104" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4138,28 +4243,29 @@
       <c r="M104" t="n">
         <v>1</v>
       </c>
+      <c r="N104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>0.4874</v>
+        <v>0.4987</v>
       </c>
       <c r="C105" t="n">
-        <v>0.4874</v>
+        <v>0.4987</v>
       </c>
       <c r="D105" t="n">
-        <v>0.4874</v>
+        <v>0.4987</v>
       </c>
       <c r="E105" t="n">
-        <v>0.4874</v>
+        <v>0.4883</v>
       </c>
       <c r="F105" t="n">
-        <v>6035</v>
+        <v>1814701.4486</v>
       </c>
       <c r="G105" t="n">
-        <v>-8468369.083457375</v>
+        <v>-8702270.845157374</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4168,9 +4274,7 @@
         <v>0</v>
       </c>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="n">
-        <v>0.4884</v>
-      </c>
+      <c r="K105" t="inlineStr"/>
       <c r="L105" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4179,28 +4283,29 @@
       <c r="M105" t="n">
         <v>1</v>
       </c>
+      <c r="N105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>0.4874</v>
+        <v>0.4986</v>
       </c>
       <c r="C106" t="n">
-        <v>0.4874</v>
+        <v>0.4986</v>
       </c>
       <c r="D106" t="n">
-        <v>0.4874</v>
+        <v>0.4986</v>
       </c>
       <c r="E106" t="n">
-        <v>0.4874</v>
+        <v>0.4986</v>
       </c>
       <c r="F106" t="n">
-        <v>30000</v>
+        <v>1818</v>
       </c>
       <c r="G106" t="n">
-        <v>-8468369.083457375</v>
+        <v>-8704088.845157374</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4209,9 +4314,7 @@
         <v>0</v>
       </c>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="n">
-        <v>0.4884</v>
-      </c>
+      <c r="K106" t="inlineStr"/>
       <c r="L106" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4220,28 +4323,29 @@
       <c r="M106" t="n">
         <v>1</v>
       </c>
+      <c r="N106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>0.4875</v>
+        <v>0.4987</v>
       </c>
       <c r="C107" t="n">
-        <v>0.4874</v>
+        <v>0.4987</v>
       </c>
       <c r="D107" t="n">
-        <v>0.4875</v>
+        <v>0.4987</v>
       </c>
       <c r="E107" t="n">
-        <v>0.4874</v>
+        <v>0.4987</v>
       </c>
       <c r="F107" t="n">
-        <v>168376.3837</v>
+        <v>1818</v>
       </c>
       <c r="G107" t="n">
-        <v>-8468369.083457375</v>
+        <v>-8702270.845157374</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4250,9 +4354,7 @@
         <v>0</v>
       </c>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="n">
-        <v>0.4884</v>
-      </c>
+      <c r="K107" t="inlineStr"/>
       <c r="L107" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4261,28 +4363,29 @@
       <c r="M107" t="n">
         <v>1</v>
       </c>
+      <c r="N107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>0.4873</v>
+        <v>0.4983</v>
       </c>
       <c r="C108" t="n">
-        <v>0.4873</v>
+        <v>0.4983</v>
       </c>
       <c r="D108" t="n">
-        <v>0.4873</v>
+        <v>0.4983</v>
       </c>
       <c r="E108" t="n">
-        <v>0.4873</v>
+        <v>0.4983</v>
       </c>
       <c r="F108" t="n">
-        <v>4961</v>
+        <v>4311.4969</v>
       </c>
       <c r="G108" t="n">
-        <v>-8473330.083457375</v>
+        <v>-8706582.342057373</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4291,9 +4394,7 @@
         <v>0</v>
       </c>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="n">
-        <v>0.4884</v>
-      </c>
+      <c r="K108" t="inlineStr"/>
       <c r="L108" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4302,28 +4403,29 @@
       <c r="M108" t="n">
         <v>1</v>
       </c>
+      <c r="N108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>0.4873</v>
+        <v>0.4984</v>
       </c>
       <c r="C109" t="n">
-        <v>0.4873</v>
+        <v>0.4983</v>
       </c>
       <c r="D109" t="n">
-        <v>0.4873</v>
+        <v>0.4984</v>
       </c>
       <c r="E109" t="n">
-        <v>0.4873</v>
+        <v>0.4983</v>
       </c>
       <c r="F109" t="n">
-        <v>4468</v>
+        <v>3636</v>
       </c>
       <c r="G109" t="n">
-        <v>-8473330.083457375</v>
+        <v>-8706582.342057373</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4332,9 +4434,7 @@
         <v>0</v>
       </c>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="n">
-        <v>0.4884</v>
-      </c>
+      <c r="K109" t="inlineStr"/>
       <c r="L109" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4343,28 +4443,29 @@
       <c r="M109" t="n">
         <v>1</v>
       </c>
+      <c r="N109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>0.4873</v>
+        <v>0.4981</v>
       </c>
       <c r="C110" t="n">
-        <v>0.4873</v>
+        <v>0.498</v>
       </c>
       <c r="D110" t="n">
-        <v>0.4873</v>
+        <v>0.4981</v>
       </c>
       <c r="E110" t="n">
-        <v>0.4873</v>
+        <v>0.498</v>
       </c>
       <c r="F110" t="n">
-        <v>2281</v>
+        <v>57000</v>
       </c>
       <c r="G110" t="n">
-        <v>-8473330.083457375</v>
+        <v>-8763582.342057373</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4373,9 +4474,7 @@
         <v>0</v>
       </c>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="n">
-        <v>0.4884</v>
-      </c>
+      <c r="K110" t="inlineStr"/>
       <c r="L110" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4384,28 +4483,29 @@
       <c r="M110" t="n">
         <v>1</v>
       </c>
+      <c r="N110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>0.4836</v>
+        <v>0.4979</v>
       </c>
       <c r="C111" t="n">
-        <v>0.4836</v>
+        <v>0.4979</v>
       </c>
       <c r="D111" t="n">
-        <v>0.4836</v>
+        <v>0.4979</v>
       </c>
       <c r="E111" t="n">
-        <v>0.4836</v>
+        <v>0.4979</v>
       </c>
       <c r="F111" t="n">
-        <v>55182</v>
+        <v>1818</v>
       </c>
       <c r="G111" t="n">
-        <v>-8528512.083457375</v>
+        <v>-8765400.342057373</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4414,9 +4514,7 @@
         <v>0</v>
       </c>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="n">
-        <v>0.4884</v>
-      </c>
+      <c r="K111" t="inlineStr"/>
       <c r="L111" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4425,28 +4523,29 @@
       <c r="M111" t="n">
         <v>1</v>
       </c>
+      <c r="N111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>0.4836</v>
+        <v>0.4978</v>
       </c>
       <c r="C112" t="n">
-        <v>0.4837</v>
+        <v>0.4978</v>
       </c>
       <c r="D112" t="n">
-        <v>0.4837</v>
+        <v>0.4978</v>
       </c>
       <c r="E112" t="n">
-        <v>0.4833</v>
+        <v>0.4978</v>
       </c>
       <c r="F112" t="n">
-        <v>162312</v>
+        <v>30000</v>
       </c>
       <c r="G112" t="n">
-        <v>-8366200.083457375</v>
+        <v>-8795400.342057373</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4455,9 +4554,7 @@
         <v>0</v>
       </c>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="n">
-        <v>0.4884</v>
-      </c>
+      <c r="K112" t="inlineStr"/>
       <c r="L112" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4466,28 +4563,29 @@
       <c r="M112" t="n">
         <v>1</v>
       </c>
+      <c r="N112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>0.4837</v>
+        <v>0.4978</v>
       </c>
       <c r="C113" t="n">
-        <v>0.4831</v>
+        <v>0.4988</v>
       </c>
       <c r="D113" t="n">
-        <v>0.4837</v>
+        <v>0.4988</v>
       </c>
       <c r="E113" t="n">
-        <v>0.4831</v>
+        <v>0.4978</v>
       </c>
       <c r="F113" t="n">
-        <v>366914.4842</v>
+        <v>1058034.3638</v>
       </c>
       <c r="G113" t="n">
-        <v>-8733114.567657376</v>
+        <v>-7737365.978257373</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4496,9 +4594,7 @@
         <v>0</v>
       </c>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="n">
-        <v>0.4884</v>
-      </c>
+      <c r="K113" t="inlineStr"/>
       <c r="L113" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4507,28 +4603,29 @@
       <c r="M113" t="n">
         <v>1</v>
       </c>
+      <c r="N113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>0.4803</v>
+        <v>0.4978</v>
       </c>
       <c r="C114" t="n">
-        <v>0.4803</v>
+        <v>0.5</v>
       </c>
       <c r="D114" t="n">
-        <v>0.4803</v>
+        <v>0.5</v>
       </c>
       <c r="E114" t="n">
-        <v>0.4802</v>
+        <v>0.4978</v>
       </c>
       <c r="F114" t="n">
-        <v>1221593.2844</v>
+        <v>715162.7711</v>
       </c>
       <c r="G114" t="n">
-        <v>-9954707.852057375</v>
+        <v>-7022203.207157373</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4537,9 +4634,7 @@
         <v>0</v>
       </c>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="n">
-        <v>0.4884</v>
-      </c>
+      <c r="K114" t="inlineStr"/>
       <c r="L114" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4548,28 +4643,29 @@
       <c r="M114" t="n">
         <v>1</v>
       </c>
+      <c r="N114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>0.4803</v>
+        <v>0.4984</v>
       </c>
       <c r="C115" t="n">
-        <v>0.4803</v>
+        <v>0.5041</v>
       </c>
       <c r="D115" t="n">
-        <v>0.4803</v>
+        <v>0.5041</v>
       </c>
       <c r="E115" t="n">
-        <v>0.4803</v>
+        <v>0.4984</v>
       </c>
       <c r="F115" t="n">
-        <v>330000</v>
+        <v>100000</v>
       </c>
       <c r="G115" t="n">
-        <v>-9954707.852057375</v>
+        <v>-6922203.207157373</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4578,9 +4674,7 @@
         <v>0</v>
       </c>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="n">
-        <v>0.4884</v>
-      </c>
+      <c r="K115" t="inlineStr"/>
       <c r="L115" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4589,28 +4683,29 @@
       <c r="M115" t="n">
         <v>1</v>
       </c>
+      <c r="N115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>0.4802</v>
+        <v>0.504</v>
       </c>
       <c r="C116" t="n">
-        <v>0.4802</v>
+        <v>0.5041</v>
       </c>
       <c r="D116" t="n">
-        <v>0.4802</v>
+        <v>0.5084</v>
       </c>
       <c r="E116" t="n">
-        <v>0.4802</v>
+        <v>0.504</v>
       </c>
       <c r="F116" t="n">
-        <v>575206</v>
+        <v>6241756.7929</v>
       </c>
       <c r="G116" t="n">
-        <v>-10529913.85205738</v>
+        <v>-6922203.207157373</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4619,9 +4714,7 @@
         <v>0</v>
       </c>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="n">
-        <v>0.4884</v>
-      </c>
+      <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4630,2055 +4723,333 @@
       <c r="M116" t="n">
         <v>1</v>
       </c>
+      <c r="N116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>0.4802</v>
+        <v>0.5218</v>
       </c>
       <c r="C117" t="n">
-        <v>0.4802</v>
+        <v>0.5218</v>
       </c>
       <c r="D117" t="n">
-        <v>0.4802</v>
+        <v>0.5218</v>
       </c>
       <c r="E117" t="n">
-        <v>0.4802</v>
+        <v>0.5218</v>
       </c>
       <c r="F117" t="n">
-        <v>348813.9454</v>
+        <v>1818</v>
       </c>
       <c r="G117" t="n">
-        <v>-10529913.85205738</v>
+        <v>-6920385.207157373</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
       </c>
       <c r="I117" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="n">
-        <v>0.4884</v>
-      </c>
+      <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
+      <c r="M117" t="inlineStr"/>
+      <c r="N117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>0.4801</v>
+        <v>0.5042</v>
       </c>
       <c r="C118" t="n">
-        <v>0.4802</v>
+        <v>0.5042</v>
       </c>
       <c r="D118" t="n">
-        <v>0.4802</v>
+        <v>0.5042</v>
       </c>
       <c r="E118" t="n">
-        <v>0.4801</v>
+        <v>0.5042</v>
       </c>
       <c r="F118" t="n">
-        <v>467217.3011</v>
+        <v>4905.01</v>
       </c>
       <c r="G118" t="n">
-        <v>-10529913.85205738</v>
+        <v>-6925290.217157373</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
       </c>
       <c r="I118" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="n">
-        <v>0.4884</v>
-      </c>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="inlineStr"/>
       <c r="M118" t="n">
         <v>1</v>
       </c>
+      <c r="N118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>0.4802</v>
+        <v>0.5042</v>
       </c>
       <c r="C119" t="n">
-        <v>0.4802</v>
+        <v>0.5042</v>
       </c>
       <c r="D119" t="n">
-        <v>0.4802</v>
+        <v>0.5042</v>
       </c>
       <c r="E119" t="n">
-        <v>0.4802</v>
+        <v>0.5042</v>
       </c>
       <c r="F119" t="n">
-        <v>565634.8251</v>
+        <v>143403.24</v>
       </c>
       <c r="G119" t="n">
-        <v>-10529913.85205738</v>
+        <v>-6925290.217157373</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
       </c>
       <c r="I119" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="n">
-        <v>0.4884</v>
-      </c>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="inlineStr"/>
       <c r="M119" t="n">
         <v>1</v>
       </c>
+      <c r="N119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>0.4802</v>
+        <v>0.5042</v>
       </c>
       <c r="C120" t="n">
-        <v>0.4802</v>
+        <v>0.5042</v>
       </c>
       <c r="D120" t="n">
-        <v>0.4802</v>
+        <v>0.5042</v>
       </c>
       <c r="E120" t="n">
-        <v>0.4802</v>
+        <v>0.5042</v>
       </c>
       <c r="F120" t="n">
-        <v>34471.1143</v>
+        <v>100896.75</v>
       </c>
       <c r="G120" t="n">
-        <v>-10529913.85205738</v>
+        <v>-6925290.217157373</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
       </c>
       <c r="I120" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="n">
-        <v>0.4884</v>
-      </c>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="inlineStr"/>
       <c r="M120" t="n">
         <v>1</v>
       </c>
+      <c r="N120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>0.4773</v>
+        <v>0.5041</v>
       </c>
       <c r="C121" t="n">
-        <v>0.4802</v>
+        <v>0.5041</v>
       </c>
       <c r="D121" t="n">
-        <v>0.4802</v>
+        <v>0.5041</v>
       </c>
       <c r="E121" t="n">
-        <v>0.4773</v>
+        <v>0.5041</v>
       </c>
       <c r="F121" t="n">
-        <v>616302.8312</v>
+        <v>207171.7069</v>
       </c>
       <c r="G121" t="n">
-        <v>-10529913.85205738</v>
+        <v>-7132461.924057373</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
       </c>
       <c r="I121" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="n">
-        <v>0.4884</v>
-      </c>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="inlineStr"/>
       <c r="M121" t="n">
         <v>1</v>
       </c>
+      <c r="N121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>0.4802</v>
+        <v>0.5097</v>
       </c>
       <c r="C122" t="n">
-        <v>0.4802</v>
+        <v>0.5097</v>
       </c>
       <c r="D122" t="n">
-        <v>0.4802</v>
+        <v>0.5097</v>
       </c>
       <c r="E122" t="n">
-        <v>0.4802</v>
+        <v>0.5097</v>
       </c>
       <c r="F122" t="n">
-        <v>146861.7333</v>
+        <v>1818</v>
       </c>
       <c r="G122" t="n">
-        <v>-10529913.85205738</v>
+        <v>-7130643.924057373</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
       </c>
       <c r="I122" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="n">
-        <v>0.4884</v>
-      </c>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="inlineStr"/>
       <c r="M122" t="n">
         <v>1</v>
       </c>
+      <c r="N122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>0.4884</v>
+        <v>0.5096000000000001</v>
       </c>
       <c r="C123" t="n">
-        <v>0.4884</v>
+        <v>0.5096000000000001</v>
       </c>
       <c r="D123" t="n">
-        <v>0.4884</v>
+        <v>0.5096000000000001</v>
       </c>
       <c r="E123" t="n">
-        <v>0.4884</v>
+        <v>0.5096000000000001</v>
       </c>
       <c r="F123" t="n">
-        <v>78154.8015</v>
+        <v>5870.332</v>
       </c>
       <c r="G123" t="n">
-        <v>-10451759.05055737</v>
+        <v>-7136514.256057373</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
       </c>
       <c r="I123" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="n">
-        <v>0.4884</v>
-      </c>
-      <c r="L123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="inlineStr"/>
       <c r="M123" t="n">
         <v>1</v>
       </c>
+      <c r="N123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>0.4877</v>
+        <v>0.499</v>
       </c>
       <c r="C124" t="n">
-        <v>0.4877</v>
+        <v>0.5065</v>
       </c>
       <c r="D124" t="n">
-        <v>0.4968</v>
+        <v>0.5286</v>
       </c>
       <c r="E124" t="n">
-        <v>0.4877</v>
+        <v>0.499</v>
       </c>
       <c r="F124" t="n">
-        <v>4642.4413</v>
+        <v>5334290.5796</v>
       </c>
       <c r="G124" t="n">
-        <v>-10456401.49185737</v>
+        <v>-12470804.83565737</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
       </c>
       <c r="I124" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="n">
-        <v>0.4884</v>
-      </c>
-      <c r="L124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="inlineStr"/>
       <c r="M124" t="n">
         <v>1</v>
       </c>
+      <c r="N124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>0.4882</v>
+        <v>0.5065</v>
       </c>
       <c r="C125" t="n">
-        <v>0.4802</v>
+        <v>0.5065</v>
       </c>
       <c r="D125" t="n">
-        <v>0.4882</v>
+        <v>0.5302</v>
       </c>
       <c r="E125" t="n">
-        <v>0.4802</v>
+        <v>0.5065</v>
       </c>
       <c r="F125" t="n">
-        <v>1069127.5347</v>
+        <v>1940985.5835</v>
       </c>
       <c r="G125" t="n">
-        <v>-11525529.02655737</v>
+        <v>-12470804.83565737</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
       </c>
       <c r="I125" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="n">
-        <v>0.4884</v>
-      </c>
-      <c r="L125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="inlineStr"/>
       <c r="M125" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="126">
-      <c r="A126" s="1" t="n">
-        <v>124</v>
-      </c>
-      <c r="B126" t="n">
-        <v>0.4881</v>
-      </c>
-      <c r="C126" t="n">
-        <v>0.4882</v>
-      </c>
-      <c r="D126" t="n">
-        <v>0.4882</v>
-      </c>
-      <c r="E126" t="n">
-        <v>0.4881</v>
-      </c>
-      <c r="F126" t="n">
-        <v>187069.8219</v>
-      </c>
-      <c r="G126" t="n">
-        <v>-11338459.20465737</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
-      <c r="I126" t="n">
-        <v>0</v>
-      </c>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="n">
-        <v>0.4884</v>
-      </c>
-      <c r="L126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" s="1" t="n">
-        <v>125</v>
-      </c>
-      <c r="B127" t="n">
-        <v>0.4881</v>
-      </c>
-      <c r="C127" t="n">
-        <v>0.4871</v>
-      </c>
-      <c r="D127" t="n">
-        <v>0.4884</v>
-      </c>
-      <c r="E127" t="n">
-        <v>0.4871</v>
-      </c>
-      <c r="F127" t="n">
-        <v>422489.5371</v>
-      </c>
-      <c r="G127" t="n">
-        <v>-11760948.74175737</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
-      <c r="I127" t="n">
-        <v>0</v>
-      </c>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="n">
-        <v>0.4884</v>
-      </c>
-      <c r="L127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" s="1" t="n">
-        <v>126</v>
-      </c>
-      <c r="B128" t="n">
-        <v>0.4884</v>
-      </c>
-      <c r="C128" t="n">
-        <v>0.4884</v>
-      </c>
-      <c r="D128" t="n">
-        <v>0.4884</v>
-      </c>
-      <c r="E128" t="n">
-        <v>0.4884</v>
-      </c>
-      <c r="F128" t="n">
-        <v>1818</v>
-      </c>
-      <c r="G128" t="n">
-        <v>-11759130.74175737</v>
-      </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
-      <c r="I128" t="n">
-        <v>0</v>
-      </c>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="n">
-        <v>0.4884</v>
-      </c>
-      <c r="L128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" s="1" t="n">
-        <v>127</v>
-      </c>
-      <c r="B129" t="n">
-        <v>0.4871</v>
-      </c>
-      <c r="C129" t="n">
-        <v>0.4871</v>
-      </c>
-      <c r="D129" t="n">
-        <v>0.4871</v>
-      </c>
-      <c r="E129" t="n">
-        <v>0.4871</v>
-      </c>
-      <c r="F129" t="n">
-        <v>115671</v>
-      </c>
-      <c r="G129" t="n">
-        <v>-11874801.74175737</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
-      <c r="I129" t="n">
-        <v>0</v>
-      </c>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="n">
-        <v>0.4884</v>
-      </c>
-      <c r="L129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" s="1" t="n">
-        <v>128</v>
-      </c>
-      <c r="B130" t="n">
-        <v>0.4871</v>
-      </c>
-      <c r="C130" t="n">
-        <v>0.4884</v>
-      </c>
-      <c r="D130" t="n">
-        <v>0.4884</v>
-      </c>
-      <c r="E130" t="n">
-        <v>0.4871</v>
-      </c>
-      <c r="F130" t="n">
-        <v>50000</v>
-      </c>
-      <c r="G130" t="n">
-        <v>-11824801.74175737</v>
-      </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
-      <c r="I130" t="n">
-        <v>0</v>
-      </c>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="n">
-        <v>0.4884</v>
-      </c>
-      <c r="L130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" s="1" t="n">
-        <v>129</v>
-      </c>
-      <c r="B131" t="n">
-        <v>0.4884</v>
-      </c>
-      <c r="C131" t="n">
-        <v>0.488</v>
-      </c>
-      <c r="D131" t="n">
-        <v>0.4884</v>
-      </c>
-      <c r="E131" t="n">
-        <v>0.488</v>
-      </c>
-      <c r="F131" t="n">
-        <v>12161</v>
-      </c>
-      <c r="G131" t="n">
-        <v>-11836962.74175737</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
-      <c r="I131" t="n">
-        <v>0</v>
-      </c>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="n">
-        <v>0.4884</v>
-      </c>
-      <c r="L131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" s="1" t="n">
-        <v>130</v>
-      </c>
-      <c r="B132" t="n">
-        <v>0.488</v>
-      </c>
-      <c r="C132" t="n">
-        <v>0.488</v>
-      </c>
-      <c r="D132" t="n">
-        <v>0.488</v>
-      </c>
-      <c r="E132" t="n">
-        <v>0.488</v>
-      </c>
-      <c r="F132" t="n">
-        <v>80402</v>
-      </c>
-      <c r="G132" t="n">
-        <v>-11836962.74175737</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
-      <c r="I132" t="n">
-        <v>0</v>
-      </c>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="n">
-        <v>0.4884</v>
-      </c>
-      <c r="L132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" s="1" t="n">
-        <v>131</v>
-      </c>
-      <c r="B133" t="n">
-        <v>0.488</v>
-      </c>
-      <c r="C133" t="n">
-        <v>0.488</v>
-      </c>
-      <c r="D133" t="n">
-        <v>0.488</v>
-      </c>
-      <c r="E133" t="n">
-        <v>0.488</v>
-      </c>
-      <c r="F133" t="n">
-        <v>919635.1188000001</v>
-      </c>
-      <c r="G133" t="n">
-        <v>-11836962.74175737</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
-      <c r="I133" t="n">
-        <v>0</v>
-      </c>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="n">
-        <v>0.4884</v>
-      </c>
-      <c r="L133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" s="1" t="n">
-        <v>132</v>
-      </c>
-      <c r="B134" t="n">
-        <v>0.488</v>
-      </c>
-      <c r="C134" t="n">
-        <v>0.488</v>
-      </c>
-      <c r="D134" t="n">
-        <v>0.488</v>
-      </c>
-      <c r="E134" t="n">
-        <v>0.488</v>
-      </c>
-      <c r="F134" t="n">
-        <v>98142.5386</v>
-      </c>
-      <c r="G134" t="n">
-        <v>-11836962.74175737</v>
-      </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
-      <c r="I134" t="n">
-        <v>0</v>
-      </c>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="n">
-        <v>0.4884</v>
-      </c>
-      <c r="L134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" s="1" t="n">
-        <v>133</v>
-      </c>
-      <c r="B135" t="n">
-        <v>0.488</v>
-      </c>
-      <c r="C135" t="n">
-        <v>0.4884</v>
-      </c>
-      <c r="D135" t="n">
-        <v>0.4884</v>
-      </c>
-      <c r="E135" t="n">
-        <v>0.488</v>
-      </c>
-      <c r="F135" t="n">
-        <v>967489.548</v>
-      </c>
-      <c r="G135" t="n">
-        <v>-10869473.19375737</v>
-      </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
-      <c r="I135" t="n">
-        <v>0</v>
-      </c>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="n">
-        <v>0.4884</v>
-      </c>
-      <c r="L135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" s="1" t="n">
-        <v>134</v>
-      </c>
-      <c r="B136" t="n">
-        <v>0.4884</v>
-      </c>
-      <c r="C136" t="n">
-        <v>0.4884</v>
-      </c>
-      <c r="D136" t="n">
-        <v>0.4884</v>
-      </c>
-      <c r="E136" t="n">
-        <v>0.4884</v>
-      </c>
-      <c r="F136" t="n">
-        <v>52430.8116</v>
-      </c>
-      <c r="G136" t="n">
-        <v>-10869473.19375737</v>
-      </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
-      <c r="I136" t="n">
-        <v>0</v>
-      </c>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="n">
-        <v>0.4884</v>
-      </c>
-      <c r="L136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" s="1" t="n">
-        <v>135</v>
-      </c>
-      <c r="B137" t="n">
-        <v>0.488</v>
-      </c>
-      <c r="C137" t="n">
-        <v>0.488</v>
-      </c>
-      <c r="D137" t="n">
-        <v>0.488</v>
-      </c>
-      <c r="E137" t="n">
-        <v>0.488</v>
-      </c>
-      <c r="F137" t="n">
-        <v>31060</v>
-      </c>
-      <c r="G137" t="n">
-        <v>-10900533.19375737</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
-      <c r="I137" t="n">
-        <v>0</v>
-      </c>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="n">
-        <v>0.4884</v>
-      </c>
-      <c r="L137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" s="1" t="n">
-        <v>136</v>
-      </c>
-      <c r="B138" t="n">
-        <v>0.488</v>
-      </c>
-      <c r="C138" t="n">
-        <v>0.488</v>
-      </c>
-      <c r="D138" t="n">
-        <v>0.488</v>
-      </c>
-      <c r="E138" t="n">
-        <v>0.488</v>
-      </c>
-      <c r="F138" t="n">
-        <v>52587.285</v>
-      </c>
-      <c r="G138" t="n">
-        <v>-10900533.19375737</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
-      <c r="I138" t="n">
-        <v>0</v>
-      </c>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="n">
-        <v>0.4884</v>
-      </c>
-      <c r="L138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" s="1" t="n">
-        <v>137</v>
-      </c>
-      <c r="B139" t="n">
-        <v>0.488</v>
-      </c>
-      <c r="C139" t="n">
-        <v>0.488</v>
-      </c>
-      <c r="D139" t="n">
-        <v>0.488</v>
-      </c>
-      <c r="E139" t="n">
-        <v>0.488</v>
-      </c>
-      <c r="F139" t="n">
-        <v>1300</v>
-      </c>
-      <c r="G139" t="n">
-        <v>-10900533.19375737</v>
-      </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
-      <c r="I139" t="n">
-        <v>0</v>
-      </c>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="n">
-        <v>0.4884</v>
-      </c>
-      <c r="L139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" s="1" t="n">
-        <v>138</v>
-      </c>
-      <c r="B140" t="n">
-        <v>0.488</v>
-      </c>
-      <c r="C140" t="n">
-        <v>0.488</v>
-      </c>
-      <c r="D140" t="n">
-        <v>0.488</v>
-      </c>
-      <c r="E140" t="n">
-        <v>0.488</v>
-      </c>
-      <c r="F140" t="n">
-        <v>25000</v>
-      </c>
-      <c r="G140" t="n">
-        <v>-10900533.19375737</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
-      <c r="I140" t="n">
-        <v>0</v>
-      </c>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="n">
-        <v>0.4884</v>
-      </c>
-      <c r="L140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" s="1" t="n">
-        <v>139</v>
-      </c>
-      <c r="B141" t="n">
-        <v>0.488</v>
-      </c>
-      <c r="C141" t="n">
-        <v>0.488</v>
-      </c>
-      <c r="D141" t="n">
-        <v>0.488</v>
-      </c>
-      <c r="E141" t="n">
-        <v>0.488</v>
-      </c>
-      <c r="F141" t="n">
-        <v>513396.24</v>
-      </c>
-      <c r="G141" t="n">
-        <v>-10900533.19375737</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
-      <c r="I141" t="n">
-        <v>0</v>
-      </c>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="n">
-        <v>0.4884</v>
-      </c>
-      <c r="L141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" s="1" t="n">
-        <v>140</v>
-      </c>
-      <c r="B142" t="n">
-        <v>0.488</v>
-      </c>
-      <c r="C142" t="n">
-        <v>0.4964</v>
-      </c>
-      <c r="D142" t="n">
-        <v>0.4964</v>
-      </c>
-      <c r="E142" t="n">
-        <v>0.488</v>
-      </c>
-      <c r="F142" t="n">
-        <v>466705.9</v>
-      </c>
-      <c r="G142" t="n">
-        <v>-10433827.29375737</v>
-      </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
-      <c r="I142" t="n">
-        <v>0</v>
-      </c>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="n">
-        <v>0.4884</v>
-      </c>
-      <c r="L142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" s="1" t="n">
-        <v>141</v>
-      </c>
-      <c r="B143" t="n">
-        <v>0.488</v>
-      </c>
-      <c r="C143" t="n">
-        <v>0.488</v>
-      </c>
-      <c r="D143" t="n">
-        <v>0.488</v>
-      </c>
-      <c r="E143" t="n">
-        <v>0.488</v>
-      </c>
-      <c r="F143" t="n">
-        <v>96730</v>
-      </c>
-      <c r="G143" t="n">
-        <v>-10530557.29375737</v>
-      </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
-      <c r="I143" t="n">
-        <v>0</v>
-      </c>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="n">
-        <v>0.4884</v>
-      </c>
-      <c r="L143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" s="1" t="n">
-        <v>142</v>
-      </c>
-      <c r="B144" t="n">
-        <v>0.488</v>
-      </c>
-      <c r="C144" t="n">
-        <v>0.488</v>
-      </c>
-      <c r="D144" t="n">
-        <v>0.488</v>
-      </c>
-      <c r="E144" t="n">
-        <v>0.488</v>
-      </c>
-      <c r="F144" t="n">
-        <v>846923.4313000001</v>
-      </c>
-      <c r="G144" t="n">
-        <v>-10530557.29375737</v>
-      </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
-      <c r="I144" t="n">
-        <v>0</v>
-      </c>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="n">
-        <v>0.4884</v>
-      </c>
-      <c r="L144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" s="1" t="n">
-        <v>143</v>
-      </c>
-      <c r="B145" t="n">
-        <v>0.497</v>
-      </c>
-      <c r="C145" t="n">
-        <v>0.4987</v>
-      </c>
-      <c r="D145" t="n">
-        <v>0.4987</v>
-      </c>
-      <c r="E145" t="n">
-        <v>0.497</v>
-      </c>
-      <c r="F145" t="n">
-        <v>15403</v>
-      </c>
-      <c r="G145" t="n">
-        <v>-10515154.29375737</v>
-      </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
-      <c r="I145" t="n">
-        <v>0</v>
-      </c>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="n">
-        <v>0.4884</v>
-      </c>
-      <c r="L145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" s="1" t="n">
-        <v>144</v>
-      </c>
-      <c r="B146" t="n">
-        <v>0.4881</v>
-      </c>
-      <c r="C146" t="n">
-        <v>0.4881</v>
-      </c>
-      <c r="D146" t="n">
-        <v>0.4881</v>
-      </c>
-      <c r="E146" t="n">
-        <v>0.4881</v>
-      </c>
-      <c r="F146" t="n">
-        <v>1818</v>
-      </c>
-      <c r="G146" t="n">
-        <v>-10516972.29375737</v>
-      </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
-      <c r="I146" t="n">
-        <v>0</v>
-      </c>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="n">
-        <v>0.4884</v>
-      </c>
-      <c r="L146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" s="1" t="n">
-        <v>145</v>
-      </c>
-      <c r="B147" t="n">
-        <v>0.4987</v>
-      </c>
-      <c r="C147" t="n">
-        <v>0.4987</v>
-      </c>
-      <c r="D147" t="n">
-        <v>0.4987</v>
-      </c>
-      <c r="E147" t="n">
-        <v>0.4883</v>
-      </c>
-      <c r="F147" t="n">
-        <v>1814701.4486</v>
-      </c>
-      <c r="G147" t="n">
-        <v>-8702270.845157374</v>
-      </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
-      <c r="I147" t="n">
-        <v>0</v>
-      </c>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="n">
-        <v>0.4884</v>
-      </c>
-      <c r="L147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" s="1" t="n">
-        <v>146</v>
-      </c>
-      <c r="B148" t="n">
-        <v>0.4986</v>
-      </c>
-      <c r="C148" t="n">
-        <v>0.4986</v>
-      </c>
-      <c r="D148" t="n">
-        <v>0.4986</v>
-      </c>
-      <c r="E148" t="n">
-        <v>0.4986</v>
-      </c>
-      <c r="F148" t="n">
-        <v>1818</v>
-      </c>
-      <c r="G148" t="n">
-        <v>-8704088.845157374</v>
-      </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
-      <c r="I148" t="n">
-        <v>0</v>
-      </c>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="n">
-        <v>0.4884</v>
-      </c>
-      <c r="L148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" s="1" t="n">
-        <v>147</v>
-      </c>
-      <c r="B149" t="n">
-        <v>0.4987</v>
-      </c>
-      <c r="C149" t="n">
-        <v>0.4987</v>
-      </c>
-      <c r="D149" t="n">
-        <v>0.4987</v>
-      </c>
-      <c r="E149" t="n">
-        <v>0.4987</v>
-      </c>
-      <c r="F149" t="n">
-        <v>1818</v>
-      </c>
-      <c r="G149" t="n">
-        <v>-8702270.845157374</v>
-      </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
-      <c r="I149" t="n">
-        <v>0</v>
-      </c>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="n">
-        <v>0.4884</v>
-      </c>
-      <c r="L149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M149" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" s="1" t="n">
-        <v>148</v>
-      </c>
-      <c r="B150" t="n">
-        <v>0.4983</v>
-      </c>
-      <c r="C150" t="n">
-        <v>0.4983</v>
-      </c>
-      <c r="D150" t="n">
-        <v>0.4983</v>
-      </c>
-      <c r="E150" t="n">
-        <v>0.4983</v>
-      </c>
-      <c r="F150" t="n">
-        <v>4311.4969</v>
-      </c>
-      <c r="G150" t="n">
-        <v>-8706582.342057373</v>
-      </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
-      <c r="I150" t="n">
-        <v>0</v>
-      </c>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="n">
-        <v>0.4884</v>
-      </c>
-      <c r="L150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M150" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" s="1" t="n">
-        <v>149</v>
-      </c>
-      <c r="B151" t="n">
-        <v>0.4984</v>
-      </c>
-      <c r="C151" t="n">
-        <v>0.4983</v>
-      </c>
-      <c r="D151" t="n">
-        <v>0.4984</v>
-      </c>
-      <c r="E151" t="n">
-        <v>0.4983</v>
-      </c>
-      <c r="F151" t="n">
-        <v>3636</v>
-      </c>
-      <c r="G151" t="n">
-        <v>-8706582.342057373</v>
-      </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
-      <c r="I151" t="n">
-        <v>0</v>
-      </c>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="n">
-        <v>0.4884</v>
-      </c>
-      <c r="L151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M151" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" s="1" t="n">
-        <v>150</v>
-      </c>
-      <c r="B152" t="n">
-        <v>0.4981</v>
-      </c>
-      <c r="C152" t="n">
-        <v>0.498</v>
-      </c>
-      <c r="D152" t="n">
-        <v>0.4981</v>
-      </c>
-      <c r="E152" t="n">
-        <v>0.498</v>
-      </c>
-      <c r="F152" t="n">
-        <v>57000</v>
-      </c>
-      <c r="G152" t="n">
-        <v>-8763582.342057373</v>
-      </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
-      <c r="I152" t="n">
-        <v>0</v>
-      </c>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="n">
-        <v>0.4884</v>
-      </c>
-      <c r="L152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M152" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" s="1" t="n">
-        <v>151</v>
-      </c>
-      <c r="B153" t="n">
-        <v>0.4979</v>
-      </c>
-      <c r="C153" t="n">
-        <v>0.4979</v>
-      </c>
-      <c r="D153" t="n">
-        <v>0.4979</v>
-      </c>
-      <c r="E153" t="n">
-        <v>0.4979</v>
-      </c>
-      <c r="F153" t="n">
-        <v>1818</v>
-      </c>
-      <c r="G153" t="n">
-        <v>-8765400.342057373</v>
-      </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
-      <c r="I153" t="n">
-        <v>0</v>
-      </c>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="n">
-        <v>0.4884</v>
-      </c>
-      <c r="L153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M153" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" s="1" t="n">
-        <v>152</v>
-      </c>
-      <c r="B154" t="n">
-        <v>0.4978</v>
-      </c>
-      <c r="C154" t="n">
-        <v>0.4978</v>
-      </c>
-      <c r="D154" t="n">
-        <v>0.4978</v>
-      </c>
-      <c r="E154" t="n">
-        <v>0.4978</v>
-      </c>
-      <c r="F154" t="n">
-        <v>30000</v>
-      </c>
-      <c r="G154" t="n">
-        <v>-8795400.342057373</v>
-      </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
-      <c r="I154" t="n">
-        <v>0</v>
-      </c>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="n">
-        <v>0.4884</v>
-      </c>
-      <c r="L154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M154" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" s="1" t="n">
-        <v>153</v>
-      </c>
-      <c r="B155" t="n">
-        <v>0.4978</v>
-      </c>
-      <c r="C155" t="n">
-        <v>0.4988</v>
-      </c>
-      <c r="D155" t="n">
-        <v>0.4988</v>
-      </c>
-      <c r="E155" t="n">
-        <v>0.4978</v>
-      </c>
-      <c r="F155" t="n">
-        <v>1058034.3638</v>
-      </c>
-      <c r="G155" t="n">
-        <v>-7737365.978257373</v>
-      </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
-      <c r="I155" t="n">
-        <v>0</v>
-      </c>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="n">
-        <v>0.4884</v>
-      </c>
-      <c r="L155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M155" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" s="1" t="n">
-        <v>154</v>
-      </c>
-      <c r="B156" t="n">
-        <v>0.4978</v>
-      </c>
-      <c r="C156" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="D156" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="E156" t="n">
-        <v>0.4978</v>
-      </c>
-      <c r="F156" t="n">
-        <v>715162.7711</v>
-      </c>
-      <c r="G156" t="n">
-        <v>-7022203.207157373</v>
-      </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
-      <c r="I156" t="n">
-        <v>0</v>
-      </c>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="n">
-        <v>0.4884</v>
-      </c>
-      <c r="L156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M156" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" s="1" t="n">
-        <v>155</v>
-      </c>
-      <c r="B157" t="n">
-        <v>0.4984</v>
-      </c>
-      <c r="C157" t="n">
-        <v>0.5041</v>
-      </c>
-      <c r="D157" t="n">
-        <v>0.5041</v>
-      </c>
-      <c r="E157" t="n">
-        <v>0.4984</v>
-      </c>
-      <c r="F157" t="n">
-        <v>100000</v>
-      </c>
-      <c r="G157" t="n">
-        <v>-6922203.207157373</v>
-      </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
-      <c r="I157" t="n">
-        <v>0</v>
-      </c>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="n">
-        <v>0.4884</v>
-      </c>
-      <c r="L157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M157" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" s="1" t="n">
-        <v>156</v>
-      </c>
-      <c r="B158" t="n">
-        <v>0.504</v>
-      </c>
-      <c r="C158" t="n">
-        <v>0.5041</v>
-      </c>
-      <c r="D158" t="n">
-        <v>0.5084</v>
-      </c>
-      <c r="E158" t="n">
-        <v>0.504</v>
-      </c>
-      <c r="F158" t="n">
-        <v>6241756.7929</v>
-      </c>
-      <c r="G158" t="n">
-        <v>-6922203.207157373</v>
-      </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
-      <c r="I158" t="n">
-        <v>0</v>
-      </c>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="n">
-        <v>0.4884</v>
-      </c>
-      <c r="L158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M158" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" s="1" t="n">
-        <v>157</v>
-      </c>
-      <c r="B159" t="n">
-        <v>0.5218</v>
-      </c>
-      <c r="C159" t="n">
-        <v>0.5218</v>
-      </c>
-      <c r="D159" t="n">
-        <v>0.5218</v>
-      </c>
-      <c r="E159" t="n">
-        <v>0.5218</v>
-      </c>
-      <c r="F159" t="n">
-        <v>1818</v>
-      </c>
-      <c r="G159" t="n">
-        <v>-6920385.207157373</v>
-      </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
-      <c r="I159" t="n">
-        <v>0</v>
-      </c>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="n">
-        <v>0.4884</v>
-      </c>
-      <c r="L159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M159" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" s="1" t="n">
-        <v>158</v>
-      </c>
-      <c r="B160" t="n">
-        <v>0.5042</v>
-      </c>
-      <c r="C160" t="n">
-        <v>0.5042</v>
-      </c>
-      <c r="D160" t="n">
-        <v>0.5042</v>
-      </c>
-      <c r="E160" t="n">
-        <v>0.5042</v>
-      </c>
-      <c r="F160" t="n">
-        <v>4905.01</v>
-      </c>
-      <c r="G160" t="n">
-        <v>-6925290.217157373</v>
-      </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
-      <c r="I160" t="n">
-        <v>1</v>
-      </c>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="n">
-        <v>0.4884</v>
-      </c>
-      <c r="L160" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M160" t="n">
-        <v>1.027350532350532</v>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161" s="1" t="n">
-        <v>159</v>
-      </c>
-      <c r="B161" t="n">
-        <v>0.5042</v>
-      </c>
-      <c r="C161" t="n">
-        <v>0.5042</v>
-      </c>
-      <c r="D161" t="n">
-        <v>0.5042</v>
-      </c>
-      <c r="E161" t="n">
-        <v>0.5042</v>
-      </c>
-      <c r="F161" t="n">
-        <v>143403.24</v>
-      </c>
-      <c r="G161" t="n">
-        <v>-6925290.217157373</v>
-      </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
-      <c r="I161" t="n">
-        <v>1</v>
-      </c>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr"/>
-      <c r="M161" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162" s="1" t="n">
-        <v>160</v>
-      </c>
-      <c r="B162" t="n">
-        <v>0.5042</v>
-      </c>
-      <c r="C162" t="n">
-        <v>0.5042</v>
-      </c>
-      <c r="D162" t="n">
-        <v>0.5042</v>
-      </c>
-      <c r="E162" t="n">
-        <v>0.5042</v>
-      </c>
-      <c r="F162" t="n">
-        <v>100896.75</v>
-      </c>
-      <c r="G162" t="n">
-        <v>-6925290.217157373</v>
-      </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
-      <c r="I162" t="n">
-        <v>0</v>
-      </c>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr"/>
-      <c r="M162" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="163">
-      <c r="A163" s="1" t="n">
-        <v>161</v>
-      </c>
-      <c r="B163" t="n">
-        <v>0.5041</v>
-      </c>
-      <c r="C163" t="n">
-        <v>0.5041</v>
-      </c>
-      <c r="D163" t="n">
-        <v>0.5041</v>
-      </c>
-      <c r="E163" t="n">
-        <v>0.5041</v>
-      </c>
-      <c r="F163" t="n">
-        <v>207171.7069</v>
-      </c>
-      <c r="G163" t="n">
-        <v>-7132461.924057373</v>
-      </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
-      <c r="I163" t="n">
-        <v>0</v>
-      </c>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr"/>
-      <c r="M163" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164" s="1" t="n">
-        <v>162</v>
-      </c>
-      <c r="B164" t="n">
-        <v>0.5097</v>
-      </c>
-      <c r="C164" t="n">
-        <v>0.5097</v>
-      </c>
-      <c r="D164" t="n">
-        <v>0.5097</v>
-      </c>
-      <c r="E164" t="n">
-        <v>0.5097</v>
-      </c>
-      <c r="F164" t="n">
-        <v>1818</v>
-      </c>
-      <c r="G164" t="n">
-        <v>-7130643.924057373</v>
-      </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
-      <c r="I164" t="n">
-        <v>0</v>
-      </c>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr"/>
-      <c r="M164" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="165">
-      <c r="A165" s="1" t="n">
-        <v>163</v>
-      </c>
-      <c r="B165" t="n">
-        <v>0.5096000000000001</v>
-      </c>
-      <c r="C165" t="n">
-        <v>0.5096000000000001</v>
-      </c>
-      <c r="D165" t="n">
-        <v>0.5096000000000001</v>
-      </c>
-      <c r="E165" t="n">
-        <v>0.5096000000000001</v>
-      </c>
-      <c r="F165" t="n">
-        <v>5870.332</v>
-      </c>
-      <c r="G165" t="n">
-        <v>-7136514.256057373</v>
-      </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
-      <c r="I165" t="n">
-        <v>0</v>
-      </c>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr"/>
-      <c r="M165" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="166">
-      <c r="A166" s="1" t="n">
-        <v>164</v>
-      </c>
-      <c r="B166" t="n">
-        <v>0.499</v>
-      </c>
-      <c r="C166" t="n">
-        <v>0.5065</v>
-      </c>
-      <c r="D166" t="n">
-        <v>0.5286</v>
-      </c>
-      <c r="E166" t="n">
-        <v>0.499</v>
-      </c>
-      <c r="F166" t="n">
-        <v>5334290.5796</v>
-      </c>
-      <c r="G166" t="n">
-        <v>-12470804.83565737</v>
-      </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
-      <c r="I166" t="n">
-        <v>0</v>
-      </c>
-      <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr"/>
-      <c r="M166" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="167">
-      <c r="A167" s="1" t="n">
-        <v>165</v>
-      </c>
-      <c r="B167" t="n">
-        <v>0.5065</v>
-      </c>
-      <c r="C167" t="n">
-        <v>0.5065</v>
-      </c>
-      <c r="D167" t="n">
-        <v>0.5302</v>
-      </c>
-      <c r="E167" t="n">
-        <v>0.5065</v>
-      </c>
-      <c r="F167" t="n">
-        <v>1940985.5835</v>
-      </c>
-      <c r="G167" t="n">
-        <v>-12470804.83565737</v>
-      </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
-      <c r="I167" t="n">
-        <v>1</v>
-      </c>
-      <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr"/>
-      <c r="M167" t="n">
-        <v>1</v>
-      </c>
+      <c r="N125" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2020-01-19 BackTest OCN.xlsx
+++ b/BackTest/2020-01-19 BackTest OCN.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N125"/>
+  <dimension ref="A1:N196"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -438,28 +438,28 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.4839</v>
+        <v>0.5178</v>
       </c>
       <c r="C2" t="n">
-        <v>0.4716</v>
+        <v>0.5178</v>
       </c>
       <c r="D2" t="n">
-        <v>0.4839</v>
+        <v>0.5178</v>
       </c>
       <c r="E2" t="n">
-        <v>0.4716</v>
+        <v>0.5178</v>
       </c>
       <c r="F2" t="n">
-        <v>25000</v>
+        <v>6723.33</v>
       </c>
       <c r="G2" t="n">
-        <v>-14264211.5238</v>
+        <v>-9130213.7607</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
@@ -474,28 +474,28 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.4731</v>
+        <v>0.5178</v>
       </c>
       <c r="C3" t="n">
-        <v>0.473</v>
+        <v>0.5078</v>
       </c>
       <c r="D3" t="n">
-        <v>0.4731</v>
+        <v>0.5178</v>
       </c>
       <c r="E3" t="n">
-        <v>0.473</v>
+        <v>0.5078</v>
       </c>
       <c r="F3" t="n">
-        <v>751534.9832</v>
+        <v>50000</v>
       </c>
       <c r="G3" t="n">
-        <v>-13512676.5406</v>
+        <v>-9180213.7607</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
@@ -510,35 +510,31 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.4859</v>
+        <v>0.5079</v>
       </c>
       <c r="C4" t="n">
-        <v>0.4859</v>
+        <v>0.5079</v>
       </c>
       <c r="D4" t="n">
-        <v>0.4859</v>
+        <v>0.5079</v>
       </c>
       <c r="E4" t="n">
-        <v>0.4859</v>
+        <v>0.5079</v>
       </c>
       <c r="F4" t="n">
-        <v>224520</v>
+        <v>997.5</v>
       </c>
       <c r="G4" t="n">
-        <v>-13288156.5406</v>
+        <v>-9179216.2607</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="n">
-        <v>0.473</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0.473</v>
-      </c>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
       <c r="M4" t="n">
         <v>1</v>
@@ -550,40 +546,32 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.4957</v>
+        <v>0.5183</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4957</v>
+        <v>0.508</v>
       </c>
       <c r="D5" t="n">
-        <v>0.4957</v>
+        <v>0.5183</v>
       </c>
       <c r="E5" t="n">
-        <v>0.4957</v>
+        <v>0.508</v>
       </c>
       <c r="F5" t="n">
-        <v>4524.914262658866</v>
+        <v>163772.0024</v>
       </c>
       <c r="G5" t="n">
-        <v>-13283631.62633734</v>
+        <v>-9015444.258300001</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="n">
-        <v>0.4859</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0.473</v>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
       <c r="M5" t="n">
         <v>1</v>
       </c>
@@ -594,22 +582,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.4955</v>
+        <v>0.5081</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4955</v>
+        <v>0.5081</v>
       </c>
       <c r="D6" t="n">
-        <v>0.4955</v>
+        <v>0.5081</v>
       </c>
       <c r="E6" t="n">
-        <v>0.4955</v>
+        <v>0.5081</v>
       </c>
       <c r="F6" t="n">
-        <v>60567.3505</v>
+        <v>99017.69439999999</v>
       </c>
       <c r="G6" t="n">
-        <v>-13344198.97683734</v>
+        <v>-8916426.563900001</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -618,14 +606,8 @@
         <v>0</v>
       </c>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="n">
-        <v>0.473</v>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
       <c r="M6" t="n">
         <v>1</v>
       </c>
@@ -636,22 +618,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.4951</v>
+        <v>0.5182</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4951</v>
+        <v>0.5182</v>
       </c>
       <c r="D7" t="n">
-        <v>0.4951</v>
+        <v>0.5182</v>
       </c>
       <c r="E7" t="n">
-        <v>0.4951</v>
+        <v>0.5182</v>
       </c>
       <c r="F7" t="n">
-        <v>60618.2987</v>
+        <v>561757.6468</v>
       </c>
       <c r="G7" t="n">
-        <v>-13404817.27553734</v>
+        <v>-8354668.917100001</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -672,28 +654,28 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.4901</v>
+        <v>0.5182</v>
       </c>
       <c r="C8" t="n">
-        <v>0.4901</v>
+        <v>0.5182</v>
       </c>
       <c r="D8" t="n">
-        <v>0.4901</v>
+        <v>0.5182</v>
       </c>
       <c r="E8" t="n">
-        <v>0.4901</v>
+        <v>0.5182</v>
       </c>
       <c r="F8" t="n">
-        <v>60610</v>
+        <v>47960.7157</v>
       </c>
       <c r="G8" t="n">
-        <v>-13465427.27553734</v>
+        <v>-8354668.917100001</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
@@ -708,28 +690,28 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0.4898</v>
+        <v>0.5182</v>
       </c>
       <c r="C9" t="n">
-        <v>0.4952</v>
+        <v>0.5182</v>
       </c>
       <c r="D9" t="n">
-        <v>0.4952</v>
+        <v>0.5182</v>
       </c>
       <c r="E9" t="n">
-        <v>0.4898</v>
+        <v>0.5182</v>
       </c>
       <c r="F9" t="n">
-        <v>115792</v>
+        <v>5250</v>
       </c>
       <c r="G9" t="n">
-        <v>-13349635.27553734</v>
+        <v>-8354668.917100001</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
@@ -744,28 +726,28 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0.4961</v>
+        <v>0.5182</v>
       </c>
       <c r="C10" t="n">
-        <v>0.4999</v>
+        <v>0.5182</v>
       </c>
       <c r="D10" t="n">
-        <v>0.4999</v>
+        <v>0.5182</v>
       </c>
       <c r="E10" t="n">
-        <v>0.4961</v>
+        <v>0.5182</v>
       </c>
       <c r="F10" t="n">
-        <v>1377036.0535</v>
+        <v>100000</v>
       </c>
       <c r="G10" t="n">
-        <v>-11972599.22203734</v>
+        <v>-8354668.917100001</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
@@ -780,28 +762,28 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0.4999</v>
+        <v>0.5183</v>
       </c>
       <c r="C11" t="n">
-        <v>0.4999</v>
+        <v>0.5183</v>
       </c>
       <c r="D11" t="n">
-        <v>0.4999</v>
+        <v>0.5183</v>
       </c>
       <c r="E11" t="n">
-        <v>0.4999</v>
+        <v>0.5183</v>
       </c>
       <c r="F11" t="n">
-        <v>35710</v>
+        <v>4677</v>
       </c>
       <c r="G11" t="n">
-        <v>-11972599.22203734</v>
+        <v>-8349991.917100001</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
@@ -816,28 +798,28 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>0.4962</v>
+        <v>0.5183</v>
       </c>
       <c r="C12" t="n">
-        <v>0.4961</v>
+        <v>0.5183</v>
       </c>
       <c r="D12" t="n">
-        <v>0.4962</v>
+        <v>0.5183</v>
       </c>
       <c r="E12" t="n">
-        <v>0.4961</v>
+        <v>0.5183</v>
       </c>
       <c r="F12" t="n">
-        <v>3938084.1993</v>
+        <v>10180</v>
       </c>
       <c r="G12" t="n">
-        <v>-15910683.42133734</v>
+        <v>-8349991.917100001</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
@@ -852,22 +834,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>0.4961</v>
+        <v>0.5183</v>
       </c>
       <c r="C13" t="n">
-        <v>0.4999</v>
+        <v>0.5183</v>
       </c>
       <c r="D13" t="n">
-        <v>0.4999</v>
+        <v>0.5183</v>
       </c>
       <c r="E13" t="n">
-        <v>0.4961</v>
+        <v>0.5183</v>
       </c>
       <c r="F13" t="n">
-        <v>1480606.6473</v>
+        <v>3677</v>
       </c>
       <c r="G13" t="n">
-        <v>-14430076.77403734</v>
+        <v>-8349991.917100001</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -888,28 +870,28 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>0.4863</v>
+        <v>0.5183</v>
       </c>
       <c r="C14" t="n">
-        <v>0.4863</v>
+        <v>0.5183</v>
       </c>
       <c r="D14" t="n">
-        <v>0.4863</v>
+        <v>0.5183</v>
       </c>
       <c r="E14" t="n">
-        <v>0.4863</v>
+        <v>0.5183</v>
       </c>
       <c r="F14" t="n">
-        <v>1213563.3225</v>
+        <v>4011</v>
       </c>
       <c r="G14" t="n">
-        <v>-15643640.09653734</v>
+        <v>-8349991.917100001</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
@@ -924,28 +906,28 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>0.4863</v>
+        <v>0.5183</v>
       </c>
       <c r="C15" t="n">
-        <v>0.4997</v>
+        <v>0.5183</v>
       </c>
       <c r="D15" t="n">
-        <v>0.4998</v>
+        <v>0.5183</v>
       </c>
       <c r="E15" t="n">
-        <v>0.4863</v>
+        <v>0.5183</v>
       </c>
       <c r="F15" t="n">
-        <v>1980591.6618</v>
+        <v>2396</v>
       </c>
       <c r="G15" t="n">
-        <v>-13663048.43473734</v>
+        <v>-8349991.917100001</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
@@ -960,28 +942,28 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>0.4964</v>
+        <v>0.5183</v>
       </c>
       <c r="C16" t="n">
-        <v>0.4964</v>
+        <v>0.5183</v>
       </c>
       <c r="D16" t="n">
-        <v>0.4964</v>
+        <v>0.5183</v>
       </c>
       <c r="E16" t="n">
-        <v>0.4964</v>
+        <v>0.5183</v>
       </c>
       <c r="F16" t="n">
-        <v>73999.5683</v>
+        <v>2908</v>
       </c>
       <c r="G16" t="n">
-        <v>-13737048.00303734</v>
+        <v>-8349991.917100001</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
@@ -996,28 +978,28 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>0.4963</v>
+        <v>0.51</v>
       </c>
       <c r="C17" t="n">
-        <v>0.4963</v>
+        <v>0.51</v>
       </c>
       <c r="D17" t="n">
-        <v>0.4963</v>
+        <v>0.51</v>
       </c>
       <c r="E17" t="n">
-        <v>0.4963</v>
+        <v>0.51</v>
       </c>
       <c r="F17" t="n">
-        <v>4524.39</v>
+        <v>29442.8501</v>
       </c>
       <c r="G17" t="n">
-        <v>-13741572.39303734</v>
+        <v>-8379434.767200002</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
@@ -1032,22 +1014,22 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>0.4996</v>
+        <v>0.5183</v>
       </c>
       <c r="C18" t="n">
-        <v>0.4996</v>
+        <v>0.5183</v>
       </c>
       <c r="D18" t="n">
-        <v>0.4996</v>
+        <v>0.5183</v>
       </c>
       <c r="E18" t="n">
-        <v>0.4996</v>
+        <v>0.5183</v>
       </c>
       <c r="F18" t="n">
-        <v>2857.7874</v>
+        <v>2885</v>
       </c>
       <c r="G18" t="n">
-        <v>-13738714.60563734</v>
+        <v>-8376549.767200002</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1068,28 +1050,28 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>0.4963</v>
+        <v>0.5183</v>
       </c>
       <c r="C19" t="n">
-        <v>0.4963</v>
+        <v>0.5183</v>
       </c>
       <c r="D19" t="n">
-        <v>0.4963</v>
+        <v>0.5183</v>
       </c>
       <c r="E19" t="n">
-        <v>0.4963</v>
+        <v>0.5183</v>
       </c>
       <c r="F19" t="n">
-        <v>20285.61</v>
+        <v>29476</v>
       </c>
       <c r="G19" t="n">
-        <v>-13759000.21563734</v>
+        <v>-8376549.767200002</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
@@ -1104,28 +1086,28 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>0.4863</v>
+        <v>0.5182</v>
       </c>
       <c r="C20" t="n">
-        <v>0.4992</v>
+        <v>0.5182</v>
       </c>
       <c r="D20" t="n">
-        <v>0.4993</v>
+        <v>0.5182</v>
       </c>
       <c r="E20" t="n">
-        <v>0.4863</v>
+        <v>0.5182</v>
       </c>
       <c r="F20" t="n">
-        <v>387026.9429</v>
+        <v>29505</v>
       </c>
       <c r="G20" t="n">
-        <v>-13371973.27273734</v>
+        <v>-8406054.767200001</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
@@ -1140,28 +1122,28 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>0.4988</v>
+        <v>0.5182</v>
       </c>
       <c r="C21" t="n">
-        <v>0.4988</v>
+        <v>0.5182</v>
       </c>
       <c r="D21" t="n">
-        <v>0.4988</v>
+        <v>0.5182</v>
       </c>
       <c r="E21" t="n">
-        <v>0.4988</v>
+        <v>0.5182</v>
       </c>
       <c r="F21" t="n">
-        <v>4987.0712</v>
+        <v>3784</v>
       </c>
       <c r="G21" t="n">
-        <v>-13376960.34393734</v>
+        <v>-8406054.767200001</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
@@ -1176,28 +1158,28 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>0.4868</v>
+        <v>0.5185</v>
       </c>
       <c r="C22" t="n">
-        <v>0.4988</v>
+        <v>0.5185999999999999</v>
       </c>
       <c r="D22" t="n">
-        <v>0.4988</v>
+        <v>0.5185999999999999</v>
       </c>
       <c r="E22" t="n">
-        <v>0.4867</v>
+        <v>0.5185</v>
       </c>
       <c r="F22" t="n">
-        <v>565944.7037</v>
+        <v>19387</v>
       </c>
       <c r="G22" t="n">
-        <v>-13376960.34393734</v>
+        <v>-8386667.767200001</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
@@ -1212,28 +1194,28 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>0.4961</v>
+        <v>0.5177</v>
       </c>
       <c r="C23" t="n">
-        <v>0.4961</v>
+        <v>0.5177</v>
       </c>
       <c r="D23" t="n">
-        <v>0.4961</v>
+        <v>0.5177</v>
       </c>
       <c r="E23" t="n">
-        <v>0.4961</v>
+        <v>0.5177</v>
       </c>
       <c r="F23" t="n">
-        <v>212470</v>
+        <v>3969.74</v>
       </c>
       <c r="G23" t="n">
-        <v>-13589430.34393734</v>
+        <v>-8390637.507200001</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
@@ -1248,28 +1230,28 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>0.4987</v>
+        <v>0.5177</v>
       </c>
       <c r="C24" t="n">
-        <v>0.4987</v>
+        <v>0.5177</v>
       </c>
       <c r="D24" t="n">
-        <v>0.4987</v>
+        <v>0.5177</v>
       </c>
       <c r="E24" t="n">
-        <v>0.4987</v>
+        <v>0.5177</v>
       </c>
       <c r="F24" t="n">
-        <v>1201</v>
+        <v>120887.4546</v>
       </c>
       <c r="G24" t="n">
-        <v>-13588229.34393734</v>
+        <v>-8390637.507200001</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
@@ -1284,28 +1266,28 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>0.4863</v>
+        <v>0.5177</v>
       </c>
       <c r="C25" t="n">
-        <v>0.4864</v>
+        <v>0.5081</v>
       </c>
       <c r="D25" t="n">
-        <v>0.4987</v>
+        <v>0.5181</v>
       </c>
       <c r="E25" t="n">
-        <v>0.4863</v>
+        <v>0.5077</v>
       </c>
       <c r="F25" t="n">
-        <v>8284</v>
+        <v>291704.9668</v>
       </c>
       <c r="G25" t="n">
-        <v>-13596513.34393734</v>
+        <v>-8682342.474000001</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
@@ -1320,28 +1302,28 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>0.4867</v>
+        <v>0.5184</v>
       </c>
       <c r="C26" t="n">
-        <v>0.4987</v>
+        <v>0.5183</v>
       </c>
       <c r="D26" t="n">
-        <v>0.4987</v>
+        <v>0.5184</v>
       </c>
       <c r="E26" t="n">
-        <v>0.4867</v>
+        <v>0.5183</v>
       </c>
       <c r="F26" t="n">
-        <v>1087507.1756</v>
+        <v>30000</v>
       </c>
       <c r="G26" t="n">
-        <v>-12509006.16833734</v>
+        <v>-8652342.474000001</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
@@ -1356,28 +1338,28 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>0.4871</v>
+        <v>0.5182</v>
       </c>
       <c r="C27" t="n">
-        <v>0.4871</v>
+        <v>0.5188</v>
       </c>
       <c r="D27" t="n">
-        <v>0.4871</v>
+        <v>0.5286999999999999</v>
       </c>
       <c r="E27" t="n">
-        <v>0.4871</v>
+        <v>0.508</v>
       </c>
       <c r="F27" t="n">
-        <v>3636</v>
+        <v>2133845.6673</v>
       </c>
       <c r="G27" t="n">
-        <v>-12512642.16833734</v>
+        <v>-6518496.806700001</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
@@ -1392,28 +1374,28 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>0.4871</v>
+        <v>0.5087</v>
       </c>
       <c r="C28" t="n">
-        <v>0.4871</v>
+        <v>0.5087</v>
       </c>
       <c r="D28" t="n">
-        <v>0.4871</v>
+        <v>0.5087</v>
       </c>
       <c r="E28" t="n">
-        <v>0.4871</v>
+        <v>0.5087</v>
       </c>
       <c r="F28" t="n">
-        <v>3636</v>
+        <v>25000</v>
       </c>
       <c r="G28" t="n">
-        <v>-12512642.16833734</v>
+        <v>-6543496.806700001</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
@@ -1428,28 +1410,28 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>0.487</v>
+        <v>0.5184</v>
       </c>
       <c r="C29" t="n">
-        <v>0.4985</v>
+        <v>0.5184</v>
       </c>
       <c r="D29" t="n">
-        <v>0.4987</v>
+        <v>0.5184</v>
       </c>
       <c r="E29" t="n">
-        <v>0.487</v>
+        <v>0.5184</v>
       </c>
       <c r="F29" t="n">
-        <v>2009402.8691</v>
+        <v>89373.7877</v>
       </c>
       <c r="G29" t="n">
-        <v>-10503239.29923734</v>
+        <v>-6454123.019000001</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
@@ -1464,28 +1446,28 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>0.4886</v>
+        <v>0.5182</v>
       </c>
       <c r="C30" t="n">
-        <v>0.4986</v>
+        <v>0.5182</v>
       </c>
       <c r="D30" t="n">
-        <v>0.4986</v>
+        <v>0.5182</v>
       </c>
       <c r="E30" t="n">
-        <v>0.4885</v>
+        <v>0.5182</v>
       </c>
       <c r="F30" t="n">
-        <v>169350.7744</v>
+        <v>213380</v>
       </c>
       <c r="G30" t="n">
-        <v>-10333888.52483734</v>
+        <v>-6667503.019000001</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
@@ -1500,28 +1482,28 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>0.4886</v>
+        <v>0.5177</v>
       </c>
       <c r="C31" t="n">
-        <v>0.4886</v>
+        <v>0.5177</v>
       </c>
       <c r="D31" t="n">
-        <v>0.4886</v>
+        <v>0.5177</v>
       </c>
       <c r="E31" t="n">
-        <v>0.4886</v>
+        <v>0.5177</v>
       </c>
       <c r="F31" t="n">
-        <v>3636</v>
+        <v>101000</v>
       </c>
       <c r="G31" t="n">
-        <v>-10337524.52483734</v>
+        <v>-6768503.019000001</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
@@ -1536,28 +1518,28 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>0.4984</v>
+        <v>0.5181</v>
       </c>
       <c r="C32" t="n">
-        <v>0.4984</v>
+        <v>0.5181</v>
       </c>
       <c r="D32" t="n">
-        <v>0.4984</v>
+        <v>0.5181</v>
       </c>
       <c r="E32" t="n">
-        <v>0.4984</v>
+        <v>0.5181</v>
       </c>
       <c r="F32" t="n">
-        <v>16399.5508</v>
+        <v>61270</v>
       </c>
       <c r="G32" t="n">
-        <v>-10321124.97403734</v>
+        <v>-6707233.019000001</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
@@ -1572,28 +1554,28 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>0.4984</v>
+        <v>0.521</v>
       </c>
       <c r="C33" t="n">
-        <v>0.4909</v>
+        <v>0.52</v>
       </c>
       <c r="D33" t="n">
-        <v>0.4984</v>
+        <v>0.528</v>
       </c>
       <c r="E33" t="n">
-        <v>0.4909</v>
+        <v>0.52</v>
       </c>
       <c r="F33" t="n">
-        <v>174860.6951</v>
+        <v>187830.5064</v>
       </c>
       <c r="G33" t="n">
-        <v>-10495985.66913734</v>
+        <v>-6519402.512600001</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
@@ -1608,28 +1590,28 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>0.4909</v>
+        <v>0.52</v>
       </c>
       <c r="C34" t="n">
-        <v>0.4886</v>
+        <v>0.52</v>
       </c>
       <c r="D34" t="n">
-        <v>0.4909</v>
+        <v>0.52</v>
       </c>
       <c r="E34" t="n">
-        <v>0.4886</v>
+        <v>0.52</v>
       </c>
       <c r="F34" t="n">
-        <v>5364.5936</v>
+        <v>1092125.114</v>
       </c>
       <c r="G34" t="n">
-        <v>-10501350.26273734</v>
+        <v>-6519402.512600001</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
@@ -1644,28 +1626,28 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>0.4984</v>
+        <v>0.5179</v>
       </c>
       <c r="C35" t="n">
-        <v>0.4984</v>
+        <v>0.5179</v>
       </c>
       <c r="D35" t="n">
-        <v>0.4984</v>
+        <v>0.5179</v>
       </c>
       <c r="E35" t="n">
-        <v>0.4984</v>
+        <v>0.5179</v>
       </c>
       <c r="F35" t="n">
-        <v>1500</v>
+        <v>81140</v>
       </c>
       <c r="G35" t="n">
-        <v>-10499850.26273734</v>
+        <v>-6600542.512600001</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
@@ -1680,28 +1662,28 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>0.4909</v>
+        <v>0.5179</v>
       </c>
       <c r="C36" t="n">
-        <v>0.4984</v>
+        <v>0.5178</v>
       </c>
       <c r="D36" t="n">
-        <v>0.4984</v>
+        <v>0.5179</v>
       </c>
       <c r="E36" t="n">
-        <v>0.4859</v>
+        <v>0.5178</v>
       </c>
       <c r="F36" t="n">
-        <v>551297.7645</v>
+        <v>447500</v>
       </c>
       <c r="G36" t="n">
-        <v>-10499850.26273734</v>
+        <v>-7048042.512600001</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
@@ -1716,28 +1698,28 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>0.4984</v>
+        <v>0.5274</v>
       </c>
       <c r="C37" t="n">
-        <v>0.4984</v>
+        <v>0.5101</v>
       </c>
       <c r="D37" t="n">
-        <v>0.4984</v>
+        <v>0.5274</v>
       </c>
       <c r="E37" t="n">
-        <v>0.4984</v>
+        <v>0.5101</v>
       </c>
       <c r="F37" t="n">
-        <v>2049940.698</v>
+        <v>526561.5105</v>
       </c>
       <c r="G37" t="n">
-        <v>-10499850.26273734</v>
+        <v>-7574604.023100001</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
@@ -1752,28 +1734,28 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>0.4883</v>
+        <v>0.5173</v>
       </c>
       <c r="C38" t="n">
-        <v>0.4883</v>
+        <v>0.5173</v>
       </c>
       <c r="D38" t="n">
-        <v>0.4883</v>
+        <v>0.5173</v>
       </c>
       <c r="E38" t="n">
-        <v>0.4883</v>
+        <v>0.5173</v>
       </c>
       <c r="F38" t="n">
-        <v>131242.7691</v>
+        <v>107623.2673</v>
       </c>
       <c r="G38" t="n">
-        <v>-10631093.03183734</v>
+        <v>-7466980.7558</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
@@ -1788,28 +1770,28 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>0.4883</v>
+        <v>0.5101</v>
       </c>
       <c r="C39" t="n">
-        <v>0.4859</v>
+        <v>0.51</v>
       </c>
       <c r="D39" t="n">
-        <v>0.4883</v>
+        <v>0.5101</v>
       </c>
       <c r="E39" t="n">
-        <v>0.4859</v>
+        <v>0.51</v>
       </c>
       <c r="F39" t="n">
-        <v>1019141.3953</v>
+        <v>1142036.3414</v>
       </c>
       <c r="G39" t="n">
-        <v>-11650234.42713734</v>
+        <v>-8609017.097200001</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
@@ -1824,28 +1806,28 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>0.4859</v>
+        <v>0.5173</v>
       </c>
       <c r="C40" t="n">
-        <v>0.4784</v>
+        <v>0.5173</v>
       </c>
       <c r="D40" t="n">
-        <v>0.4859</v>
+        <v>0.5173</v>
       </c>
       <c r="E40" t="n">
-        <v>0.4784</v>
+        <v>0.5173</v>
       </c>
       <c r="F40" t="n">
-        <v>61093.7803</v>
+        <v>5773.7735</v>
       </c>
       <c r="G40" t="n">
-        <v>-11711328.20743734</v>
+        <v>-8603243.323700001</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
@@ -1860,28 +1842,28 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>0.4883</v>
+        <v>0.517</v>
       </c>
       <c r="C41" t="n">
-        <v>0.4883</v>
+        <v>0.5169</v>
       </c>
       <c r="D41" t="n">
-        <v>0.4883</v>
+        <v>0.517</v>
       </c>
       <c r="E41" t="n">
-        <v>0.4883</v>
+        <v>0.5169</v>
       </c>
       <c r="F41" t="n">
-        <v>65630</v>
+        <v>291833.1677</v>
       </c>
       <c r="G41" t="n">
-        <v>-11645698.20743734</v>
+        <v>-8895076.491400002</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
@@ -1896,28 +1878,28 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>0.4982</v>
+        <v>0.5168</v>
       </c>
       <c r="C42" t="n">
-        <v>0.4982</v>
+        <v>0.5168</v>
       </c>
       <c r="D42" t="n">
-        <v>0.4982</v>
+        <v>0.5168</v>
       </c>
       <c r="E42" t="n">
-        <v>0.4982</v>
+        <v>0.5168</v>
       </c>
       <c r="F42" t="n">
-        <v>2400</v>
+        <v>175164.3626</v>
       </c>
       <c r="G42" t="n">
-        <v>-11643298.20743734</v>
+        <v>-9070240.854000002</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
@@ -1932,28 +1914,28 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>0.4982</v>
+        <v>0.51</v>
       </c>
       <c r="C43" t="n">
-        <v>0.4982</v>
+        <v>0.51</v>
       </c>
       <c r="D43" t="n">
-        <v>0.4982</v>
+        <v>0.51</v>
       </c>
       <c r="E43" t="n">
-        <v>0.4982</v>
+        <v>0.51</v>
       </c>
       <c r="F43" t="n">
-        <v>2660.2902</v>
+        <v>3413.5727</v>
       </c>
       <c r="G43" t="n">
-        <v>-11643298.20743734</v>
+        <v>-9073654.426700002</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
@@ -1968,22 +1950,22 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>0.4902</v>
+        <v>0.5169</v>
       </c>
       <c r="C44" t="n">
-        <v>0.4982</v>
+        <v>0.5169</v>
       </c>
       <c r="D44" t="n">
-        <v>0.4982</v>
+        <v>0.5169</v>
       </c>
       <c r="E44" t="n">
-        <v>0.4902</v>
+        <v>0.5169</v>
       </c>
       <c r="F44" t="n">
-        <v>8278</v>
+        <v>136864.5517</v>
       </c>
       <c r="G44" t="n">
-        <v>-11643298.20743734</v>
+        <v>-8936789.875000002</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -2004,28 +1986,28 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>0.497</v>
+        <v>0.51</v>
       </c>
       <c r="C45" t="n">
-        <v>0.4903</v>
+        <v>0.51</v>
       </c>
       <c r="D45" t="n">
-        <v>0.497</v>
+        <v>0.51</v>
       </c>
       <c r="E45" t="n">
-        <v>0.4903</v>
+        <v>0.51</v>
       </c>
       <c r="F45" t="n">
-        <v>5453.9414</v>
+        <v>68335.7313</v>
       </c>
       <c r="G45" t="n">
-        <v>-11648752.14883734</v>
+        <v>-9005125.606300002</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
@@ -2040,22 +2022,22 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>0.4903</v>
+        <v>0.5168</v>
       </c>
       <c r="C46" t="n">
-        <v>0.4903</v>
+        <v>0.5168</v>
       </c>
       <c r="D46" t="n">
-        <v>0.4903</v>
+        <v>0.5168</v>
       </c>
       <c r="E46" t="n">
-        <v>0.4903</v>
+        <v>0.5168</v>
       </c>
       <c r="F46" t="n">
-        <v>1818</v>
+        <v>980</v>
       </c>
       <c r="G46" t="n">
-        <v>-11648752.14883734</v>
+        <v>-9004145.606300002</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2076,28 +2058,28 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>0.4903</v>
+        <v>0.51</v>
       </c>
       <c r="C47" t="n">
-        <v>0.4906</v>
+        <v>0.51</v>
       </c>
       <c r="D47" t="n">
-        <v>0.4906</v>
+        <v>0.51</v>
       </c>
       <c r="E47" t="n">
-        <v>0.4903</v>
+        <v>0.51</v>
       </c>
       <c r="F47" t="n">
-        <v>150600.57</v>
+        <v>364732.8242</v>
       </c>
       <c r="G47" t="n">
-        <v>-11498151.57883734</v>
+        <v>-9368878.430500003</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
       </c>
       <c r="I47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
@@ -2112,22 +2094,22 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>0.4901</v>
+        <v>0.51</v>
       </c>
       <c r="C48" t="n">
-        <v>0.4809</v>
+        <v>0.51</v>
       </c>
       <c r="D48" t="n">
-        <v>0.4902</v>
+        <v>0.51</v>
       </c>
       <c r="E48" t="n">
-        <v>0.4809</v>
+        <v>0.51</v>
       </c>
       <c r="F48" t="n">
-        <v>88073.8391</v>
+        <v>78007.6237</v>
       </c>
       <c r="G48" t="n">
-        <v>-11586225.41793734</v>
+        <v>-9368878.430500003</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2148,22 +2130,22 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>0.4809</v>
+        <v>0.51</v>
       </c>
       <c r="C49" t="n">
-        <v>0.4929</v>
+        <v>0.51</v>
       </c>
       <c r="D49" t="n">
-        <v>0.493</v>
+        <v>0.51</v>
       </c>
       <c r="E49" t="n">
-        <v>0.4806</v>
+        <v>0.51</v>
       </c>
       <c r="F49" t="n">
-        <v>4656176.5536</v>
+        <v>582.4569</v>
       </c>
       <c r="G49" t="n">
-        <v>-6930048.864337342</v>
+        <v>-9368878.430500003</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2184,22 +2166,22 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>0.4876</v>
+        <v>0.5088</v>
       </c>
       <c r="C50" t="n">
-        <v>0.4886</v>
+        <v>0.5088</v>
       </c>
       <c r="D50" t="n">
-        <v>0.4887</v>
+        <v>0.5088</v>
       </c>
       <c r="E50" t="n">
-        <v>0.4876</v>
+        <v>0.5088</v>
       </c>
       <c r="F50" t="n">
-        <v>1310194.8078</v>
+        <v>324748.6526</v>
       </c>
       <c r="G50" t="n">
-        <v>-8240243.672137342</v>
+        <v>-9693627.083100002</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2220,22 +2202,22 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>0.4884</v>
+        <v>0.5088</v>
       </c>
       <c r="C51" t="n">
-        <v>0.4884</v>
+        <v>0.5099</v>
       </c>
       <c r="D51" t="n">
-        <v>0.4884</v>
+        <v>0.5099</v>
       </c>
       <c r="E51" t="n">
-        <v>0.4884</v>
+        <v>0.5087</v>
       </c>
       <c r="F51" t="n">
-        <v>6321</v>
+        <v>290846.5178</v>
       </c>
       <c r="G51" t="n">
-        <v>-8246564.672137342</v>
+        <v>-9402780.565300003</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2256,22 +2238,22 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>0.4876</v>
+        <v>0.51</v>
       </c>
       <c r="C52" t="n">
-        <v>0.4876</v>
+        <v>0.51</v>
       </c>
       <c r="D52" t="n">
-        <v>0.4876</v>
+        <v>0.51</v>
       </c>
       <c r="E52" t="n">
-        <v>0.4876</v>
+        <v>0.51</v>
       </c>
       <c r="F52" t="n">
-        <v>43017</v>
+        <v>46265.6791</v>
       </c>
       <c r="G52" t="n">
-        <v>-8289581.672137342</v>
+        <v>-9356514.886200003</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2292,22 +2274,22 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>0.4876</v>
+        <v>0.51</v>
       </c>
       <c r="C53" t="n">
-        <v>0.4876</v>
+        <v>0.5171</v>
       </c>
       <c r="D53" t="n">
-        <v>0.4876</v>
+        <v>0.5171</v>
       </c>
       <c r="E53" t="n">
-        <v>0.4876</v>
+        <v>0.51</v>
       </c>
       <c r="F53" t="n">
-        <v>24315</v>
+        <v>60145.4</v>
       </c>
       <c r="G53" t="n">
-        <v>-8289581.672137342</v>
+        <v>-9296369.486200003</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2328,22 +2310,22 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>0.4883</v>
+        <v>0.517</v>
       </c>
       <c r="C54" t="n">
-        <v>0.4945</v>
+        <v>0.5172</v>
       </c>
       <c r="D54" t="n">
-        <v>0.4945</v>
+        <v>0.5172</v>
       </c>
       <c r="E54" t="n">
-        <v>0.4883</v>
+        <v>0.517</v>
       </c>
       <c r="F54" t="n">
-        <v>230571</v>
+        <v>822118.9789</v>
       </c>
       <c r="G54" t="n">
-        <v>-8059010.672137342</v>
+        <v>-8474250.507300003</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2364,28 +2346,28 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>0.4907</v>
+        <v>0.5272</v>
       </c>
       <c r="C55" t="n">
-        <v>0.4907</v>
+        <v>0.5272</v>
       </c>
       <c r="D55" t="n">
-        <v>0.4907</v>
+        <v>0.5272</v>
       </c>
       <c r="E55" t="n">
-        <v>0.4907</v>
+        <v>0.5272</v>
       </c>
       <c r="F55" t="n">
-        <v>92590</v>
+        <v>1000</v>
       </c>
       <c r="G55" t="n">
-        <v>-8151600.672137342</v>
+        <v>-8473250.507300003</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
       </c>
       <c r="I55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
@@ -2400,28 +2382,28 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>0.4876</v>
+        <v>0.5272</v>
       </c>
       <c r="C56" t="n">
-        <v>0.4875</v>
+        <v>0.5172</v>
       </c>
       <c r="D56" t="n">
-        <v>0.4876</v>
+        <v>0.5272</v>
       </c>
       <c r="E56" t="n">
-        <v>0.4839</v>
+        <v>0.5172</v>
       </c>
       <c r="F56" t="n">
-        <v>456923.4114</v>
+        <v>2059212.5611</v>
       </c>
       <c r="G56" t="n">
-        <v>-8608524.083537342</v>
+        <v>-10532463.0684</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
       </c>
       <c r="I56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
@@ -2436,28 +2418,28 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>0.4875</v>
+        <v>0.5172</v>
       </c>
       <c r="C57" t="n">
-        <v>0.4875</v>
+        <v>0.5078</v>
       </c>
       <c r="D57" t="n">
-        <v>0.4875</v>
+        <v>0.5172</v>
       </c>
       <c r="E57" t="n">
-        <v>0.4875</v>
+        <v>0.5078</v>
       </c>
       <c r="F57" t="n">
-        <v>660190.7595</v>
+        <v>920064.66</v>
       </c>
       <c r="G57" t="n">
-        <v>-8608524.083537342</v>
+        <v>-11452527.7284</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
       </c>
       <c r="I57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
@@ -2472,22 +2454,22 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>0.4874</v>
+        <v>0.5168</v>
       </c>
       <c r="C58" t="n">
-        <v>0.4874</v>
+        <v>0.5168</v>
       </c>
       <c r="D58" t="n">
-        <v>0.4874</v>
+        <v>0.5168</v>
       </c>
       <c r="E58" t="n">
-        <v>0.4833</v>
+        <v>0.5168</v>
       </c>
       <c r="F58" t="n">
-        <v>12098</v>
+        <v>63215.6808</v>
       </c>
       <c r="G58" t="n">
-        <v>-8620622.083537342</v>
+        <v>-11389312.0476</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2508,22 +2490,22 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>0.4872</v>
+        <v>0.5079</v>
       </c>
       <c r="C59" t="n">
-        <v>0.4875</v>
+        <v>0.5079</v>
       </c>
       <c r="D59" t="n">
-        <v>0.4875</v>
+        <v>0.5079</v>
       </c>
       <c r="E59" t="n">
-        <v>0.4857</v>
+        <v>0.5079</v>
       </c>
       <c r="F59" t="n">
-        <v>160262.7257799671</v>
+        <v>93904.2313</v>
       </c>
       <c r="G59" t="n">
-        <v>-8460359.357757375</v>
+        <v>-11483216.2789</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2544,22 +2526,22 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>0.4857</v>
+        <v>0.5077</v>
       </c>
       <c r="C60" t="n">
-        <v>0.4875</v>
+        <v>0.5001</v>
       </c>
       <c r="D60" t="n">
-        <v>0.4875</v>
+        <v>0.5077</v>
       </c>
       <c r="E60" t="n">
-        <v>0.4857</v>
+        <v>0.5001</v>
       </c>
       <c r="F60" t="n">
-        <v>134013</v>
+        <v>1732591.3175</v>
       </c>
       <c r="G60" t="n">
-        <v>-8460359.357757375</v>
+        <v>-13215807.5964</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2580,22 +2562,22 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>0.4842</v>
+        <v>0.5062</v>
       </c>
       <c r="C61" t="n">
-        <v>0.4842</v>
+        <v>0.5054</v>
       </c>
       <c r="D61" t="n">
-        <v>0.4842</v>
+        <v>0.5062</v>
       </c>
       <c r="E61" t="n">
-        <v>0.4842</v>
+        <v>0.5054</v>
       </c>
       <c r="F61" t="n">
-        <v>10262.7257</v>
+        <v>224517.9086</v>
       </c>
       <c r="G61" t="n">
-        <v>-8470622.083457375</v>
+        <v>-12991289.6878</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2616,22 +2598,22 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>0.4875</v>
+        <v>0.525</v>
       </c>
       <c r="C62" t="n">
-        <v>0.4875</v>
+        <v>0.525</v>
       </c>
       <c r="D62" t="n">
-        <v>0.4875</v>
+        <v>0.525</v>
       </c>
       <c r="E62" t="n">
-        <v>0.4875</v>
+        <v>0.525</v>
       </c>
       <c r="F62" t="n">
-        <v>8288</v>
+        <v>980</v>
       </c>
       <c r="G62" t="n">
-        <v>-8462334.083457375</v>
+        <v>-12990309.6878</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2652,22 +2634,22 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>0.4874</v>
+        <v>0.51</v>
       </c>
       <c r="C63" t="n">
-        <v>0.4874</v>
+        <v>0.505</v>
       </c>
       <c r="D63" t="n">
-        <v>0.4874</v>
+        <v>0.51</v>
       </c>
       <c r="E63" t="n">
-        <v>0.4874</v>
+        <v>0.505</v>
       </c>
       <c r="F63" t="n">
-        <v>6035</v>
+        <v>128294.3735</v>
       </c>
       <c r="G63" t="n">
-        <v>-8468369.083457375</v>
+        <v>-13118604.0613</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2688,22 +2670,22 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>0.4874</v>
+        <v>0.5041</v>
       </c>
       <c r="C64" t="n">
-        <v>0.4874</v>
+        <v>0.486</v>
       </c>
       <c r="D64" t="n">
-        <v>0.4874</v>
+        <v>0.5041</v>
       </c>
       <c r="E64" t="n">
-        <v>0.4874</v>
+        <v>0.4859</v>
       </c>
       <c r="F64" t="n">
-        <v>30000</v>
+        <v>535854.42</v>
       </c>
       <c r="G64" t="n">
-        <v>-8468369.083457375</v>
+        <v>-13654458.4813</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2724,22 +2706,22 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>0.4875</v>
+        <v>0.4997</v>
       </c>
       <c r="C65" t="n">
-        <v>0.4874</v>
+        <v>0.5</v>
       </c>
       <c r="D65" t="n">
-        <v>0.4875</v>
+        <v>0.5</v>
       </c>
       <c r="E65" t="n">
-        <v>0.4874</v>
+        <v>0.4997</v>
       </c>
       <c r="F65" t="n">
-        <v>168376.3837</v>
+        <v>536639.1271</v>
       </c>
       <c r="G65" t="n">
-        <v>-8468369.083457375</v>
+        <v>-13117819.3542</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2760,22 +2742,22 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>0.4873</v>
+        <v>0.4961</v>
       </c>
       <c r="C66" t="n">
-        <v>0.4873</v>
+        <v>0.4961</v>
       </c>
       <c r="D66" t="n">
-        <v>0.4873</v>
+        <v>0.4962</v>
       </c>
       <c r="E66" t="n">
-        <v>0.4873</v>
+        <v>0.4961</v>
       </c>
       <c r="F66" t="n">
-        <v>4961</v>
+        <v>803974.58</v>
       </c>
       <c r="G66" t="n">
-        <v>-8473330.083457375</v>
+        <v>-13921793.9342</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2796,22 +2778,22 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>0.4873</v>
+        <v>0.4961</v>
       </c>
       <c r="C67" t="n">
-        <v>0.4873</v>
+        <v>0.4961</v>
       </c>
       <c r="D67" t="n">
-        <v>0.4873</v>
+        <v>0.4961</v>
       </c>
       <c r="E67" t="n">
-        <v>0.4873</v>
+        <v>0.4961</v>
       </c>
       <c r="F67" t="n">
-        <v>4468</v>
+        <v>47540.74</v>
       </c>
       <c r="G67" t="n">
-        <v>-8473330.083457375</v>
+        <v>-13921793.9342</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2832,22 +2814,22 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>0.4873</v>
+        <v>0.4961</v>
       </c>
       <c r="C68" t="n">
-        <v>0.4873</v>
+        <v>0.4961</v>
       </c>
       <c r="D68" t="n">
-        <v>0.4873</v>
+        <v>0.4961</v>
       </c>
       <c r="E68" t="n">
-        <v>0.4873</v>
+        <v>0.4961</v>
       </c>
       <c r="F68" t="n">
-        <v>2281</v>
+        <v>71.3139</v>
       </c>
       <c r="G68" t="n">
-        <v>-8473330.083457375</v>
+        <v>-13921793.9342</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2868,22 +2850,22 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>0.4836</v>
+        <v>0.4859</v>
       </c>
       <c r="C69" t="n">
-        <v>0.4836</v>
+        <v>0.4859</v>
       </c>
       <c r="D69" t="n">
-        <v>0.4836</v>
+        <v>0.4859</v>
       </c>
       <c r="E69" t="n">
-        <v>0.4836</v>
+        <v>0.4859</v>
       </c>
       <c r="F69" t="n">
-        <v>55182</v>
+        <v>217492.4796</v>
       </c>
       <c r="G69" t="n">
-        <v>-8528512.083457375</v>
+        <v>-14139286.4138</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2904,22 +2886,22 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>0.4836</v>
+        <v>0.4859</v>
       </c>
       <c r="C70" t="n">
-        <v>0.4837</v>
+        <v>0.4859</v>
       </c>
       <c r="D70" t="n">
-        <v>0.4837</v>
+        <v>0.4859</v>
       </c>
       <c r="E70" t="n">
-        <v>0.4833</v>
+        <v>0.4859</v>
       </c>
       <c r="F70" t="n">
-        <v>162312</v>
+        <v>142525.8128</v>
       </c>
       <c r="G70" t="n">
-        <v>-8366200.083457375</v>
+        <v>-14139286.4138</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2940,22 +2922,22 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>0.4837</v>
+        <v>0.4858</v>
       </c>
       <c r="C71" t="n">
-        <v>0.4831</v>
+        <v>0.4839</v>
       </c>
       <c r="D71" t="n">
-        <v>0.4837</v>
+        <v>0.4858</v>
       </c>
       <c r="E71" t="n">
-        <v>0.4831</v>
+        <v>0.4839</v>
       </c>
       <c r="F71" t="n">
-        <v>366914.4842</v>
+        <v>99925.11</v>
       </c>
       <c r="G71" t="n">
-        <v>-8733114.567657376</v>
+        <v>-14239211.5238</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2976,22 +2958,22 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>0.4803</v>
+        <v>0.4839</v>
       </c>
       <c r="C72" t="n">
-        <v>0.4803</v>
+        <v>0.4839</v>
       </c>
       <c r="D72" t="n">
-        <v>0.4803</v>
+        <v>0.4839</v>
       </c>
       <c r="E72" t="n">
-        <v>0.4802</v>
+        <v>0.4839</v>
       </c>
       <c r="F72" t="n">
-        <v>1221593.2844</v>
+        <v>494668.99</v>
       </c>
       <c r="G72" t="n">
-        <v>-9954707.852057375</v>
+        <v>-14239211.5238</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -3012,22 +2994,22 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>0.4803</v>
+        <v>0.4839</v>
       </c>
       <c r="C73" t="n">
-        <v>0.4803</v>
+        <v>0.4716</v>
       </c>
       <c r="D73" t="n">
-        <v>0.4803</v>
+        <v>0.4839</v>
       </c>
       <c r="E73" t="n">
-        <v>0.4803</v>
+        <v>0.4716</v>
       </c>
       <c r="F73" t="n">
-        <v>330000</v>
+        <v>25000</v>
       </c>
       <c r="G73" t="n">
-        <v>-9954707.852057375</v>
+        <v>-14264211.5238</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -3048,22 +3030,22 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>0.4802</v>
+        <v>0.4731</v>
       </c>
       <c r="C74" t="n">
-        <v>0.4802</v>
+        <v>0.473</v>
       </c>
       <c r="D74" t="n">
-        <v>0.4802</v>
+        <v>0.4731</v>
       </c>
       <c r="E74" t="n">
-        <v>0.4802</v>
+        <v>0.473</v>
       </c>
       <c r="F74" t="n">
-        <v>575206</v>
+        <v>751534.9832</v>
       </c>
       <c r="G74" t="n">
-        <v>-10529913.85205738</v>
+        <v>-13512676.5406</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3084,22 +3066,22 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>0.4802</v>
+        <v>0.4859</v>
       </c>
       <c r="C75" t="n">
-        <v>0.4802</v>
+        <v>0.4859</v>
       </c>
       <c r="D75" t="n">
-        <v>0.4802</v>
+        <v>0.4859</v>
       </c>
       <c r="E75" t="n">
-        <v>0.4802</v>
+        <v>0.4859</v>
       </c>
       <c r="F75" t="n">
-        <v>348813.9454</v>
+        <v>224520</v>
       </c>
       <c r="G75" t="n">
-        <v>-10529913.85205738</v>
+        <v>-13288156.5406</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3120,22 +3102,22 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>0.4801</v>
+        <v>0.4957</v>
       </c>
       <c r="C76" t="n">
-        <v>0.4802</v>
+        <v>0.4957</v>
       </c>
       <c r="D76" t="n">
-        <v>0.4802</v>
+        <v>0.4957</v>
       </c>
       <c r="E76" t="n">
-        <v>0.4801</v>
+        <v>0.4957</v>
       </c>
       <c r="F76" t="n">
-        <v>467217.3011</v>
+        <v>4524.914262658866</v>
       </c>
       <c r="G76" t="n">
-        <v>-10529913.85205738</v>
+        <v>-13283631.62633734</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3156,22 +3138,22 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>0.4802</v>
+        <v>0.4955</v>
       </c>
       <c r="C77" t="n">
-        <v>0.4802</v>
+        <v>0.4955</v>
       </c>
       <c r="D77" t="n">
-        <v>0.4802</v>
+        <v>0.4955</v>
       </c>
       <c r="E77" t="n">
-        <v>0.4802</v>
+        <v>0.4955</v>
       </c>
       <c r="F77" t="n">
-        <v>565634.8251</v>
+        <v>60567.3505</v>
       </c>
       <c r="G77" t="n">
-        <v>-10529913.85205738</v>
+        <v>-13344198.97683734</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3192,22 +3174,22 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>0.4802</v>
+        <v>0.4951</v>
       </c>
       <c r="C78" t="n">
-        <v>0.4802</v>
+        <v>0.4951</v>
       </c>
       <c r="D78" t="n">
-        <v>0.4802</v>
+        <v>0.4951</v>
       </c>
       <c r="E78" t="n">
-        <v>0.4802</v>
+        <v>0.4951</v>
       </c>
       <c r="F78" t="n">
-        <v>34471.1143</v>
+        <v>60618.2987</v>
       </c>
       <c r="G78" t="n">
-        <v>-10529913.85205738</v>
+        <v>-13404817.27553734</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3228,22 +3210,22 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>0.4773</v>
+        <v>0.4901</v>
       </c>
       <c r="C79" t="n">
-        <v>0.4802</v>
+        <v>0.4901</v>
       </c>
       <c r="D79" t="n">
-        <v>0.4802</v>
+        <v>0.4901</v>
       </c>
       <c r="E79" t="n">
-        <v>0.4773</v>
+        <v>0.4901</v>
       </c>
       <c r="F79" t="n">
-        <v>616302.8312</v>
+        <v>60610</v>
       </c>
       <c r="G79" t="n">
-        <v>-10529913.85205738</v>
+        <v>-13465427.27553734</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3264,22 +3246,22 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>0.4802</v>
+        <v>0.4898</v>
       </c>
       <c r="C80" t="n">
-        <v>0.4802</v>
+        <v>0.4952</v>
       </c>
       <c r="D80" t="n">
-        <v>0.4802</v>
+        <v>0.4952</v>
       </c>
       <c r="E80" t="n">
-        <v>0.4802</v>
+        <v>0.4898</v>
       </c>
       <c r="F80" t="n">
-        <v>146861.7333</v>
+        <v>115792</v>
       </c>
       <c r="G80" t="n">
-        <v>-10529913.85205738</v>
+        <v>-13349635.27553734</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3300,22 +3282,22 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>0.4884</v>
+        <v>0.4961</v>
       </c>
       <c r="C81" t="n">
-        <v>0.4884</v>
+        <v>0.4999</v>
       </c>
       <c r="D81" t="n">
-        <v>0.4884</v>
+        <v>0.4999</v>
       </c>
       <c r="E81" t="n">
-        <v>0.4884</v>
+        <v>0.4961</v>
       </c>
       <c r="F81" t="n">
-        <v>78154.8015</v>
+        <v>1377036.0535</v>
       </c>
       <c r="G81" t="n">
-        <v>-10451759.05055737</v>
+        <v>-11972599.22203734</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3336,22 +3318,22 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>0.4877</v>
+        <v>0.4999</v>
       </c>
       <c r="C82" t="n">
-        <v>0.4877</v>
+        <v>0.4999</v>
       </c>
       <c r="D82" t="n">
-        <v>0.4968</v>
+        <v>0.4999</v>
       </c>
       <c r="E82" t="n">
-        <v>0.4877</v>
+        <v>0.4999</v>
       </c>
       <c r="F82" t="n">
-        <v>4642.4413</v>
+        <v>35710</v>
       </c>
       <c r="G82" t="n">
-        <v>-10456401.49185737</v>
+        <v>-11972599.22203734</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3372,22 +3354,22 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>0.4882</v>
+        <v>0.4962</v>
       </c>
       <c r="C83" t="n">
-        <v>0.4802</v>
+        <v>0.4961</v>
       </c>
       <c r="D83" t="n">
-        <v>0.4882</v>
+        <v>0.4962</v>
       </c>
       <c r="E83" t="n">
-        <v>0.4802</v>
+        <v>0.4961</v>
       </c>
       <c r="F83" t="n">
-        <v>1069127.5347</v>
+        <v>3938084.1993</v>
       </c>
       <c r="G83" t="n">
-        <v>-11525529.02655737</v>
+        <v>-15910683.42133734</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3408,22 +3390,22 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>0.4881</v>
+        <v>0.4961</v>
       </c>
       <c r="C84" t="n">
-        <v>0.4882</v>
+        <v>0.4999</v>
       </c>
       <c r="D84" t="n">
-        <v>0.4882</v>
+        <v>0.4999</v>
       </c>
       <c r="E84" t="n">
-        <v>0.4881</v>
+        <v>0.4961</v>
       </c>
       <c r="F84" t="n">
-        <v>187069.8219</v>
+        <v>1480606.6473</v>
       </c>
       <c r="G84" t="n">
-        <v>-11338459.20465737</v>
+        <v>-14430076.77403734</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3444,22 +3426,22 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>0.4881</v>
+        <v>0.4863</v>
       </c>
       <c r="C85" t="n">
-        <v>0.4871</v>
+        <v>0.4863</v>
       </c>
       <c r="D85" t="n">
-        <v>0.4884</v>
+        <v>0.4863</v>
       </c>
       <c r="E85" t="n">
-        <v>0.4871</v>
+        <v>0.4863</v>
       </c>
       <c r="F85" t="n">
-        <v>422489.5371</v>
+        <v>1213563.3225</v>
       </c>
       <c r="G85" t="n">
-        <v>-11760948.74175737</v>
+        <v>-15643640.09653734</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3480,22 +3462,22 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>0.4884</v>
+        <v>0.4863</v>
       </c>
       <c r="C86" t="n">
-        <v>0.4884</v>
+        <v>0.4997</v>
       </c>
       <c r="D86" t="n">
-        <v>0.4884</v>
+        <v>0.4998</v>
       </c>
       <c r="E86" t="n">
-        <v>0.4884</v>
+        <v>0.4863</v>
       </c>
       <c r="F86" t="n">
-        <v>1818</v>
+        <v>1980591.6618</v>
       </c>
       <c r="G86" t="n">
-        <v>-11759130.74175737</v>
+        <v>-13663048.43473734</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3516,22 +3498,22 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>0.4871</v>
+        <v>0.4964</v>
       </c>
       <c r="C87" t="n">
-        <v>0.4871</v>
+        <v>0.4964</v>
       </c>
       <c r="D87" t="n">
-        <v>0.4871</v>
+        <v>0.4964</v>
       </c>
       <c r="E87" t="n">
-        <v>0.4871</v>
+        <v>0.4964</v>
       </c>
       <c r="F87" t="n">
-        <v>115671</v>
+        <v>73999.5683</v>
       </c>
       <c r="G87" t="n">
-        <v>-11874801.74175737</v>
+        <v>-13737048.00303734</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3552,22 +3534,22 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>0.4871</v>
+        <v>0.4963</v>
       </c>
       <c r="C88" t="n">
-        <v>0.4884</v>
+        <v>0.4963</v>
       </c>
       <c r="D88" t="n">
-        <v>0.4884</v>
+        <v>0.4963</v>
       </c>
       <c r="E88" t="n">
-        <v>0.4871</v>
+        <v>0.4963</v>
       </c>
       <c r="F88" t="n">
-        <v>50000</v>
+        <v>4524.39</v>
       </c>
       <c r="G88" t="n">
-        <v>-11824801.74175737</v>
+        <v>-13741572.39303734</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3588,38 +3570,32 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>0.4884</v>
+        <v>0.4996</v>
       </c>
       <c r="C89" t="n">
-        <v>0.488</v>
+        <v>0.4996</v>
       </c>
       <c r="D89" t="n">
-        <v>0.4884</v>
+        <v>0.4996</v>
       </c>
       <c r="E89" t="n">
-        <v>0.488</v>
+        <v>0.4996</v>
       </c>
       <c r="F89" t="n">
-        <v>12161</v>
+        <v>2857.7874</v>
       </c>
       <c r="G89" t="n">
-        <v>-11836962.74175737</v>
+        <v>-13738714.60563734</v>
       </c>
       <c r="H89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="n">
-        <v>0.4884</v>
-      </c>
+      <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="L89" t="inlineStr"/>
       <c r="M89" t="n">
         <v>1</v>
       </c>
@@ -3630,22 +3606,22 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>0.488</v>
+        <v>0.4963</v>
       </c>
       <c r="C90" t="n">
-        <v>0.488</v>
+        <v>0.4963</v>
       </c>
       <c r="D90" t="n">
-        <v>0.488</v>
+        <v>0.4963</v>
       </c>
       <c r="E90" t="n">
-        <v>0.488</v>
+        <v>0.4963</v>
       </c>
       <c r="F90" t="n">
-        <v>80402</v>
+        <v>20285.61</v>
       </c>
       <c r="G90" t="n">
-        <v>-11836962.74175737</v>
+        <v>-13759000.21563734</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3655,11 +3631,7 @@
       </c>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L90" t="inlineStr"/>
       <c r="M90" t="n">
         <v>1</v>
       </c>
@@ -3670,38 +3642,32 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>0.488</v>
+        <v>0.4863</v>
       </c>
       <c r="C91" t="n">
-        <v>0.488</v>
+        <v>0.4992</v>
       </c>
       <c r="D91" t="n">
-        <v>0.488</v>
+        <v>0.4993</v>
       </c>
       <c r="E91" t="n">
-        <v>0.488</v>
+        <v>0.4863</v>
       </c>
       <c r="F91" t="n">
-        <v>919635.1188000001</v>
+        <v>387026.9429</v>
       </c>
       <c r="G91" t="n">
-        <v>-11836962.74175737</v>
+        <v>-13371973.27273734</v>
       </c>
       <c r="H91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="n">
-        <v>0.488</v>
-      </c>
+      <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L91" t="inlineStr"/>
       <c r="M91" t="n">
         <v>1</v>
       </c>
@@ -3712,38 +3678,32 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>0.488</v>
+        <v>0.4988</v>
       </c>
       <c r="C92" t="n">
-        <v>0.488</v>
+        <v>0.4988</v>
       </c>
       <c r="D92" t="n">
-        <v>0.488</v>
+        <v>0.4988</v>
       </c>
       <c r="E92" t="n">
-        <v>0.488</v>
+        <v>0.4988</v>
       </c>
       <c r="F92" t="n">
-        <v>98142.5386</v>
+        <v>4987.0712</v>
       </c>
       <c r="G92" t="n">
-        <v>-11836962.74175737</v>
+        <v>-13376960.34393734</v>
       </c>
       <c r="H92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="n">
-        <v>0.488</v>
-      </c>
+      <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L92" t="inlineStr"/>
       <c r="M92" t="n">
         <v>1</v>
       </c>
@@ -3754,38 +3714,32 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>0.488</v>
+        <v>0.4868</v>
       </c>
       <c r="C93" t="n">
-        <v>0.4884</v>
+        <v>0.4988</v>
       </c>
       <c r="D93" t="n">
-        <v>0.4884</v>
+        <v>0.4988</v>
       </c>
       <c r="E93" t="n">
-        <v>0.488</v>
+        <v>0.4867</v>
       </c>
       <c r="F93" t="n">
-        <v>967489.548</v>
+        <v>565944.7037</v>
       </c>
       <c r="G93" t="n">
-        <v>-10869473.19375737</v>
+        <v>-13376960.34393734</v>
       </c>
       <c r="H93" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="n">
-        <v>0.488</v>
-      </c>
+      <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L93" t="inlineStr"/>
       <c r="M93" t="n">
         <v>1</v>
       </c>
@@ -3796,38 +3750,32 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>0.4884</v>
+        <v>0.4961</v>
       </c>
       <c r="C94" t="n">
-        <v>0.4884</v>
+        <v>0.4961</v>
       </c>
       <c r="D94" t="n">
-        <v>0.4884</v>
+        <v>0.4961</v>
       </c>
       <c r="E94" t="n">
-        <v>0.4884</v>
+        <v>0.4961</v>
       </c>
       <c r="F94" t="n">
-        <v>52430.8116</v>
+        <v>212470</v>
       </c>
       <c r="G94" t="n">
-        <v>-10869473.19375737</v>
+        <v>-13589430.34393734</v>
       </c>
       <c r="H94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="n">
-        <v>0.4884</v>
-      </c>
+      <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L94" t="inlineStr"/>
       <c r="M94" t="n">
         <v>1</v>
       </c>
@@ -3838,38 +3786,32 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>0.488</v>
+        <v>0.4987</v>
       </c>
       <c r="C95" t="n">
-        <v>0.488</v>
+        <v>0.4987</v>
       </c>
       <c r="D95" t="n">
-        <v>0.488</v>
+        <v>0.4987</v>
       </c>
       <c r="E95" t="n">
-        <v>0.488</v>
+        <v>0.4987</v>
       </c>
       <c r="F95" t="n">
-        <v>31060</v>
+        <v>1201</v>
       </c>
       <c r="G95" t="n">
-        <v>-10900533.19375737</v>
+        <v>-13588229.34393734</v>
       </c>
       <c r="H95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="n">
-        <v>0.4884</v>
-      </c>
+      <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L95" t="inlineStr"/>
       <c r="M95" t="n">
         <v>1</v>
       </c>
@@ -3880,38 +3822,32 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>0.488</v>
+        <v>0.4863</v>
       </c>
       <c r="C96" t="n">
-        <v>0.488</v>
+        <v>0.4864</v>
       </c>
       <c r="D96" t="n">
-        <v>0.488</v>
+        <v>0.4987</v>
       </c>
       <c r="E96" t="n">
-        <v>0.488</v>
+        <v>0.4863</v>
       </c>
       <c r="F96" t="n">
-        <v>52587.285</v>
+        <v>8284</v>
       </c>
       <c r="G96" t="n">
-        <v>-10900533.19375737</v>
+        <v>-13596513.34393734</v>
       </c>
       <c r="H96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="n">
-        <v>0.488</v>
-      </c>
+      <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L96" t="inlineStr"/>
       <c r="M96" t="n">
         <v>1</v>
       </c>
@@ -3922,38 +3858,32 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>0.488</v>
+        <v>0.4867</v>
       </c>
       <c r="C97" t="n">
-        <v>0.488</v>
+        <v>0.4987</v>
       </c>
       <c r="D97" t="n">
-        <v>0.488</v>
+        <v>0.4987</v>
       </c>
       <c r="E97" t="n">
-        <v>0.488</v>
+        <v>0.4867</v>
       </c>
       <c r="F97" t="n">
-        <v>1300</v>
+        <v>1087507.1756</v>
       </c>
       <c r="G97" t="n">
-        <v>-10900533.19375737</v>
+        <v>-12509006.16833734</v>
       </c>
       <c r="H97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="n">
-        <v>0.488</v>
-      </c>
+      <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L97" t="inlineStr"/>
       <c r="M97" t="n">
         <v>1</v>
       </c>
@@ -3964,22 +3894,22 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>0.488</v>
+        <v>0.4871</v>
       </c>
       <c r="C98" t="n">
-        <v>0.488</v>
+        <v>0.4871</v>
       </c>
       <c r="D98" t="n">
-        <v>0.488</v>
+        <v>0.4871</v>
       </c>
       <c r="E98" t="n">
-        <v>0.488</v>
+        <v>0.4871</v>
       </c>
       <c r="F98" t="n">
-        <v>25000</v>
+        <v>3636</v>
       </c>
       <c r="G98" t="n">
-        <v>-10900533.19375737</v>
+        <v>-12512642.16833734</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -3989,11 +3919,7 @@
       </c>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L98" t="inlineStr"/>
       <c r="M98" t="n">
         <v>1</v>
       </c>
@@ -4004,22 +3930,22 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>0.488</v>
+        <v>0.4871</v>
       </c>
       <c r="C99" t="n">
-        <v>0.488</v>
+        <v>0.4871</v>
       </c>
       <c r="D99" t="n">
-        <v>0.488</v>
+        <v>0.4871</v>
       </c>
       <c r="E99" t="n">
-        <v>0.488</v>
+        <v>0.4871</v>
       </c>
       <c r="F99" t="n">
-        <v>513396.24</v>
+        <v>3636</v>
       </c>
       <c r="G99" t="n">
-        <v>-10900533.19375737</v>
+        <v>-12512642.16833734</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -4029,11 +3955,7 @@
       </c>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L99" t="inlineStr"/>
       <c r="M99" t="n">
         <v>1</v>
       </c>
@@ -4044,38 +3966,32 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>0.488</v>
+        <v>0.487</v>
       </c>
       <c r="C100" t="n">
-        <v>0.4964</v>
+        <v>0.4985</v>
       </c>
       <c r="D100" t="n">
-        <v>0.4964</v>
+        <v>0.4987</v>
       </c>
       <c r="E100" t="n">
-        <v>0.488</v>
+        <v>0.487</v>
       </c>
       <c r="F100" t="n">
-        <v>466705.9</v>
+        <v>2009402.8691</v>
       </c>
       <c r="G100" t="n">
-        <v>-10433827.29375737</v>
+        <v>-10503239.29923734</v>
       </c>
       <c r="H100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="n">
-        <v>0.488</v>
-      </c>
+      <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L100" t="inlineStr"/>
       <c r="M100" t="n">
         <v>1</v>
       </c>
@@ -4086,38 +4002,32 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>0.488</v>
+        <v>0.4886</v>
       </c>
       <c r="C101" t="n">
-        <v>0.488</v>
+        <v>0.4986</v>
       </c>
       <c r="D101" t="n">
-        <v>0.488</v>
+        <v>0.4986</v>
       </c>
       <c r="E101" t="n">
-        <v>0.488</v>
+        <v>0.4885</v>
       </c>
       <c r="F101" t="n">
-        <v>96730</v>
+        <v>169350.7744</v>
       </c>
       <c r="G101" t="n">
-        <v>-10530557.29375737</v>
+        <v>-10333888.52483734</v>
       </c>
       <c r="H101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="n">
-        <v>0.4964</v>
-      </c>
+      <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L101" t="inlineStr"/>
       <c r="M101" t="n">
         <v>1</v>
       </c>
@@ -4128,22 +4038,22 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>0.488</v>
+        <v>0.4886</v>
       </c>
       <c r="C102" t="n">
-        <v>0.488</v>
+        <v>0.4886</v>
       </c>
       <c r="D102" t="n">
-        <v>0.488</v>
+        <v>0.4886</v>
       </c>
       <c r="E102" t="n">
-        <v>0.488</v>
+        <v>0.4886</v>
       </c>
       <c r="F102" t="n">
-        <v>846923.4313000001</v>
+        <v>3636</v>
       </c>
       <c r="G102" t="n">
-        <v>-10530557.29375737</v>
+        <v>-10337524.52483734</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -4153,11 +4063,7 @@
       </c>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L102" t="inlineStr"/>
       <c r="M102" t="n">
         <v>1</v>
       </c>
@@ -4168,38 +4074,32 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>0.497</v>
+        <v>0.4984</v>
       </c>
       <c r="C103" t="n">
-        <v>0.4987</v>
+        <v>0.4984</v>
       </c>
       <c r="D103" t="n">
-        <v>0.4987</v>
+        <v>0.4984</v>
       </c>
       <c r="E103" t="n">
-        <v>0.497</v>
+        <v>0.4984</v>
       </c>
       <c r="F103" t="n">
-        <v>15403</v>
+        <v>16399.5508</v>
       </c>
       <c r="G103" t="n">
-        <v>-10515154.29375737</v>
+        <v>-10321124.97403734</v>
       </c>
       <c r="H103" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="n">
-        <v>0.488</v>
-      </c>
+      <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L103" t="inlineStr"/>
       <c r="M103" t="n">
         <v>1</v>
       </c>
@@ -4210,22 +4110,22 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>0.4881</v>
+        <v>0.4984</v>
       </c>
       <c r="C104" t="n">
-        <v>0.4881</v>
+        <v>0.4909</v>
       </c>
       <c r="D104" t="n">
-        <v>0.4881</v>
+        <v>0.4984</v>
       </c>
       <c r="E104" t="n">
-        <v>0.4881</v>
+        <v>0.4909</v>
       </c>
       <c r="F104" t="n">
-        <v>1818</v>
+        <v>174860.6951</v>
       </c>
       <c r="G104" t="n">
-        <v>-10516972.29375737</v>
+        <v>-10495985.66913734</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4235,11 +4135,7 @@
       </c>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L104" t="inlineStr"/>
       <c r="M104" t="n">
         <v>1</v>
       </c>
@@ -4250,22 +4146,22 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>0.4987</v>
+        <v>0.4909</v>
       </c>
       <c r="C105" t="n">
-        <v>0.4987</v>
+        <v>0.4886</v>
       </c>
       <c r="D105" t="n">
-        <v>0.4987</v>
+        <v>0.4909</v>
       </c>
       <c r="E105" t="n">
-        <v>0.4883</v>
+        <v>0.4886</v>
       </c>
       <c r="F105" t="n">
-        <v>1814701.4486</v>
+        <v>5364.5936</v>
       </c>
       <c r="G105" t="n">
-        <v>-8702270.845157374</v>
+        <v>-10501350.26273734</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4275,11 +4171,7 @@
       </c>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L105" t="inlineStr"/>
       <c r="M105" t="n">
         <v>1</v>
       </c>
@@ -4290,22 +4182,22 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>0.4986</v>
+        <v>0.4984</v>
       </c>
       <c r="C106" t="n">
-        <v>0.4986</v>
+        <v>0.4984</v>
       </c>
       <c r="D106" t="n">
-        <v>0.4986</v>
+        <v>0.4984</v>
       </c>
       <c r="E106" t="n">
-        <v>0.4986</v>
+        <v>0.4984</v>
       </c>
       <c r="F106" t="n">
-        <v>1818</v>
+        <v>1500</v>
       </c>
       <c r="G106" t="n">
-        <v>-8704088.845157374</v>
+        <v>-10499850.26273734</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4315,11 +4207,7 @@
       </c>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L106" t="inlineStr"/>
       <c r="M106" t="n">
         <v>1</v>
       </c>
@@ -4330,22 +4218,22 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>0.4987</v>
+        <v>0.4909</v>
       </c>
       <c r="C107" t="n">
-        <v>0.4987</v>
+        <v>0.4984</v>
       </c>
       <c r="D107" t="n">
-        <v>0.4987</v>
+        <v>0.4984</v>
       </c>
       <c r="E107" t="n">
-        <v>0.4987</v>
+        <v>0.4859</v>
       </c>
       <c r="F107" t="n">
-        <v>1818</v>
+        <v>551297.7645</v>
       </c>
       <c r="G107" t="n">
-        <v>-8702270.845157374</v>
+        <v>-10499850.26273734</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4355,11 +4243,7 @@
       </c>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L107" t="inlineStr"/>
       <c r="M107" t="n">
         <v>1</v>
       </c>
@@ -4370,22 +4254,22 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>0.4983</v>
+        <v>0.4984</v>
       </c>
       <c r="C108" t="n">
-        <v>0.4983</v>
+        <v>0.4984</v>
       </c>
       <c r="D108" t="n">
-        <v>0.4983</v>
+        <v>0.4984</v>
       </c>
       <c r="E108" t="n">
-        <v>0.4983</v>
+        <v>0.4984</v>
       </c>
       <c r="F108" t="n">
-        <v>4311.4969</v>
+        <v>2049940.698</v>
       </c>
       <c r="G108" t="n">
-        <v>-8706582.342057373</v>
+        <v>-10499850.26273734</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4395,11 +4279,7 @@
       </c>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L108" t="inlineStr"/>
       <c r="M108" t="n">
         <v>1</v>
       </c>
@@ -4410,22 +4290,22 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>0.4984</v>
+        <v>0.4883</v>
       </c>
       <c r="C109" t="n">
-        <v>0.4983</v>
+        <v>0.4883</v>
       </c>
       <c r="D109" t="n">
-        <v>0.4984</v>
+        <v>0.4883</v>
       </c>
       <c r="E109" t="n">
-        <v>0.4983</v>
+        <v>0.4883</v>
       </c>
       <c r="F109" t="n">
-        <v>3636</v>
+        <v>131242.7691</v>
       </c>
       <c r="G109" t="n">
-        <v>-8706582.342057373</v>
+        <v>-10631093.03183734</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4435,11 +4315,7 @@
       </c>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L109" t="inlineStr"/>
       <c r="M109" t="n">
         <v>1</v>
       </c>
@@ -4450,22 +4326,22 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>0.4981</v>
+        <v>0.4883</v>
       </c>
       <c r="C110" t="n">
-        <v>0.498</v>
+        <v>0.4859</v>
       </c>
       <c r="D110" t="n">
-        <v>0.4981</v>
+        <v>0.4883</v>
       </c>
       <c r="E110" t="n">
-        <v>0.498</v>
+        <v>0.4859</v>
       </c>
       <c r="F110" t="n">
-        <v>57000</v>
+        <v>1019141.3953</v>
       </c>
       <c r="G110" t="n">
-        <v>-8763582.342057373</v>
+        <v>-11650234.42713734</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4475,11 +4351,7 @@
       </c>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L110" t="inlineStr"/>
       <c r="M110" t="n">
         <v>1</v>
       </c>
@@ -4490,22 +4362,22 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>0.4979</v>
+        <v>0.4859</v>
       </c>
       <c r="C111" t="n">
-        <v>0.4979</v>
+        <v>0.4784</v>
       </c>
       <c r="D111" t="n">
-        <v>0.4979</v>
+        <v>0.4859</v>
       </c>
       <c r="E111" t="n">
-        <v>0.4979</v>
+        <v>0.4784</v>
       </c>
       <c r="F111" t="n">
-        <v>1818</v>
+        <v>61093.7803</v>
       </c>
       <c r="G111" t="n">
-        <v>-8765400.342057373</v>
+        <v>-11711328.20743734</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4515,11 +4387,7 @@
       </c>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L111" t="inlineStr"/>
       <c r="M111" t="n">
         <v>1</v>
       </c>
@@ -4530,22 +4398,22 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>0.4978</v>
+        <v>0.4883</v>
       </c>
       <c r="C112" t="n">
-        <v>0.4978</v>
+        <v>0.4883</v>
       </c>
       <c r="D112" t="n">
-        <v>0.4978</v>
+        <v>0.4883</v>
       </c>
       <c r="E112" t="n">
-        <v>0.4978</v>
+        <v>0.4883</v>
       </c>
       <c r="F112" t="n">
-        <v>30000</v>
+        <v>65630</v>
       </c>
       <c r="G112" t="n">
-        <v>-8795400.342057373</v>
+        <v>-11645698.20743734</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4555,11 +4423,7 @@
       </c>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L112" t="inlineStr"/>
       <c r="M112" t="n">
         <v>1</v>
       </c>
@@ -4570,22 +4434,22 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>0.4978</v>
+        <v>0.4982</v>
       </c>
       <c r="C113" t="n">
-        <v>0.4988</v>
+        <v>0.4982</v>
       </c>
       <c r="D113" t="n">
-        <v>0.4988</v>
+        <v>0.4982</v>
       </c>
       <c r="E113" t="n">
-        <v>0.4978</v>
+        <v>0.4982</v>
       </c>
       <c r="F113" t="n">
-        <v>1058034.3638</v>
+        <v>2400</v>
       </c>
       <c r="G113" t="n">
-        <v>-7737365.978257373</v>
+        <v>-11643298.20743734</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4595,11 +4459,7 @@
       </c>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L113" t="inlineStr"/>
       <c r="M113" t="n">
         <v>1</v>
       </c>
@@ -4610,22 +4470,22 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>0.4978</v>
+        <v>0.4982</v>
       </c>
       <c r="C114" t="n">
-        <v>0.5</v>
+        <v>0.4982</v>
       </c>
       <c r="D114" t="n">
-        <v>0.5</v>
+        <v>0.4982</v>
       </c>
       <c r="E114" t="n">
-        <v>0.4978</v>
+        <v>0.4982</v>
       </c>
       <c r="F114" t="n">
-        <v>715162.7711</v>
+        <v>2660.2902</v>
       </c>
       <c r="G114" t="n">
-        <v>-7022203.207157373</v>
+        <v>-11643298.20743734</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4635,11 +4495,7 @@
       </c>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L114" t="inlineStr"/>
       <c r="M114" t="n">
         <v>1</v>
       </c>
@@ -4650,22 +4506,22 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>0.4984</v>
+        <v>0.4902</v>
       </c>
       <c r="C115" t="n">
-        <v>0.5041</v>
+        <v>0.4982</v>
       </c>
       <c r="D115" t="n">
-        <v>0.5041</v>
+        <v>0.4982</v>
       </c>
       <c r="E115" t="n">
-        <v>0.4984</v>
+        <v>0.4902</v>
       </c>
       <c r="F115" t="n">
-        <v>100000</v>
+        <v>8278</v>
       </c>
       <c r="G115" t="n">
-        <v>-6922203.207157373</v>
+        <v>-11643298.20743734</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4675,11 +4531,7 @@
       </c>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L115" t="inlineStr"/>
       <c r="M115" t="n">
         <v>1</v>
       </c>
@@ -4690,22 +4542,22 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>0.504</v>
+        <v>0.497</v>
       </c>
       <c r="C116" t="n">
-        <v>0.5041</v>
+        <v>0.4903</v>
       </c>
       <c r="D116" t="n">
-        <v>0.5084</v>
+        <v>0.497</v>
       </c>
       <c r="E116" t="n">
-        <v>0.504</v>
+        <v>0.4903</v>
       </c>
       <c r="F116" t="n">
-        <v>6241756.7929</v>
+        <v>5453.9414</v>
       </c>
       <c r="G116" t="n">
-        <v>-6922203.207157373</v>
+        <v>-11648752.14883734</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4715,11 +4567,7 @@
       </c>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L116" t="inlineStr"/>
       <c r="M116" t="n">
         <v>1</v>
       </c>
@@ -4730,37 +4578,35 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>0.5218</v>
+        <v>0.4903</v>
       </c>
       <c r="C117" t="n">
-        <v>0.5218</v>
+        <v>0.4903</v>
       </c>
       <c r="D117" t="n">
-        <v>0.5218</v>
+        <v>0.4903</v>
       </c>
       <c r="E117" t="n">
-        <v>0.5218</v>
+        <v>0.4903</v>
       </c>
       <c r="F117" t="n">
         <v>1818</v>
       </c>
       <c r="G117" t="n">
-        <v>-6920385.207157373</v>
+        <v>-11648752.14883734</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
       </c>
       <c r="I117" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M117" t="inlineStr"/>
+      <c r="L117" t="inlineStr"/>
+      <c r="M117" t="n">
+        <v>1</v>
+      </c>
       <c r="N117" t="inlineStr"/>
     </row>
     <row r="118">
@@ -4768,28 +4614,28 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>0.5042</v>
+        <v>0.4903</v>
       </c>
       <c r="C118" t="n">
-        <v>0.5042</v>
+        <v>0.4906</v>
       </c>
       <c r="D118" t="n">
-        <v>0.5042</v>
+        <v>0.4906</v>
       </c>
       <c r="E118" t="n">
-        <v>0.5042</v>
+        <v>0.4903</v>
       </c>
       <c r="F118" t="n">
-        <v>4905.01</v>
+        <v>150600.57</v>
       </c>
       <c r="G118" t="n">
-        <v>-6925290.217157373</v>
+        <v>-11498151.57883734</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
       </c>
       <c r="I118" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
@@ -4804,28 +4650,28 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>0.5042</v>
+        <v>0.4901</v>
       </c>
       <c r="C119" t="n">
-        <v>0.5042</v>
+        <v>0.4809</v>
       </c>
       <c r="D119" t="n">
-        <v>0.5042</v>
+        <v>0.4902</v>
       </c>
       <c r="E119" t="n">
-        <v>0.5042</v>
+        <v>0.4809</v>
       </c>
       <c r="F119" t="n">
-        <v>143403.24</v>
+        <v>88073.8391</v>
       </c>
       <c r="G119" t="n">
-        <v>-6925290.217157373</v>
+        <v>-11586225.41793734</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
       </c>
       <c r="I119" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
@@ -4840,32 +4686,38 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>0.5042</v>
+        <v>0.4809</v>
       </c>
       <c r="C120" t="n">
-        <v>0.5042</v>
+        <v>0.4929</v>
       </c>
       <c r="D120" t="n">
-        <v>0.5042</v>
+        <v>0.493</v>
       </c>
       <c r="E120" t="n">
-        <v>0.5042</v>
+        <v>0.4806</v>
       </c>
       <c r="F120" t="n">
-        <v>100896.75</v>
+        <v>4656176.5536</v>
       </c>
       <c r="G120" t="n">
-        <v>-6925290.217157373</v>
+        <v>-6930048.864337342</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I120" t="n">
-        <v>1</v>
-      </c>
-      <c r="J120" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J120" t="n">
+        <v>0.4809</v>
+      </c>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
+      <c r="L120" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M120" t="n">
         <v>1</v>
       </c>
@@ -4876,32 +4728,36 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>0.5041</v>
+        <v>0.4876</v>
       </c>
       <c r="C121" t="n">
-        <v>0.5041</v>
+        <v>0.4886</v>
       </c>
       <c r="D121" t="n">
-        <v>0.5041</v>
+        <v>0.4887</v>
       </c>
       <c r="E121" t="n">
-        <v>0.5041</v>
+        <v>0.4876</v>
       </c>
       <c r="F121" t="n">
-        <v>207171.7069</v>
+        <v>1310194.8078</v>
       </c>
       <c r="G121" t="n">
-        <v>-7132461.924057373</v>
+        <v>-8240243.672137342</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
       </c>
       <c r="I121" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
+      <c r="L121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M121" t="n">
         <v>1</v>
       </c>
@@ -4912,32 +4768,36 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>0.5097</v>
+        <v>0.4884</v>
       </c>
       <c r="C122" t="n">
-        <v>0.5097</v>
+        <v>0.4884</v>
       </c>
       <c r="D122" t="n">
-        <v>0.5097</v>
+        <v>0.4884</v>
       </c>
       <c r="E122" t="n">
-        <v>0.5097</v>
+        <v>0.4884</v>
       </c>
       <c r="F122" t="n">
-        <v>1818</v>
+        <v>6321</v>
       </c>
       <c r="G122" t="n">
-        <v>-7130643.924057373</v>
+        <v>-8246564.672137342</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
       </c>
       <c r="I122" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
+      <c r="L122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M122" t="n">
         <v>1</v>
       </c>
@@ -4948,32 +4808,38 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>0.5096000000000001</v>
+        <v>0.4876</v>
       </c>
       <c r="C123" t="n">
-        <v>0.5096000000000001</v>
+        <v>0.4876</v>
       </c>
       <c r="D123" t="n">
-        <v>0.5096000000000001</v>
+        <v>0.4876</v>
       </c>
       <c r="E123" t="n">
-        <v>0.5096000000000001</v>
+        <v>0.4876</v>
       </c>
       <c r="F123" t="n">
-        <v>5870.332</v>
+        <v>43017</v>
       </c>
       <c r="G123" t="n">
-        <v>-7136514.256057373</v>
+        <v>-8289581.672137342</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I123" t="n">
-        <v>1</v>
-      </c>
-      <c r="J123" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J123" t="n">
+        <v>0.4884</v>
+      </c>
       <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
+      <c r="L123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M123" t="n">
         <v>1</v>
       </c>
@@ -4984,32 +4850,36 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>0.499</v>
+        <v>0.4876</v>
       </c>
       <c r="C124" t="n">
-        <v>0.5065</v>
+        <v>0.4876</v>
       </c>
       <c r="D124" t="n">
-        <v>0.5286</v>
+        <v>0.4876</v>
       </c>
       <c r="E124" t="n">
-        <v>0.499</v>
+        <v>0.4876</v>
       </c>
       <c r="F124" t="n">
-        <v>5334290.5796</v>
+        <v>24315</v>
       </c>
       <c r="G124" t="n">
-        <v>-12470804.83565737</v>
+        <v>-8289581.672137342</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
       </c>
       <c r="I124" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
+      <c r="L124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M124" t="n">
         <v>1</v>
       </c>
@@ -5020,36 +4890,2938 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>0.5065</v>
+        <v>0.4883</v>
       </c>
       <c r="C125" t="n">
-        <v>0.5065</v>
+        <v>0.4945</v>
       </c>
       <c r="D125" t="n">
-        <v>0.5302</v>
+        <v>0.4945</v>
       </c>
       <c r="E125" t="n">
-        <v>0.5065</v>
+        <v>0.4883</v>
       </c>
       <c r="F125" t="n">
-        <v>1940985.5835</v>
+        <v>230571</v>
       </c>
       <c r="G125" t="n">
-        <v>-12470804.83565737</v>
+        <v>-8059010.672137342</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
       </c>
       <c r="I125" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
+      <c r="L125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M125" t="n">
         <v>1</v>
       </c>
       <c r="N125" t="inlineStr"/>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="n">
+        <v>0.4907</v>
+      </c>
+      <c r="C126" t="n">
+        <v>0.4907</v>
+      </c>
+      <c r="D126" t="n">
+        <v>0.4907</v>
+      </c>
+      <c r="E126" t="n">
+        <v>0.4907</v>
+      </c>
+      <c r="F126" t="n">
+        <v>92590</v>
+      </c>
+      <c r="G126" t="n">
+        <v>-8151600.672137342</v>
+      </c>
+      <c r="H126" t="n">
+        <v>0</v>
+      </c>
+      <c r="I126" t="n">
+        <v>0</v>
+      </c>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M126" t="n">
+        <v>1</v>
+      </c>
+      <c r="N126" t="inlineStr"/>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="n">
+        <v>0.4876</v>
+      </c>
+      <c r="C127" t="n">
+        <v>0.4875</v>
+      </c>
+      <c r="D127" t="n">
+        <v>0.4876</v>
+      </c>
+      <c r="E127" t="n">
+        <v>0.4839</v>
+      </c>
+      <c r="F127" t="n">
+        <v>456923.4114</v>
+      </c>
+      <c r="G127" t="n">
+        <v>-8608524.083537342</v>
+      </c>
+      <c r="H127" t="n">
+        <v>0</v>
+      </c>
+      <c r="I127" t="n">
+        <v>0</v>
+      </c>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M127" t="n">
+        <v>1</v>
+      </c>
+      <c r="N127" t="inlineStr"/>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="n">
+        <v>0.4875</v>
+      </c>
+      <c r="C128" t="n">
+        <v>0.4875</v>
+      </c>
+      <c r="D128" t="n">
+        <v>0.4875</v>
+      </c>
+      <c r="E128" t="n">
+        <v>0.4875</v>
+      </c>
+      <c r="F128" t="n">
+        <v>660190.7595</v>
+      </c>
+      <c r="G128" t="n">
+        <v>-8608524.083537342</v>
+      </c>
+      <c r="H128" t="n">
+        <v>0</v>
+      </c>
+      <c r="I128" t="n">
+        <v>0</v>
+      </c>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M128" t="n">
+        <v>1</v>
+      </c>
+      <c r="N128" t="inlineStr"/>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="n">
+        <v>0.4874</v>
+      </c>
+      <c r="C129" t="n">
+        <v>0.4874</v>
+      </c>
+      <c r="D129" t="n">
+        <v>0.4874</v>
+      </c>
+      <c r="E129" t="n">
+        <v>0.4833</v>
+      </c>
+      <c r="F129" t="n">
+        <v>12098</v>
+      </c>
+      <c r="G129" t="n">
+        <v>-8620622.083537342</v>
+      </c>
+      <c r="H129" t="n">
+        <v>0</v>
+      </c>
+      <c r="I129" t="n">
+        <v>0</v>
+      </c>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M129" t="n">
+        <v>1</v>
+      </c>
+      <c r="N129" t="inlineStr"/>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="n">
+        <v>0.4872</v>
+      </c>
+      <c r="C130" t="n">
+        <v>0.4875</v>
+      </c>
+      <c r="D130" t="n">
+        <v>0.4875</v>
+      </c>
+      <c r="E130" t="n">
+        <v>0.4857</v>
+      </c>
+      <c r="F130" t="n">
+        <v>160262.7257799671</v>
+      </c>
+      <c r="G130" t="n">
+        <v>-8460359.357757375</v>
+      </c>
+      <c r="H130" t="n">
+        <v>0</v>
+      </c>
+      <c r="I130" t="n">
+        <v>0</v>
+      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M130" t="n">
+        <v>1</v>
+      </c>
+      <c r="N130" t="inlineStr"/>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="n">
+        <v>0.4857</v>
+      </c>
+      <c r="C131" t="n">
+        <v>0.4875</v>
+      </c>
+      <c r="D131" t="n">
+        <v>0.4875</v>
+      </c>
+      <c r="E131" t="n">
+        <v>0.4857</v>
+      </c>
+      <c r="F131" t="n">
+        <v>134013</v>
+      </c>
+      <c r="G131" t="n">
+        <v>-8460359.357757375</v>
+      </c>
+      <c r="H131" t="n">
+        <v>0</v>
+      </c>
+      <c r="I131" t="n">
+        <v>0</v>
+      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M131" t="n">
+        <v>1</v>
+      </c>
+      <c r="N131" t="inlineStr"/>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="n">
+        <v>0.4842</v>
+      </c>
+      <c r="C132" t="n">
+        <v>0.4842</v>
+      </c>
+      <c r="D132" t="n">
+        <v>0.4842</v>
+      </c>
+      <c r="E132" t="n">
+        <v>0.4842</v>
+      </c>
+      <c r="F132" t="n">
+        <v>10262.7257</v>
+      </c>
+      <c r="G132" t="n">
+        <v>-8470622.083457375</v>
+      </c>
+      <c r="H132" t="n">
+        <v>0</v>
+      </c>
+      <c r="I132" t="n">
+        <v>0</v>
+      </c>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M132" t="n">
+        <v>1</v>
+      </c>
+      <c r="N132" t="inlineStr"/>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="n">
+        <v>0.4875</v>
+      </c>
+      <c r="C133" t="n">
+        <v>0.4875</v>
+      </c>
+      <c r="D133" t="n">
+        <v>0.4875</v>
+      </c>
+      <c r="E133" t="n">
+        <v>0.4875</v>
+      </c>
+      <c r="F133" t="n">
+        <v>8288</v>
+      </c>
+      <c r="G133" t="n">
+        <v>-8462334.083457375</v>
+      </c>
+      <c r="H133" t="n">
+        <v>0</v>
+      </c>
+      <c r="I133" t="n">
+        <v>0</v>
+      </c>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M133" t="n">
+        <v>1</v>
+      </c>
+      <c r="N133" t="inlineStr"/>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="n">
+        <v>0.4874</v>
+      </c>
+      <c r="C134" t="n">
+        <v>0.4874</v>
+      </c>
+      <c r="D134" t="n">
+        <v>0.4874</v>
+      </c>
+      <c r="E134" t="n">
+        <v>0.4874</v>
+      </c>
+      <c r="F134" t="n">
+        <v>6035</v>
+      </c>
+      <c r="G134" t="n">
+        <v>-8468369.083457375</v>
+      </c>
+      <c r="H134" t="n">
+        <v>0</v>
+      </c>
+      <c r="I134" t="n">
+        <v>0</v>
+      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M134" t="n">
+        <v>1</v>
+      </c>
+      <c r="N134" t="inlineStr"/>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="n">
+        <v>0.4874</v>
+      </c>
+      <c r="C135" t="n">
+        <v>0.4874</v>
+      </c>
+      <c r="D135" t="n">
+        <v>0.4874</v>
+      </c>
+      <c r="E135" t="n">
+        <v>0.4874</v>
+      </c>
+      <c r="F135" t="n">
+        <v>30000</v>
+      </c>
+      <c r="G135" t="n">
+        <v>-8468369.083457375</v>
+      </c>
+      <c r="H135" t="n">
+        <v>0</v>
+      </c>
+      <c r="I135" t="n">
+        <v>0</v>
+      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
+      <c r="L135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M135" t="n">
+        <v>1</v>
+      </c>
+      <c r="N135" t="inlineStr"/>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="n">
+        <v>0.4875</v>
+      </c>
+      <c r="C136" t="n">
+        <v>0.4874</v>
+      </c>
+      <c r="D136" t="n">
+        <v>0.4875</v>
+      </c>
+      <c r="E136" t="n">
+        <v>0.4874</v>
+      </c>
+      <c r="F136" t="n">
+        <v>168376.3837</v>
+      </c>
+      <c r="G136" t="n">
+        <v>-8468369.083457375</v>
+      </c>
+      <c r="H136" t="n">
+        <v>0</v>
+      </c>
+      <c r="I136" t="n">
+        <v>0</v>
+      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
+      <c r="L136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M136" t="n">
+        <v>1</v>
+      </c>
+      <c r="N136" t="inlineStr"/>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="n">
+        <v>0.4873</v>
+      </c>
+      <c r="C137" t="n">
+        <v>0.4873</v>
+      </c>
+      <c r="D137" t="n">
+        <v>0.4873</v>
+      </c>
+      <c r="E137" t="n">
+        <v>0.4873</v>
+      </c>
+      <c r="F137" t="n">
+        <v>4961</v>
+      </c>
+      <c r="G137" t="n">
+        <v>-8473330.083457375</v>
+      </c>
+      <c r="H137" t="n">
+        <v>0</v>
+      </c>
+      <c r="I137" t="n">
+        <v>0</v>
+      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
+      <c r="L137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M137" t="n">
+        <v>1</v>
+      </c>
+      <c r="N137" t="inlineStr"/>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="n">
+        <v>0.4873</v>
+      </c>
+      <c r="C138" t="n">
+        <v>0.4873</v>
+      </c>
+      <c r="D138" t="n">
+        <v>0.4873</v>
+      </c>
+      <c r="E138" t="n">
+        <v>0.4873</v>
+      </c>
+      <c r="F138" t="n">
+        <v>4468</v>
+      </c>
+      <c r="G138" t="n">
+        <v>-8473330.083457375</v>
+      </c>
+      <c r="H138" t="n">
+        <v>0</v>
+      </c>
+      <c r="I138" t="n">
+        <v>0</v>
+      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
+      <c r="L138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M138" t="n">
+        <v>1</v>
+      </c>
+      <c r="N138" t="inlineStr"/>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="n">
+        <v>0.4873</v>
+      </c>
+      <c r="C139" t="n">
+        <v>0.4873</v>
+      </c>
+      <c r="D139" t="n">
+        <v>0.4873</v>
+      </c>
+      <c r="E139" t="n">
+        <v>0.4873</v>
+      </c>
+      <c r="F139" t="n">
+        <v>2281</v>
+      </c>
+      <c r="G139" t="n">
+        <v>-8473330.083457375</v>
+      </c>
+      <c r="H139" t="n">
+        <v>1</v>
+      </c>
+      <c r="I139" t="n">
+        <v>0</v>
+      </c>
+      <c r="J139" t="n">
+        <v>0.4873</v>
+      </c>
+      <c r="K139" t="inlineStr"/>
+      <c r="L139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M139" t="n">
+        <v>1</v>
+      </c>
+      <c r="N139" t="inlineStr"/>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="n">
+        <v>0.4836</v>
+      </c>
+      <c r="C140" t="n">
+        <v>0.4836</v>
+      </c>
+      <c r="D140" t="n">
+        <v>0.4836</v>
+      </c>
+      <c r="E140" t="n">
+        <v>0.4836</v>
+      </c>
+      <c r="F140" t="n">
+        <v>55182</v>
+      </c>
+      <c r="G140" t="n">
+        <v>-8528512.083457375</v>
+      </c>
+      <c r="H140" t="n">
+        <v>0</v>
+      </c>
+      <c r="I140" t="n">
+        <v>0</v>
+      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
+      <c r="L140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M140" t="n">
+        <v>1</v>
+      </c>
+      <c r="N140" t="inlineStr"/>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="n">
+        <v>0.4836</v>
+      </c>
+      <c r="C141" t="n">
+        <v>0.4837</v>
+      </c>
+      <c r="D141" t="n">
+        <v>0.4837</v>
+      </c>
+      <c r="E141" t="n">
+        <v>0.4833</v>
+      </c>
+      <c r="F141" t="n">
+        <v>162312</v>
+      </c>
+      <c r="G141" t="n">
+        <v>-8366200.083457375</v>
+      </c>
+      <c r="H141" t="n">
+        <v>1</v>
+      </c>
+      <c r="I141" t="n">
+        <v>0</v>
+      </c>
+      <c r="J141" t="n">
+        <v>0.4836</v>
+      </c>
+      <c r="K141" t="inlineStr"/>
+      <c r="L141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M141" t="n">
+        <v>1</v>
+      </c>
+      <c r="N141" t="inlineStr"/>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="n">
+        <v>0.4837</v>
+      </c>
+      <c r="C142" t="n">
+        <v>0.4831</v>
+      </c>
+      <c r="D142" t="n">
+        <v>0.4837</v>
+      </c>
+      <c r="E142" t="n">
+        <v>0.4831</v>
+      </c>
+      <c r="F142" t="n">
+        <v>366914.4842</v>
+      </c>
+      <c r="G142" t="n">
+        <v>-8733114.567657376</v>
+      </c>
+      <c r="H142" t="n">
+        <v>0</v>
+      </c>
+      <c r="I142" t="n">
+        <v>0</v>
+      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
+      <c r="L142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M142" t="n">
+        <v>1</v>
+      </c>
+      <c r="N142" t="inlineStr"/>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="n">
+        <v>0.4803</v>
+      </c>
+      <c r="C143" t="n">
+        <v>0.4803</v>
+      </c>
+      <c r="D143" t="n">
+        <v>0.4803</v>
+      </c>
+      <c r="E143" t="n">
+        <v>0.4802</v>
+      </c>
+      <c r="F143" t="n">
+        <v>1221593.2844</v>
+      </c>
+      <c r="G143" t="n">
+        <v>-9954707.852057375</v>
+      </c>
+      <c r="H143" t="n">
+        <v>0</v>
+      </c>
+      <c r="I143" t="n">
+        <v>0</v>
+      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
+      <c r="L143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M143" t="n">
+        <v>1</v>
+      </c>
+      <c r="N143" t="inlineStr"/>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="n">
+        <v>0.4803</v>
+      </c>
+      <c r="C144" t="n">
+        <v>0.4803</v>
+      </c>
+      <c r="D144" t="n">
+        <v>0.4803</v>
+      </c>
+      <c r="E144" t="n">
+        <v>0.4803</v>
+      </c>
+      <c r="F144" t="n">
+        <v>330000</v>
+      </c>
+      <c r="G144" t="n">
+        <v>-9954707.852057375</v>
+      </c>
+      <c r="H144" t="n">
+        <v>0</v>
+      </c>
+      <c r="I144" t="n">
+        <v>0</v>
+      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
+      <c r="L144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M144" t="n">
+        <v>1</v>
+      </c>
+      <c r="N144" t="inlineStr"/>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="n">
+        <v>0.4802</v>
+      </c>
+      <c r="C145" t="n">
+        <v>0.4802</v>
+      </c>
+      <c r="D145" t="n">
+        <v>0.4802</v>
+      </c>
+      <c r="E145" t="n">
+        <v>0.4802</v>
+      </c>
+      <c r="F145" t="n">
+        <v>575206</v>
+      </c>
+      <c r="G145" t="n">
+        <v>-10529913.85205738</v>
+      </c>
+      <c r="H145" t="n">
+        <v>1</v>
+      </c>
+      <c r="I145" t="n">
+        <v>0</v>
+      </c>
+      <c r="J145" t="n">
+        <v>0.4803</v>
+      </c>
+      <c r="K145" t="inlineStr"/>
+      <c r="L145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M145" t="n">
+        <v>1</v>
+      </c>
+      <c r="N145" t="inlineStr"/>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="n">
+        <v>0.4802</v>
+      </c>
+      <c r="C146" t="n">
+        <v>0.4802</v>
+      </c>
+      <c r="D146" t="n">
+        <v>0.4802</v>
+      </c>
+      <c r="E146" t="n">
+        <v>0.4802</v>
+      </c>
+      <c r="F146" t="n">
+        <v>348813.9454</v>
+      </c>
+      <c r="G146" t="n">
+        <v>-10529913.85205738</v>
+      </c>
+      <c r="H146" t="n">
+        <v>0</v>
+      </c>
+      <c r="I146" t="n">
+        <v>0</v>
+      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
+      <c r="L146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M146" t="n">
+        <v>1</v>
+      </c>
+      <c r="N146" t="inlineStr"/>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="n">
+        <v>0.4801</v>
+      </c>
+      <c r="C147" t="n">
+        <v>0.4802</v>
+      </c>
+      <c r="D147" t="n">
+        <v>0.4802</v>
+      </c>
+      <c r="E147" t="n">
+        <v>0.4801</v>
+      </c>
+      <c r="F147" t="n">
+        <v>467217.3011</v>
+      </c>
+      <c r="G147" t="n">
+        <v>-10529913.85205738</v>
+      </c>
+      <c r="H147" t="n">
+        <v>1</v>
+      </c>
+      <c r="I147" t="n">
+        <v>0</v>
+      </c>
+      <c r="J147" t="n">
+        <v>0.4802</v>
+      </c>
+      <c r="K147" t="inlineStr"/>
+      <c r="L147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M147" t="n">
+        <v>1</v>
+      </c>
+      <c r="N147" t="inlineStr"/>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="n">
+        <v>0.4802</v>
+      </c>
+      <c r="C148" t="n">
+        <v>0.4802</v>
+      </c>
+      <c r="D148" t="n">
+        <v>0.4802</v>
+      </c>
+      <c r="E148" t="n">
+        <v>0.4802</v>
+      </c>
+      <c r="F148" t="n">
+        <v>565634.8251</v>
+      </c>
+      <c r="G148" t="n">
+        <v>-10529913.85205738</v>
+      </c>
+      <c r="H148" t="n">
+        <v>1</v>
+      </c>
+      <c r="I148" t="n">
+        <v>0</v>
+      </c>
+      <c r="J148" t="n">
+        <v>0.4802</v>
+      </c>
+      <c r="K148" t="inlineStr"/>
+      <c r="L148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M148" t="n">
+        <v>1</v>
+      </c>
+      <c r="N148" t="inlineStr"/>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="n">
+        <v>0.4802</v>
+      </c>
+      <c r="C149" t="n">
+        <v>0.4802</v>
+      </c>
+      <c r="D149" t="n">
+        <v>0.4802</v>
+      </c>
+      <c r="E149" t="n">
+        <v>0.4802</v>
+      </c>
+      <c r="F149" t="n">
+        <v>34471.1143</v>
+      </c>
+      <c r="G149" t="n">
+        <v>-10529913.85205738</v>
+      </c>
+      <c r="H149" t="n">
+        <v>1</v>
+      </c>
+      <c r="I149" t="n">
+        <v>0</v>
+      </c>
+      <c r="J149" t="n">
+        <v>0.4802</v>
+      </c>
+      <c r="K149" t="inlineStr"/>
+      <c r="L149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M149" t="n">
+        <v>1</v>
+      </c>
+      <c r="N149" t="inlineStr"/>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="n">
+        <v>0.4773</v>
+      </c>
+      <c r="C150" t="n">
+        <v>0.4802</v>
+      </c>
+      <c r="D150" t="n">
+        <v>0.4802</v>
+      </c>
+      <c r="E150" t="n">
+        <v>0.4773</v>
+      </c>
+      <c r="F150" t="n">
+        <v>616302.8312</v>
+      </c>
+      <c r="G150" t="n">
+        <v>-10529913.85205738</v>
+      </c>
+      <c r="H150" t="n">
+        <v>1</v>
+      </c>
+      <c r="I150" t="n">
+        <v>0</v>
+      </c>
+      <c r="J150" t="n">
+        <v>0.4802</v>
+      </c>
+      <c r="K150" t="inlineStr"/>
+      <c r="L150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M150" t="n">
+        <v>1</v>
+      </c>
+      <c r="N150" t="inlineStr"/>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="n">
+        <v>0.4802</v>
+      </c>
+      <c r="C151" t="n">
+        <v>0.4802</v>
+      </c>
+      <c r="D151" t="n">
+        <v>0.4802</v>
+      </c>
+      <c r="E151" t="n">
+        <v>0.4802</v>
+      </c>
+      <c r="F151" t="n">
+        <v>146861.7333</v>
+      </c>
+      <c r="G151" t="n">
+        <v>-10529913.85205738</v>
+      </c>
+      <c r="H151" t="n">
+        <v>1</v>
+      </c>
+      <c r="I151" t="n">
+        <v>0</v>
+      </c>
+      <c r="J151" t="n">
+        <v>0.4802</v>
+      </c>
+      <c r="K151" t="inlineStr"/>
+      <c r="L151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M151" t="n">
+        <v>1</v>
+      </c>
+      <c r="N151" t="inlineStr"/>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="n">
+        <v>0.4884</v>
+      </c>
+      <c r="C152" t="n">
+        <v>0.4884</v>
+      </c>
+      <c r="D152" t="n">
+        <v>0.4884</v>
+      </c>
+      <c r="E152" t="n">
+        <v>0.4884</v>
+      </c>
+      <c r="F152" t="n">
+        <v>78154.8015</v>
+      </c>
+      <c r="G152" t="n">
+        <v>-10451759.05055737</v>
+      </c>
+      <c r="H152" t="n">
+        <v>1</v>
+      </c>
+      <c r="I152" t="n">
+        <v>0</v>
+      </c>
+      <c r="J152" t="n">
+        <v>0.4802</v>
+      </c>
+      <c r="K152" t="inlineStr"/>
+      <c r="L152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M152" t="n">
+        <v>1</v>
+      </c>
+      <c r="N152" t="inlineStr"/>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="n">
+        <v>0.4877</v>
+      </c>
+      <c r="C153" t="n">
+        <v>0.4877</v>
+      </c>
+      <c r="D153" t="n">
+        <v>0.4968</v>
+      </c>
+      <c r="E153" t="n">
+        <v>0.4877</v>
+      </c>
+      <c r="F153" t="n">
+        <v>4642.4413</v>
+      </c>
+      <c r="G153" t="n">
+        <v>-10456401.49185737</v>
+      </c>
+      <c r="H153" t="n">
+        <v>1</v>
+      </c>
+      <c r="I153" t="n">
+        <v>0</v>
+      </c>
+      <c r="J153" t="n">
+        <v>0.4884</v>
+      </c>
+      <c r="K153" t="inlineStr"/>
+      <c r="L153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M153" t="n">
+        <v>1</v>
+      </c>
+      <c r="N153" t="inlineStr"/>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="n">
+        <v>0.4882</v>
+      </c>
+      <c r="C154" t="n">
+        <v>0.4802</v>
+      </c>
+      <c r="D154" t="n">
+        <v>0.4882</v>
+      </c>
+      <c r="E154" t="n">
+        <v>0.4802</v>
+      </c>
+      <c r="F154" t="n">
+        <v>1069127.5347</v>
+      </c>
+      <c r="G154" t="n">
+        <v>-11525529.02655737</v>
+      </c>
+      <c r="H154" t="n">
+        <v>1</v>
+      </c>
+      <c r="I154" t="n">
+        <v>0</v>
+      </c>
+      <c r="J154" t="n">
+        <v>0.4877</v>
+      </c>
+      <c r="K154" t="inlineStr"/>
+      <c r="L154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M154" t="n">
+        <v>1</v>
+      </c>
+      <c r="N154" t="inlineStr"/>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="n">
+        <v>0.4881</v>
+      </c>
+      <c r="C155" t="n">
+        <v>0.4882</v>
+      </c>
+      <c r="D155" t="n">
+        <v>0.4882</v>
+      </c>
+      <c r="E155" t="n">
+        <v>0.4881</v>
+      </c>
+      <c r="F155" t="n">
+        <v>187069.8219</v>
+      </c>
+      <c r="G155" t="n">
+        <v>-11338459.20465737</v>
+      </c>
+      <c r="H155" t="n">
+        <v>1</v>
+      </c>
+      <c r="I155" t="n">
+        <v>0</v>
+      </c>
+      <c r="J155" t="n">
+        <v>0.4802</v>
+      </c>
+      <c r="K155" t="inlineStr"/>
+      <c r="L155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M155" t="n">
+        <v>1</v>
+      </c>
+      <c r="N155" t="inlineStr"/>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="n">
+        <v>0.4881</v>
+      </c>
+      <c r="C156" t="n">
+        <v>0.4871</v>
+      </c>
+      <c r="D156" t="n">
+        <v>0.4884</v>
+      </c>
+      <c r="E156" t="n">
+        <v>0.4871</v>
+      </c>
+      <c r="F156" t="n">
+        <v>422489.5371</v>
+      </c>
+      <c r="G156" t="n">
+        <v>-11760948.74175737</v>
+      </c>
+      <c r="H156" t="n">
+        <v>1</v>
+      </c>
+      <c r="I156" t="n">
+        <v>0</v>
+      </c>
+      <c r="J156" t="n">
+        <v>0.4882</v>
+      </c>
+      <c r="K156" t="inlineStr"/>
+      <c r="L156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M156" t="n">
+        <v>1</v>
+      </c>
+      <c r="N156" t="inlineStr"/>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="n">
+        <v>0.4884</v>
+      </c>
+      <c r="C157" t="n">
+        <v>0.4884</v>
+      </c>
+      <c r="D157" t="n">
+        <v>0.4884</v>
+      </c>
+      <c r="E157" t="n">
+        <v>0.4884</v>
+      </c>
+      <c r="F157" t="n">
+        <v>1818</v>
+      </c>
+      <c r="G157" t="n">
+        <v>-11759130.74175737</v>
+      </c>
+      <c r="H157" t="n">
+        <v>1</v>
+      </c>
+      <c r="I157" t="n">
+        <v>0</v>
+      </c>
+      <c r="J157" t="n">
+        <v>0.4871</v>
+      </c>
+      <c r="K157" t="inlineStr"/>
+      <c r="L157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M157" t="n">
+        <v>1</v>
+      </c>
+      <c r="N157" t="inlineStr"/>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="n">
+        <v>0.4871</v>
+      </c>
+      <c r="C158" t="n">
+        <v>0.4871</v>
+      </c>
+      <c r="D158" t="n">
+        <v>0.4871</v>
+      </c>
+      <c r="E158" t="n">
+        <v>0.4871</v>
+      </c>
+      <c r="F158" t="n">
+        <v>115671</v>
+      </c>
+      <c r="G158" t="n">
+        <v>-11874801.74175737</v>
+      </c>
+      <c r="H158" t="n">
+        <v>1</v>
+      </c>
+      <c r="I158" t="n">
+        <v>0</v>
+      </c>
+      <c r="J158" t="n">
+        <v>0.4884</v>
+      </c>
+      <c r="K158" t="inlineStr"/>
+      <c r="L158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M158" t="n">
+        <v>1</v>
+      </c>
+      <c r="N158" t="inlineStr"/>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="n">
+        <v>0.4871</v>
+      </c>
+      <c r="C159" t="n">
+        <v>0.4884</v>
+      </c>
+      <c r="D159" t="n">
+        <v>0.4884</v>
+      </c>
+      <c r="E159" t="n">
+        <v>0.4871</v>
+      </c>
+      <c r="F159" t="n">
+        <v>50000</v>
+      </c>
+      <c r="G159" t="n">
+        <v>-11824801.74175737</v>
+      </c>
+      <c r="H159" t="n">
+        <v>1</v>
+      </c>
+      <c r="I159" t="n">
+        <v>0</v>
+      </c>
+      <c r="J159" t="n">
+        <v>0.4871</v>
+      </c>
+      <c r="K159" t="inlineStr"/>
+      <c r="L159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M159" t="n">
+        <v>1</v>
+      </c>
+      <c r="N159" t="inlineStr"/>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="n">
+        <v>0.4884</v>
+      </c>
+      <c r="C160" t="n">
+        <v>0.488</v>
+      </c>
+      <c r="D160" t="n">
+        <v>0.4884</v>
+      </c>
+      <c r="E160" t="n">
+        <v>0.488</v>
+      </c>
+      <c r="F160" t="n">
+        <v>12161</v>
+      </c>
+      <c r="G160" t="n">
+        <v>-11836962.74175737</v>
+      </c>
+      <c r="H160" t="n">
+        <v>1</v>
+      </c>
+      <c r="I160" t="n">
+        <v>0</v>
+      </c>
+      <c r="J160" t="n">
+        <v>0.4884</v>
+      </c>
+      <c r="K160" t="inlineStr"/>
+      <c r="L160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M160" t="n">
+        <v>1</v>
+      </c>
+      <c r="N160" t="inlineStr"/>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="n">
+        <v>0.488</v>
+      </c>
+      <c r="C161" t="n">
+        <v>0.488</v>
+      </c>
+      <c r="D161" t="n">
+        <v>0.488</v>
+      </c>
+      <c r="E161" t="n">
+        <v>0.488</v>
+      </c>
+      <c r="F161" t="n">
+        <v>80402</v>
+      </c>
+      <c r="G161" t="n">
+        <v>-11836962.74175737</v>
+      </c>
+      <c r="H161" t="n">
+        <v>1</v>
+      </c>
+      <c r="I161" t="n">
+        <v>0</v>
+      </c>
+      <c r="J161" t="n">
+        <v>0.488</v>
+      </c>
+      <c r="K161" t="inlineStr"/>
+      <c r="L161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M161" t="n">
+        <v>1</v>
+      </c>
+      <c r="N161" t="inlineStr"/>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="n">
+        <v>0.488</v>
+      </c>
+      <c r="C162" t="n">
+        <v>0.488</v>
+      </c>
+      <c r="D162" t="n">
+        <v>0.488</v>
+      </c>
+      <c r="E162" t="n">
+        <v>0.488</v>
+      </c>
+      <c r="F162" t="n">
+        <v>919635.1188000001</v>
+      </c>
+      <c r="G162" t="n">
+        <v>-11836962.74175737</v>
+      </c>
+      <c r="H162" t="n">
+        <v>1</v>
+      </c>
+      <c r="I162" t="n">
+        <v>0</v>
+      </c>
+      <c r="J162" t="n">
+        <v>0.488</v>
+      </c>
+      <c r="K162" t="inlineStr"/>
+      <c r="L162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M162" t="n">
+        <v>1</v>
+      </c>
+      <c r="N162" t="inlineStr"/>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="n">
+        <v>0.488</v>
+      </c>
+      <c r="C163" t="n">
+        <v>0.488</v>
+      </c>
+      <c r="D163" t="n">
+        <v>0.488</v>
+      </c>
+      <c r="E163" t="n">
+        <v>0.488</v>
+      </c>
+      <c r="F163" t="n">
+        <v>98142.5386</v>
+      </c>
+      <c r="G163" t="n">
+        <v>-11836962.74175737</v>
+      </c>
+      <c r="H163" t="n">
+        <v>1</v>
+      </c>
+      <c r="I163" t="n">
+        <v>0</v>
+      </c>
+      <c r="J163" t="n">
+        <v>0.488</v>
+      </c>
+      <c r="K163" t="inlineStr"/>
+      <c r="L163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M163" t="n">
+        <v>1</v>
+      </c>
+      <c r="N163" t="inlineStr"/>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="n">
+        <v>0.488</v>
+      </c>
+      <c r="C164" t="n">
+        <v>0.4884</v>
+      </c>
+      <c r="D164" t="n">
+        <v>0.4884</v>
+      </c>
+      <c r="E164" t="n">
+        <v>0.488</v>
+      </c>
+      <c r="F164" t="n">
+        <v>967489.548</v>
+      </c>
+      <c r="G164" t="n">
+        <v>-10869473.19375737</v>
+      </c>
+      <c r="H164" t="n">
+        <v>1</v>
+      </c>
+      <c r="I164" t="n">
+        <v>0</v>
+      </c>
+      <c r="J164" t="n">
+        <v>0.488</v>
+      </c>
+      <c r="K164" t="inlineStr"/>
+      <c r="L164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M164" t="n">
+        <v>1</v>
+      </c>
+      <c r="N164" t="inlineStr"/>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="n">
+        <v>0.4884</v>
+      </c>
+      <c r="C165" t="n">
+        <v>0.4884</v>
+      </c>
+      <c r="D165" t="n">
+        <v>0.4884</v>
+      </c>
+      <c r="E165" t="n">
+        <v>0.4884</v>
+      </c>
+      <c r="F165" t="n">
+        <v>52430.8116</v>
+      </c>
+      <c r="G165" t="n">
+        <v>-10869473.19375737</v>
+      </c>
+      <c r="H165" t="n">
+        <v>1</v>
+      </c>
+      <c r="I165" t="n">
+        <v>0</v>
+      </c>
+      <c r="J165" t="n">
+        <v>0.4884</v>
+      </c>
+      <c r="K165" t="inlineStr"/>
+      <c r="L165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M165" t="n">
+        <v>1</v>
+      </c>
+      <c r="N165" t="inlineStr"/>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="n">
+        <v>0.488</v>
+      </c>
+      <c r="C166" t="n">
+        <v>0.488</v>
+      </c>
+      <c r="D166" t="n">
+        <v>0.488</v>
+      </c>
+      <c r="E166" t="n">
+        <v>0.488</v>
+      </c>
+      <c r="F166" t="n">
+        <v>31060</v>
+      </c>
+      <c r="G166" t="n">
+        <v>-10900533.19375737</v>
+      </c>
+      <c r="H166" t="n">
+        <v>1</v>
+      </c>
+      <c r="I166" t="n">
+        <v>0</v>
+      </c>
+      <c r="J166" t="n">
+        <v>0.4884</v>
+      </c>
+      <c r="K166" t="inlineStr"/>
+      <c r="L166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M166" t="n">
+        <v>1</v>
+      </c>
+      <c r="N166" t="inlineStr"/>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="n">
+        <v>0.488</v>
+      </c>
+      <c r="C167" t="n">
+        <v>0.488</v>
+      </c>
+      <c r="D167" t="n">
+        <v>0.488</v>
+      </c>
+      <c r="E167" t="n">
+        <v>0.488</v>
+      </c>
+      <c r="F167" t="n">
+        <v>52587.285</v>
+      </c>
+      <c r="G167" t="n">
+        <v>-10900533.19375737</v>
+      </c>
+      <c r="H167" t="n">
+        <v>1</v>
+      </c>
+      <c r="I167" t="n">
+        <v>0</v>
+      </c>
+      <c r="J167" t="n">
+        <v>0.488</v>
+      </c>
+      <c r="K167" t="inlineStr"/>
+      <c r="L167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M167" t="n">
+        <v>1</v>
+      </c>
+      <c r="N167" t="inlineStr"/>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="n">
+        <v>0.488</v>
+      </c>
+      <c r="C168" t="n">
+        <v>0.488</v>
+      </c>
+      <c r="D168" t="n">
+        <v>0.488</v>
+      </c>
+      <c r="E168" t="n">
+        <v>0.488</v>
+      </c>
+      <c r="F168" t="n">
+        <v>1300</v>
+      </c>
+      <c r="G168" t="n">
+        <v>-10900533.19375737</v>
+      </c>
+      <c r="H168" t="n">
+        <v>1</v>
+      </c>
+      <c r="I168" t="n">
+        <v>0</v>
+      </c>
+      <c r="J168" t="n">
+        <v>0.488</v>
+      </c>
+      <c r="K168" t="inlineStr"/>
+      <c r="L168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M168" t="n">
+        <v>1</v>
+      </c>
+      <c r="N168" t="inlineStr"/>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="n">
+        <v>0.488</v>
+      </c>
+      <c r="C169" t="n">
+        <v>0.488</v>
+      </c>
+      <c r="D169" t="n">
+        <v>0.488</v>
+      </c>
+      <c r="E169" t="n">
+        <v>0.488</v>
+      </c>
+      <c r="F169" t="n">
+        <v>25000</v>
+      </c>
+      <c r="G169" t="n">
+        <v>-10900533.19375737</v>
+      </c>
+      <c r="H169" t="n">
+        <v>1</v>
+      </c>
+      <c r="I169" t="n">
+        <v>0</v>
+      </c>
+      <c r="J169" t="n">
+        <v>0.488</v>
+      </c>
+      <c r="K169" t="inlineStr"/>
+      <c r="L169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M169" t="n">
+        <v>1</v>
+      </c>
+      <c r="N169" t="inlineStr"/>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="n">
+        <v>0.488</v>
+      </c>
+      <c r="C170" t="n">
+        <v>0.488</v>
+      </c>
+      <c r="D170" t="n">
+        <v>0.488</v>
+      </c>
+      <c r="E170" t="n">
+        <v>0.488</v>
+      </c>
+      <c r="F170" t="n">
+        <v>513396.24</v>
+      </c>
+      <c r="G170" t="n">
+        <v>-10900533.19375737</v>
+      </c>
+      <c r="H170" t="n">
+        <v>1</v>
+      </c>
+      <c r="I170" t="n">
+        <v>0</v>
+      </c>
+      <c r="J170" t="n">
+        <v>0.488</v>
+      </c>
+      <c r="K170" t="inlineStr"/>
+      <c r="L170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M170" t="n">
+        <v>1</v>
+      </c>
+      <c r="N170" t="inlineStr"/>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="n">
+        <v>0.488</v>
+      </c>
+      <c r="C171" t="n">
+        <v>0.4964</v>
+      </c>
+      <c r="D171" t="n">
+        <v>0.4964</v>
+      </c>
+      <c r="E171" t="n">
+        <v>0.488</v>
+      </c>
+      <c r="F171" t="n">
+        <v>466705.9</v>
+      </c>
+      <c r="G171" t="n">
+        <v>-10433827.29375737</v>
+      </c>
+      <c r="H171" t="n">
+        <v>1</v>
+      </c>
+      <c r="I171" t="n">
+        <v>0</v>
+      </c>
+      <c r="J171" t="n">
+        <v>0.488</v>
+      </c>
+      <c r="K171" t="inlineStr"/>
+      <c r="L171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M171" t="n">
+        <v>1</v>
+      </c>
+      <c r="N171" t="inlineStr"/>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="n">
+        <v>0.488</v>
+      </c>
+      <c r="C172" t="n">
+        <v>0.488</v>
+      </c>
+      <c r="D172" t="n">
+        <v>0.488</v>
+      </c>
+      <c r="E172" t="n">
+        <v>0.488</v>
+      </c>
+      <c r="F172" t="n">
+        <v>96730</v>
+      </c>
+      <c r="G172" t="n">
+        <v>-10530557.29375737</v>
+      </c>
+      <c r="H172" t="n">
+        <v>1</v>
+      </c>
+      <c r="I172" t="n">
+        <v>0</v>
+      </c>
+      <c r="J172" t="n">
+        <v>0.4964</v>
+      </c>
+      <c r="K172" t="inlineStr"/>
+      <c r="L172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M172" t="n">
+        <v>1</v>
+      </c>
+      <c r="N172" t="inlineStr"/>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="n">
+        <v>0.488</v>
+      </c>
+      <c r="C173" t="n">
+        <v>0.488</v>
+      </c>
+      <c r="D173" t="n">
+        <v>0.488</v>
+      </c>
+      <c r="E173" t="n">
+        <v>0.488</v>
+      </c>
+      <c r="F173" t="n">
+        <v>846923.4313000001</v>
+      </c>
+      <c r="G173" t="n">
+        <v>-10530557.29375737</v>
+      </c>
+      <c r="H173" t="n">
+        <v>1</v>
+      </c>
+      <c r="I173" t="n">
+        <v>0</v>
+      </c>
+      <c r="J173" t="n">
+        <v>0.488</v>
+      </c>
+      <c r="K173" t="inlineStr"/>
+      <c r="L173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M173" t="n">
+        <v>1</v>
+      </c>
+      <c r="N173" t="inlineStr"/>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="n">
+        <v>0.497</v>
+      </c>
+      <c r="C174" t="n">
+        <v>0.4987</v>
+      </c>
+      <c r="D174" t="n">
+        <v>0.4987</v>
+      </c>
+      <c r="E174" t="n">
+        <v>0.497</v>
+      </c>
+      <c r="F174" t="n">
+        <v>15403</v>
+      </c>
+      <c r="G174" t="n">
+        <v>-10515154.29375737</v>
+      </c>
+      <c r="H174" t="n">
+        <v>1</v>
+      </c>
+      <c r="I174" t="n">
+        <v>0</v>
+      </c>
+      <c r="J174" t="n">
+        <v>0.488</v>
+      </c>
+      <c r="K174" t="inlineStr"/>
+      <c r="L174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M174" t="n">
+        <v>1</v>
+      </c>
+      <c r="N174" t="inlineStr"/>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="n">
+        <v>0.4881</v>
+      </c>
+      <c r="C175" t="n">
+        <v>0.4881</v>
+      </c>
+      <c r="D175" t="n">
+        <v>0.4881</v>
+      </c>
+      <c r="E175" t="n">
+        <v>0.4881</v>
+      </c>
+      <c r="F175" t="n">
+        <v>1818</v>
+      </c>
+      <c r="G175" t="n">
+        <v>-10516972.29375737</v>
+      </c>
+      <c r="H175" t="n">
+        <v>1</v>
+      </c>
+      <c r="I175" t="n">
+        <v>0</v>
+      </c>
+      <c r="J175" t="n">
+        <v>0.4987</v>
+      </c>
+      <c r="K175" t="inlineStr"/>
+      <c r="L175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M175" t="n">
+        <v>1</v>
+      </c>
+      <c r="N175" t="inlineStr"/>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="n">
+        <v>0.4987</v>
+      </c>
+      <c r="C176" t="n">
+        <v>0.4987</v>
+      </c>
+      <c r="D176" t="n">
+        <v>0.4987</v>
+      </c>
+      <c r="E176" t="n">
+        <v>0.4883</v>
+      </c>
+      <c r="F176" t="n">
+        <v>1814701.4486</v>
+      </c>
+      <c r="G176" t="n">
+        <v>-8702270.845157374</v>
+      </c>
+      <c r="H176" t="n">
+        <v>1</v>
+      </c>
+      <c r="I176" t="n">
+        <v>0</v>
+      </c>
+      <c r="J176" t="n">
+        <v>0.4881</v>
+      </c>
+      <c r="K176" t="inlineStr"/>
+      <c r="L176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M176" t="n">
+        <v>1</v>
+      </c>
+      <c r="N176" t="inlineStr"/>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="n">
+        <v>0.4986</v>
+      </c>
+      <c r="C177" t="n">
+        <v>0.4986</v>
+      </c>
+      <c r="D177" t="n">
+        <v>0.4986</v>
+      </c>
+      <c r="E177" t="n">
+        <v>0.4986</v>
+      </c>
+      <c r="F177" t="n">
+        <v>1818</v>
+      </c>
+      <c r="G177" t="n">
+        <v>-8704088.845157374</v>
+      </c>
+      <c r="H177" t="n">
+        <v>1</v>
+      </c>
+      <c r="I177" t="n">
+        <v>0</v>
+      </c>
+      <c r="J177" t="n">
+        <v>0.4987</v>
+      </c>
+      <c r="K177" t="inlineStr"/>
+      <c r="L177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M177" t="n">
+        <v>1</v>
+      </c>
+      <c r="N177" t="inlineStr"/>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="n">
+        <v>0.4987</v>
+      </c>
+      <c r="C178" t="n">
+        <v>0.4987</v>
+      </c>
+      <c r="D178" t="n">
+        <v>0.4987</v>
+      </c>
+      <c r="E178" t="n">
+        <v>0.4987</v>
+      </c>
+      <c r="F178" t="n">
+        <v>1818</v>
+      </c>
+      <c r="G178" t="n">
+        <v>-8702270.845157374</v>
+      </c>
+      <c r="H178" t="n">
+        <v>1</v>
+      </c>
+      <c r="I178" t="n">
+        <v>0</v>
+      </c>
+      <c r="J178" t="n">
+        <v>0.4986</v>
+      </c>
+      <c r="K178" t="inlineStr"/>
+      <c r="L178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M178" t="n">
+        <v>1</v>
+      </c>
+      <c r="N178" t="inlineStr"/>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="n">
+        <v>0.4983</v>
+      </c>
+      <c r="C179" t="n">
+        <v>0.4983</v>
+      </c>
+      <c r="D179" t="n">
+        <v>0.4983</v>
+      </c>
+      <c r="E179" t="n">
+        <v>0.4983</v>
+      </c>
+      <c r="F179" t="n">
+        <v>4311.4969</v>
+      </c>
+      <c r="G179" t="n">
+        <v>-8706582.342057373</v>
+      </c>
+      <c r="H179" t="n">
+        <v>1</v>
+      </c>
+      <c r="I179" t="n">
+        <v>0</v>
+      </c>
+      <c r="J179" t="n">
+        <v>0.4987</v>
+      </c>
+      <c r="K179" t="inlineStr"/>
+      <c r="L179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M179" t="n">
+        <v>1</v>
+      </c>
+      <c r="N179" t="inlineStr"/>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="n">
+        <v>0.4984</v>
+      </c>
+      <c r="C180" t="n">
+        <v>0.4983</v>
+      </c>
+      <c r="D180" t="n">
+        <v>0.4984</v>
+      </c>
+      <c r="E180" t="n">
+        <v>0.4983</v>
+      </c>
+      <c r="F180" t="n">
+        <v>3636</v>
+      </c>
+      <c r="G180" t="n">
+        <v>-8706582.342057373</v>
+      </c>
+      <c r="H180" t="n">
+        <v>1</v>
+      </c>
+      <c r="I180" t="n">
+        <v>0</v>
+      </c>
+      <c r="J180" t="n">
+        <v>0.4983</v>
+      </c>
+      <c r="K180" t="inlineStr"/>
+      <c r="L180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M180" t="n">
+        <v>1</v>
+      </c>
+      <c r="N180" t="inlineStr"/>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="n">
+        <v>0.4981</v>
+      </c>
+      <c r="C181" t="n">
+        <v>0.498</v>
+      </c>
+      <c r="D181" t="n">
+        <v>0.4981</v>
+      </c>
+      <c r="E181" t="n">
+        <v>0.498</v>
+      </c>
+      <c r="F181" t="n">
+        <v>57000</v>
+      </c>
+      <c r="G181" t="n">
+        <v>-8763582.342057373</v>
+      </c>
+      <c r="H181" t="n">
+        <v>1</v>
+      </c>
+      <c r="I181" t="n">
+        <v>0</v>
+      </c>
+      <c r="J181" t="n">
+        <v>0.4983</v>
+      </c>
+      <c r="K181" t="inlineStr"/>
+      <c r="L181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M181" t="n">
+        <v>1</v>
+      </c>
+      <c r="N181" t="inlineStr"/>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="n">
+        <v>0.4979</v>
+      </c>
+      <c r="C182" t="n">
+        <v>0.4979</v>
+      </c>
+      <c r="D182" t="n">
+        <v>0.4979</v>
+      </c>
+      <c r="E182" t="n">
+        <v>0.4979</v>
+      </c>
+      <c r="F182" t="n">
+        <v>1818</v>
+      </c>
+      <c r="G182" t="n">
+        <v>-8765400.342057373</v>
+      </c>
+      <c r="H182" t="n">
+        <v>1</v>
+      </c>
+      <c r="I182" t="n">
+        <v>0</v>
+      </c>
+      <c r="J182" t="n">
+        <v>0.498</v>
+      </c>
+      <c r="K182" t="inlineStr"/>
+      <c r="L182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M182" t="n">
+        <v>1</v>
+      </c>
+      <c r="N182" t="inlineStr"/>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="n">
+        <v>0.4978</v>
+      </c>
+      <c r="C183" t="n">
+        <v>0.4978</v>
+      </c>
+      <c r="D183" t="n">
+        <v>0.4978</v>
+      </c>
+      <c r="E183" t="n">
+        <v>0.4978</v>
+      </c>
+      <c r="F183" t="n">
+        <v>30000</v>
+      </c>
+      <c r="G183" t="n">
+        <v>-8795400.342057373</v>
+      </c>
+      <c r="H183" t="n">
+        <v>1</v>
+      </c>
+      <c r="I183" t="n">
+        <v>0</v>
+      </c>
+      <c r="J183" t="n">
+        <v>0.4979</v>
+      </c>
+      <c r="K183" t="inlineStr"/>
+      <c r="L183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M183" t="n">
+        <v>1</v>
+      </c>
+      <c r="N183" t="inlineStr"/>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="n">
+        <v>0.4978</v>
+      </c>
+      <c r="C184" t="n">
+        <v>0.4988</v>
+      </c>
+      <c r="D184" t="n">
+        <v>0.4988</v>
+      </c>
+      <c r="E184" t="n">
+        <v>0.4978</v>
+      </c>
+      <c r="F184" t="n">
+        <v>1058034.3638</v>
+      </c>
+      <c r="G184" t="n">
+        <v>-7737365.978257373</v>
+      </c>
+      <c r="H184" t="n">
+        <v>1</v>
+      </c>
+      <c r="I184" t="n">
+        <v>0</v>
+      </c>
+      <c r="J184" t="n">
+        <v>0.4978</v>
+      </c>
+      <c r="K184" t="inlineStr"/>
+      <c r="L184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M184" t="n">
+        <v>1</v>
+      </c>
+      <c r="N184" t="inlineStr"/>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="n">
+        <v>0.4978</v>
+      </c>
+      <c r="C185" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D185" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E185" t="n">
+        <v>0.4978</v>
+      </c>
+      <c r="F185" t="n">
+        <v>715162.7711</v>
+      </c>
+      <c r="G185" t="n">
+        <v>-7022203.207157373</v>
+      </c>
+      <c r="H185" t="n">
+        <v>1</v>
+      </c>
+      <c r="I185" t="n">
+        <v>0</v>
+      </c>
+      <c r="J185" t="n">
+        <v>0.4988</v>
+      </c>
+      <c r="K185" t="inlineStr"/>
+      <c r="L185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M185" t="n">
+        <v>1</v>
+      </c>
+      <c r="N185" t="inlineStr"/>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="n">
+        <v>0.4984</v>
+      </c>
+      <c r="C186" t="n">
+        <v>0.5041</v>
+      </c>
+      <c r="D186" t="n">
+        <v>0.5041</v>
+      </c>
+      <c r="E186" t="n">
+        <v>0.4984</v>
+      </c>
+      <c r="F186" t="n">
+        <v>100000</v>
+      </c>
+      <c r="G186" t="n">
+        <v>-6922203.207157373</v>
+      </c>
+      <c r="H186" t="n">
+        <v>1</v>
+      </c>
+      <c r="I186" t="n">
+        <v>0</v>
+      </c>
+      <c r="J186" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K186" t="inlineStr"/>
+      <c r="L186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M186" t="n">
+        <v>1</v>
+      </c>
+      <c r="N186" t="inlineStr"/>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="n">
+        <v>0.504</v>
+      </c>
+      <c r="C187" t="n">
+        <v>0.5041</v>
+      </c>
+      <c r="D187" t="n">
+        <v>0.5084</v>
+      </c>
+      <c r="E187" t="n">
+        <v>0.504</v>
+      </c>
+      <c r="F187" t="n">
+        <v>6241756.7929</v>
+      </c>
+      <c r="G187" t="n">
+        <v>-6922203.207157373</v>
+      </c>
+      <c r="H187" t="n">
+        <v>1</v>
+      </c>
+      <c r="I187" t="n">
+        <v>0</v>
+      </c>
+      <c r="J187" t="n">
+        <v>0.5041</v>
+      </c>
+      <c r="K187" t="inlineStr"/>
+      <c r="L187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M187" t="n">
+        <v>1</v>
+      </c>
+      <c r="N187" t="inlineStr"/>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="n">
+        <v>0.5218</v>
+      </c>
+      <c r="C188" t="n">
+        <v>0.5218</v>
+      </c>
+      <c r="D188" t="n">
+        <v>0.5218</v>
+      </c>
+      <c r="E188" t="n">
+        <v>0.5218</v>
+      </c>
+      <c r="F188" t="n">
+        <v>1818</v>
+      </c>
+      <c r="G188" t="n">
+        <v>-6920385.207157373</v>
+      </c>
+      <c r="H188" t="n">
+        <v>0</v>
+      </c>
+      <c r="I188" t="n">
+        <v>0</v>
+      </c>
+      <c r="J188" t="inlineStr"/>
+      <c r="K188" t="inlineStr"/>
+      <c r="L188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M188" t="n">
+        <v>1</v>
+      </c>
+      <c r="N188" t="inlineStr"/>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="n">
+        <v>0.5042</v>
+      </c>
+      <c r="C189" t="n">
+        <v>0.5042</v>
+      </c>
+      <c r="D189" t="n">
+        <v>0.5042</v>
+      </c>
+      <c r="E189" t="n">
+        <v>0.5042</v>
+      </c>
+      <c r="F189" t="n">
+        <v>4905.01</v>
+      </c>
+      <c r="G189" t="n">
+        <v>-6925290.217157373</v>
+      </c>
+      <c r="H189" t="n">
+        <v>0</v>
+      </c>
+      <c r="I189" t="n">
+        <v>1</v>
+      </c>
+      <c r="J189" t="inlineStr"/>
+      <c r="K189" t="inlineStr"/>
+      <c r="L189" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="M189" t="inlineStr"/>
+      <c r="N189" t="inlineStr"/>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" t="n">
+        <v>0.5042</v>
+      </c>
+      <c r="C190" t="n">
+        <v>0.5042</v>
+      </c>
+      <c r="D190" t="n">
+        <v>0.5042</v>
+      </c>
+      <c r="E190" t="n">
+        <v>0.5042</v>
+      </c>
+      <c r="F190" t="n">
+        <v>143403.24</v>
+      </c>
+      <c r="G190" t="n">
+        <v>-6925290.217157373</v>
+      </c>
+      <c r="H190" t="n">
+        <v>0</v>
+      </c>
+      <c r="I190" t="n">
+        <v>0</v>
+      </c>
+      <c r="J190" t="inlineStr"/>
+      <c r="K190" t="inlineStr"/>
+      <c r="L190" t="inlineStr"/>
+      <c r="M190" t="n">
+        <v>1</v>
+      </c>
+      <c r="N190" t="inlineStr"/>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" t="n">
+        <v>0.5042</v>
+      </c>
+      <c r="C191" t="n">
+        <v>0.5042</v>
+      </c>
+      <c r="D191" t="n">
+        <v>0.5042</v>
+      </c>
+      <c r="E191" t="n">
+        <v>0.5042</v>
+      </c>
+      <c r="F191" t="n">
+        <v>100896.75</v>
+      </c>
+      <c r="G191" t="n">
+        <v>-6925290.217157373</v>
+      </c>
+      <c r="H191" t="n">
+        <v>0</v>
+      </c>
+      <c r="I191" t="n">
+        <v>0</v>
+      </c>
+      <c r="J191" t="inlineStr"/>
+      <c r="K191" t="inlineStr"/>
+      <c r="L191" t="inlineStr"/>
+      <c r="M191" t="n">
+        <v>1</v>
+      </c>
+      <c r="N191" t="inlineStr"/>
+    </row>
+    <row r="192">
+      <c r="A192" s="1" t="n">
+        <v>190</v>
+      </c>
+      <c r="B192" t="n">
+        <v>0.5041</v>
+      </c>
+      <c r="C192" t="n">
+        <v>0.5041</v>
+      </c>
+      <c r="D192" t="n">
+        <v>0.5041</v>
+      </c>
+      <c r="E192" t="n">
+        <v>0.5041</v>
+      </c>
+      <c r="F192" t="n">
+        <v>207171.7069</v>
+      </c>
+      <c r="G192" t="n">
+        <v>-7132461.924057373</v>
+      </c>
+      <c r="H192" t="n">
+        <v>0</v>
+      </c>
+      <c r="I192" t="n">
+        <v>0</v>
+      </c>
+      <c r="J192" t="inlineStr"/>
+      <c r="K192" t="inlineStr"/>
+      <c r="L192" t="inlineStr"/>
+      <c r="M192" t="n">
+        <v>1</v>
+      </c>
+      <c r="N192" t="inlineStr"/>
+    </row>
+    <row r="193">
+      <c r="A193" s="1" t="n">
+        <v>191</v>
+      </c>
+      <c r="B193" t="n">
+        <v>0.5097</v>
+      </c>
+      <c r="C193" t="n">
+        <v>0.5097</v>
+      </c>
+      <c r="D193" t="n">
+        <v>0.5097</v>
+      </c>
+      <c r="E193" t="n">
+        <v>0.5097</v>
+      </c>
+      <c r="F193" t="n">
+        <v>1818</v>
+      </c>
+      <c r="G193" t="n">
+        <v>-7130643.924057373</v>
+      </c>
+      <c r="H193" t="n">
+        <v>0</v>
+      </c>
+      <c r="I193" t="n">
+        <v>0</v>
+      </c>
+      <c r="J193" t="inlineStr"/>
+      <c r="K193" t="inlineStr"/>
+      <c r="L193" t="inlineStr"/>
+      <c r="M193" t="n">
+        <v>1</v>
+      </c>
+      <c r="N193" t="inlineStr"/>
+    </row>
+    <row r="194">
+      <c r="A194" s="1" t="n">
+        <v>192</v>
+      </c>
+      <c r="B194" t="n">
+        <v>0.5096000000000001</v>
+      </c>
+      <c r="C194" t="n">
+        <v>0.5096000000000001</v>
+      </c>
+      <c r="D194" t="n">
+        <v>0.5096000000000001</v>
+      </c>
+      <c r="E194" t="n">
+        <v>0.5096000000000001</v>
+      </c>
+      <c r="F194" t="n">
+        <v>5870.332</v>
+      </c>
+      <c r="G194" t="n">
+        <v>-7136514.256057373</v>
+      </c>
+      <c r="H194" t="n">
+        <v>0</v>
+      </c>
+      <c r="I194" t="n">
+        <v>0</v>
+      </c>
+      <c r="J194" t="inlineStr"/>
+      <c r="K194" t="inlineStr"/>
+      <c r="L194" t="inlineStr"/>
+      <c r="M194" t="n">
+        <v>1</v>
+      </c>
+      <c r="N194" t="inlineStr"/>
+    </row>
+    <row r="195">
+      <c r="A195" s="1" t="n">
+        <v>193</v>
+      </c>
+      <c r="B195" t="n">
+        <v>0.499</v>
+      </c>
+      <c r="C195" t="n">
+        <v>0.5065</v>
+      </c>
+      <c r="D195" t="n">
+        <v>0.5286</v>
+      </c>
+      <c r="E195" t="n">
+        <v>0.499</v>
+      </c>
+      <c r="F195" t="n">
+        <v>5334290.5796</v>
+      </c>
+      <c r="G195" t="n">
+        <v>-12470804.83565737</v>
+      </c>
+      <c r="H195" t="n">
+        <v>0</v>
+      </c>
+      <c r="I195" t="n">
+        <v>0</v>
+      </c>
+      <c r="J195" t="inlineStr"/>
+      <c r="K195" t="inlineStr"/>
+      <c r="L195" t="inlineStr"/>
+      <c r="M195" t="n">
+        <v>1</v>
+      </c>
+      <c r="N195" t="inlineStr"/>
+    </row>
+    <row r="196">
+      <c r="A196" s="1" t="n">
+        <v>194</v>
+      </c>
+      <c r="B196" t="n">
+        <v>0.5065</v>
+      </c>
+      <c r="C196" t="n">
+        <v>0.5065</v>
+      </c>
+      <c r="D196" t="n">
+        <v>0.5302</v>
+      </c>
+      <c r="E196" t="n">
+        <v>0.5065</v>
+      </c>
+      <c r="F196" t="n">
+        <v>1940985.5835</v>
+      </c>
+      <c r="G196" t="n">
+        <v>-12470804.83565737</v>
+      </c>
+      <c r="H196" t="n">
+        <v>0</v>
+      </c>
+      <c r="I196" t="n">
+        <v>0</v>
+      </c>
+      <c r="J196" t="inlineStr"/>
+      <c r="K196" t="inlineStr"/>
+      <c r="L196" t="inlineStr"/>
+      <c r="M196" t="n">
+        <v>1</v>
+      </c>
+      <c r="N196" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2020-01-19 BackTest OCN.xlsx
+++ b/BackTest/2020-01-19 BackTest OCN.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-9130213.7607</v>
       </c>
       <c r="H2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-9180213.7607</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>-9179216.2607</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>-8354668.917100001</v>
       </c>
       <c r="H10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>-8349991.917100001</v>
       </c>
       <c r="H11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>-8349991.917100001</v>
       </c>
       <c r="H12" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>-8349991.917100001</v>
       </c>
       <c r="H13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>-8349991.917100001</v>
       </c>
       <c r="H14" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>-8349991.917100001</v>
       </c>
       <c r="H15" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>-8379434.767200002</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>-8406054.767200001</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>-8386667.767200001</v>
       </c>
       <c r="H22" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>-8390637.507200001</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>-6518496.806700001</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>-6543496.806700001</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>-6667503.019000001</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>-6768503.019000001</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>-6707233.019000001</v>
       </c>
       <c r="H32" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>-6519402.512600001</v>
       </c>
       <c r="H33" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>-6519402.512600001</v>
       </c>
       <c r="H34" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>-6600542.512600001</v>
       </c>
       <c r="H35" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>-7048042.512600001</v>
       </c>
       <c r="H36" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>-7574604.023100001</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>-7466980.7558</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>-8609017.097200001</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>-8603243.323700001</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>-8895076.491400002</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>-9070240.854000002</v>
       </c>
       <c r="H42" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
         <v>-9073654.426700002</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>-8936789.875000002</v>
       </c>
       <c r="H44" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1870,7 +1870,7 @@
         <v>-9005125.606300002</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>-9004145.606300002</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
         <v>-9368878.430500003</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>-9368878.430500003</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>-9368878.430500003</v>
       </c>
       <c r="H49" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>-9693627.083100002</v>
       </c>
       <c r="H50" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2068,7 +2068,7 @@
         <v>-9402780.565300003</v>
       </c>
       <c r="H51" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2101,7 +2101,7 @@
         <v>-9356514.886200003</v>
       </c>
       <c r="H52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2134,7 +2134,7 @@
         <v>-9296369.486200003</v>
       </c>
       <c r="H53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2167,7 +2167,7 @@
         <v>-8474250.507300003</v>
       </c>
       <c r="H54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2200,7 +2200,7 @@
         <v>-8473250.507300003</v>
       </c>
       <c r="H55" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
         <v>-10532463.0684</v>
       </c>
       <c r="H56" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2266,7 +2266,7 @@
         <v>-11452527.7284</v>
       </c>
       <c r="H57" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2299,7 +2299,7 @@
         <v>-11389312.0476</v>
       </c>
       <c r="H58" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2332,7 +2332,7 @@
         <v>-11483216.2789</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2431,7 +2431,7 @@
         <v>-12990309.6878</v>
       </c>
       <c r="H62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2464,7 +2464,7 @@
         <v>-13118604.0613</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -5236,11 +5236,17 @@
         <v>-10529913.85205738</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
-      </c>
-      <c r="I147" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I147" t="n">
+        <v>0.4802</v>
+      </c>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5273,7 +5279,11 @@
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5302,11 +5312,17 @@
         <v>-10529913.85205738</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
-      </c>
-      <c r="I149" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I149" t="n">
+        <v>0.4802</v>
+      </c>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5335,11 +5351,17 @@
         <v>-10529913.85205738</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
-      </c>
-      <c r="I150" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I150" t="n">
+        <v>0.4802</v>
+      </c>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5368,11 +5390,17 @@
         <v>-10529913.85205738</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
-      </c>
-      <c r="I151" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I151" t="n">
+        <v>0.4802</v>
+      </c>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -5401,15 +5429,17 @@
         <v>-10451759.05055737</v>
       </c>
       <c r="H152" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I152" t="n">
         <v>0.4802</v>
       </c>
-      <c r="J152" t="n">
-        <v>0.4802</v>
-      </c>
-      <c r="K152" t="inlineStr"/>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -5438,17 +5468,15 @@
         <v>-10456401.49185737</v>
       </c>
       <c r="H153" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I153" t="n">
         <v>0.4884</v>
       </c>
-      <c r="J153" t="n">
-        <v>0.4802</v>
-      </c>
+      <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L153" t="n">
@@ -5479,15 +5507,15 @@
         <v>-11525529.02655737</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
-      </c>
-      <c r="I154" t="inlineStr"/>
-      <c r="J154" t="n">
-        <v>0.4802</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I154" t="n">
+        <v>0.4877</v>
+      </c>
+      <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L154" t="n">
@@ -5518,12 +5546,12 @@
         <v>-11338459.20465737</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
-      </c>
-      <c r="I155" t="inlineStr"/>
-      <c r="J155" t="n">
+        <v>1</v>
+      </c>
+      <c r="I155" t="n">
         <v>0.4802</v>
       </c>
+      <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5557,12 +5585,12 @@
         <v>-11760948.74175737</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
-      </c>
-      <c r="I156" t="inlineStr"/>
-      <c r="J156" t="n">
-        <v>0.4802</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I156" t="n">
+        <v>0.4882</v>
+      </c>
+      <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5596,12 +5624,12 @@
         <v>-11759130.74175737</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
-      </c>
-      <c r="I157" t="inlineStr"/>
-      <c r="J157" t="n">
-        <v>0.4802</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I157" t="n">
+        <v>0.4871</v>
+      </c>
+      <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5637,10 +5665,10 @@
       <c r="H158" t="n">
         <v>1</v>
       </c>
-      <c r="I158" t="inlineStr"/>
-      <c r="J158" t="n">
-        <v>0.4802</v>
-      </c>
+      <c r="I158" t="n">
+        <v>0.4884</v>
+      </c>
+      <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5674,12 +5702,12 @@
         <v>-11824801.74175737</v>
       </c>
       <c r="H159" t="n">
-        <v>0</v>
-      </c>
-      <c r="I159" t="inlineStr"/>
-      <c r="J159" t="n">
-        <v>0.4802</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I159" t="n">
+        <v>0.4871</v>
+      </c>
+      <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5713,14 +5741,12 @@
         <v>-11836962.74175737</v>
       </c>
       <c r="H160" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I160" t="n">
         <v>0.4884</v>
       </c>
-      <c r="J160" t="n">
-        <v>0.4802</v>
-      </c>
+      <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5754,14 +5780,12 @@
         <v>-11836962.74175737</v>
       </c>
       <c r="H161" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I161" t="n">
         <v>0.488</v>
       </c>
-      <c r="J161" t="n">
-        <v>0.4802</v>
-      </c>
+      <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5795,14 +5819,12 @@
         <v>-11836962.74175737</v>
       </c>
       <c r="H162" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I162" t="n">
         <v>0.488</v>
       </c>
-      <c r="J162" t="n">
-        <v>0.4802</v>
-      </c>
+      <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5836,14 +5858,12 @@
         <v>-11836962.74175737</v>
       </c>
       <c r="H163" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I163" t="n">
         <v>0.488</v>
       </c>
-      <c r="J163" t="n">
-        <v>0.4802</v>
-      </c>
+      <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5877,14 +5897,12 @@
         <v>-10869473.19375737</v>
       </c>
       <c r="H164" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I164" t="n">
         <v>0.488</v>
       </c>
-      <c r="J164" t="n">
-        <v>0.4802</v>
-      </c>
+      <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5920,10 +5938,10 @@
       <c r="H165" t="n">
         <v>1</v>
       </c>
-      <c r="I165" t="inlineStr"/>
-      <c r="J165" t="n">
-        <v>0.4802</v>
-      </c>
+      <c r="I165" t="n">
+        <v>0.4884</v>
+      </c>
+      <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5959,10 +5977,10 @@
       <c r="H166" t="n">
         <v>1</v>
       </c>
-      <c r="I166" t="inlineStr"/>
-      <c r="J166" t="n">
-        <v>0.4802</v>
-      </c>
+      <c r="I166" t="n">
+        <v>0.4884</v>
+      </c>
+      <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5996,14 +6014,12 @@
         <v>-10900533.19375737</v>
       </c>
       <c r="H167" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I167" t="n">
         <v>0.488</v>
       </c>
-      <c r="J167" t="n">
-        <v>0.4802</v>
-      </c>
+      <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6037,14 +6053,12 @@
         <v>-10900533.19375737</v>
       </c>
       <c r="H168" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I168" t="n">
         <v>0.488</v>
       </c>
-      <c r="J168" t="n">
-        <v>0.4802</v>
-      </c>
+      <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6078,14 +6092,12 @@
         <v>-10900533.19375737</v>
       </c>
       <c r="H169" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I169" t="n">
         <v>0.488</v>
       </c>
-      <c r="J169" t="n">
-        <v>0.4802</v>
-      </c>
+      <c r="J169" t="inlineStr"/>
       <c r="K169" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6119,14 +6131,12 @@
         <v>-10900533.19375737</v>
       </c>
       <c r="H170" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I170" t="n">
         <v>0.488</v>
       </c>
-      <c r="J170" t="n">
-        <v>0.4802</v>
-      </c>
+      <c r="J170" t="inlineStr"/>
       <c r="K170" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6160,14 +6170,12 @@
         <v>-10433827.29375737</v>
       </c>
       <c r="H171" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I171" t="n">
         <v>0.488</v>
       </c>
-      <c r="J171" t="n">
-        <v>0.4802</v>
-      </c>
+      <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6201,14 +6209,12 @@
         <v>-10530557.29375737</v>
       </c>
       <c r="H172" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I172" t="n">
         <v>0.4964</v>
       </c>
-      <c r="J172" t="n">
-        <v>0.4802</v>
-      </c>
+      <c r="J172" t="inlineStr"/>
       <c r="K172" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6242,14 +6248,12 @@
         <v>-10530557.29375737</v>
       </c>
       <c r="H173" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I173" t="n">
         <v>0.488</v>
       </c>
-      <c r="J173" t="n">
-        <v>0.4802</v>
-      </c>
+      <c r="J173" t="inlineStr"/>
       <c r="K173" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6283,14 +6287,12 @@
         <v>-10515154.29375737</v>
       </c>
       <c r="H174" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I174" t="n">
         <v>0.488</v>
       </c>
-      <c r="J174" t="n">
-        <v>0.4802</v>
-      </c>
+      <c r="J174" t="inlineStr"/>
       <c r="K174" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6326,10 +6328,10 @@
       <c r="H175" t="n">
         <v>1</v>
       </c>
-      <c r="I175" t="inlineStr"/>
-      <c r="J175" t="n">
-        <v>0.4802</v>
-      </c>
+      <c r="I175" t="n">
+        <v>0.4987</v>
+      </c>
+      <c r="J175" t="inlineStr"/>
       <c r="K175" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6365,10 +6367,10 @@
       <c r="H176" t="n">
         <v>1</v>
       </c>
-      <c r="I176" t="inlineStr"/>
-      <c r="J176" t="n">
-        <v>0.4802</v>
-      </c>
+      <c r="I176" t="n">
+        <v>0.4881</v>
+      </c>
+      <c r="J176" t="inlineStr"/>
       <c r="K176" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6404,10 +6406,10 @@
       <c r="H177" t="n">
         <v>1</v>
       </c>
-      <c r="I177" t="inlineStr"/>
-      <c r="J177" t="n">
-        <v>0.4802</v>
-      </c>
+      <c r="I177" t="n">
+        <v>0.4987</v>
+      </c>
+      <c r="J177" t="inlineStr"/>
       <c r="K177" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6443,10 +6445,10 @@
       <c r="H178" t="n">
         <v>1</v>
       </c>
-      <c r="I178" t="inlineStr"/>
-      <c r="J178" t="n">
-        <v>0.4802</v>
-      </c>
+      <c r="I178" t="n">
+        <v>0.4986</v>
+      </c>
+      <c r="J178" t="inlineStr"/>
       <c r="K178" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6482,10 +6484,10 @@
       <c r="H179" t="n">
         <v>1</v>
       </c>
-      <c r="I179" t="inlineStr"/>
-      <c r="J179" t="n">
-        <v>0.4802</v>
-      </c>
+      <c r="I179" t="n">
+        <v>0.4987</v>
+      </c>
+      <c r="J179" t="inlineStr"/>
       <c r="K179" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6521,10 +6523,10 @@
       <c r="H180" t="n">
         <v>1</v>
       </c>
-      <c r="I180" t="inlineStr"/>
-      <c r="J180" t="n">
-        <v>0.4802</v>
-      </c>
+      <c r="I180" t="n">
+        <v>0.4983</v>
+      </c>
+      <c r="J180" t="inlineStr"/>
       <c r="K180" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6560,10 +6562,10 @@
       <c r="H181" t="n">
         <v>1</v>
       </c>
-      <c r="I181" t="inlineStr"/>
-      <c r="J181" t="n">
-        <v>0.4802</v>
-      </c>
+      <c r="I181" t="n">
+        <v>0.4983</v>
+      </c>
+      <c r="J181" t="inlineStr"/>
       <c r="K181" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6599,10 +6601,10 @@
       <c r="H182" t="n">
         <v>1</v>
       </c>
-      <c r="I182" t="inlineStr"/>
-      <c r="J182" t="n">
-        <v>0.4802</v>
-      </c>
+      <c r="I182" t="n">
+        <v>0.498</v>
+      </c>
+      <c r="J182" t="inlineStr"/>
       <c r="K182" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6638,10 +6640,10 @@
       <c r="H183" t="n">
         <v>1</v>
       </c>
-      <c r="I183" t="inlineStr"/>
-      <c r="J183" t="n">
-        <v>0.4802</v>
-      </c>
+      <c r="I183" t="n">
+        <v>0.4979</v>
+      </c>
+      <c r="J183" t="inlineStr"/>
       <c r="K183" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6677,10 +6679,10 @@
       <c r="H184" t="n">
         <v>1</v>
       </c>
-      <c r="I184" t="inlineStr"/>
-      <c r="J184" t="n">
-        <v>0.4802</v>
-      </c>
+      <c r="I184" t="n">
+        <v>0.4978</v>
+      </c>
+      <c r="J184" t="inlineStr"/>
       <c r="K184" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6716,10 +6718,10 @@
       <c r="H185" t="n">
         <v>1</v>
       </c>
-      <c r="I185" t="inlineStr"/>
-      <c r="J185" t="n">
-        <v>0.4802</v>
-      </c>
+      <c r="I185" t="n">
+        <v>0.4988</v>
+      </c>
+      <c r="J185" t="inlineStr"/>
       <c r="K185" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6755,10 +6757,10 @@
       <c r="H186" t="n">
         <v>1</v>
       </c>
-      <c r="I186" t="inlineStr"/>
-      <c r="J186" t="n">
-        <v>0.4802</v>
-      </c>
+      <c r="I186" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="J186" t="inlineStr"/>
       <c r="K186" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6794,10 +6796,10 @@
       <c r="H187" t="n">
         <v>1</v>
       </c>
-      <c r="I187" t="inlineStr"/>
-      <c r="J187" t="n">
-        <v>0.4802</v>
-      </c>
+      <c r="I187" t="n">
+        <v>0.5041</v>
+      </c>
+      <c r="J187" t="inlineStr"/>
       <c r="K187" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6831,12 +6833,10 @@
         <v>-6920385.207157373</v>
       </c>
       <c r="H188" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
-      <c r="J188" t="n">
-        <v>0.4802</v>
-      </c>
+      <c r="J188" t="inlineStr"/>
       <c r="K188" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6870,12 +6870,10 @@
         <v>-6925290.217157373</v>
       </c>
       <c r="H189" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
-      <c r="J189" t="n">
-        <v>0.4802</v>
-      </c>
+      <c r="J189" t="inlineStr"/>
       <c r="K189" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6909,12 +6907,10 @@
         <v>-6925290.217157373</v>
       </c>
       <c r="H190" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
-      <c r="J190" t="n">
-        <v>0.4802</v>
-      </c>
+      <c r="J190" t="inlineStr"/>
       <c r="K190" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6948,19 +6944,17 @@
         <v>-6925290.217157373</v>
       </c>
       <c r="H191" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
-      <c r="J191" t="n">
-        <v>0.4802</v>
-      </c>
+      <c r="J191" t="inlineStr"/>
       <c r="K191" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L191" t="n">
-        <v>1.044979175343607</v>
+        <v>1</v>
       </c>
       <c r="M191" t="inlineStr"/>
     </row>
@@ -6987,11 +6981,15 @@
         <v>-7132461.924057373</v>
       </c>
       <c r="H192" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
+      <c r="K192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -7020,11 +7018,15 @@
         <v>-7130643.924057373</v>
       </c>
       <c r="H193" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
+      <c r="K193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -7053,15 +7055,15 @@
         <v>-7136514.256057373</v>
       </c>
       <c r="H194" t="n">
-        <v>2</v>
-      </c>
-      <c r="I194" t="n">
-        <v>0.5097</v>
-      </c>
-      <c r="J194" t="n">
-        <v>0.5097</v>
-      </c>
-      <c r="K194" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I194" t="inlineStr"/>
+      <c r="J194" t="inlineStr"/>
+      <c r="K194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -7090,15 +7092,13 @@
         <v>-12470804.83565737</v>
       </c>
       <c r="H195" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
-      <c r="J195" t="n">
-        <v>0.5097</v>
-      </c>
+      <c r="J195" t="inlineStr"/>
       <c r="K195" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L195" t="n">
@@ -7129,12 +7129,10 @@
         <v>-12470804.83565737</v>
       </c>
       <c r="H196" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
-      <c r="J196" t="n">
-        <v>0.5097</v>
-      </c>
+      <c r="J196" t="inlineStr"/>
       <c r="K196" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7146,6 +7144,6 @@
       <c r="M196" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-19 BackTest OCN.xlsx
+++ b/BackTest/2020-01-19 BackTest OCN.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-9130213.7607</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-9180213.7607</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>-9179216.2607</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>-8354668.917100001</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>-8349991.917100001</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>-8349991.917100001</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>-8349991.917100001</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>-8379434.767200002</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>-8406054.767200001</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>-8386667.767200001</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>-8390637.507200001</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>-6518496.806700001</v>
       </c>
       <c r="H27" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>-6543496.806700001</v>
       </c>
       <c r="H28" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>-6667503.019000001</v>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>-6768503.019000001</v>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>-6707233.019000001</v>
       </c>
       <c r="H32" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>-6519402.512600001</v>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>-6519402.512600001</v>
       </c>
       <c r="H34" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>-6600542.512600001</v>
       </c>
       <c r="H35" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>-7048042.512600001</v>
       </c>
       <c r="H36" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>-7574604.023100001</v>
       </c>
       <c r="H37" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>-7466980.7558</v>
       </c>
       <c r="H38" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>-8609017.097200001</v>
       </c>
       <c r="H39" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>-8603243.323700001</v>
       </c>
       <c r="H40" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>-8895076.491400002</v>
       </c>
       <c r="H41" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>-9070240.854000002</v>
       </c>
       <c r="H42" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
         <v>-9073654.426700002</v>
       </c>
       <c r="H43" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>-8936789.875000002</v>
       </c>
       <c r="H44" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1870,7 +1870,7 @@
         <v>-9005125.606300002</v>
       </c>
       <c r="H45" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>-9004145.606300002</v>
       </c>
       <c r="H46" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
         <v>-9368878.430500003</v>
       </c>
       <c r="H47" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>-9368878.430500003</v>
       </c>
       <c r="H48" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>-9368878.430500003</v>
       </c>
       <c r="H49" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>-9693627.083100002</v>
       </c>
       <c r="H50" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2068,7 +2068,7 @@
         <v>-9402780.565300003</v>
       </c>
       <c r="H51" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2200,7 +2200,7 @@
         <v>-8473250.507300003</v>
       </c>
       <c r="H55" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
         <v>-10532463.0684</v>
       </c>
       <c r="H56" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2266,7 +2266,7 @@
         <v>-11452527.7284</v>
       </c>
       <c r="H57" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2299,7 +2299,7 @@
         <v>-11389312.0476</v>
       </c>
       <c r="H58" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2332,7 +2332,7 @@
         <v>-11483216.2789</v>
       </c>
       <c r="H59" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2464,7 +2464,7 @@
         <v>-13118604.0613</v>
       </c>
       <c r="H63" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2794,11 +2794,17 @@
         <v>-14264211.5238</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
-      </c>
-      <c r="I73" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I73" t="n">
+        <v>0.4839</v>
+      </c>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -2827,11 +2833,17 @@
         <v>-13512676.5406</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
-      </c>
-      <c r="I74" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I74" t="n">
+        <v>0.4716</v>
+      </c>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -2860,11 +2872,17 @@
         <v>-13288156.5406</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
-      </c>
-      <c r="I75" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I75" t="n">
+        <v>0.473</v>
+      </c>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -2897,7 +2915,11 @@
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -2930,7 +2952,11 @@
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -2963,7 +2989,11 @@
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -2996,7 +3026,11 @@
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3029,7 +3063,11 @@
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3062,7 +3100,11 @@
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3095,7 +3137,11 @@
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3128,7 +3174,11 @@
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3161,7 +3211,11 @@
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3194,7 +3248,11 @@
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3227,7 +3285,11 @@
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3260,7 +3322,11 @@
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3293,7 +3359,11 @@
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3326,7 +3396,11 @@
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3359,7 +3433,11 @@
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3392,7 +3470,11 @@
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3425,7 +3507,11 @@
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3458,7 +3544,11 @@
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3491,7 +3581,11 @@
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3524,7 +3618,11 @@
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3557,7 +3655,11 @@
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3590,7 +3692,11 @@
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -3623,7 +3729,11 @@
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -3656,7 +3766,11 @@
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -3689,7 +3803,11 @@
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -3722,7 +3840,11 @@
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -3755,7 +3877,11 @@
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -3788,7 +3914,11 @@
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -3821,7 +3951,11 @@
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -3854,7 +3988,11 @@
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -3887,7 +4025,11 @@
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -3920,7 +4062,11 @@
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -3953,7 +4099,11 @@
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -3986,7 +4136,11 @@
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4019,7 +4173,11 @@
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4052,7 +4210,11 @@
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4085,7 +4247,11 @@
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4118,7 +4284,11 @@
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4151,7 +4321,11 @@
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4184,7 +4358,11 @@
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4217,7 +4395,11 @@
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4250,7 +4432,11 @@
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4283,7 +4469,11 @@
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4316,7 +4506,11 @@
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4349,7 +4543,11 @@
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4382,7 +4580,11 @@
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4415,7 +4617,11 @@
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4448,7 +4654,11 @@
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4481,7 +4691,11 @@
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4514,7 +4728,11 @@
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -4547,7 +4765,11 @@
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -4580,7 +4802,11 @@
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -4613,7 +4839,11 @@
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -4646,7 +4876,11 @@
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -4679,7 +4913,11 @@
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -4712,7 +4950,11 @@
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -4745,7 +4987,11 @@
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -4778,7 +5024,11 @@
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -4811,7 +5061,11 @@
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -4844,7 +5098,11 @@
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -4877,7 +5135,11 @@
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -4910,7 +5172,11 @@
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -4943,7 +5209,11 @@
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -4976,7 +5246,11 @@
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5009,7 +5283,11 @@
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5042,7 +5320,11 @@
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5075,7 +5357,11 @@
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5108,7 +5394,11 @@
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5141,7 +5431,11 @@
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5174,7 +5468,11 @@
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5207,7 +5505,11 @@
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5236,15 +5538,13 @@
         <v>-10529913.85205738</v>
       </c>
       <c r="H147" t="n">
-        <v>1</v>
-      </c>
-      <c r="I147" t="n">
-        <v>0.4802</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L147" t="n">
@@ -5312,11 +5612,9 @@
         <v>-10529913.85205738</v>
       </c>
       <c r="H149" t="n">
-        <v>1</v>
-      </c>
-      <c r="I149" t="n">
-        <v>0.4802</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr">
         <is>
@@ -5351,11 +5649,9 @@
         <v>-10529913.85205738</v>
       </c>
       <c r="H150" t="n">
-        <v>1</v>
-      </c>
-      <c r="I150" t="n">
-        <v>0.4802</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr">
         <is>
@@ -5390,11 +5686,9 @@
         <v>-10529913.85205738</v>
       </c>
       <c r="H151" t="n">
-        <v>1</v>
-      </c>
-      <c r="I151" t="n">
-        <v>0.4802</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr">
         <is>
@@ -5429,11 +5723,9 @@
         <v>-10451759.05055737</v>
       </c>
       <c r="H152" t="n">
-        <v>1</v>
-      </c>
-      <c r="I152" t="n">
-        <v>0.4802</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr">
         <is>
@@ -5468,11 +5760,9 @@
         <v>-10456401.49185737</v>
       </c>
       <c r="H153" t="n">
-        <v>1</v>
-      </c>
-      <c r="I153" t="n">
-        <v>0.4884</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr">
         <is>
@@ -5507,11 +5797,9 @@
         <v>-11525529.02655737</v>
       </c>
       <c r="H154" t="n">
-        <v>1</v>
-      </c>
-      <c r="I154" t="n">
-        <v>0.4877</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr">
         <is>
@@ -5546,11 +5834,9 @@
         <v>-11338459.20465737</v>
       </c>
       <c r="H155" t="n">
-        <v>1</v>
-      </c>
-      <c r="I155" t="n">
-        <v>0.4802</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr">
         <is>
@@ -5585,11 +5871,9 @@
         <v>-11760948.74175737</v>
       </c>
       <c r="H156" t="n">
-        <v>1</v>
-      </c>
-      <c r="I156" t="n">
-        <v>0.4882</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr">
         <is>
@@ -5624,11 +5908,9 @@
         <v>-11759130.74175737</v>
       </c>
       <c r="H157" t="n">
-        <v>1</v>
-      </c>
-      <c r="I157" t="n">
-        <v>0.4871</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr">
         <is>
@@ -5663,11 +5945,9 @@
         <v>-11874801.74175737</v>
       </c>
       <c r="H158" t="n">
-        <v>1</v>
-      </c>
-      <c r="I158" t="n">
-        <v>0.4884</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr">
         <is>
@@ -5702,11 +5982,9 @@
         <v>-11824801.74175737</v>
       </c>
       <c r="H159" t="n">
-        <v>1</v>
-      </c>
-      <c r="I159" t="n">
-        <v>0.4871</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr">
         <is>
@@ -5741,11 +6019,9 @@
         <v>-11836962.74175737</v>
       </c>
       <c r="H160" t="n">
-        <v>1</v>
-      </c>
-      <c r="I160" t="n">
-        <v>0.4884</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr">
         <is>
@@ -5780,11 +6056,9 @@
         <v>-11836962.74175737</v>
       </c>
       <c r="H161" t="n">
-        <v>1</v>
-      </c>
-      <c r="I161" t="n">
-        <v>0.488</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr">
         <is>
@@ -5819,11 +6093,9 @@
         <v>-11836962.74175737</v>
       </c>
       <c r="H162" t="n">
-        <v>1</v>
-      </c>
-      <c r="I162" t="n">
-        <v>0.488</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr">
         <is>
@@ -5858,11 +6130,9 @@
         <v>-11836962.74175737</v>
       </c>
       <c r="H163" t="n">
-        <v>1</v>
-      </c>
-      <c r="I163" t="n">
-        <v>0.488</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr">
         <is>
@@ -5897,11 +6167,9 @@
         <v>-10869473.19375737</v>
       </c>
       <c r="H164" t="n">
-        <v>1</v>
-      </c>
-      <c r="I164" t="n">
-        <v>0.488</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr">
         <is>
@@ -5936,11 +6204,9 @@
         <v>-10869473.19375737</v>
       </c>
       <c r="H165" t="n">
-        <v>1</v>
-      </c>
-      <c r="I165" t="n">
-        <v>0.4884</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr">
         <is>
@@ -5975,11 +6241,9 @@
         <v>-10900533.19375737</v>
       </c>
       <c r="H166" t="n">
-        <v>1</v>
-      </c>
-      <c r="I166" t="n">
-        <v>0.4884</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr">
         <is>
@@ -6014,11 +6278,9 @@
         <v>-10900533.19375737</v>
       </c>
       <c r="H167" t="n">
-        <v>1</v>
-      </c>
-      <c r="I167" t="n">
-        <v>0.488</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr">
         <is>
@@ -6053,11 +6315,9 @@
         <v>-10900533.19375737</v>
       </c>
       <c r="H168" t="n">
-        <v>1</v>
-      </c>
-      <c r="I168" t="n">
-        <v>0.488</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr">
         <is>
@@ -6092,11 +6352,9 @@
         <v>-10900533.19375737</v>
       </c>
       <c r="H169" t="n">
-        <v>1</v>
-      </c>
-      <c r="I169" t="n">
-        <v>0.488</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
       <c r="K169" t="inlineStr">
         <is>
@@ -6131,11 +6389,9 @@
         <v>-10900533.19375737</v>
       </c>
       <c r="H170" t="n">
-        <v>1</v>
-      </c>
-      <c r="I170" t="n">
-        <v>0.488</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
       <c r="K170" t="inlineStr">
         <is>
@@ -6170,11 +6426,9 @@
         <v>-10433827.29375737</v>
       </c>
       <c r="H171" t="n">
-        <v>1</v>
-      </c>
-      <c r="I171" t="n">
-        <v>0.488</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr">
         <is>
@@ -6209,11 +6463,9 @@
         <v>-10530557.29375737</v>
       </c>
       <c r="H172" t="n">
-        <v>1</v>
-      </c>
-      <c r="I172" t="n">
-        <v>0.4964</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
       <c r="K172" t="inlineStr">
         <is>
@@ -6248,11 +6500,9 @@
         <v>-10530557.29375737</v>
       </c>
       <c r="H173" t="n">
-        <v>1</v>
-      </c>
-      <c r="I173" t="n">
-        <v>0.488</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
       <c r="K173" t="inlineStr">
         <is>
@@ -6287,11 +6537,9 @@
         <v>-10515154.29375737</v>
       </c>
       <c r="H174" t="n">
-        <v>1</v>
-      </c>
-      <c r="I174" t="n">
-        <v>0.488</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
       <c r="K174" t="inlineStr">
         <is>
@@ -6326,11 +6574,9 @@
         <v>-10516972.29375737</v>
       </c>
       <c r="H175" t="n">
-        <v>1</v>
-      </c>
-      <c r="I175" t="n">
-        <v>0.4987</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
       <c r="K175" t="inlineStr">
         <is>
@@ -6365,11 +6611,9 @@
         <v>-8702270.845157374</v>
       </c>
       <c r="H176" t="n">
-        <v>1</v>
-      </c>
-      <c r="I176" t="n">
-        <v>0.4881</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
       <c r="K176" t="inlineStr">
         <is>
@@ -6404,11 +6648,9 @@
         <v>-8704088.845157374</v>
       </c>
       <c r="H177" t="n">
-        <v>1</v>
-      </c>
-      <c r="I177" t="n">
-        <v>0.4987</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
       <c r="K177" t="inlineStr">
         <is>
@@ -6443,11 +6685,9 @@
         <v>-8702270.845157374</v>
       </c>
       <c r="H178" t="n">
-        <v>1</v>
-      </c>
-      <c r="I178" t="n">
-        <v>0.4986</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
       <c r="K178" t="inlineStr">
         <is>
@@ -6482,11 +6722,9 @@
         <v>-8706582.342057373</v>
       </c>
       <c r="H179" t="n">
-        <v>1</v>
-      </c>
-      <c r="I179" t="n">
-        <v>0.4987</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
       <c r="K179" t="inlineStr">
         <is>
@@ -6521,11 +6759,9 @@
         <v>-8706582.342057373</v>
       </c>
       <c r="H180" t="n">
-        <v>1</v>
-      </c>
-      <c r="I180" t="n">
-        <v>0.4983</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
       <c r="K180" t="inlineStr">
         <is>
@@ -6560,11 +6796,9 @@
         <v>-8763582.342057373</v>
       </c>
       <c r="H181" t="n">
-        <v>1</v>
-      </c>
-      <c r="I181" t="n">
-        <v>0.4983</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
       <c r="K181" t="inlineStr">
         <is>
@@ -6599,11 +6833,9 @@
         <v>-8765400.342057373</v>
       </c>
       <c r="H182" t="n">
-        <v>1</v>
-      </c>
-      <c r="I182" t="n">
-        <v>0.498</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
       <c r="K182" t="inlineStr">
         <is>
@@ -6638,11 +6870,9 @@
         <v>-8795400.342057373</v>
       </c>
       <c r="H183" t="n">
-        <v>1</v>
-      </c>
-      <c r="I183" t="n">
-        <v>0.4979</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
       <c r="K183" t="inlineStr">
         <is>
@@ -6677,11 +6907,9 @@
         <v>-7737365.978257373</v>
       </c>
       <c r="H184" t="n">
-        <v>1</v>
-      </c>
-      <c r="I184" t="n">
-        <v>0.4978</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
       <c r="K184" t="inlineStr">
         <is>
@@ -6716,11 +6944,9 @@
         <v>-7022203.207157373</v>
       </c>
       <c r="H185" t="n">
-        <v>1</v>
-      </c>
-      <c r="I185" t="n">
-        <v>0.4988</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
       <c r="K185" t="inlineStr">
         <is>
@@ -6755,11 +6981,9 @@
         <v>-6922203.207157373</v>
       </c>
       <c r="H186" t="n">
-        <v>1</v>
-      </c>
-      <c r="I186" t="n">
-        <v>0.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
       <c r="K186" t="inlineStr">
         <is>
@@ -6794,11 +7018,9 @@
         <v>-6922203.207157373</v>
       </c>
       <c r="H187" t="n">
-        <v>1</v>
-      </c>
-      <c r="I187" t="n">
-        <v>0.5041</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
       <c r="K187" t="inlineStr">
         <is>
@@ -6833,18 +7055,16 @@
         <v>-6920385.207157373</v>
       </c>
       <c r="H188" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
       <c r="K188" t="inlineStr">
         <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L188" t="n">
-        <v>1</v>
-      </c>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L188" t="inlineStr"/>
       <c r="M188" t="inlineStr"/>
     </row>
     <row r="189">
@@ -6870,15 +7090,11 @@
         <v>-6925290.217157373</v>
       </c>
       <c r="H189" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K189" t="inlineStr"/>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -6907,15 +7123,11 @@
         <v>-6925290.217157373</v>
       </c>
       <c r="H190" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K190" t="inlineStr"/>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -6944,15 +7156,11 @@
         <v>-6925290.217157373</v>
       </c>
       <c r="H191" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K191" t="inlineStr"/>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -6981,15 +7189,11 @@
         <v>-7132461.924057373</v>
       </c>
       <c r="H192" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K192" t="inlineStr"/>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -7022,11 +7226,7 @@
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K193" t="inlineStr"/>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -7059,11 +7259,7 @@
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K194" t="inlineStr"/>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -7092,15 +7288,11 @@
         <v>-12470804.83565737</v>
       </c>
       <c r="H195" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K195" t="inlineStr"/>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -7129,21 +7321,17 @@
         <v>-12470804.83565737</v>
       </c>
       <c r="H196" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K196" t="inlineStr"/>
       <c r="L196" t="n">
         <v>1</v>
       </c>
       <c r="M196" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-19 BackTest OCN.xlsx
+++ b/BackTest/2020-01-19 BackTest OCN.xlsx
@@ -715,7 +715,7 @@
         <v>-8354668.917100001</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>-8349991.917100001</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>-8349991.917100001</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>-8379434.767200002</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>-8406054.767200001</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>-8406054.767200001</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>-8386667.767200001</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>-8390637.507200001</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>-6543496.806700001</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>-6768503.019000001</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>-6707233.019000001</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>-6519402.512600001</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>-6519402.512600001</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>-6600542.512600001</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>-7048042.512600001</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>-7574604.023100001</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>-7466980.7558</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>-8609017.097200001</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>-8603243.323700001</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>-8895076.491400002</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>-9070240.854000002</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
         <v>-9073654.426700002</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1870,7 +1870,7 @@
         <v>-9005125.606300002</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -2200,7 +2200,7 @@
         <v>-8473250.507300003</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
         <v>-10532463.0684</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2266,7 +2266,7 @@
         <v>-11452527.7284</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2299,7 +2299,7 @@
         <v>-11389312.0476</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2794,17 +2794,11 @@
         <v>-14264211.5238</v>
       </c>
       <c r="H73" t="n">
-        <v>1</v>
-      </c>
-      <c r="I73" t="n">
-        <v>0.4839</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K73" t="inlineStr"/>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -2833,17 +2827,11 @@
         <v>-13512676.5406</v>
       </c>
       <c r="H74" t="n">
-        <v>1</v>
-      </c>
-      <c r="I74" t="n">
-        <v>0.4716</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K74" t="inlineStr"/>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -2872,17 +2860,11 @@
         <v>-13288156.5406</v>
       </c>
       <c r="H75" t="n">
-        <v>1</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0.473</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K75" t="inlineStr"/>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -2915,11 +2897,7 @@
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K76" t="inlineStr"/>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -2952,11 +2930,7 @@
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K77" t="inlineStr"/>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -2989,11 +2963,7 @@
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K78" t="inlineStr"/>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3026,11 +2996,7 @@
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K79" t="inlineStr"/>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3063,11 +3029,7 @@
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K80" t="inlineStr"/>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3100,11 +3062,7 @@
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K81" t="inlineStr"/>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3137,11 +3095,7 @@
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K82" t="inlineStr"/>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3174,11 +3128,7 @@
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K83" t="inlineStr"/>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3211,11 +3161,7 @@
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K84" t="inlineStr"/>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3248,11 +3194,7 @@
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K85" t="inlineStr"/>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3285,11 +3227,7 @@
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K86" t="inlineStr"/>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3322,11 +3260,7 @@
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K87" t="inlineStr"/>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3359,11 +3293,7 @@
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K88" t="inlineStr"/>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3396,11 +3326,7 @@
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K89" t="inlineStr"/>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3433,11 +3359,7 @@
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K90" t="inlineStr"/>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3470,11 +3392,7 @@
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K91" t="inlineStr"/>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3507,11 +3425,7 @@
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K92" t="inlineStr"/>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3544,11 +3458,7 @@
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K93" t="inlineStr"/>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3581,11 +3491,7 @@
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K94" t="inlineStr"/>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3618,11 +3524,7 @@
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K95" t="inlineStr"/>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3655,11 +3557,7 @@
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K96" t="inlineStr"/>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3692,11 +3590,7 @@
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K97" t="inlineStr"/>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -3729,11 +3623,7 @@
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K98" t="inlineStr"/>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -3766,11 +3656,7 @@
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K99" t="inlineStr"/>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -3803,11 +3689,7 @@
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K100" t="inlineStr"/>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -3840,11 +3722,7 @@
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K101" t="inlineStr"/>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -3877,11 +3755,7 @@
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K102" t="inlineStr"/>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -3914,11 +3788,7 @@
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K103" t="inlineStr"/>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -3951,11 +3821,7 @@
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K104" t="inlineStr"/>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -3988,11 +3854,7 @@
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K105" t="inlineStr"/>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -4025,11 +3887,7 @@
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K106" t="inlineStr"/>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4062,11 +3920,7 @@
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K107" t="inlineStr"/>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4099,11 +3953,7 @@
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K108" t="inlineStr"/>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4136,11 +3986,7 @@
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K109" t="inlineStr"/>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4173,11 +4019,7 @@
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K110" t="inlineStr"/>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4210,11 +4052,7 @@
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K111" t="inlineStr"/>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4247,11 +4085,7 @@
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K112" t="inlineStr"/>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4284,11 +4118,7 @@
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K113" t="inlineStr"/>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4321,11 +4151,7 @@
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K114" t="inlineStr"/>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4358,11 +4184,7 @@
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K115" t="inlineStr"/>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4395,11 +4217,7 @@
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K116" t="inlineStr"/>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4432,11 +4250,7 @@
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K117" t="inlineStr"/>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4465,13 +4279,15 @@
         <v>-11498151.57883734</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
-      </c>
-      <c r="I118" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I118" t="n">
+        <v>0.4903</v>
+      </c>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L118" t="n">
@@ -4539,9 +4355,11 @@
         <v>-6930048.864337342</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
-      </c>
-      <c r="I120" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I120" t="n">
+        <v>0.4809</v>
+      </c>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr">
         <is>
@@ -5427,9 +5245,11 @@
         <v>-9954707.852057375</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
-      </c>
-      <c r="I144" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I144" t="n">
+        <v>0.4803</v>
+      </c>
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr">
         <is>
@@ -5464,9 +5284,11 @@
         <v>-10529913.85205738</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
-      </c>
-      <c r="I145" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I145" t="n">
+        <v>0.4803</v>
+      </c>
       <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr">
         <is>
@@ -5501,9 +5323,11 @@
         <v>-10529913.85205738</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
-      </c>
-      <c r="I146" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I146" t="n">
+        <v>0.4802</v>
+      </c>
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr">
         <is>
@@ -5538,9 +5362,11 @@
         <v>-10529913.85205738</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
-      </c>
-      <c r="I147" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I147" t="n">
+        <v>0.4802</v>
+      </c>
       <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr">
         <is>
@@ -5575,9 +5401,11 @@
         <v>-10529913.85205738</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
-      </c>
-      <c r="I148" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I148" t="n">
+        <v>0.4802</v>
+      </c>
       <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr">
         <is>
@@ -5612,9 +5440,11 @@
         <v>-10529913.85205738</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
-      </c>
-      <c r="I149" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I149" t="n">
+        <v>0.4802</v>
+      </c>
       <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr">
         <is>
@@ -5649,9 +5479,11 @@
         <v>-10529913.85205738</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
-      </c>
-      <c r="I150" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I150" t="n">
+        <v>0.4802</v>
+      </c>
       <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr">
         <is>
@@ -5686,9 +5518,11 @@
         <v>-10529913.85205738</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
-      </c>
-      <c r="I151" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I151" t="n">
+        <v>0.4802</v>
+      </c>
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr">
         <is>
@@ -5723,9 +5557,11 @@
         <v>-10451759.05055737</v>
       </c>
       <c r="H152" t="n">
-        <v>0</v>
-      </c>
-      <c r="I152" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I152" t="n">
+        <v>0.4802</v>
+      </c>
       <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr">
         <is>
@@ -5760,9 +5596,11 @@
         <v>-10456401.49185737</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
-      </c>
-      <c r="I153" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I153" t="n">
+        <v>0.4884</v>
+      </c>
       <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr">
         <is>
@@ -5797,9 +5635,11 @@
         <v>-11525529.02655737</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
-      </c>
-      <c r="I154" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I154" t="n">
+        <v>0.4877</v>
+      </c>
       <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr">
         <is>
@@ -5834,9 +5674,11 @@
         <v>-11338459.20465737</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
-      </c>
-      <c r="I155" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I155" t="n">
+        <v>0.4802</v>
+      </c>
       <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr">
         <is>
@@ -5871,9 +5713,11 @@
         <v>-11760948.74175737</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
-      </c>
-      <c r="I156" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I156" t="n">
+        <v>0.4882</v>
+      </c>
       <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr">
         <is>
@@ -5908,9 +5752,11 @@
         <v>-11759130.74175737</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
-      </c>
-      <c r="I157" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I157" t="n">
+        <v>0.4871</v>
+      </c>
       <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr">
         <is>
@@ -5945,9 +5791,11 @@
         <v>-11874801.74175737</v>
       </c>
       <c r="H158" t="n">
-        <v>0</v>
-      </c>
-      <c r="I158" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I158" t="n">
+        <v>0.4884</v>
+      </c>
       <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr">
         <is>
@@ -5982,9 +5830,11 @@
         <v>-11824801.74175737</v>
       </c>
       <c r="H159" t="n">
-        <v>0</v>
-      </c>
-      <c r="I159" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I159" t="n">
+        <v>0.4871</v>
+      </c>
       <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr">
         <is>
@@ -6019,9 +5869,11 @@
         <v>-11836962.74175737</v>
       </c>
       <c r="H160" t="n">
-        <v>0</v>
-      </c>
-      <c r="I160" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I160" t="n">
+        <v>0.4884</v>
+      </c>
       <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr">
         <is>
@@ -6056,9 +5908,11 @@
         <v>-11836962.74175737</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
-      </c>
-      <c r="I161" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I161" t="n">
+        <v>0.488</v>
+      </c>
       <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr">
         <is>
@@ -6093,9 +5947,11 @@
         <v>-11836962.74175737</v>
       </c>
       <c r="H162" t="n">
-        <v>0</v>
-      </c>
-      <c r="I162" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I162" t="n">
+        <v>0.488</v>
+      </c>
       <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr">
         <is>
@@ -6130,9 +5986,11 @@
         <v>-11836962.74175737</v>
       </c>
       <c r="H163" t="n">
-        <v>0</v>
-      </c>
-      <c r="I163" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I163" t="n">
+        <v>0.488</v>
+      </c>
       <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr">
         <is>
@@ -6167,9 +6025,11 @@
         <v>-10869473.19375737</v>
       </c>
       <c r="H164" t="n">
-        <v>0</v>
-      </c>
-      <c r="I164" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I164" t="n">
+        <v>0.488</v>
+      </c>
       <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr">
         <is>
@@ -6204,9 +6064,11 @@
         <v>-10869473.19375737</v>
       </c>
       <c r="H165" t="n">
-        <v>0</v>
-      </c>
-      <c r="I165" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I165" t="n">
+        <v>0.4884</v>
+      </c>
       <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr">
         <is>
@@ -6241,9 +6103,11 @@
         <v>-10900533.19375737</v>
       </c>
       <c r="H166" t="n">
-        <v>0</v>
-      </c>
-      <c r="I166" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I166" t="n">
+        <v>0.4884</v>
+      </c>
       <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr">
         <is>
@@ -6278,9 +6142,11 @@
         <v>-10900533.19375737</v>
       </c>
       <c r="H167" t="n">
-        <v>0</v>
-      </c>
-      <c r="I167" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I167" t="n">
+        <v>0.488</v>
+      </c>
       <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr">
         <is>
@@ -6315,9 +6181,11 @@
         <v>-10900533.19375737</v>
       </c>
       <c r="H168" t="n">
-        <v>0</v>
-      </c>
-      <c r="I168" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I168" t="n">
+        <v>0.488</v>
+      </c>
       <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr">
         <is>
@@ -6352,9 +6220,11 @@
         <v>-10900533.19375737</v>
       </c>
       <c r="H169" t="n">
-        <v>0</v>
-      </c>
-      <c r="I169" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I169" t="n">
+        <v>0.488</v>
+      </c>
       <c r="J169" t="inlineStr"/>
       <c r="K169" t="inlineStr">
         <is>
@@ -6389,9 +6259,11 @@
         <v>-10900533.19375737</v>
       </c>
       <c r="H170" t="n">
-        <v>0</v>
-      </c>
-      <c r="I170" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I170" t="n">
+        <v>0.488</v>
+      </c>
       <c r="J170" t="inlineStr"/>
       <c r="K170" t="inlineStr">
         <is>
@@ -6426,9 +6298,11 @@
         <v>-10433827.29375737</v>
       </c>
       <c r="H171" t="n">
-        <v>0</v>
-      </c>
-      <c r="I171" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I171" t="n">
+        <v>0.488</v>
+      </c>
       <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr">
         <is>
@@ -6463,9 +6337,11 @@
         <v>-10530557.29375737</v>
       </c>
       <c r="H172" t="n">
-        <v>0</v>
-      </c>
-      <c r="I172" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I172" t="n">
+        <v>0.4964</v>
+      </c>
       <c r="J172" t="inlineStr"/>
       <c r="K172" t="inlineStr">
         <is>
@@ -6500,9 +6376,11 @@
         <v>-10530557.29375737</v>
       </c>
       <c r="H173" t="n">
-        <v>0</v>
-      </c>
-      <c r="I173" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I173" t="n">
+        <v>0.488</v>
+      </c>
       <c r="J173" t="inlineStr"/>
       <c r="K173" t="inlineStr">
         <is>
@@ -6537,9 +6415,11 @@
         <v>-10515154.29375737</v>
       </c>
       <c r="H174" t="n">
-        <v>0</v>
-      </c>
-      <c r="I174" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I174" t="n">
+        <v>0.488</v>
+      </c>
       <c r="J174" t="inlineStr"/>
       <c r="K174" t="inlineStr">
         <is>
@@ -6574,9 +6454,11 @@
         <v>-10516972.29375737</v>
       </c>
       <c r="H175" t="n">
-        <v>0</v>
-      </c>
-      <c r="I175" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I175" t="n">
+        <v>0.4987</v>
+      </c>
       <c r="J175" t="inlineStr"/>
       <c r="K175" t="inlineStr">
         <is>
@@ -6611,9 +6493,11 @@
         <v>-8702270.845157374</v>
       </c>
       <c r="H176" t="n">
-        <v>0</v>
-      </c>
-      <c r="I176" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I176" t="n">
+        <v>0.4881</v>
+      </c>
       <c r="J176" t="inlineStr"/>
       <c r="K176" t="inlineStr">
         <is>
@@ -6648,9 +6532,11 @@
         <v>-8704088.845157374</v>
       </c>
       <c r="H177" t="n">
-        <v>0</v>
-      </c>
-      <c r="I177" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I177" t="n">
+        <v>0.4987</v>
+      </c>
       <c r="J177" t="inlineStr"/>
       <c r="K177" t="inlineStr">
         <is>
@@ -6685,9 +6571,11 @@
         <v>-8702270.845157374</v>
       </c>
       <c r="H178" t="n">
-        <v>0</v>
-      </c>
-      <c r="I178" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I178" t="n">
+        <v>0.4986</v>
+      </c>
       <c r="J178" t="inlineStr"/>
       <c r="K178" t="inlineStr">
         <is>
@@ -6722,9 +6610,11 @@
         <v>-8706582.342057373</v>
       </c>
       <c r="H179" t="n">
-        <v>0</v>
-      </c>
-      <c r="I179" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I179" t="n">
+        <v>0.4987</v>
+      </c>
       <c r="J179" t="inlineStr"/>
       <c r="K179" t="inlineStr">
         <is>
@@ -6759,9 +6649,11 @@
         <v>-8706582.342057373</v>
       </c>
       <c r="H180" t="n">
-        <v>0</v>
-      </c>
-      <c r="I180" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I180" t="n">
+        <v>0.4983</v>
+      </c>
       <c r="J180" t="inlineStr"/>
       <c r="K180" t="inlineStr">
         <is>
@@ -6796,9 +6688,11 @@
         <v>-8763582.342057373</v>
       </c>
       <c r="H181" t="n">
-        <v>0</v>
-      </c>
-      <c r="I181" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I181" t="n">
+        <v>0.4983</v>
+      </c>
       <c r="J181" t="inlineStr"/>
       <c r="K181" t="inlineStr">
         <is>
@@ -6833,9 +6727,11 @@
         <v>-8765400.342057373</v>
       </c>
       <c r="H182" t="n">
-        <v>0</v>
-      </c>
-      <c r="I182" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I182" t="n">
+        <v>0.498</v>
+      </c>
       <c r="J182" t="inlineStr"/>
       <c r="K182" t="inlineStr">
         <is>
@@ -6870,9 +6766,11 @@
         <v>-8795400.342057373</v>
       </c>
       <c r="H183" t="n">
-        <v>0</v>
-      </c>
-      <c r="I183" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I183" t="n">
+        <v>0.4979</v>
+      </c>
       <c r="J183" t="inlineStr"/>
       <c r="K183" t="inlineStr">
         <is>
@@ -6907,9 +6805,11 @@
         <v>-7737365.978257373</v>
       </c>
       <c r="H184" t="n">
-        <v>0</v>
-      </c>
-      <c r="I184" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I184" t="n">
+        <v>0.4978</v>
+      </c>
       <c r="J184" t="inlineStr"/>
       <c r="K184" t="inlineStr">
         <is>
@@ -6944,9 +6844,11 @@
         <v>-7022203.207157373</v>
       </c>
       <c r="H185" t="n">
-        <v>0</v>
-      </c>
-      <c r="I185" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I185" t="n">
+        <v>0.4988</v>
+      </c>
       <c r="J185" t="inlineStr"/>
       <c r="K185" t="inlineStr">
         <is>
@@ -6981,9 +6883,11 @@
         <v>-6922203.207157373</v>
       </c>
       <c r="H186" t="n">
-        <v>0</v>
-      </c>
-      <c r="I186" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I186" t="n">
+        <v>0.5</v>
+      </c>
       <c r="J186" t="inlineStr"/>
       <c r="K186" t="inlineStr">
         <is>
@@ -7018,9 +6922,11 @@
         <v>-6922203.207157373</v>
       </c>
       <c r="H187" t="n">
-        <v>0</v>
-      </c>
-      <c r="I187" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I187" t="n">
+        <v>0.5041</v>
+      </c>
       <c r="J187" t="inlineStr"/>
       <c r="K187" t="inlineStr">
         <is>
@@ -7123,7 +7029,7 @@
         <v>-6925290.217157373</v>
       </c>
       <c r="H190" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
@@ -7156,7 +7062,7 @@
         <v>-6925290.217157373</v>
       </c>
       <c r="H191" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
@@ -7189,7 +7095,7 @@
         <v>-7132461.924057373</v>
       </c>
       <c r="H192" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
@@ -7288,7 +7194,7 @@
         <v>-12470804.83565737</v>
       </c>
       <c r="H195" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
@@ -7321,7 +7227,7 @@
         <v>-12470804.83565737</v>
       </c>
       <c r="H196" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
